--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="148">
   <si>
     <t>NFR category</t>
   </si>
@@ -287,9 +287,6 @@
     <t>The Serbian Business Registers Agency</t>
   </si>
   <si>
-    <t>Domestic aviation airfileds</t>
-  </si>
-  <si>
     <t>1. Public Enterprise “Roads of Serbia”                2. Public Enterprise “Roads of Serbia”                3. Open Street Maps</t>
   </si>
   <si>
@@ -465,32 +462,17 @@
     <t xml:space="preserve">1. International aviation airports                                             2. The number of passengers </t>
   </si>
   <si>
-    <t>1. The Serbian Business Registers Agency                                 2. The official airport business report</t>
+    <t>Domestic aviation airfields</t>
+  </si>
+  <si>
+    <t>The official domestic aviation airport list</t>
+  </si>
+  <si>
+    <t>The official airport business report</t>
   </si>
   <si>
     <r>
-      <t>1.  https://apr.gov.rs/home.1435.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       2. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://en.wikipedia.org/wiki/Belgrade_Nikola_Tesla_Airport</t>
+      <t>https://en.wikipedia.org/wiki/Belgrade_Nikola_Tesla_Airport</t>
     </r>
     <r>
       <rPr>
@@ -513,6 +495,9 @@
       </rPr>
       <t>https://nis-airport.com/en/traffic-figures/</t>
     </r>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_airports_in_Serbia</t>
   </si>
 </sst>
 </file>
@@ -652,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -954,19 +939,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1266,7 +1238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1385,9 +1357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1430,28 +1399,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1460,55 +1426,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,13 +1522,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,28 +1561,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,14 +1591,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1643,9 +1609,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1689,6 +1652,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1979,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,61 +1972,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="123"/>
+    </row>
+    <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="126"/>
-    </row>
-    <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="58" t="s">
+      <c r="K2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="L2" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>117</v>
+      <c r="N2" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="137" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2078,19 +2047,19 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="J3" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="26"/>
-      <c r="N3" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="69"/>
+      <c r="N3" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="141"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2109,19 +2078,19 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
+      <c r="J4" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
       <c r="M4" s="27"/>
-      <c r="N4" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" s="71"/>
+      <c r="N4" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="141"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="9" t="s">
         <v>69</v>
       </c>
@@ -2140,19 +2109,19 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="J5" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="27"/>
-      <c r="N5" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O5" s="71"/>
+      <c r="N5" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="141"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="9" t="s">
         <v>70</v>
       </c>
@@ -2171,19 +2140,19 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
+      <c r="J6" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
       <c r="M6" s="27"/>
-      <c r="N6" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O6" s="71"/>
+      <c r="N6" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="141"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2202,50 +2171,50 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="J7" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="27"/>
-      <c r="N7" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="71"/>
+      <c r="N7" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="141"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="44" t="s">
+      <c r="C8" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" s="73"/>
+      <c r="J8" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="127" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2272,19 +2241,19 @@
       <c r="I9" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
+      <c r="J9" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="69"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="131"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="13" t="s">
         <v>76</v>
       </c>
@@ -2309,19 +2278,19 @@
       <c r="I10" s="18">
         <v>2015</v>
       </c>
-      <c r="J10" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
+      <c r="J10" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="71"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>68</v>
@@ -2344,17 +2313,17 @@
       <c r="I11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" s="88"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="86"/>
       <c r="M11" s="32"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="71"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="14" t="s">
         <v>77</v>
       </c>
@@ -2379,17 +2348,17 @@
       <c r="I12" s="34">
         <v>2015</v>
       </c>
-      <c r="J12" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
+      <c r="J12" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="35"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="73"/>
-    </row>
-    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="133" t="s">
+      <c r="N12" s="62"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="130" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -2407,28 +2376,28 @@
       <c r="F13" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="115" t="s">
+      <c r="G13" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="117" t="s">
-        <v>145</v>
+      <c r="J13" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="114" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -2445,27 +2414,27 @@
         <v>68</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="I14" s="16">
         <v>2019</v>
       </c>
-      <c r="J14" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="114" t="s">
-        <v>141</v>
+      <c r="J14" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="140" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -2482,27 +2451,27 @@
         <v>68</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="65"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -2519,27 +2488,27 @@
         <v>68</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" s="70"/>
-      <c r="O16" s="65"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -2556,27 +2525,27 @@
         <v>68</v>
       </c>
       <c r="G17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="70"/>
-      <c r="O17" s="65"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -2593,27 +2562,27 @@
         <v>68</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N18" s="70"/>
-      <c r="O18" s="65"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -2630,27 +2599,27 @@
         <v>68</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N19" s="70"/>
-      <c r="O19" s="65"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -2667,27 +2636,27 @@
         <v>68</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N20" s="70"/>
-      <c r="O20" s="65"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -2704,27 +2673,27 @@
         <v>68</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N21" s="70"/>
-      <c r="O21" s="65"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -2741,27 +2710,27 @@
         <v>68</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="65"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -2778,25 +2747,25 @@
         <v>68</v>
       </c>
       <c r="G23" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="I23" s="15">
         <v>2019</v>
       </c>
-      <c r="J23" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="65"/>
+      <c r="J23" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="134"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -2813,101 +2782,101 @@
         <v>68</v>
       </c>
       <c r="G24" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="40">
+        <v>2019</v>
+      </c>
+      <c r="J24" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="65"/>
+    </row>
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="41">
-        <v>2019</v>
-      </c>
-      <c r="J24" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="67"/>
-    </row>
-    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="43" t="s">
+      <c r="C25" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="82"/>
+      <c r="K25" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="82"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="67"/>
+    </row>
+    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="133"/>
+      <c r="B26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="72"/>
+      <c r="K26" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="72"/>
+      <c r="M26" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N26" s="62"/>
+      <c r="O26" s="69"/>
+    </row>
+    <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="133"/>
+      <c r="B27" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="84"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="69"/>
-    </row>
-    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
-      <c r="B26" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L26" s="74"/>
-      <c r="M26" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="N26" s="64"/>
-      <c r="O26" s="71"/>
-    </row>
-    <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
-      <c r="B27" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>68</v>
@@ -2930,19 +2899,19 @@
       <c r="I27" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="M27" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" s="64"/>
-      <c r="O27" s="71"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="62"/>
+      <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="137"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -2958,28 +2927,28 @@
       <c r="F28" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="85"/>
-      <c r="K28" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L28" s="85"/>
-      <c r="M28" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="66"/>
-      <c r="O28" s="73"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="83"/>
+      <c r="M28" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="64"/>
+      <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="118" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3000,21 +2969,21 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
+      <c r="J29" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
       <c r="M29" s="26"/>
-      <c r="N29" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="69"/>
+      <c r="N29" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="122"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>67</v>
@@ -3031,21 +3000,21 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
+      <c r="J30" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
       <c r="M30" s="27"/>
-      <c r="N30" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O30" s="71"/>
+      <c r="N30" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="122"/>
-      <c r="B31" s="61" t="s">
-        <v>108</v>
+      <c r="A31" s="119"/>
+      <c r="B31" s="59" t="s">
+        <v>107</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>67</v>
@@ -3062,21 +3031,21 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
+      <c r="J31" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
       <c r="M31" s="27"/>
-      <c r="N31" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O31" s="71"/>
+      <c r="N31" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="122"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>67</v>
@@ -3093,21 +3062,21 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
+      <c r="J32" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
       <c r="M32" s="27"/>
-      <c r="N32" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32" s="71"/>
+      <c r="N32" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="122"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>67</v>
@@ -3124,21 +3093,21 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
+      <c r="J33" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
       <c r="M33" s="27"/>
-      <c r="N33" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O33" s="71"/>
+      <c r="N33" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="122"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>67</v>
@@ -3155,19 +3124,19 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
+      <c r="J34" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="27"/>
-      <c r="N34" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O34" s="71"/>
+      <c r="N34" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="122"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -3186,19 +3155,19 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
+      <c r="J35" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
       <c r="M35" s="27"/>
-      <c r="N35" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O35" s="71"/>
+      <c r="N35" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="122"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -3215,29 +3184,29 @@
         <v>68</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="1">
         <v>2019</v>
       </c>
-      <c r="J36" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
+      <c r="J36" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
       <c r="M36" s="27"/>
-      <c r="N36" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="O36" s="62" t="s">
-        <v>118</v>
+      <c r="N36" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="123"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -3262,22 +3231,22 @@
       <c r="I37" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="M37" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="N37" s="66"/>
-      <c r="O37" s="73"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M37" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="64"/>
+      <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="52" t="s">
+      <c r="A38" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -3295,57 +3264,57 @@
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
-      <c r="J38" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
+      <c r="J38" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
       <c r="M38" s="37"/>
-      <c r="N38" s="76" t="s">
+      <c r="N38" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O38" s="67"/>
+    </row>
+    <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="116"/>
+      <c r="B39" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="O38" s="69"/>
-    </row>
-    <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
-      <c r="B39" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J39" s="94"/>
-      <c r="K39" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L39" s="94"/>
-      <c r="M39" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N39" s="64"/>
-      <c r="O39" s="71"/>
+      <c r="H39" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="92"/>
+      <c r="K39" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L39" s="92"/>
+      <c r="M39" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="62"/>
+      <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -3369,18 +3338,18 @@
       <c r="I40" s="16">
         <v>2015</v>
       </c>
-      <c r="J40" s="88"/>
-      <c r="K40" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L40" s="88"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="86"/>
       <c r="M40" s="32"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="71"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="116"/>
+      <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -3395,29 +3364,29 @@
       <c r="F41" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="94"/>
-      <c r="K41" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L41" s="94"/>
-      <c r="M41" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N41" s="64"/>
-      <c r="O41" s="71"/>
+      <c r="G41" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="92"/>
+      <c r="K41" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L41" s="92"/>
+      <c r="M41" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N41" s="62"/>
+      <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="116"/>
+      <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -3441,18 +3410,18 @@
       <c r="I42" s="16">
         <v>2015</v>
       </c>
-      <c r="J42" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
+      <c r="J42" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
       <c r="M42" s="32"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="71"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="116"/>
+      <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -3476,18 +3445,18 @@
       <c r="I43" s="16">
         <v>2015</v>
       </c>
-      <c r="J43" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
+      <c r="J43" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
       <c r="M43" s="32"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="71"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
-      <c r="B44" s="53" t="s">
+      <c r="A44" s="116"/>
+      <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -3511,18 +3480,18 @@
       <c r="I44" s="16">
         <v>2015</v>
       </c>
-      <c r="J44" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
+      <c r="J44" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
       <c r="M44" s="32"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="71"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="119"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="116"/>
+      <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -3537,327 +3506,327 @@
       <c r="F45" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="92"/>
+      <c r="K45" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" s="92"/>
+      <c r="M45" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" s="62"/>
+      <c r="O45" s="69"/>
+    </row>
+    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="116"/>
+      <c r="B46" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" s="92"/>
+      <c r="K46" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" s="92"/>
+      <c r="M46" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" s="62"/>
+      <c r="O46" s="69"/>
+    </row>
+    <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="116"/>
+      <c r="B47" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="92"/>
+      <c r="K47" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L47" s="92"/>
+      <c r="M47" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N47" s="62"/>
+      <c r="O47" s="69"/>
+    </row>
+    <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="116"/>
+      <c r="B48" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" s="92"/>
+      <c r="K48" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L48" s="92"/>
+      <c r="M48" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" s="62"/>
+      <c r="O48" s="69"/>
+    </row>
+    <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="116"/>
+      <c r="B49" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J45" s="94"/>
-      <c r="K45" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L45" s="94"/>
-      <c r="M45" s="47" t="s">
+      <c r="C49" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" s="92"/>
+      <c r="K49" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L49" s="92"/>
+      <c r="M49" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N49" s="62"/>
+      <c r="O49" s="69"/>
+    </row>
+    <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="117"/>
+      <c r="B50" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="87"/>
+      <c r="K50" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L50" s="87"/>
+      <c r="M50" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="N50" s="64"/>
+      <c r="O50" s="71"/>
+    </row>
+    <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="N45" s="64"/>
-      <c r="O45" s="71"/>
-    </row>
-    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
-      <c r="B46" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I46" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J46" s="94"/>
-      <c r="K46" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L46" s="94"/>
-      <c r="M46" s="47" t="s">
+      <c r="H51" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="N51" s="61"/>
+      <c r="O51" s="67"/>
+    </row>
+    <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="136"/>
+      <c r="B52" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="N46" s="64"/>
-      <c r="O46" s="71"/>
-    </row>
-    <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
-      <c r="B47" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J47" s="94"/>
-      <c r="K47" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L47" s="94"/>
-      <c r="M47" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N47" s="64"/>
-      <c r="O47" s="71"/>
-    </row>
-    <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="119"/>
-      <c r="B48" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J48" s="94"/>
-      <c r="K48" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L48" s="94"/>
-      <c r="M48" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N48" s="64"/>
-      <c r="O48" s="71"/>
-    </row>
-    <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
-      <c r="B49" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J49" s="94"/>
-      <c r="K49" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L49" s="94"/>
-      <c r="M49" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="N49" s="64"/>
-      <c r="O49" s="71"/>
-    </row>
-    <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="120"/>
-      <c r="B50" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="J50" s="89"/>
-      <c r="K50" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L50" s="89"/>
-      <c r="M50" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="N50" s="66"/>
-      <c r="O50" s="73"/>
-    </row>
-    <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" s="48" t="s">
+      <c r="H52" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="N52" s="62"/>
+      <c r="O52" s="69"/>
+    </row>
+    <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="136"/>
+      <c r="B53" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H51" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="N51" s="63"/>
-      <c r="O51" s="69"/>
-    </row>
-    <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="139"/>
-      <c r="B52" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J52" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K52" s="74"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="N52" s="64"/>
-      <c r="O52" s="71"/>
-    </row>
-    <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="139"/>
-      <c r="B53" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="H53" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J53" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
+        <v>102</v>
+      </c>
+      <c r="J53" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
       <c r="M53" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="N53" s="64"/>
-      <c r="O53" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="N53" s="62"/>
+      <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="139"/>
-      <c r="B54" s="51" t="s">
+      <c r="A54" s="136"/>
+      <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -3875,20 +3844,20 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K54" s="74"/>
-      <c r="L54" s="74"/>
+      <c r="J54" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
       <c r="M54" s="27"/>
-      <c r="N54" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O54" s="71"/>
+      <c r="N54" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="139"/>
-      <c r="B55" s="51" t="s">
+      <c r="A55" s="136"/>
+      <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -3904,28 +3873,28 @@
         <v>68</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J55" s="74"/>
-      <c r="K55" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L55" s="74"/>
+        <v>102</v>
+      </c>
+      <c r="J55" s="72"/>
+      <c r="K55" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L55" s="72"/>
       <c r="M55" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="N55" s="64"/>
-      <c r="O55" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="N55" s="62"/>
+      <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="139"/>
-      <c r="B56" s="51" t="s">
+      <c r="A56" s="136"/>
+      <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -3941,28 +3910,28 @@
         <v>68</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J56" s="74"/>
-      <c r="K56" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="L56" s="74"/>
+        <v>102</v>
+      </c>
+      <c r="J56" s="72"/>
+      <c r="K56" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="L56" s="72"/>
       <c r="M56" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="N56" s="64"/>
-      <c r="O56" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="N56" s="62"/>
+      <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="139"/>
-      <c r="B57" s="51" t="s">
+      <c r="A57" s="136"/>
+      <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -3980,20 +3949,20 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
+      <c r="J57" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
       <c r="M57" s="27"/>
-      <c r="N57" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="O57" s="71"/>
+      <c r="N57" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="139"/>
-      <c r="B58" s="51" t="s">
+      <c r="A58" s="136"/>
+      <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -4009,28 +3978,28 @@
         <v>68</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J58" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
+        <v>102</v>
+      </c>
+      <c r="J58" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
       <c r="M58" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="N58" s="64"/>
-      <c r="O58" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="N58" s="62"/>
+      <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="139"/>
-      <c r="B59" s="51" t="s">
+      <c r="A59" s="136"/>
+      <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -4046,28 +4015,28 @@
         <v>68</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J59" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K59" s="74"/>
-      <c r="L59" s="74"/>
+        <v>102</v>
+      </c>
+      <c r="J59" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
       <c r="M59" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="N59" s="64"/>
-      <c r="O59" s="71"/>
+        <v>104</v>
+      </c>
+      <c r="N59" s="62"/>
+      <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="139"/>
-      <c r="B60" s="51" t="s">
+      <c r="A60" s="136"/>
+      <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -4091,20 +4060,20 @@
       <c r="I60" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="M60" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="N60" s="64"/>
-      <c r="O60" s="71"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M60" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="N60" s="62"/>
+      <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="139"/>
-      <c r="B61" s="51" t="s">
+      <c r="A61" s="136"/>
+      <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -4128,20 +4097,20 @@
       <c r="I61" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="M61" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="N61" s="64"/>
-      <c r="O61" s="71"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M61" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="N61" s="62"/>
+      <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="139"/>
-      <c r="B62" s="51" t="s">
+      <c r="A62" s="136"/>
+      <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="10" t="s">
@@ -4165,20 +4134,20 @@
       <c r="I62" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="M62" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="N62" s="64"/>
-      <c r="O62" s="71"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M62" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="N62" s="62"/>
+      <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="139"/>
-      <c r="B63" s="51" t="s">
+      <c r="A63" s="136"/>
+      <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -4202,59 +4171,59 @@
       <c r="I63" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="M63" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="N63" s="64"/>
-      <c r="O63" s="71"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="M63" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="N63" s="62"/>
+      <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="139"/>
-      <c r="B64" s="100" t="s">
+      <c r="A64" s="136"/>
+      <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="45" t="s">
+      <c r="C64" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H64" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="45" t="s">
+      <c r="I64" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="M64" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N64" s="66"/>
-      <c r="O64" s="71"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="M64" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="N64" s="64"/>
+      <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="127" t="s">
+      <c r="A65" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="79" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="25" t="s">
@@ -4278,36 +4247,36 @@
       <c r="I65" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="J65" s="86"/>
-      <c r="K65" s="86"/>
-      <c r="L65" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="M65" s="97" t="s">
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M65" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="N65" s="66"/>
+      <c r="O65" s="108"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="125"/>
+      <c r="B66" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="N65" s="68"/>
-      <c r="O65" s="110"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="128"/>
-      <c r="B66" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>84</v>
@@ -4315,20 +4284,20 @@
       <c r="I66" s="16">
         <v>2019</v>
       </c>
-      <c r="J66" s="96" t="s">
+      <c r="J66" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="K66" s="86"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="K66" s="88"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="111" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="128"/>
-      <c r="B67" s="82" t="s">
+      <c r="A67" s="125"/>
+      <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -4344,7 +4313,7 @@
         <v>68</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>81</v>
@@ -4352,18 +4321,18 @@
       <c r="I67" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J67" s="88"/>
-      <c r="K67" s="96" t="s">
-        <v>140</v>
+      <c r="J67" s="86"/>
+      <c r="K67" s="94" t="s">
+        <v>139</v>
       </c>
       <c r="L67" s="32"/>
-      <c r="M67" s="98"/>
-      <c r="N67" s="70"/>
-      <c r="O67" s="112"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="129"/>
-      <c r="B68" s="83" t="s">
+      <c r="A68" s="126"/>
+      <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="28" t="s">
@@ -4387,16 +4356,16 @@
       <c r="I68" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J68" s="93"/>
-      <c r="K68" s="93"/>
-      <c r="L68" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="M68" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="N68" s="72"/>
-      <c r="O68" s="113"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M68" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="N68" s="70"/>
+      <c r="O68" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,17 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Proxy data summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Hourly emissions - hypotesis" sheetId="2" r:id="rId2"/>
+    <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="152">
   <si>
     <t>NFR category</t>
   </si>
@@ -219,10 +221,6 @@
   </si>
   <si>
     <t>emission spatialized on areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subcategory 
-</t>
   </si>
   <si>
     <t>Comments</t>
@@ -499,12 +497,27 @@
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_airports_in_Serbia</t>
   </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +587,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -637,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1233,12 +1254,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,6 +1631,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1654,10 +1709,100 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1948,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,22 +2113,23 @@
     <col min="13" max="13" width="32.85546875" customWidth="1"/>
     <col min="14" max="14" width="50.28515625" customWidth="1"/>
     <col min="15" max="15" width="35.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="121" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="123"/>
+      <c r="J1" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="124"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>62</v>
@@ -1995,7 +2141,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>59</v>
@@ -2007,279 +2153,279 @@
         <v>61</v>
       </c>
       <c r="J2" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="L2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="57" t="s">
-        <v>138</v>
-      </c>
       <c r="M2" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N2" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O2" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="82"/>
       <c r="L3" s="82"/>
       <c r="M3" s="26"/>
       <c r="N3" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K4" s="72"/>
       <c r="L4" s="72"/>
       <c r="M4" s="27"/>
       <c r="N4" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K5" s="72"/>
       <c r="L5" s="72"/>
       <c r="M5" s="27"/>
       <c r="N5" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="72"/>
       <c r="M6" s="27"/>
       <c r="N6" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K7" s="72"/>
       <c r="L7" s="72"/>
       <c r="M7" s="27"/>
       <c r="N7" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="138"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" s="103"/>
       <c r="L8" s="103"/>
       <c r="M8" s="104"/>
       <c r="N8" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="129" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="H9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="I9" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>75</v>
-      </c>
       <c r="J9" s="93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
       <c r="M9" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N9" s="61"/>
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="I10" s="18">
         <v>2015</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K10" s="85"/>
       <c r="L10" s="85"/>
@@ -2288,34 +2434,34 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="J11" s="86"/>
       <c r="K11" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L11" s="86"/>
       <c r="M11" s="32"/>
@@ -2323,33 +2469,33 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="129"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="33" t="s">
+      <c r="H12" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="I12" s="34">
         <v>2015</v>
       </c>
       <c r="J12" s="107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K12" s="87"/>
       <c r="L12" s="87"/>
@@ -2358,478 +2504,478 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="132" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" s="112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K13" s="106"/>
       <c r="L13" s="106"/>
       <c r="M13" s="106"/>
-      <c r="N13" s="66"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="I14" s="16">
         <v>2019</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" s="86"/>
       <c r="L14" s="86"/>
       <c r="M14" s="86"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="140" t="s">
-        <v>147</v>
+      <c r="N14" s="69"/>
+      <c r="O14" s="116" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J15" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" s="72"/>
       <c r="L15" s="72"/>
-      <c r="M15" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="N15" s="68"/>
+      <c r="M15" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="69"/>
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J16" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K16" s="72"/>
       <c r="L16" s="72"/>
-      <c r="M16" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="N16" s="68"/>
+      <c r="M16" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="69"/>
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J17" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="72"/>
-      <c r="M17" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="N17" s="68"/>
+      <c r="M17" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="69"/>
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J18" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
-      <c r="M18" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="N18" s="68"/>
+      <c r="M18" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="69"/>
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J19" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
-      <c r="M19" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="68"/>
+      <c r="M19" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="69"/>
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J20" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
-      <c r="M20" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="N20" s="68"/>
+      <c r="M20" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="69"/>
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J21" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K21" s="72"/>
       <c r="L21" s="72"/>
-      <c r="M21" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="N21" s="68"/>
+      <c r="M21" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="69"/>
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J22" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
-      <c r="M22" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="N22" s="68"/>
+      <c r="M22" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="69"/>
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="I23" s="15">
         <v>2019</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K23" s="89"/>
       <c r="L23" s="89"/>
       <c r="M23" s="89"/>
-      <c r="N23" s="68"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="131"/>
+      <c r="A24" s="133"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="40">
         <v>2019</v>
       </c>
       <c r="J24" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K24" s="90"/>
       <c r="L24" s="90"/>
       <c r="M24" s="90"/>
-      <c r="N24" s="70"/>
+      <c r="N24" s="71"/>
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="134" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="I25" s="47" t="s">
         <v>96</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>97</v>
       </c>
       <c r="J25" s="82"/>
       <c r="K25" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L25" s="82"/>
       <c r="M25" s="26"/>
@@ -2837,510 +2983,510 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="H26" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="I26" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L26" s="72"/>
       <c r="M26" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N26" s="62"/>
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="133"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="I27" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="J27" s="85"/>
       <c r="K27" s="85"/>
       <c r="L27" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M27" s="73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N27" s="62"/>
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="134"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="J28" s="83"/>
       <c r="K28" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L28" s="83"/>
       <c r="M28" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N28" s="64"/>
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="120" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K29" s="82"/>
       <c r="L29" s="82"/>
       <c r="M29" s="26"/>
       <c r="N29" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K30" s="72"/>
       <c r="L30" s="72"/>
       <c r="M30" s="27"/>
       <c r="N30" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K31" s="72"/>
       <c r="L31" s="72"/>
       <c r="M31" s="27"/>
       <c r="N31" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K32" s="72"/>
       <c r="L32" s="72"/>
       <c r="M32" s="27"/>
       <c r="N32" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
       <c r="M33" s="27"/>
       <c r="N33" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K34" s="72"/>
       <c r="L34" s="72"/>
       <c r="M34" s="27"/>
       <c r="N34" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K35" s="72"/>
       <c r="L35" s="72"/>
       <c r="M35" s="27"/>
       <c r="N35" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="1">
         <v>2019</v>
       </c>
       <c r="J36" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K36" s="72"/>
       <c r="L36" s="72"/>
       <c r="M36" s="27"/>
       <c r="N36" s="74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="120"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="I37" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J37" s="91"/>
       <c r="K37" s="91"/>
       <c r="L37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M37" s="75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N37" s="64"/>
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="115" t="s">
-        <v>109</v>
+      <c r="A38" s="117" t="s">
+        <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K38" s="88"/>
       <c r="L38" s="88"/>
       <c r="M38" s="37"/>
       <c r="N38" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J39" s="92"/>
       <c r="K39" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L39" s="92"/>
       <c r="M39" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N39" s="62"/>
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="I40" s="16">
         <v>2015</v>
       </c>
       <c r="J40" s="86"/>
       <c r="K40" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L40" s="86"/>
       <c r="M40" s="32"/>
@@ -3348,70 +3494,70 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J41" s="92"/>
       <c r="K41" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L41" s="92"/>
       <c r="M41" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N41" s="62"/>
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="116"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="I42" s="16">
         <v>2015</v>
       </c>
       <c r="J42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K42" s="86"/>
       <c r="L42" s="86"/>
@@ -3420,33 +3566,33 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="116"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="I43" s="16">
         <v>2015</v>
       </c>
       <c r="J43" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K43" s="86"/>
       <c r="L43" s="86"/>
@@ -3455,33 +3601,33 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="116"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="I44" s="16">
         <v>2015</v>
       </c>
       <c r="J44" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K44" s="86"/>
       <c r="L44" s="86"/>
@@ -3490,840 +3636,840 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="116"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I45" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J45" s="92"/>
       <c r="K45" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L45" s="92"/>
       <c r="M45" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N45" s="62"/>
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="116"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J46" s="92"/>
       <c r="K46" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L46" s="92"/>
       <c r="M46" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N46" s="62"/>
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J47" s="92"/>
       <c r="K47" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L47" s="92"/>
       <c r="M47" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N47" s="62"/>
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="116"/>
+      <c r="A48" s="118"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I48" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J48" s="92"/>
       <c r="K48" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L48" s="92"/>
       <c r="M48" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N48" s="62"/>
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="116"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J49" s="92"/>
       <c r="K49" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L49" s="92"/>
       <c r="M49" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N49" s="62"/>
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="117"/>
+      <c r="A50" s="119"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J50" s="87"/>
       <c r="K50" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L50" s="87"/>
       <c r="M50" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N50" s="64"/>
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="135" t="s">
+      <c r="A51" s="137" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H51" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I51" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J51" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K51" s="82"/>
       <c r="L51" s="82"/>
       <c r="M51" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N51" s="61"/>
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="136"/>
+      <c r="A52" s="138"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J52" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K52" s="72"/>
       <c r="L52" s="72"/>
       <c r="M52" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N52" s="62"/>
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
+      <c r="A53" s="138"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J53" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K53" s="72"/>
       <c r="L53" s="72"/>
       <c r="M53" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N53" s="62"/>
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="136"/>
+      <c r="A54" s="138"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K54" s="72"/>
       <c r="L54" s="72"/>
       <c r="M54" s="27"/>
       <c r="N54" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="136"/>
+      <c r="A55" s="138"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J55" s="72"/>
       <c r="K55" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L55" s="72"/>
       <c r="M55" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N55" s="62"/>
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="136"/>
+      <c r="A56" s="138"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J56" s="72"/>
       <c r="K56" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L56" s="72"/>
       <c r="M56" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N56" s="62"/>
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
+      <c r="A57" s="138"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K57" s="72"/>
       <c r="L57" s="72"/>
       <c r="M57" s="27"/>
       <c r="N57" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="136"/>
+      <c r="A58" s="138"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J58" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K58" s="72"/>
       <c r="L58" s="72"/>
       <c r="M58" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N58" s="62"/>
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
+      <c r="A59" s="138"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J59" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K59" s="72"/>
       <c r="L59" s="72"/>
       <c r="M59" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N59" s="62"/>
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="136"/>
+      <c r="A60" s="138"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="I60" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="J60" s="85"/>
       <c r="K60" s="85"/>
       <c r="L60" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M60" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N60" s="62"/>
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="136"/>
+      <c r="A61" s="138"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G61" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H61" s="17" t="s">
+      <c r="I61" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="J61" s="85"/>
       <c r="K61" s="85"/>
       <c r="L61" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M61" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N61" s="62"/>
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="136"/>
+      <c r="A62" s="138"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G62" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H62" s="17" t="s">
+      <c r="I62" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="J62" s="85"/>
       <c r="K62" s="85"/>
       <c r="L62" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M62" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N62" s="62"/>
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="136"/>
+      <c r="A63" s="138"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G63" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H63" s="17" t="s">
+      <c r="I63" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="J63" s="85"/>
       <c r="K63" s="85"/>
       <c r="L63" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M63" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N63" s="62"/>
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="136"/>
+      <c r="A64" s="138"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G64" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="H64" s="44" t="s">
+      <c r="I64" s="44" t="s">
         <v>74</v>
-      </c>
-      <c r="I64" s="44" t="s">
-        <v>75</v>
       </c>
       <c r="J64" s="99"/>
       <c r="K64" s="99"/>
       <c r="L64" s="100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M64" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N64" s="64"/>
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="124" t="s">
+      <c r="A65" s="126" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G65" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="I65" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>75</v>
       </c>
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
       <c r="L65" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M65" s="95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N65" s="66"/>
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="125"/>
+      <c r="A66" s="127"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66" s="16">
         <v>2019</v>
       </c>
       <c r="J66" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K66" s="86"/>
       <c r="L66" s="32"/>
       <c r="M66" s="96"/>
       <c r="N66" s="68"/>
       <c r="O66" s="109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="125"/>
+      <c r="A67" s="127"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H67" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="J67" s="86"/>
       <c r="K67" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L67" s="32"/>
       <c r="M67" s="96"/>
@@ -4331,38 +4477,38 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="126"/>
+      <c r="A68" s="128"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G68" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H68" s="33" t="s">
+      <c r="I68" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J68" s="91"/>
       <c r="K68" s="91"/>
       <c r="L68" s="102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M68" s="97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N68" s="70"/>
       <c r="O68" s="111"/>
@@ -4388,4 +4534,486 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="171" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="171" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="171" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="172" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="140"/>
+      <c r="B4" s="142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="140"/>
+      <c r="B5" s="143" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="140"/>
+      <c r="B6" s="143" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="140"/>
+      <c r="B7" s="143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="144"/>
+      <c r="B8" s="145" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="130"/>
+      <c r="B10" s="147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="130"/>
+      <c r="B11" s="147" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="131"/>
+      <c r="B12" s="148" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="132"/>
+      <c r="B14" s="151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="132"/>
+      <c r="B15" s="151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="132"/>
+      <c r="B16" s="151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A17" s="132"/>
+      <c r="B17" s="151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A18" s="132"/>
+      <c r="B18" s="151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="132"/>
+      <c r="B19" s="151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="132"/>
+      <c r="B20" s="151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A21" s="132"/>
+      <c r="B21" s="151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="132"/>
+      <c r="B22" s="151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="132"/>
+      <c r="B23" s="151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="133"/>
+      <c r="B24" s="152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="153" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="135"/>
+      <c r="B26" s="154" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="135"/>
+      <c r="B27" s="154" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="136"/>
+      <c r="B28" s="155" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="121"/>
+      <c r="B30" s="157" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="121"/>
+      <c r="B31" s="158" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="121"/>
+      <c r="B32" s="157" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="121"/>
+      <c r="B33" s="157" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="121"/>
+      <c r="B34" s="157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="121"/>
+      <c r="B35" s="157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="121"/>
+      <c r="B36" s="157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="122"/>
+      <c r="B37" s="159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A38" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="160" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="118"/>
+      <c r="B39" s="161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A40" s="118"/>
+      <c r="B40" s="161" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A41" s="118"/>
+      <c r="B41" s="161" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="118"/>
+      <c r="B42" s="161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="118"/>
+      <c r="B43" s="161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="118"/>
+      <c r="B44" s="161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="118"/>
+      <c r="B45" s="161" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="118"/>
+      <c r="B46" s="161" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="118"/>
+      <c r="B47" s="161" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="118"/>
+      <c r="B48" s="161" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="118"/>
+      <c r="B49" s="161" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="119"/>
+      <c r="B50" s="162" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="163" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="138"/>
+      <c r="B52" s="164" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="138"/>
+      <c r="B53" s="164" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="138"/>
+      <c r="B54" s="164" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="138"/>
+      <c r="B55" s="164" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="138"/>
+      <c r="B56" s="164" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="138"/>
+      <c r="B57" s="164" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="138"/>
+      <c r="B58" s="164" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="138"/>
+      <c r="B59" s="164" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A60" s="138"/>
+      <c r="B60" s="164" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="138"/>
+      <c r="B61" s="164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="138"/>
+      <c r="B62" s="164" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A63" s="138"/>
+      <c r="B63" s="164" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="165"/>
+      <c r="B64" s="166" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A65" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="127"/>
+      <c r="B66" s="168" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="127"/>
+      <c r="B67" s="168" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="128"/>
+      <c r="B68" s="169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hourly emissions - hypotesis" sheetId="2" r:id="rId2"/>
     <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="173">
   <si>
     <t>NFR category</t>
   </si>
@@ -507,17 +507,80 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Equation</t>
-  </si>
-  <si>
-    <t>Activity</t>
+    <t>Calculation of hourly emissions - level of activity</t>
+  </si>
+  <si>
+    <t>Working days (WD)</t>
+  </si>
+  <si>
+    <t>Working time [08-16h] (WT0816)</t>
+  </si>
+  <si>
+    <t>Working time [16-24h] (WT1624)</t>
+  </si>
+  <si>
+    <t>Wotking time [00-24h] (WT0024)</t>
+  </si>
+  <si>
+    <t>Day light (DL)</t>
+  </si>
+  <si>
+    <t>Weekends (WE)</t>
+  </si>
+  <si>
+    <t>Rush hours [07-09h] (RH0709)</t>
+  </si>
+  <si>
+    <t>Rush hours [15-17h] (RH1517)</t>
+  </si>
+  <si>
+    <t>Public holidays (PH)</t>
+  </si>
+  <si>
+    <t>Seasons (SA)</t>
+  </si>
+  <si>
+    <t>Agriculture Seasons (SAAG)</t>
+  </si>
+  <si>
+    <t>Temperature (TEMP)</t>
+  </si>
+  <si>
+    <t>Sea level pressure (SLP)</t>
+  </si>
+  <si>
+    <t>Repair - overhaul period (RP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed Level of activity, given in the order. Hypotesis was obtained from  </t>
+  </si>
+  <si>
+    <t>Equation (HE - Hourly emissions)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Heating season (HS)</t>
+  </si>
+  <si>
+    <t>Working time for heating season [06-22h] (WT0624)</t>
+  </si>
+  <si>
+    <t>HE = WD + WT0024 + PH + 1/2*RP</t>
+  </si>
+  <si>
+    <t>HE = WD + WT0024 + WT0624 + PH + SA + HS + TEMP + RP</t>
+  </si>
+  <si>
+    <t>Number of Level of activity proxys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,8 +658,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,8 +728,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1255,29 +1332,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1287,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1637,6 +1736,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1709,100 +1871,100 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1814,6 +1976,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9AD6F8"/>
+      <color rgb="FFD6EEFC"/>
       <color rgb="FF0CFCF1"/>
     </mruColors>
   </colors>
@@ -2093,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2118,11 +2282,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="146"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2172,7 +2336,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="160" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2205,7 +2369,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
+      <c r="A4" s="161"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2236,7 +2400,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
+      <c r="A5" s="161"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -2267,7 +2431,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
+      <c r="A6" s="161"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -2298,7 +2462,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2493,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
+      <c r="A8" s="161"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -2360,7 +2524,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="150" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2399,7 +2563,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -2434,7 +2598,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -2469,7 +2633,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -2504,7 +2668,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="153" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -2543,7 +2707,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
+      <c r="A14" s="153"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -2580,7 +2744,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
+      <c r="A15" s="153"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2781,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
+      <c r="A16" s="153"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -2654,7 +2818,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
+      <c r="A17" s="153"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -2691,7 +2855,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
+      <c r="A18" s="153"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -2728,7 +2892,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
+      <c r="A19" s="153"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -2765,7 +2929,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -2802,7 +2966,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -2839,7 +3003,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -2876,7 +3040,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -2911,7 +3075,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="133"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -2946,7 +3110,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="155" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -2983,7 +3147,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
+      <c r="A26" s="156"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -3020,7 +3184,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
+      <c r="A27" s="156"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -3057,7 +3221,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="136"/>
+      <c r="A28" s="157"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -3094,7 +3258,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="141" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3127,7 +3291,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
+      <c r="A30" s="142"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -3158,7 +3322,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
+      <c r="A31" s="142"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -3189,7 +3353,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
+      <c r="A32" s="142"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -3220,7 +3384,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
+      <c r="A33" s="142"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -3251,7 +3415,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
+      <c r="A34" s="142"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -3282,7 +3446,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
+      <c r="A35" s="142"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3477,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
+      <c r="A36" s="142"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -3352,7 +3516,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="122"/>
+      <c r="A37" s="143"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -3389,7 +3553,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="138" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -3422,7 +3586,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="118"/>
+      <c r="A39" s="139"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -3459,7 +3623,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="118"/>
+      <c r="A40" s="139"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -3494,7 +3658,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="118"/>
+      <c r="A41" s="139"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -3531,7 +3695,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="118"/>
+      <c r="A42" s="139"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -3566,7 +3730,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="118"/>
+      <c r="A43" s="139"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -3601,7 +3765,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="118"/>
+      <c r="A44" s="139"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -3636,7 +3800,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="118"/>
+      <c r="A45" s="139"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -3673,7 +3837,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
+      <c r="A46" s="139"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -3710,7 +3874,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
+      <c r="A47" s="139"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -3747,7 +3911,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
+      <c r="A48" s="139"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -3784,7 +3948,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
+      <c r="A49" s="139"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -3821,7 +3985,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="119"/>
+      <c r="A50" s="140"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -3858,7 +4022,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="137" t="s">
+      <c r="A51" s="158" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -3897,7 +4061,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="138"/>
+      <c r="A52" s="159"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -3934,7 +4098,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="138"/>
+      <c r="A53" s="159"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -3971,7 +4135,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="138"/>
+      <c r="A54" s="159"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -4002,7 +4166,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="138"/>
+      <c r="A55" s="159"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -4039,7 +4203,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="138"/>
+      <c r="A56" s="159"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -4076,7 +4240,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="138"/>
+      <c r="A57" s="159"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -4107,7 +4271,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="138"/>
+      <c r="A58" s="159"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -4144,7 +4308,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="138"/>
+      <c r="A59" s="159"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -4181,7 +4345,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="138"/>
+      <c r="A60" s="159"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -4218,7 +4382,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="138"/>
+      <c r="A61" s="159"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -4255,7 +4419,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="138"/>
+      <c r="A62" s="159"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -4292,7 +4456,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="138"/>
+      <c r="A63" s="159"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -4329,7 +4493,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="138"/>
+      <c r="A64" s="159"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -4366,7 +4530,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="147" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -4405,7 +4569,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="127"/>
+      <c r="A66" s="148"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -4442,7 +4606,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="127"/>
+      <c r="A67" s="148"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -4477,7 +4641,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="128"/>
+      <c r="A68" s="149"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -4538,10 +4702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:W239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,448 +4715,5297 @@
     <col min="3" max="3" width="72.85546875" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="58.85546875" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" t="s">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="167" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="169"/>
+    </row>
+    <row r="2" spans="1:23" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="172" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="174" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="175" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="G2" s="176" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="176" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="176" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="176" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="176" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="176" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="176" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="176" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="176" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="176" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="176" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" s="176" t="s">
+        <v>161</v>
+      </c>
+      <c r="S2" s="176" t="s">
+        <v>162</v>
+      </c>
+      <c r="T2" s="176" t="s">
+        <v>163</v>
+      </c>
+      <c r="U2" s="177" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="178" t="s">
+        <v>166</v>
+      </c>
+      <c r="W2" s="192" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="182" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="183" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="O3" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="S3" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="U3" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="V3" s="190" t="s">
+        <v>171</v>
+      </c>
+      <c r="W3" s="193">
+        <f>COUNTIF(F3:U3,"X")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="O4" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="S4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="U4" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="V4" s="190" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" s="194">
+        <f>COUNTIF(F4:U4,"X")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="165"/>
+      <c r="B5" s="180" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="194">
+        <f t="shared" ref="W5:W8" si="0">COUNTIF(F5:U5,"X")</f>
         <v>0</v>
       </c>
-      <c r="B2" s="170" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="171" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="171" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="171" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="172" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="143" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="143" t="s">
+    </row>
+    <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="165"/>
+      <c r="B6" s="180" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="143" t="s">
+      <c r="C6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="194">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="165"/>
+      <c r="B7" s="180" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="144"/>
-      <c r="B8" s="145" t="s">
+      <c r="C7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="194">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="166"/>
+      <c r="B8" s="185" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="C8" s="186" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="191"/>
+      <c r="W8" s="195">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="179" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="147" t="s">
+      <c r="C9" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="170"/>
+      <c r="U9" s="170"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="189"/>
+    </row>
+    <row r="10" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="151"/>
+      <c r="B10" s="117" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="147" t="s">
+      <c r="C10" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
+      <c r="U10" s="170"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="189"/>
+    </row>
+    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="151"/>
+      <c r="B11" s="117" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
-      <c r="B12" s="148" t="s">
+      <c r="C11" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="189"/>
+    </row>
+    <row r="12" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="152"/>
+      <c r="B12" s="118" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="149" t="s">
+      <c r="C12" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="170"/>
+      <c r="U12" s="170"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="189"/>
+    </row>
+    <row r="13" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="151" t="s">
+      <c r="C13" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="170"/>
+      <c r="U13" s="170"/>
+      <c r="V13" s="170"/>
+      <c r="W13" s="189"/>
+    </row>
+    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="153"/>
+      <c r="B14" s="120" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="151" t="s">
+      <c r="C14" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="170"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="189"/>
+    </row>
+    <row r="15" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="153"/>
+      <c r="B15" s="120" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="151" t="s">
+      <c r="C15" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="170"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="189"/>
+    </row>
+    <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="153"/>
+      <c r="B16" s="120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="151" t="s">
+      <c r="C16" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="189"/>
+    </row>
+    <row r="17" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="153"/>
+      <c r="B17" s="120" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="151" t="s">
+      <c r="C17" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="170"/>
+      <c r="W17" s="189"/>
+    </row>
+    <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="153"/>
+      <c r="B18" s="120" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="151" t="s">
+      <c r="C18" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="170"/>
+      <c r="U18" s="170"/>
+      <c r="V18" s="170"/>
+      <c r="W18" s="189"/>
+    </row>
+    <row r="19" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="153"/>
+      <c r="B19" s="120" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="151" t="s">
+      <c r="C19" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="170"/>
+      <c r="V19" s="170"/>
+      <c r="W19" s="189"/>
+    </row>
+    <row r="20" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="153"/>
+      <c r="B20" s="120" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="151" t="s">
+      <c r="C20" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="170"/>
+      <c r="R20" s="170"/>
+      <c r="S20" s="170"/>
+      <c r="T20" s="170"/>
+      <c r="U20" s="170"/>
+      <c r="V20" s="170"/>
+      <c r="W20" s="189"/>
+    </row>
+    <row r="21" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="153"/>
+      <c r="B21" s="120" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
-      <c r="B22" s="151" t="s">
+      <c r="C21" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="170"/>
+      <c r="S21" s="170"/>
+      <c r="T21" s="170"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="170"/>
+      <c r="W21" s="189"/>
+    </row>
+    <row r="22" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="153"/>
+      <c r="B22" s="120" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
-      <c r="B23" s="151" t="s">
+      <c r="C22" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
+      <c r="R22" s="170"/>
+      <c r="S22" s="170"/>
+      <c r="T22" s="170"/>
+      <c r="U22" s="170"/>
+      <c r="V22" s="170"/>
+      <c r="W22" s="189"/>
+    </row>
+    <row r="23" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="153"/>
+      <c r="B23" s="120" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="133"/>
-      <c r="B24" s="152" t="s">
+      <c r="C23" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="189"/>
+    </row>
+    <row r="24" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="154"/>
+      <c r="B24" s="121" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="C24" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="170"/>
+      <c r="S24" s="170"/>
+      <c r="T24" s="170"/>
+      <c r="U24" s="170"/>
+      <c r="V24" s="170"/>
+      <c r="W24" s="189"/>
+    </row>
+    <row r="25" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="122" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
-      <c r="B26" s="154" t="s">
+      <c r="C25" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="170"/>
+      <c r="T25" s="170"/>
+      <c r="U25" s="170"/>
+      <c r="V25" s="170"/>
+      <c r="W25" s="189"/>
+    </row>
+    <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="156"/>
+      <c r="B26" s="123" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
-      <c r="B27" s="154" t="s">
+      <c r="C26" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="170"/>
+      <c r="S26" s="170"/>
+      <c r="T26" s="170"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="189"/>
+    </row>
+    <row r="27" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="156"/>
+      <c r="B27" s="123" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="136"/>
-      <c r="B28" s="155" t="s">
+      <c r="C27" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="170"/>
+      <c r="S27" s="170"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="170"/>
+      <c r="V27" s="170"/>
+      <c r="W27" s="189"/>
+    </row>
+    <row r="28" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="157"/>
+      <c r="B28" s="124" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="C28" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="170"/>
+      <c r="S28" s="170"/>
+      <c r="T28" s="170"/>
+      <c r="U28" s="170"/>
+      <c r="V28" s="170"/>
+      <c r="W28" s="189"/>
+    </row>
+    <row r="29" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="125" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="157" t="s">
+      <c r="C29" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="170"/>
+      <c r="S29" s="170"/>
+      <c r="T29" s="170"/>
+      <c r="U29" s="170"/>
+      <c r="V29" s="170"/>
+      <c r="W29" s="189"/>
+    </row>
+    <row r="30" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="142"/>
+      <c r="B30" s="126" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="158" t="s">
+      <c r="C30" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="170"/>
+      <c r="S30" s="170"/>
+      <c r="T30" s="170"/>
+      <c r="U30" s="170"/>
+      <c r="V30" s="170"/>
+      <c r="W30" s="189"/>
+    </row>
+    <row r="31" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="142"/>
+      <c r="B31" s="127" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="157" t="s">
+      <c r="C31" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="189"/>
+    </row>
+    <row r="32" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="142"/>
+      <c r="B32" s="126" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="157" t="s">
+      <c r="C32" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="170"/>
+      <c r="S32" s="170"/>
+      <c r="T32" s="170"/>
+      <c r="U32" s="170"/>
+      <c r="V32" s="170"/>
+      <c r="W32" s="189"/>
+    </row>
+    <row r="33" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="142"/>
+      <c r="B33" s="126" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="157" t="s">
+      <c r="C33" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="170"/>
+      <c r="S33" s="170"/>
+      <c r="T33" s="170"/>
+      <c r="U33" s="170"/>
+      <c r="V33" s="170"/>
+      <c r="W33" s="189"/>
+    </row>
+    <row r="34" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="142"/>
+      <c r="B34" s="126" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="157" t="s">
+      <c r="C34" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="170"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="170"/>
+      <c r="P34" s="170"/>
+      <c r="Q34" s="170"/>
+      <c r="R34" s="170"/>
+      <c r="S34" s="170"/>
+      <c r="T34" s="170"/>
+      <c r="U34" s="170"/>
+      <c r="V34" s="170"/>
+      <c r="W34" s="189"/>
+    </row>
+    <row r="35" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="142"/>
+      <c r="B35" s="126" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="157" t="s">
+      <c r="C35" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="170"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="170"/>
+      <c r="Q35" s="170"/>
+      <c r="R35" s="170"/>
+      <c r="S35" s="170"/>
+      <c r="T35" s="170"/>
+      <c r="U35" s="170"/>
+      <c r="V35" s="170"/>
+      <c r="W35" s="189"/>
+    </row>
+    <row r="36" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="142"/>
+      <c r="B36" s="126" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="122"/>
-      <c r="B37" s="159" t="s">
+      <c r="C36" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="170"/>
+      <c r="Q36" s="170"/>
+      <c r="R36" s="170"/>
+      <c r="S36" s="170"/>
+      <c r="T36" s="170"/>
+      <c r="U36" s="170"/>
+      <c r="V36" s="170"/>
+      <c r="W36" s="189"/>
+    </row>
+    <row r="37" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="143"/>
+      <c r="B37" s="128" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A38" s="117" t="s">
+      <c r="C37" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="170"/>
+      <c r="Q37" s="170"/>
+      <c r="R37" s="170"/>
+      <c r="S37" s="170"/>
+      <c r="T37" s="170"/>
+      <c r="U37" s="170"/>
+      <c r="V37" s="170"/>
+      <c r="W37" s="189"/>
+    </row>
+    <row r="38" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="160" t="s">
+      <c r="B38" s="129" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="118"/>
-      <c r="B39" s="161" t="s">
+      <c r="C38" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
+      <c r="L38" s="170"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="170"/>
+      <c r="O38" s="170"/>
+      <c r="P38" s="170"/>
+      <c r="Q38" s="170"/>
+      <c r="R38" s="170"/>
+      <c r="S38" s="170"/>
+      <c r="T38" s="170"/>
+      <c r="U38" s="170"/>
+      <c r="V38" s="170"/>
+      <c r="W38" s="189"/>
+    </row>
+    <row r="39" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="139"/>
+      <c r="B39" s="130" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A40" s="118"/>
-      <c r="B40" s="161" t="s">
+      <c r="C39" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="170"/>
+      <c r="P39" s="170"/>
+      <c r="Q39" s="170"/>
+      <c r="R39" s="170"/>
+      <c r="S39" s="170"/>
+      <c r="T39" s="170"/>
+      <c r="U39" s="170"/>
+      <c r="V39" s="170"/>
+      <c r="W39" s="189"/>
+    </row>
+    <row r="40" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="139"/>
+      <c r="B40" s="130" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A41" s="118"/>
-      <c r="B41" s="161" t="s">
+      <c r="C40" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="170"/>
+      <c r="O40" s="170"/>
+      <c r="P40" s="170"/>
+      <c r="Q40" s="170"/>
+      <c r="R40" s="170"/>
+      <c r="S40" s="170"/>
+      <c r="T40" s="170"/>
+      <c r="U40" s="170"/>
+      <c r="V40" s="170"/>
+      <c r="W40" s="189"/>
+    </row>
+    <row r="41" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="139"/>
+      <c r="B41" s="130" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="118"/>
-      <c r="B42" s="161" t="s">
+      <c r="C41" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="170"/>
+      <c r="P41" s="170"/>
+      <c r="Q41" s="170"/>
+      <c r="R41" s="170"/>
+      <c r="S41" s="170"/>
+      <c r="T41" s="170"/>
+      <c r="U41" s="170"/>
+      <c r="V41" s="170"/>
+      <c r="W41" s="189"/>
+    </row>
+    <row r="42" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="139"/>
+      <c r="B42" s="130" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="118"/>
-      <c r="B43" s="161" t="s">
+      <c r="C42" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
+      <c r="L42" s="170"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="170"/>
+      <c r="O42" s="170"/>
+      <c r="P42" s="170"/>
+      <c r="Q42" s="170"/>
+      <c r="R42" s="170"/>
+      <c r="S42" s="170"/>
+      <c r="T42" s="170"/>
+      <c r="U42" s="170"/>
+      <c r="V42" s="170"/>
+      <c r="W42" s="189"/>
+    </row>
+    <row r="43" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="139"/>
+      <c r="B43" s="130" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="118"/>
-      <c r="B44" s="161" t="s">
+      <c r="C43" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
+      <c r="L43" s="170"/>
+      <c r="M43" s="170"/>
+      <c r="N43" s="170"/>
+      <c r="O43" s="170"/>
+      <c r="P43" s="170"/>
+      <c r="Q43" s="170"/>
+      <c r="R43" s="170"/>
+      <c r="S43" s="170"/>
+      <c r="T43" s="170"/>
+      <c r="U43" s="170"/>
+      <c r="V43" s="170"/>
+      <c r="W43" s="189"/>
+    </row>
+    <row r="44" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="139"/>
+      <c r="B44" s="130" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="118"/>
-      <c r="B45" s="161" t="s">
+      <c r="C44" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="170"/>
+      <c r="K44" s="170"/>
+      <c r="L44" s="170"/>
+      <c r="M44" s="170"/>
+      <c r="N44" s="170"/>
+      <c r="O44" s="170"/>
+      <c r="P44" s="170"/>
+      <c r="Q44" s="170"/>
+      <c r="R44" s="170"/>
+      <c r="S44" s="170"/>
+      <c r="T44" s="170"/>
+      <c r="U44" s="170"/>
+      <c r="V44" s="170"/>
+      <c r="W44" s="189"/>
+    </row>
+    <row r="45" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="139"/>
+      <c r="B45" s="130" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
-      <c r="B46" s="161" t="s">
+      <c r="C45" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="170"/>
+      <c r="O45" s="170"/>
+      <c r="P45" s="170"/>
+      <c r="Q45" s="170"/>
+      <c r="R45" s="170"/>
+      <c r="S45" s="170"/>
+      <c r="T45" s="170"/>
+      <c r="U45" s="170"/>
+      <c r="V45" s="170"/>
+      <c r="W45" s="189"/>
+    </row>
+    <row r="46" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="139"/>
+      <c r="B46" s="130" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
-      <c r="B47" s="161" t="s">
+      <c r="C46" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="170"/>
+      <c r="N46" s="170"/>
+      <c r="O46" s="170"/>
+      <c r="P46" s="170"/>
+      <c r="Q46" s="170"/>
+      <c r="R46" s="170"/>
+      <c r="S46" s="170"/>
+      <c r="T46" s="170"/>
+      <c r="U46" s="170"/>
+      <c r="V46" s="170"/>
+      <c r="W46" s="189"/>
+    </row>
+    <row r="47" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="139"/>
+      <c r="B47" s="130" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
-      <c r="B48" s="161" t="s">
+      <c r="C47" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="170"/>
+      <c r="N47" s="170"/>
+      <c r="O47" s="170"/>
+      <c r="P47" s="170"/>
+      <c r="Q47" s="170"/>
+      <c r="R47" s="170"/>
+      <c r="S47" s="170"/>
+      <c r="T47" s="170"/>
+      <c r="U47" s="170"/>
+      <c r="V47" s="170"/>
+      <c r="W47" s="189"/>
+    </row>
+    <row r="48" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="139"/>
+      <c r="B48" s="130" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
-      <c r="B49" s="161" t="s">
+      <c r="C48" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="170"/>
+      <c r="K48" s="170"/>
+      <c r="L48" s="170"/>
+      <c r="M48" s="170"/>
+      <c r="N48" s="170"/>
+      <c r="O48" s="170"/>
+      <c r="P48" s="170"/>
+      <c r="Q48" s="170"/>
+      <c r="R48" s="170"/>
+      <c r="S48" s="170"/>
+      <c r="T48" s="170"/>
+      <c r="U48" s="170"/>
+      <c r="V48" s="170"/>
+      <c r="W48" s="189"/>
+    </row>
+    <row r="49" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="139"/>
+      <c r="B49" s="130" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="119"/>
-      <c r="B50" s="162" t="s">
+      <c r="C49" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170"/>
+      <c r="K49" s="170"/>
+      <c r="L49" s="170"/>
+      <c r="M49" s="170"/>
+      <c r="N49" s="170"/>
+      <c r="O49" s="170"/>
+      <c r="P49" s="170"/>
+      <c r="Q49" s="170"/>
+      <c r="R49" s="170"/>
+      <c r="S49" s="170"/>
+      <c r="T49" s="170"/>
+      <c r="U49" s="170"/>
+      <c r="V49" s="170"/>
+      <c r="W49" s="189"/>
+    </row>
+    <row r="50" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="140"/>
+      <c r="B50" s="131" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="137" t="s">
+      <c r="C50" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="170"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="170"/>
+      <c r="L50" s="170"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="170"/>
+      <c r="O50" s="170"/>
+      <c r="P50" s="170"/>
+      <c r="Q50" s="170"/>
+      <c r="R50" s="170"/>
+      <c r="S50" s="170"/>
+      <c r="T50" s="170"/>
+      <c r="U50" s="170"/>
+      <c r="V50" s="170"/>
+      <c r="W50" s="189"/>
+    </row>
+    <row r="51" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="163" t="s">
+      <c r="B51" s="132" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="138"/>
-      <c r="B52" s="164" t="s">
+      <c r="C51" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="170"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="170"/>
+      <c r="K51" s="170"/>
+      <c r="L51" s="170"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="170"/>
+      <c r="O51" s="170"/>
+      <c r="P51" s="170"/>
+      <c r="Q51" s="170"/>
+      <c r="R51" s="170"/>
+      <c r="S51" s="170"/>
+      <c r="T51" s="170"/>
+      <c r="U51" s="170"/>
+      <c r="V51" s="170"/>
+      <c r="W51" s="189"/>
+    </row>
+    <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="159"/>
+      <c r="B52" s="133" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="138"/>
-      <c r="B53" s="164" t="s">
+      <c r="C52" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="170"/>
+      <c r="L52" s="170"/>
+      <c r="M52" s="170"/>
+      <c r="N52" s="170"/>
+      <c r="O52" s="170"/>
+      <c r="P52" s="170"/>
+      <c r="Q52" s="170"/>
+      <c r="R52" s="170"/>
+      <c r="S52" s="170"/>
+      <c r="T52" s="170"/>
+      <c r="U52" s="170"/>
+      <c r="V52" s="170"/>
+      <c r="W52" s="189"/>
+    </row>
+    <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="159"/>
+      <c r="B53" s="133" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="138"/>
-      <c r="B54" s="164" t="s">
+      <c r="C53" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="170"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="170"/>
+      <c r="P53" s="170"/>
+      <c r="Q53" s="170"/>
+      <c r="R53" s="170"/>
+      <c r="S53" s="170"/>
+      <c r="T53" s="170"/>
+      <c r="U53" s="170"/>
+      <c r="V53" s="170"/>
+      <c r="W53" s="189"/>
+    </row>
+    <row r="54" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="159"/>
+      <c r="B54" s="133" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="138"/>
-      <c r="B55" s="164" t="s">
+      <c r="C54" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="170"/>
+      <c r="N54" s="170"/>
+      <c r="O54" s="170"/>
+      <c r="P54" s="170"/>
+      <c r="Q54" s="170"/>
+      <c r="R54" s="170"/>
+      <c r="S54" s="170"/>
+      <c r="T54" s="170"/>
+      <c r="U54" s="170"/>
+      <c r="V54" s="170"/>
+      <c r="W54" s="189"/>
+    </row>
+    <row r="55" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="159"/>
+      <c r="B55" s="133" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="138"/>
-      <c r="B56" s="164" t="s">
+      <c r="C55" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="170"/>
+      <c r="L55" s="170"/>
+      <c r="M55" s="170"/>
+      <c r="N55" s="170"/>
+      <c r="O55" s="170"/>
+      <c r="P55" s="170"/>
+      <c r="Q55" s="170"/>
+      <c r="R55" s="170"/>
+      <c r="S55" s="170"/>
+      <c r="T55" s="170"/>
+      <c r="U55" s="170"/>
+      <c r="V55" s="170"/>
+      <c r="W55" s="189"/>
+    </row>
+    <row r="56" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="159"/>
+      <c r="B56" s="133" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="138"/>
-      <c r="B57" s="164" t="s">
+      <c r="C56" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="170"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="170"/>
+      <c r="M56" s="170"/>
+      <c r="N56" s="170"/>
+      <c r="O56" s="170"/>
+      <c r="P56" s="170"/>
+      <c r="Q56" s="170"/>
+      <c r="R56" s="170"/>
+      <c r="S56" s="170"/>
+      <c r="T56" s="170"/>
+      <c r="U56" s="170"/>
+      <c r="V56" s="170"/>
+      <c r="W56" s="189"/>
+    </row>
+    <row r="57" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="159"/>
+      <c r="B57" s="133" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="138"/>
-      <c r="B58" s="164" t="s">
+      <c r="C57" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="170"/>
+      <c r="M57" s="170"/>
+      <c r="N57" s="170"/>
+      <c r="O57" s="170"/>
+      <c r="P57" s="170"/>
+      <c r="Q57" s="170"/>
+      <c r="R57" s="170"/>
+      <c r="S57" s="170"/>
+      <c r="T57" s="170"/>
+      <c r="U57" s="170"/>
+      <c r="V57" s="170"/>
+      <c r="W57" s="189"/>
+    </row>
+    <row r="58" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="159"/>
+      <c r="B58" s="133" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="138"/>
-      <c r="B59" s="164" t="s">
+      <c r="C58" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="170"/>
+      <c r="G58" s="170"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
+      <c r="L58" s="170"/>
+      <c r="M58" s="170"/>
+      <c r="N58" s="170"/>
+      <c r="O58" s="170"/>
+      <c r="P58" s="170"/>
+      <c r="Q58" s="170"/>
+      <c r="R58" s="170"/>
+      <c r="S58" s="170"/>
+      <c r="T58" s="170"/>
+      <c r="U58" s="170"/>
+      <c r="V58" s="170"/>
+      <c r="W58" s="189"/>
+    </row>
+    <row r="59" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="159"/>
+      <c r="B59" s="133" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A60" s="138"/>
-      <c r="B60" s="164" t="s">
+      <c r="C59" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="170"/>
+      <c r="J59" s="170"/>
+      <c r="K59" s="170"/>
+      <c r="L59" s="170"/>
+      <c r="M59" s="170"/>
+      <c r="N59" s="170"/>
+      <c r="O59" s="170"/>
+      <c r="P59" s="170"/>
+      <c r="Q59" s="170"/>
+      <c r="R59" s="170"/>
+      <c r="S59" s="170"/>
+      <c r="T59" s="170"/>
+      <c r="U59" s="170"/>
+      <c r="V59" s="170"/>
+      <c r="W59" s="189"/>
+    </row>
+    <row r="60" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="159"/>
+      <c r="B60" s="133" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="138"/>
-      <c r="B61" s="164" t="s">
+      <c r="C60" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" s="170"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170"/>
+      <c r="L60" s="170"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="170"/>
+      <c r="O60" s="170"/>
+      <c r="P60" s="170"/>
+      <c r="Q60" s="170"/>
+      <c r="R60" s="170"/>
+      <c r="S60" s="170"/>
+      <c r="T60" s="170"/>
+      <c r="U60" s="170"/>
+      <c r="V60" s="170"/>
+      <c r="W60" s="189"/>
+    </row>
+    <row r="61" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="159"/>
+      <c r="B61" s="133" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A62" s="138"/>
-      <c r="B62" s="164" t="s">
+      <c r="C61" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="170"/>
+      <c r="G61" s="170"/>
+      <c r="H61" s="170"/>
+      <c r="I61" s="170"/>
+      <c r="J61" s="170"/>
+      <c r="K61" s="170"/>
+      <c r="L61" s="170"/>
+      <c r="M61" s="170"/>
+      <c r="N61" s="170"/>
+      <c r="O61" s="170"/>
+      <c r="P61" s="170"/>
+      <c r="Q61" s="170"/>
+      <c r="R61" s="170"/>
+      <c r="S61" s="170"/>
+      <c r="T61" s="170"/>
+      <c r="U61" s="170"/>
+      <c r="V61" s="170"/>
+      <c r="W61" s="189"/>
+    </row>
+    <row r="62" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="159"/>
+      <c r="B62" s="133" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A63" s="138"/>
-      <c r="B63" s="164" t="s">
+      <c r="C62" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="170"/>
+      <c r="J62" s="170"/>
+      <c r="K62" s="170"/>
+      <c r="L62" s="170"/>
+      <c r="M62" s="170"/>
+      <c r="N62" s="170"/>
+      <c r="O62" s="170"/>
+      <c r="P62" s="170"/>
+      <c r="Q62" s="170"/>
+      <c r="R62" s="170"/>
+      <c r="S62" s="170"/>
+      <c r="T62" s="170"/>
+      <c r="U62" s="170"/>
+      <c r="V62" s="170"/>
+      <c r="W62" s="189"/>
+    </row>
+    <row r="63" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="159"/>
+      <c r="B63" s="133" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="165"/>
-      <c r="B64" s="166" t="s">
+      <c r="C63" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="170"/>
+      <c r="G63" s="170"/>
+      <c r="H63" s="170"/>
+      <c r="I63" s="170"/>
+      <c r="J63" s="170"/>
+      <c r="K63" s="170"/>
+      <c r="L63" s="170"/>
+      <c r="M63" s="170"/>
+      <c r="N63" s="170"/>
+      <c r="O63" s="170"/>
+      <c r="P63" s="170"/>
+      <c r="Q63" s="170"/>
+      <c r="R63" s="170"/>
+      <c r="S63" s="170"/>
+      <c r="T63" s="170"/>
+      <c r="U63" s="170"/>
+      <c r="V63" s="170"/>
+      <c r="W63" s="189"/>
+    </row>
+    <row r="64" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="162"/>
+      <c r="B64" s="134" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A65" s="126" t="s">
+      <c r="C64" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="170"/>
+      <c r="J64" s="170"/>
+      <c r="K64" s="170"/>
+      <c r="L64" s="170"/>
+      <c r="M64" s="170"/>
+      <c r="N64" s="170"/>
+      <c r="O64" s="170"/>
+      <c r="P64" s="170"/>
+      <c r="Q64" s="170"/>
+      <c r="R64" s="170"/>
+      <c r="S64" s="170"/>
+      <c r="T64" s="170"/>
+      <c r="U64" s="170"/>
+      <c r="V64" s="170"/>
+      <c r="W64" s="189"/>
+    </row>
+    <row r="65" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="167" t="s">
+      <c r="B65" s="135" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="127"/>
-      <c r="B66" s="168" t="s">
+      <c r="C65" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="170"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="170"/>
+      <c r="J65" s="170"/>
+      <c r="K65" s="170"/>
+      <c r="L65" s="170"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="170"/>
+      <c r="O65" s="170"/>
+      <c r="P65" s="170"/>
+      <c r="Q65" s="170"/>
+      <c r="R65" s="170"/>
+      <c r="S65" s="170"/>
+      <c r="T65" s="170"/>
+      <c r="U65" s="170"/>
+      <c r="V65" s="170"/>
+      <c r="W65" s="189"/>
+    </row>
+    <row r="66" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="148"/>
+      <c r="B66" s="136" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="127"/>
-      <c r="B67" s="168" t="s">
+      <c r="C66" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="170"/>
+      <c r="G66" s="170"/>
+      <c r="H66" s="170"/>
+      <c r="I66" s="170"/>
+      <c r="J66" s="170"/>
+      <c r="K66" s="170"/>
+      <c r="L66" s="170"/>
+      <c r="M66" s="170"/>
+      <c r="N66" s="170"/>
+      <c r="O66" s="170"/>
+      <c r="P66" s="170"/>
+      <c r="Q66" s="170"/>
+      <c r="R66" s="170"/>
+      <c r="S66" s="170"/>
+      <c r="T66" s="170"/>
+      <c r="U66" s="170"/>
+      <c r="V66" s="170"/>
+      <c r="W66" s="189"/>
+    </row>
+    <row r="67" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="148"/>
+      <c r="B67" s="136" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="128"/>
-      <c r="B68" s="169" t="s">
+      <c r="C67" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="170"/>
+      <c r="J67" s="170"/>
+      <c r="K67" s="170"/>
+      <c r="L67" s="170"/>
+      <c r="M67" s="170"/>
+      <c r="N67" s="170"/>
+      <c r="O67" s="170"/>
+      <c r="P67" s="170"/>
+      <c r="Q67" s="170"/>
+      <c r="R67" s="170"/>
+      <c r="S67" s="170"/>
+      <c r="T67" s="170"/>
+      <c r="U67" s="170"/>
+      <c r="V67" s="170"/>
+      <c r="W67" s="189"/>
+    </row>
+    <row r="68" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="149"/>
+      <c r="B68" s="137" t="s">
         <v>58</v>
       </c>
+      <c r="C68" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="170"/>
+      <c r="G68" s="170"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="170"/>
+      <c r="J68" s="170"/>
+      <c r="K68" s="170"/>
+      <c r="L68" s="170"/>
+      <c r="M68" s="170"/>
+      <c r="N68" s="170"/>
+      <c r="O68" s="170"/>
+      <c r="P68" s="170"/>
+      <c r="Q68" s="170"/>
+      <c r="R68" s="170"/>
+      <c r="S68" s="170"/>
+      <c r="T68" s="170"/>
+      <c r="U68" s="170"/>
+      <c r="V68" s="170"/>
+      <c r="W68" s="189"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F69" s="170"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
+      <c r="J69" s="170"/>
+      <c r="K69" s="170"/>
+      <c r="L69" s="170"/>
+      <c r="M69" s="170"/>
+      <c r="N69" s="170"/>
+      <c r="O69" s="170"/>
+      <c r="P69" s="170"/>
+      <c r="Q69" s="170"/>
+      <c r="R69" s="170"/>
+      <c r="S69" s="170"/>
+      <c r="T69" s="170"/>
+      <c r="U69" s="170"/>
+      <c r="V69" s="170"/>
+      <c r="W69" s="189"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F70" s="170"/>
+      <c r="G70" s="170"/>
+      <c r="H70" s="170"/>
+      <c r="I70" s="170"/>
+      <c r="J70" s="170"/>
+      <c r="K70" s="170"/>
+      <c r="L70" s="170"/>
+      <c r="M70" s="170"/>
+      <c r="N70" s="170"/>
+      <c r="O70" s="170"/>
+      <c r="P70" s="170"/>
+      <c r="Q70" s="170"/>
+      <c r="R70" s="170"/>
+      <c r="S70" s="170"/>
+      <c r="T70" s="170"/>
+      <c r="U70" s="170"/>
+      <c r="V70" s="170"/>
+      <c r="W70" s="189"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F71" s="170"/>
+      <c r="G71" s="170"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="170"/>
+      <c r="J71" s="170"/>
+      <c r="K71" s="170"/>
+      <c r="L71" s="170"/>
+      <c r="M71" s="170"/>
+      <c r="N71" s="170"/>
+      <c r="O71" s="170"/>
+      <c r="P71" s="170"/>
+      <c r="Q71" s="170"/>
+      <c r="R71" s="170"/>
+      <c r="S71" s="170"/>
+      <c r="T71" s="170"/>
+      <c r="U71" s="170"/>
+      <c r="V71" s="170"/>
+      <c r="W71" s="189"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F72" s="170"/>
+      <c r="G72" s="170"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="170"/>
+      <c r="J72" s="170"/>
+      <c r="K72" s="170"/>
+      <c r="L72" s="170"/>
+      <c r="M72" s="170"/>
+      <c r="N72" s="170"/>
+      <c r="O72" s="170"/>
+      <c r="P72" s="170"/>
+      <c r="Q72" s="170"/>
+      <c r="R72" s="170"/>
+      <c r="S72" s="170"/>
+      <c r="T72" s="170"/>
+      <c r="U72" s="170"/>
+      <c r="V72" s="170"/>
+      <c r="W72" s="189"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F73" s="170"/>
+      <c r="G73" s="170"/>
+      <c r="H73" s="170"/>
+      <c r="I73" s="170"/>
+      <c r="J73" s="170"/>
+      <c r="K73" s="170"/>
+      <c r="L73" s="170"/>
+      <c r="M73" s="170"/>
+      <c r="N73" s="170"/>
+      <c r="O73" s="170"/>
+      <c r="P73" s="170"/>
+      <c r="Q73" s="170"/>
+      <c r="R73" s="170"/>
+      <c r="S73" s="170"/>
+      <c r="T73" s="170"/>
+      <c r="U73" s="170"/>
+      <c r="V73" s="170"/>
+      <c r="W73" s="189"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F74" s="170"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
+      <c r="I74" s="170"/>
+      <c r="J74" s="170"/>
+      <c r="K74" s="170"/>
+      <c r="L74" s="170"/>
+      <c r="M74" s="170"/>
+      <c r="N74" s="170"/>
+      <c r="O74" s="170"/>
+      <c r="P74" s="170"/>
+      <c r="Q74" s="170"/>
+      <c r="R74" s="170"/>
+      <c r="S74" s="170"/>
+      <c r="T74" s="170"/>
+      <c r="U74" s="170"/>
+      <c r="V74" s="170"/>
+      <c r="W74" s="189"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F75" s="170"/>
+      <c r="G75" s="170"/>
+      <c r="H75" s="170"/>
+      <c r="I75" s="170"/>
+      <c r="J75" s="170"/>
+      <c r="K75" s="170"/>
+      <c r="L75" s="170"/>
+      <c r="M75" s="170"/>
+      <c r="N75" s="170"/>
+      <c r="O75" s="170"/>
+      <c r="P75" s="170"/>
+      <c r="Q75" s="170"/>
+      <c r="R75" s="170"/>
+      <c r="S75" s="170"/>
+      <c r="T75" s="170"/>
+      <c r="U75" s="170"/>
+      <c r="V75" s="170"/>
+      <c r="W75" s="189"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F76" s="170"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="170"/>
+      <c r="J76" s="170"/>
+      <c r="K76" s="170"/>
+      <c r="L76" s="170"/>
+      <c r="M76" s="170"/>
+      <c r="N76" s="170"/>
+      <c r="O76" s="170"/>
+      <c r="P76" s="170"/>
+      <c r="Q76" s="170"/>
+      <c r="R76" s="170"/>
+      <c r="S76" s="170"/>
+      <c r="T76" s="170"/>
+      <c r="U76" s="170"/>
+      <c r="V76" s="170"/>
+      <c r="W76" s="189"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F77" s="170"/>
+      <c r="G77" s="170"/>
+      <c r="H77" s="170"/>
+      <c r="I77" s="170"/>
+      <c r="J77" s="170"/>
+      <c r="K77" s="170"/>
+      <c r="L77" s="170"/>
+      <c r="M77" s="170"/>
+      <c r="N77" s="170"/>
+      <c r="O77" s="170"/>
+      <c r="P77" s="170"/>
+      <c r="Q77" s="170"/>
+      <c r="R77" s="170"/>
+      <c r="S77" s="170"/>
+      <c r="T77" s="170"/>
+      <c r="U77" s="170"/>
+      <c r="V77" s="170"/>
+      <c r="W77" s="189"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="170"/>
+      <c r="J78" s="170"/>
+      <c r="K78" s="170"/>
+      <c r="L78" s="170"/>
+      <c r="M78" s="170"/>
+      <c r="N78" s="170"/>
+      <c r="O78" s="170"/>
+      <c r="P78" s="170"/>
+      <c r="Q78" s="170"/>
+      <c r="R78" s="170"/>
+      <c r="S78" s="170"/>
+      <c r="T78" s="170"/>
+      <c r="U78" s="170"/>
+      <c r="V78" s="170"/>
+      <c r="W78" s="189"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="170"/>
+      <c r="J79" s="170"/>
+      <c r="K79" s="170"/>
+      <c r="L79" s="170"/>
+      <c r="M79" s="170"/>
+      <c r="N79" s="170"/>
+      <c r="O79" s="170"/>
+      <c r="P79" s="170"/>
+      <c r="Q79" s="170"/>
+      <c r="R79" s="170"/>
+      <c r="S79" s="170"/>
+      <c r="T79" s="170"/>
+      <c r="U79" s="170"/>
+      <c r="V79" s="170"/>
+      <c r="W79" s="189"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="170"/>
+      <c r="I80" s="170"/>
+      <c r="J80" s="170"/>
+      <c r="K80" s="170"/>
+      <c r="L80" s="170"/>
+      <c r="M80" s="170"/>
+      <c r="N80" s="170"/>
+      <c r="O80" s="170"/>
+      <c r="P80" s="170"/>
+      <c r="Q80" s="170"/>
+      <c r="R80" s="170"/>
+      <c r="S80" s="170"/>
+      <c r="T80" s="170"/>
+      <c r="U80" s="170"/>
+      <c r="V80" s="170"/>
+      <c r="W80" s="189"/>
+    </row>
+    <row r="81" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F81" s="170"/>
+      <c r="G81" s="170"/>
+      <c r="H81" s="170"/>
+      <c r="I81" s="170"/>
+      <c r="J81" s="170"/>
+      <c r="K81" s="170"/>
+      <c r="L81" s="170"/>
+      <c r="M81" s="170"/>
+      <c r="N81" s="170"/>
+      <c r="O81" s="170"/>
+      <c r="P81" s="170"/>
+      <c r="Q81" s="170"/>
+      <c r="R81" s="170"/>
+      <c r="S81" s="170"/>
+      <c r="T81" s="170"/>
+      <c r="U81" s="170"/>
+      <c r="V81" s="170"/>
+      <c r="W81" s="189"/>
+    </row>
+    <row r="82" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F82" s="170"/>
+      <c r="G82" s="170"/>
+      <c r="H82" s="170"/>
+      <c r="I82" s="170"/>
+      <c r="J82" s="170"/>
+      <c r="K82" s="170"/>
+      <c r="L82" s="170"/>
+      <c r="M82" s="170"/>
+      <c r="N82" s="170"/>
+      <c r="O82" s="170"/>
+      <c r="P82" s="170"/>
+      <c r="Q82" s="170"/>
+      <c r="R82" s="170"/>
+      <c r="S82" s="170"/>
+      <c r="T82" s="170"/>
+      <c r="U82" s="170"/>
+      <c r="V82" s="170"/>
+      <c r="W82" s="189"/>
+    </row>
+    <row r="83" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="170"/>
+      <c r="J83" s="170"/>
+      <c r="K83" s="170"/>
+      <c r="L83" s="170"/>
+      <c r="M83" s="170"/>
+      <c r="N83" s="170"/>
+      <c r="O83" s="170"/>
+      <c r="P83" s="170"/>
+      <c r="Q83" s="170"/>
+      <c r="R83" s="170"/>
+      <c r="S83" s="170"/>
+      <c r="T83" s="170"/>
+      <c r="U83" s="170"/>
+      <c r="V83" s="170"/>
+      <c r="W83" s="189"/>
+    </row>
+    <row r="84" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F84" s="170"/>
+      <c r="G84" s="170"/>
+      <c r="H84" s="170"/>
+      <c r="I84" s="170"/>
+      <c r="J84" s="170"/>
+      <c r="K84" s="170"/>
+      <c r="L84" s="170"/>
+      <c r="M84" s="170"/>
+      <c r="N84" s="170"/>
+      <c r="O84" s="170"/>
+      <c r="P84" s="170"/>
+      <c r="Q84" s="170"/>
+      <c r="R84" s="170"/>
+      <c r="S84" s="170"/>
+      <c r="T84" s="170"/>
+      <c r="U84" s="170"/>
+      <c r="V84" s="170"/>
+      <c r="W84" s="189"/>
+    </row>
+    <row r="85" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F85" s="170"/>
+      <c r="G85" s="170"/>
+      <c r="H85" s="170"/>
+      <c r="I85" s="170"/>
+      <c r="J85" s="170"/>
+      <c r="K85" s="170"/>
+      <c r="L85" s="170"/>
+      <c r="M85" s="170"/>
+      <c r="N85" s="170"/>
+      <c r="O85" s="170"/>
+      <c r="P85" s="170"/>
+      <c r="Q85" s="170"/>
+      <c r="R85" s="170"/>
+      <c r="S85" s="170"/>
+      <c r="T85" s="170"/>
+      <c r="U85" s="170"/>
+      <c r="V85" s="170"/>
+      <c r="W85" s="189"/>
+    </row>
+    <row r="86" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F86" s="170"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="170"/>
+      <c r="J86" s="170"/>
+      <c r="K86" s="170"/>
+      <c r="L86" s="170"/>
+      <c r="M86" s="170"/>
+      <c r="N86" s="170"/>
+      <c r="O86" s="170"/>
+      <c r="P86" s="170"/>
+      <c r="Q86" s="170"/>
+      <c r="R86" s="170"/>
+      <c r="S86" s="170"/>
+      <c r="T86" s="170"/>
+      <c r="U86" s="170"/>
+      <c r="V86" s="170"/>
+      <c r="W86" s="189"/>
+    </row>
+    <row r="87" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F87" s="170"/>
+      <c r="G87" s="170"/>
+      <c r="H87" s="170"/>
+      <c r="I87" s="170"/>
+      <c r="J87" s="170"/>
+      <c r="K87" s="170"/>
+      <c r="L87" s="170"/>
+      <c r="M87" s="170"/>
+      <c r="N87" s="170"/>
+      <c r="O87" s="170"/>
+      <c r="P87" s="170"/>
+      <c r="Q87" s="170"/>
+      <c r="R87" s="170"/>
+      <c r="S87" s="170"/>
+      <c r="T87" s="170"/>
+      <c r="U87" s="170"/>
+      <c r="V87" s="170"/>
+      <c r="W87" s="189"/>
+    </row>
+    <row r="88" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F88" s="170"/>
+      <c r="G88" s="170"/>
+      <c r="H88" s="170"/>
+      <c r="I88" s="170"/>
+      <c r="J88" s="170"/>
+      <c r="K88" s="170"/>
+      <c r="L88" s="170"/>
+      <c r="M88" s="170"/>
+      <c r="N88" s="170"/>
+      <c r="O88" s="170"/>
+      <c r="P88" s="170"/>
+      <c r="Q88" s="170"/>
+      <c r="R88" s="170"/>
+      <c r="S88" s="170"/>
+      <c r="T88" s="170"/>
+      <c r="U88" s="170"/>
+      <c r="V88" s="170"/>
+      <c r="W88" s="189"/>
+    </row>
+    <row r="89" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F89" s="170"/>
+      <c r="G89" s="170"/>
+      <c r="H89" s="170"/>
+      <c r="I89" s="170"/>
+      <c r="J89" s="170"/>
+      <c r="K89" s="170"/>
+      <c r="L89" s="170"/>
+      <c r="M89" s="170"/>
+      <c r="N89" s="170"/>
+      <c r="O89" s="170"/>
+      <c r="P89" s="170"/>
+      <c r="Q89" s="170"/>
+      <c r="R89" s="170"/>
+      <c r="S89" s="170"/>
+      <c r="T89" s="170"/>
+      <c r="U89" s="170"/>
+      <c r="V89" s="170"/>
+      <c r="W89" s="189"/>
+    </row>
+    <row r="90" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F90" s="170"/>
+      <c r="G90" s="170"/>
+      <c r="H90" s="170"/>
+      <c r="I90" s="170"/>
+      <c r="J90" s="170"/>
+      <c r="K90" s="170"/>
+      <c r="L90" s="170"/>
+      <c r="M90" s="170"/>
+      <c r="N90" s="170"/>
+      <c r="O90" s="170"/>
+      <c r="P90" s="170"/>
+      <c r="Q90" s="170"/>
+      <c r="R90" s="170"/>
+      <c r="S90" s="170"/>
+      <c r="T90" s="170"/>
+      <c r="U90" s="170"/>
+      <c r="V90" s="170"/>
+      <c r="W90" s="189"/>
+    </row>
+    <row r="91" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F91" s="170"/>
+      <c r="G91" s="170"/>
+      <c r="H91" s="170"/>
+      <c r="I91" s="170"/>
+      <c r="J91" s="170"/>
+      <c r="K91" s="170"/>
+      <c r="L91" s="170"/>
+      <c r="M91" s="170"/>
+      <c r="N91" s="170"/>
+      <c r="O91" s="170"/>
+      <c r="P91" s="170"/>
+      <c r="Q91" s="170"/>
+      <c r="R91" s="170"/>
+      <c r="S91" s="170"/>
+      <c r="T91" s="170"/>
+      <c r="U91" s="170"/>
+      <c r="V91" s="170"/>
+      <c r="W91" s="189"/>
+    </row>
+    <row r="92" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F92" s="170"/>
+      <c r="G92" s="170"/>
+      <c r="H92" s="170"/>
+      <c r="I92" s="170"/>
+      <c r="J92" s="170"/>
+      <c r="K92" s="170"/>
+      <c r="L92" s="170"/>
+      <c r="M92" s="170"/>
+      <c r="N92" s="170"/>
+      <c r="O92" s="170"/>
+      <c r="P92" s="170"/>
+      <c r="Q92" s="170"/>
+      <c r="R92" s="170"/>
+      <c r="S92" s="170"/>
+      <c r="T92" s="170"/>
+      <c r="U92" s="170"/>
+      <c r="V92" s="170"/>
+      <c r="W92" s="189"/>
+    </row>
+    <row r="93" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F93" s="170"/>
+      <c r="G93" s="170"/>
+      <c r="H93" s="170"/>
+      <c r="I93" s="170"/>
+      <c r="J93" s="170"/>
+      <c r="K93" s="170"/>
+      <c r="L93" s="170"/>
+      <c r="M93" s="170"/>
+      <c r="N93" s="170"/>
+      <c r="O93" s="170"/>
+      <c r="P93" s="170"/>
+      <c r="Q93" s="170"/>
+      <c r="R93" s="170"/>
+      <c r="S93" s="170"/>
+      <c r="T93" s="170"/>
+      <c r="U93" s="170"/>
+      <c r="V93" s="170"/>
+      <c r="W93" s="189"/>
+    </row>
+    <row r="94" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F94" s="170"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="170"/>
+      <c r="J94" s="170"/>
+      <c r="K94" s="170"/>
+      <c r="L94" s="170"/>
+      <c r="M94" s="170"/>
+      <c r="N94" s="170"/>
+      <c r="O94" s="170"/>
+      <c r="P94" s="170"/>
+      <c r="Q94" s="170"/>
+      <c r="R94" s="170"/>
+      <c r="S94" s="170"/>
+      <c r="T94" s="170"/>
+      <c r="U94" s="170"/>
+      <c r="V94" s="170"/>
+      <c r="W94" s="189"/>
+    </row>
+    <row r="95" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F95" s="170"/>
+      <c r="G95" s="170"/>
+      <c r="H95" s="170"/>
+      <c r="I95" s="170"/>
+      <c r="J95" s="170"/>
+      <c r="K95" s="170"/>
+      <c r="L95" s="170"/>
+      <c r="M95" s="170"/>
+      <c r="N95" s="170"/>
+      <c r="O95" s="170"/>
+      <c r="P95" s="170"/>
+      <c r="Q95" s="170"/>
+      <c r="R95" s="170"/>
+      <c r="S95" s="170"/>
+      <c r="T95" s="170"/>
+      <c r="U95" s="170"/>
+      <c r="V95" s="170"/>
+      <c r="W95" s="189"/>
+    </row>
+    <row r="96" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F96" s="170"/>
+      <c r="G96" s="170"/>
+      <c r="H96" s="170"/>
+      <c r="I96" s="170"/>
+      <c r="J96" s="170"/>
+      <c r="K96" s="170"/>
+      <c r="L96" s="170"/>
+      <c r="M96" s="170"/>
+      <c r="N96" s="170"/>
+      <c r="O96" s="170"/>
+      <c r="P96" s="170"/>
+      <c r="Q96" s="170"/>
+      <c r="R96" s="170"/>
+      <c r="S96" s="170"/>
+      <c r="T96" s="170"/>
+      <c r="U96" s="170"/>
+      <c r="V96" s="170"/>
+      <c r="W96" s="189"/>
+    </row>
+    <row r="97" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F97" s="170"/>
+      <c r="G97" s="170"/>
+      <c r="H97" s="170"/>
+      <c r="I97" s="170"/>
+      <c r="J97" s="170"/>
+      <c r="K97" s="170"/>
+      <c r="L97" s="170"/>
+      <c r="M97" s="170"/>
+      <c r="N97" s="170"/>
+      <c r="O97" s="170"/>
+      <c r="P97" s="170"/>
+      <c r="Q97" s="170"/>
+      <c r="R97" s="170"/>
+      <c r="S97" s="170"/>
+      <c r="T97" s="170"/>
+      <c r="U97" s="170"/>
+      <c r="V97" s="170"/>
+      <c r="W97" s="189"/>
+    </row>
+    <row r="98" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F98" s="170"/>
+      <c r="G98" s="170"/>
+      <c r="H98" s="170"/>
+      <c r="I98" s="170"/>
+      <c r="J98" s="170"/>
+      <c r="K98" s="170"/>
+      <c r="L98" s="170"/>
+      <c r="M98" s="170"/>
+      <c r="N98" s="170"/>
+      <c r="O98" s="170"/>
+      <c r="P98" s="170"/>
+      <c r="Q98" s="170"/>
+      <c r="R98" s="170"/>
+      <c r="S98" s="170"/>
+      <c r="T98" s="170"/>
+      <c r="U98" s="170"/>
+      <c r="V98" s="170"/>
+      <c r="W98" s="189"/>
+    </row>
+    <row r="99" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F99" s="170"/>
+      <c r="G99" s="170"/>
+      <c r="H99" s="170"/>
+      <c r="I99" s="170"/>
+      <c r="J99" s="170"/>
+      <c r="K99" s="170"/>
+      <c r="L99" s="170"/>
+      <c r="M99" s="170"/>
+      <c r="N99" s="170"/>
+      <c r="O99" s="170"/>
+      <c r="P99" s="170"/>
+      <c r="Q99" s="170"/>
+      <c r="R99" s="170"/>
+      <c r="S99" s="170"/>
+      <c r="T99" s="170"/>
+      <c r="U99" s="170"/>
+      <c r="V99" s="170"/>
+      <c r="W99" s="189"/>
+    </row>
+    <row r="100" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F100" s="170"/>
+      <c r="G100" s="170"/>
+      <c r="H100" s="170"/>
+      <c r="I100" s="170"/>
+      <c r="J100" s="170"/>
+      <c r="K100" s="170"/>
+      <c r="L100" s="170"/>
+      <c r="M100" s="170"/>
+      <c r="N100" s="170"/>
+      <c r="O100" s="170"/>
+      <c r="P100" s="170"/>
+      <c r="Q100" s="170"/>
+      <c r="R100" s="170"/>
+      <c r="S100" s="170"/>
+      <c r="T100" s="170"/>
+      <c r="U100" s="170"/>
+      <c r="V100" s="170"/>
+      <c r="W100" s="189"/>
+    </row>
+    <row r="101" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="170"/>
+      <c r="J101" s="170"/>
+      <c r="K101" s="170"/>
+      <c r="L101" s="170"/>
+      <c r="M101" s="170"/>
+      <c r="N101" s="170"/>
+      <c r="O101" s="170"/>
+      <c r="P101" s="170"/>
+      <c r="Q101" s="170"/>
+      <c r="R101" s="170"/>
+      <c r="S101" s="170"/>
+      <c r="T101" s="170"/>
+      <c r="U101" s="170"/>
+      <c r="V101" s="170"/>
+      <c r="W101" s="189"/>
+    </row>
+    <row r="102" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F102" s="170"/>
+      <c r="G102" s="170"/>
+      <c r="H102" s="170"/>
+      <c r="I102" s="170"/>
+      <c r="J102" s="170"/>
+      <c r="K102" s="170"/>
+      <c r="L102" s="170"/>
+      <c r="M102" s="170"/>
+      <c r="N102" s="170"/>
+      <c r="O102" s="170"/>
+      <c r="P102" s="170"/>
+      <c r="Q102" s="170"/>
+      <c r="R102" s="170"/>
+      <c r="S102" s="170"/>
+      <c r="T102" s="170"/>
+      <c r="U102" s="170"/>
+      <c r="V102" s="170"/>
+    </row>
+    <row r="103" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F103" s="170"/>
+      <c r="G103" s="170"/>
+      <c r="H103" s="170"/>
+      <c r="I103" s="170"/>
+      <c r="J103" s="170"/>
+      <c r="K103" s="170"/>
+      <c r="L103" s="170"/>
+      <c r="M103" s="170"/>
+      <c r="N103" s="170"/>
+      <c r="O103" s="170"/>
+      <c r="P103" s="170"/>
+      <c r="Q103" s="170"/>
+      <c r="R103" s="170"/>
+      <c r="S103" s="170"/>
+      <c r="T103" s="170"/>
+      <c r="U103" s="170"/>
+      <c r="V103" s="170"/>
+    </row>
+    <row r="104" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F104" s="170"/>
+      <c r="G104" s="170"/>
+      <c r="H104" s="170"/>
+      <c r="I104" s="170"/>
+      <c r="J104" s="170"/>
+      <c r="K104" s="170"/>
+      <c r="L104" s="170"/>
+      <c r="M104" s="170"/>
+      <c r="N104" s="170"/>
+      <c r="O104" s="170"/>
+      <c r="P104" s="170"/>
+      <c r="Q104" s="170"/>
+      <c r="R104" s="170"/>
+      <c r="S104" s="170"/>
+      <c r="T104" s="170"/>
+      <c r="U104" s="170"/>
+      <c r="V104" s="170"/>
+    </row>
+    <row r="105" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F105" s="170"/>
+      <c r="G105" s="170"/>
+      <c r="H105" s="170"/>
+      <c r="I105" s="170"/>
+      <c r="J105" s="170"/>
+      <c r="K105" s="170"/>
+      <c r="L105" s="170"/>
+      <c r="M105" s="170"/>
+      <c r="N105" s="170"/>
+      <c r="O105" s="170"/>
+      <c r="P105" s="170"/>
+      <c r="Q105" s="170"/>
+      <c r="R105" s="170"/>
+      <c r="S105" s="170"/>
+      <c r="T105" s="170"/>
+      <c r="U105" s="170"/>
+      <c r="V105" s="170"/>
+    </row>
+    <row r="106" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F106" s="170"/>
+      <c r="G106" s="170"/>
+      <c r="H106" s="170"/>
+      <c r="I106" s="170"/>
+      <c r="J106" s="170"/>
+      <c r="K106" s="170"/>
+      <c r="L106" s="170"/>
+      <c r="M106" s="170"/>
+      <c r="N106" s="170"/>
+      <c r="O106" s="170"/>
+      <c r="P106" s="170"/>
+      <c r="Q106" s="170"/>
+      <c r="R106" s="170"/>
+      <c r="S106" s="170"/>
+      <c r="T106" s="170"/>
+      <c r="U106" s="170"/>
+      <c r="V106" s="170"/>
+    </row>
+    <row r="107" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F107" s="170"/>
+      <c r="G107" s="170"/>
+      <c r="H107" s="170"/>
+      <c r="I107" s="170"/>
+      <c r="J107" s="170"/>
+      <c r="K107" s="170"/>
+      <c r="L107" s="170"/>
+      <c r="M107" s="170"/>
+      <c r="N107" s="170"/>
+      <c r="O107" s="170"/>
+      <c r="P107" s="170"/>
+      <c r="Q107" s="170"/>
+      <c r="R107" s="170"/>
+      <c r="S107" s="170"/>
+      <c r="T107" s="170"/>
+      <c r="U107" s="170"/>
+      <c r="V107" s="170"/>
+    </row>
+    <row r="108" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F108" s="170"/>
+      <c r="G108" s="170"/>
+      <c r="H108" s="170"/>
+      <c r="I108" s="170"/>
+      <c r="J108" s="170"/>
+      <c r="K108" s="170"/>
+      <c r="L108" s="170"/>
+      <c r="M108" s="170"/>
+      <c r="N108" s="170"/>
+      <c r="O108" s="170"/>
+      <c r="P108" s="170"/>
+      <c r="Q108" s="170"/>
+      <c r="R108" s="170"/>
+      <c r="S108" s="170"/>
+      <c r="T108" s="170"/>
+      <c r="U108" s="170"/>
+      <c r="V108" s="170"/>
+    </row>
+    <row r="109" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F109" s="170"/>
+      <c r="G109" s="170"/>
+      <c r="H109" s="170"/>
+      <c r="I109" s="170"/>
+      <c r="J109" s="170"/>
+      <c r="K109" s="170"/>
+      <c r="L109" s="170"/>
+      <c r="M109" s="170"/>
+      <c r="N109" s="170"/>
+      <c r="O109" s="170"/>
+      <c r="P109" s="170"/>
+      <c r="Q109" s="170"/>
+      <c r="R109" s="170"/>
+      <c r="S109" s="170"/>
+      <c r="T109" s="170"/>
+      <c r="U109" s="170"/>
+      <c r="V109" s="170"/>
+    </row>
+    <row r="110" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F110" s="170"/>
+      <c r="G110" s="170"/>
+      <c r="H110" s="170"/>
+      <c r="I110" s="170"/>
+      <c r="J110" s="170"/>
+      <c r="K110" s="170"/>
+      <c r="L110" s="170"/>
+      <c r="M110" s="170"/>
+      <c r="N110" s="170"/>
+      <c r="O110" s="170"/>
+      <c r="P110" s="170"/>
+      <c r="Q110" s="170"/>
+      <c r="R110" s="170"/>
+      <c r="S110" s="170"/>
+      <c r="T110" s="170"/>
+      <c r="U110" s="170"/>
+      <c r="V110" s="170"/>
+    </row>
+    <row r="111" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F111" s="170"/>
+      <c r="G111" s="170"/>
+      <c r="H111" s="170"/>
+      <c r="I111" s="170"/>
+      <c r="J111" s="170"/>
+      <c r="K111" s="170"/>
+      <c r="L111" s="170"/>
+      <c r="M111" s="170"/>
+      <c r="N111" s="170"/>
+      <c r="O111" s="170"/>
+      <c r="P111" s="170"/>
+      <c r="Q111" s="170"/>
+      <c r="R111" s="170"/>
+      <c r="S111" s="170"/>
+      <c r="T111" s="170"/>
+      <c r="U111" s="170"/>
+      <c r="V111" s="170"/>
+    </row>
+    <row r="112" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F112" s="170"/>
+      <c r="G112" s="170"/>
+      <c r="H112" s="170"/>
+      <c r="I112" s="170"/>
+      <c r="J112" s="170"/>
+      <c r="K112" s="170"/>
+      <c r="L112" s="170"/>
+      <c r="M112" s="170"/>
+      <c r="N112" s="170"/>
+      <c r="O112" s="170"/>
+      <c r="P112" s="170"/>
+      <c r="Q112" s="170"/>
+      <c r="R112" s="170"/>
+      <c r="S112" s="170"/>
+      <c r="T112" s="170"/>
+      <c r="U112" s="170"/>
+      <c r="V112" s="170"/>
+    </row>
+    <row r="113" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F113" s="170"/>
+      <c r="G113" s="170"/>
+      <c r="H113" s="170"/>
+      <c r="I113" s="170"/>
+      <c r="J113" s="170"/>
+      <c r="K113" s="170"/>
+      <c r="L113" s="170"/>
+      <c r="M113" s="170"/>
+      <c r="N113" s="170"/>
+      <c r="O113" s="170"/>
+      <c r="P113" s="170"/>
+      <c r="Q113" s="170"/>
+      <c r="R113" s="170"/>
+      <c r="S113" s="170"/>
+      <c r="T113" s="170"/>
+      <c r="U113" s="170"/>
+      <c r="V113" s="170"/>
+    </row>
+    <row r="114" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F114" s="170"/>
+      <c r="G114" s="170"/>
+      <c r="H114" s="170"/>
+      <c r="I114" s="170"/>
+      <c r="J114" s="170"/>
+      <c r="K114" s="170"/>
+      <c r="L114" s="170"/>
+      <c r="M114" s="170"/>
+      <c r="N114" s="170"/>
+      <c r="O114" s="170"/>
+      <c r="P114" s="170"/>
+      <c r="Q114" s="170"/>
+      <c r="R114" s="170"/>
+      <c r="S114" s="170"/>
+      <c r="T114" s="170"/>
+      <c r="U114" s="170"/>
+      <c r="V114" s="170"/>
+    </row>
+    <row r="115" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F115" s="170"/>
+      <c r="G115" s="170"/>
+      <c r="H115" s="170"/>
+      <c r="I115" s="170"/>
+      <c r="J115" s="170"/>
+      <c r="K115" s="170"/>
+      <c r="L115" s="170"/>
+      <c r="M115" s="170"/>
+      <c r="N115" s="170"/>
+      <c r="O115" s="170"/>
+      <c r="P115" s="170"/>
+      <c r="Q115" s="170"/>
+      <c r="R115" s="170"/>
+      <c r="S115" s="170"/>
+      <c r="T115" s="170"/>
+      <c r="U115" s="170"/>
+      <c r="V115" s="170"/>
+    </row>
+    <row r="116" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F116" s="170"/>
+      <c r="G116" s="170"/>
+      <c r="H116" s="170"/>
+      <c r="I116" s="170"/>
+      <c r="J116" s="170"/>
+      <c r="K116" s="170"/>
+      <c r="L116" s="170"/>
+      <c r="M116" s="170"/>
+      <c r="N116" s="170"/>
+      <c r="O116" s="170"/>
+      <c r="P116" s="170"/>
+      <c r="Q116" s="170"/>
+      <c r="R116" s="170"/>
+      <c r="S116" s="170"/>
+      <c r="T116" s="170"/>
+      <c r="U116" s="170"/>
+      <c r="V116" s="170"/>
+    </row>
+    <row r="117" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F117" s="170"/>
+      <c r="G117" s="170"/>
+      <c r="H117" s="170"/>
+      <c r="I117" s="170"/>
+      <c r="J117" s="170"/>
+      <c r="K117" s="170"/>
+      <c r="L117" s="170"/>
+      <c r="M117" s="170"/>
+      <c r="N117" s="170"/>
+      <c r="O117" s="170"/>
+      <c r="P117" s="170"/>
+      <c r="Q117" s="170"/>
+      <c r="R117" s="170"/>
+      <c r="S117" s="170"/>
+      <c r="T117" s="170"/>
+      <c r="U117" s="170"/>
+      <c r="V117" s="170"/>
+    </row>
+    <row r="118" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F118" s="170"/>
+      <c r="G118" s="170"/>
+      <c r="H118" s="170"/>
+      <c r="I118" s="170"/>
+      <c r="J118" s="170"/>
+      <c r="K118" s="170"/>
+      <c r="L118" s="170"/>
+      <c r="M118" s="170"/>
+      <c r="N118" s="170"/>
+      <c r="O118" s="170"/>
+      <c r="P118" s="170"/>
+      <c r="Q118" s="170"/>
+      <c r="R118" s="170"/>
+      <c r="S118" s="170"/>
+      <c r="T118" s="170"/>
+      <c r="U118" s="170"/>
+      <c r="V118" s="170"/>
+    </row>
+    <row r="119" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F119" s="170"/>
+      <c r="G119" s="170"/>
+      <c r="H119" s="170"/>
+      <c r="I119" s="170"/>
+      <c r="J119" s="170"/>
+      <c r="K119" s="170"/>
+      <c r="L119" s="170"/>
+      <c r="M119" s="170"/>
+      <c r="N119" s="170"/>
+      <c r="O119" s="170"/>
+      <c r="P119" s="170"/>
+      <c r="Q119" s="170"/>
+      <c r="R119" s="170"/>
+      <c r="S119" s="170"/>
+      <c r="T119" s="170"/>
+      <c r="U119" s="170"/>
+      <c r="V119" s="170"/>
+    </row>
+    <row r="120" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F120" s="170"/>
+      <c r="G120" s="170"/>
+      <c r="H120" s="170"/>
+      <c r="I120" s="170"/>
+      <c r="J120" s="170"/>
+      <c r="K120" s="170"/>
+      <c r="L120" s="170"/>
+      <c r="M120" s="170"/>
+      <c r="N120" s="170"/>
+      <c r="O120" s="170"/>
+      <c r="P120" s="170"/>
+      <c r="Q120" s="170"/>
+      <c r="R120" s="170"/>
+      <c r="S120" s="170"/>
+      <c r="T120" s="170"/>
+      <c r="U120" s="170"/>
+      <c r="V120" s="170"/>
+    </row>
+    <row r="121" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F121" s="170"/>
+      <c r="G121" s="170"/>
+      <c r="H121" s="170"/>
+      <c r="I121" s="170"/>
+      <c r="J121" s="170"/>
+      <c r="K121" s="170"/>
+      <c r="L121" s="170"/>
+      <c r="M121" s="170"/>
+      <c r="N121" s="170"/>
+      <c r="O121" s="170"/>
+      <c r="P121" s="170"/>
+      <c r="Q121" s="170"/>
+      <c r="R121" s="170"/>
+      <c r="S121" s="170"/>
+      <c r="T121" s="170"/>
+      <c r="U121" s="170"/>
+      <c r="V121" s="170"/>
+    </row>
+    <row r="122" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F122" s="170"/>
+      <c r="G122" s="170"/>
+      <c r="H122" s="170"/>
+      <c r="I122" s="170"/>
+      <c r="J122" s="170"/>
+      <c r="K122" s="170"/>
+      <c r="L122" s="170"/>
+      <c r="M122" s="170"/>
+      <c r="N122" s="170"/>
+      <c r="O122" s="170"/>
+      <c r="P122" s="170"/>
+      <c r="Q122" s="170"/>
+      <c r="R122" s="170"/>
+      <c r="S122" s="170"/>
+      <c r="T122" s="170"/>
+      <c r="U122" s="170"/>
+      <c r="V122" s="170"/>
+    </row>
+    <row r="123" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F123" s="170"/>
+      <c r="G123" s="170"/>
+      <c r="H123" s="170"/>
+      <c r="I123" s="170"/>
+      <c r="J123" s="170"/>
+      <c r="K123" s="170"/>
+      <c r="L123" s="170"/>
+      <c r="M123" s="170"/>
+      <c r="N123" s="170"/>
+      <c r="O123" s="170"/>
+      <c r="P123" s="170"/>
+      <c r="Q123" s="170"/>
+      <c r="R123" s="170"/>
+      <c r="S123" s="170"/>
+      <c r="T123" s="170"/>
+      <c r="U123" s="170"/>
+      <c r="V123" s="170"/>
+    </row>
+    <row r="124" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F124" s="170"/>
+      <c r="G124" s="170"/>
+      <c r="H124" s="170"/>
+      <c r="I124" s="170"/>
+      <c r="J124" s="170"/>
+      <c r="K124" s="170"/>
+      <c r="L124" s="170"/>
+      <c r="M124" s="170"/>
+      <c r="N124" s="170"/>
+      <c r="O124" s="170"/>
+      <c r="P124" s="170"/>
+      <c r="Q124" s="170"/>
+      <c r="R124" s="170"/>
+      <c r="S124" s="170"/>
+      <c r="T124" s="170"/>
+      <c r="U124" s="170"/>
+      <c r="V124" s="170"/>
+    </row>
+    <row r="125" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F125" s="170"/>
+      <c r="G125" s="170"/>
+      <c r="H125" s="170"/>
+      <c r="I125" s="170"/>
+      <c r="J125" s="170"/>
+      <c r="K125" s="170"/>
+      <c r="L125" s="170"/>
+      <c r="M125" s="170"/>
+      <c r="N125" s="170"/>
+      <c r="O125" s="170"/>
+      <c r="P125" s="170"/>
+      <c r="Q125" s="170"/>
+      <c r="R125" s="170"/>
+      <c r="S125" s="170"/>
+      <c r="T125" s="170"/>
+      <c r="U125" s="170"/>
+      <c r="V125" s="170"/>
+    </row>
+    <row r="126" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F126" s="170"/>
+      <c r="G126" s="170"/>
+      <c r="H126" s="170"/>
+      <c r="I126" s="170"/>
+      <c r="J126" s="170"/>
+      <c r="K126" s="170"/>
+      <c r="L126" s="170"/>
+      <c r="M126" s="170"/>
+      <c r="N126" s="170"/>
+      <c r="O126" s="170"/>
+      <c r="P126" s="170"/>
+      <c r="Q126" s="170"/>
+      <c r="R126" s="170"/>
+      <c r="S126" s="170"/>
+      <c r="T126" s="170"/>
+      <c r="U126" s="170"/>
+      <c r="V126" s="170"/>
+    </row>
+    <row r="127" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F127" s="170"/>
+      <c r="G127" s="170"/>
+      <c r="H127" s="170"/>
+      <c r="I127" s="170"/>
+      <c r="J127" s="170"/>
+      <c r="K127" s="170"/>
+      <c r="L127" s="170"/>
+      <c r="M127" s="170"/>
+      <c r="N127" s="170"/>
+      <c r="O127" s="170"/>
+      <c r="P127" s="170"/>
+      <c r="Q127" s="170"/>
+      <c r="R127" s="170"/>
+      <c r="S127" s="170"/>
+      <c r="T127" s="170"/>
+      <c r="U127" s="170"/>
+      <c r="V127" s="170"/>
+    </row>
+    <row r="128" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F128" s="170"/>
+      <c r="G128" s="170"/>
+      <c r="H128" s="170"/>
+      <c r="I128" s="170"/>
+      <c r="J128" s="170"/>
+      <c r="K128" s="170"/>
+      <c r="L128" s="170"/>
+      <c r="M128" s="170"/>
+      <c r="N128" s="170"/>
+      <c r="O128" s="170"/>
+      <c r="P128" s="170"/>
+      <c r="Q128" s="170"/>
+      <c r="R128" s="170"/>
+      <c r="S128" s="170"/>
+      <c r="T128" s="170"/>
+      <c r="U128" s="170"/>
+      <c r="V128" s="170"/>
+    </row>
+    <row r="129" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F129" s="170"/>
+      <c r="G129" s="170"/>
+      <c r="H129" s="170"/>
+      <c r="I129" s="170"/>
+      <c r="J129" s="170"/>
+      <c r="K129" s="170"/>
+      <c r="L129" s="170"/>
+      <c r="M129" s="170"/>
+      <c r="N129" s="170"/>
+      <c r="O129" s="170"/>
+      <c r="P129" s="170"/>
+      <c r="Q129" s="170"/>
+      <c r="R129" s="170"/>
+      <c r="S129" s="170"/>
+      <c r="T129" s="170"/>
+      <c r="U129" s="170"/>
+      <c r="V129" s="170"/>
+    </row>
+    <row r="130" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F130" s="170"/>
+      <c r="G130" s="170"/>
+      <c r="H130" s="170"/>
+      <c r="I130" s="170"/>
+      <c r="J130" s="170"/>
+      <c r="K130" s="170"/>
+      <c r="L130" s="170"/>
+      <c r="M130" s="170"/>
+      <c r="N130" s="170"/>
+      <c r="O130" s="170"/>
+      <c r="P130" s="170"/>
+      <c r="Q130" s="170"/>
+      <c r="R130" s="170"/>
+      <c r="S130" s="170"/>
+      <c r="T130" s="170"/>
+      <c r="U130" s="170"/>
+      <c r="V130" s="170"/>
+    </row>
+    <row r="131" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F131" s="170"/>
+      <c r="G131" s="170"/>
+      <c r="H131" s="170"/>
+      <c r="I131" s="170"/>
+      <c r="J131" s="170"/>
+      <c r="K131" s="170"/>
+      <c r="L131" s="170"/>
+      <c r="M131" s="170"/>
+      <c r="N131" s="170"/>
+      <c r="O131" s="170"/>
+      <c r="P131" s="170"/>
+      <c r="Q131" s="170"/>
+      <c r="R131" s="170"/>
+      <c r="S131" s="170"/>
+      <c r="T131" s="170"/>
+      <c r="U131" s="170"/>
+      <c r="V131" s="170"/>
+    </row>
+    <row r="132" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F132" s="170"/>
+      <c r="G132" s="170"/>
+      <c r="H132" s="170"/>
+      <c r="I132" s="170"/>
+      <c r="J132" s="170"/>
+      <c r="K132" s="170"/>
+      <c r="L132" s="170"/>
+      <c r="M132" s="170"/>
+      <c r="N132" s="170"/>
+      <c r="O132" s="170"/>
+      <c r="P132" s="170"/>
+      <c r="Q132" s="170"/>
+      <c r="R132" s="170"/>
+      <c r="S132" s="170"/>
+      <c r="T132" s="170"/>
+      <c r="U132" s="170"/>
+      <c r="V132" s="170"/>
+    </row>
+    <row r="133" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F133" s="170"/>
+      <c r="G133" s="170"/>
+      <c r="H133" s="170"/>
+      <c r="I133" s="170"/>
+      <c r="J133" s="170"/>
+      <c r="K133" s="170"/>
+      <c r="L133" s="170"/>
+      <c r="M133" s="170"/>
+      <c r="N133" s="170"/>
+      <c r="O133" s="170"/>
+      <c r="P133" s="170"/>
+      <c r="Q133" s="170"/>
+      <c r="R133" s="170"/>
+      <c r="S133" s="170"/>
+      <c r="T133" s="170"/>
+      <c r="U133" s="170"/>
+      <c r="V133" s="170"/>
+    </row>
+    <row r="134" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F134" s="170"/>
+      <c r="G134" s="170"/>
+      <c r="H134" s="170"/>
+      <c r="I134" s="170"/>
+      <c r="J134" s="170"/>
+      <c r="K134" s="170"/>
+      <c r="L134" s="170"/>
+      <c r="M134" s="170"/>
+      <c r="N134" s="170"/>
+      <c r="O134" s="170"/>
+      <c r="P134" s="170"/>
+      <c r="Q134" s="170"/>
+      <c r="R134" s="170"/>
+      <c r="S134" s="170"/>
+      <c r="T134" s="170"/>
+      <c r="U134" s="170"/>
+      <c r="V134" s="170"/>
+    </row>
+    <row r="135" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F135" s="170"/>
+      <c r="G135" s="170"/>
+      <c r="H135" s="170"/>
+      <c r="I135" s="170"/>
+      <c r="J135" s="170"/>
+      <c r="K135" s="170"/>
+      <c r="L135" s="170"/>
+      <c r="M135" s="170"/>
+      <c r="N135" s="170"/>
+      <c r="O135" s="170"/>
+      <c r="P135" s="170"/>
+      <c r="Q135" s="170"/>
+      <c r="R135" s="170"/>
+      <c r="S135" s="170"/>
+      <c r="T135" s="170"/>
+      <c r="U135" s="170"/>
+      <c r="V135" s="170"/>
+    </row>
+    <row r="136" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F136" s="170"/>
+      <c r="G136" s="170"/>
+      <c r="H136" s="170"/>
+      <c r="I136" s="170"/>
+      <c r="J136" s="170"/>
+      <c r="K136" s="170"/>
+      <c r="L136" s="170"/>
+      <c r="M136" s="170"/>
+      <c r="N136" s="170"/>
+      <c r="O136" s="170"/>
+      <c r="P136" s="170"/>
+      <c r="Q136" s="170"/>
+      <c r="R136" s="170"/>
+      <c r="S136" s="170"/>
+      <c r="T136" s="170"/>
+      <c r="U136" s="170"/>
+      <c r="V136" s="170"/>
+    </row>
+    <row r="137" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F137" s="170"/>
+      <c r="G137" s="170"/>
+      <c r="H137" s="170"/>
+      <c r="I137" s="170"/>
+      <c r="J137" s="170"/>
+      <c r="K137" s="170"/>
+      <c r="L137" s="170"/>
+      <c r="M137" s="170"/>
+      <c r="N137" s="170"/>
+      <c r="O137" s="170"/>
+      <c r="P137" s="170"/>
+      <c r="Q137" s="170"/>
+      <c r="R137" s="170"/>
+      <c r="S137" s="170"/>
+      <c r="T137" s="170"/>
+      <c r="U137" s="170"/>
+      <c r="V137" s="170"/>
+    </row>
+    <row r="138" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F138" s="170"/>
+      <c r="G138" s="170"/>
+      <c r="H138" s="170"/>
+      <c r="I138" s="170"/>
+      <c r="J138" s="170"/>
+      <c r="K138" s="170"/>
+      <c r="L138" s="170"/>
+      <c r="M138" s="170"/>
+      <c r="N138" s="170"/>
+      <c r="O138" s="170"/>
+      <c r="P138" s="170"/>
+      <c r="Q138" s="170"/>
+      <c r="R138" s="170"/>
+      <c r="S138" s="170"/>
+      <c r="T138" s="170"/>
+      <c r="U138" s="170"/>
+      <c r="V138" s="170"/>
+    </row>
+    <row r="139" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F139" s="170"/>
+      <c r="G139" s="170"/>
+      <c r="H139" s="170"/>
+      <c r="I139" s="170"/>
+      <c r="J139" s="170"/>
+      <c r="K139" s="170"/>
+      <c r="L139" s="170"/>
+      <c r="M139" s="170"/>
+      <c r="N139" s="170"/>
+      <c r="O139" s="170"/>
+      <c r="P139" s="170"/>
+      <c r="Q139" s="170"/>
+      <c r="R139" s="170"/>
+      <c r="S139" s="170"/>
+      <c r="T139" s="170"/>
+      <c r="U139" s="170"/>
+      <c r="V139" s="170"/>
+    </row>
+    <row r="140" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F140" s="170"/>
+      <c r="G140" s="170"/>
+      <c r="H140" s="170"/>
+      <c r="I140" s="170"/>
+      <c r="J140" s="170"/>
+      <c r="K140" s="170"/>
+      <c r="L140" s="170"/>
+      <c r="M140" s="170"/>
+      <c r="N140" s="170"/>
+      <c r="O140" s="170"/>
+      <c r="P140" s="170"/>
+      <c r="Q140" s="170"/>
+      <c r="R140" s="170"/>
+      <c r="S140" s="170"/>
+      <c r="T140" s="170"/>
+      <c r="U140" s="170"/>
+      <c r="V140" s="170"/>
+    </row>
+    <row r="141" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F141" s="170"/>
+      <c r="G141" s="170"/>
+      <c r="H141" s="170"/>
+      <c r="I141" s="170"/>
+      <c r="J141" s="170"/>
+      <c r="K141" s="170"/>
+      <c r="L141" s="170"/>
+      <c r="M141" s="170"/>
+      <c r="N141" s="170"/>
+      <c r="O141" s="170"/>
+      <c r="P141" s="170"/>
+      <c r="Q141" s="170"/>
+      <c r="R141" s="170"/>
+      <c r="S141" s="170"/>
+      <c r="T141" s="170"/>
+      <c r="U141" s="170"/>
+      <c r="V141" s="170"/>
+    </row>
+    <row r="142" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F142" s="170"/>
+      <c r="G142" s="170"/>
+      <c r="H142" s="170"/>
+      <c r="I142" s="170"/>
+      <c r="J142" s="170"/>
+      <c r="K142" s="170"/>
+      <c r="L142" s="170"/>
+      <c r="M142" s="170"/>
+      <c r="N142" s="170"/>
+      <c r="O142" s="170"/>
+      <c r="P142" s="170"/>
+      <c r="Q142" s="170"/>
+      <c r="R142" s="170"/>
+      <c r="S142" s="170"/>
+      <c r="T142" s="170"/>
+      <c r="U142" s="170"/>
+      <c r="V142" s="170"/>
+    </row>
+    <row r="143" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F143" s="170"/>
+      <c r="G143" s="170"/>
+      <c r="H143" s="170"/>
+      <c r="I143" s="170"/>
+      <c r="J143" s="170"/>
+      <c r="K143" s="170"/>
+      <c r="L143" s="170"/>
+      <c r="M143" s="170"/>
+      <c r="N143" s="170"/>
+      <c r="O143" s="170"/>
+      <c r="P143" s="170"/>
+      <c r="Q143" s="170"/>
+      <c r="R143" s="170"/>
+      <c r="S143" s="170"/>
+      <c r="T143" s="170"/>
+      <c r="U143" s="170"/>
+      <c r="V143" s="170"/>
+    </row>
+    <row r="144" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F144" s="170"/>
+      <c r="G144" s="170"/>
+      <c r="H144" s="170"/>
+      <c r="I144" s="170"/>
+      <c r="J144" s="170"/>
+      <c r="K144" s="170"/>
+      <c r="L144" s="170"/>
+      <c r="M144" s="170"/>
+      <c r="N144" s="170"/>
+      <c r="O144" s="170"/>
+      <c r="P144" s="170"/>
+      <c r="Q144" s="170"/>
+      <c r="R144" s="170"/>
+      <c r="S144" s="170"/>
+      <c r="T144" s="170"/>
+      <c r="U144" s="170"/>
+      <c r="V144" s="170"/>
+    </row>
+    <row r="145" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F145" s="170"/>
+      <c r="G145" s="170"/>
+      <c r="H145" s="170"/>
+      <c r="I145" s="170"/>
+      <c r="J145" s="170"/>
+      <c r="K145" s="170"/>
+      <c r="L145" s="170"/>
+      <c r="M145" s="170"/>
+      <c r="N145" s="170"/>
+      <c r="O145" s="170"/>
+      <c r="P145" s="170"/>
+      <c r="Q145" s="170"/>
+      <c r="R145" s="170"/>
+      <c r="S145" s="170"/>
+      <c r="T145" s="170"/>
+      <c r="U145" s="170"/>
+      <c r="V145" s="170"/>
+    </row>
+    <row r="146" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F146" s="170"/>
+      <c r="G146" s="170"/>
+      <c r="H146" s="170"/>
+      <c r="I146" s="170"/>
+      <c r="J146" s="170"/>
+      <c r="K146" s="170"/>
+      <c r="L146" s="170"/>
+      <c r="M146" s="170"/>
+      <c r="N146" s="170"/>
+      <c r="O146" s="170"/>
+      <c r="P146" s="170"/>
+      <c r="Q146" s="170"/>
+      <c r="R146" s="170"/>
+      <c r="S146" s="170"/>
+      <c r="T146" s="170"/>
+      <c r="U146" s="170"/>
+      <c r="V146" s="170"/>
+    </row>
+    <row r="147" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F147" s="170"/>
+      <c r="G147" s="170"/>
+      <c r="H147" s="170"/>
+      <c r="I147" s="170"/>
+      <c r="J147" s="170"/>
+      <c r="K147" s="170"/>
+      <c r="L147" s="170"/>
+      <c r="M147" s="170"/>
+      <c r="N147" s="170"/>
+      <c r="O147" s="170"/>
+      <c r="P147" s="170"/>
+      <c r="Q147" s="170"/>
+      <c r="R147" s="170"/>
+      <c r="S147" s="170"/>
+      <c r="T147" s="170"/>
+      <c r="U147" s="170"/>
+      <c r="V147" s="170"/>
+    </row>
+    <row r="148" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F148" s="170"/>
+      <c r="G148" s="170"/>
+      <c r="H148" s="170"/>
+      <c r="I148" s="170"/>
+      <c r="J148" s="170"/>
+      <c r="K148" s="170"/>
+      <c r="L148" s="170"/>
+      <c r="M148" s="170"/>
+      <c r="N148" s="170"/>
+      <c r="O148" s="170"/>
+      <c r="P148" s="170"/>
+      <c r="Q148" s="170"/>
+      <c r="R148" s="170"/>
+      <c r="S148" s="170"/>
+      <c r="T148" s="170"/>
+      <c r="U148" s="170"/>
+      <c r="V148" s="170"/>
+    </row>
+    <row r="149" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F149" s="170"/>
+      <c r="G149" s="170"/>
+      <c r="H149" s="170"/>
+      <c r="I149" s="170"/>
+      <c r="J149" s="170"/>
+      <c r="K149" s="170"/>
+      <c r="L149" s="170"/>
+      <c r="M149" s="170"/>
+      <c r="N149" s="170"/>
+      <c r="O149" s="170"/>
+      <c r="P149" s="170"/>
+      <c r="Q149" s="170"/>
+      <c r="R149" s="170"/>
+      <c r="S149" s="170"/>
+      <c r="T149" s="170"/>
+      <c r="U149" s="170"/>
+      <c r="V149" s="170"/>
+    </row>
+    <row r="150" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F150" s="170"/>
+      <c r="G150" s="170"/>
+      <c r="H150" s="170"/>
+      <c r="I150" s="170"/>
+      <c r="J150" s="170"/>
+      <c r="K150" s="170"/>
+      <c r="L150" s="170"/>
+      <c r="M150" s="170"/>
+      <c r="N150" s="170"/>
+      <c r="O150" s="170"/>
+      <c r="P150" s="170"/>
+      <c r="Q150" s="170"/>
+      <c r="R150" s="170"/>
+      <c r="S150" s="170"/>
+      <c r="T150" s="170"/>
+      <c r="U150" s="170"/>
+      <c r="V150" s="170"/>
+    </row>
+    <row r="151" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F151" s="170"/>
+      <c r="G151" s="170"/>
+      <c r="H151" s="170"/>
+      <c r="I151" s="170"/>
+      <c r="J151" s="170"/>
+      <c r="K151" s="170"/>
+      <c r="L151" s="170"/>
+      <c r="M151" s="170"/>
+      <c r="N151" s="170"/>
+      <c r="O151" s="170"/>
+      <c r="P151" s="170"/>
+      <c r="Q151" s="170"/>
+      <c r="R151" s="170"/>
+      <c r="S151" s="170"/>
+      <c r="T151" s="170"/>
+      <c r="U151" s="170"/>
+      <c r="V151" s="170"/>
+    </row>
+    <row r="152" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F152" s="170"/>
+      <c r="G152" s="170"/>
+      <c r="H152" s="170"/>
+      <c r="I152" s="170"/>
+      <c r="J152" s="170"/>
+      <c r="K152" s="170"/>
+      <c r="L152" s="170"/>
+      <c r="M152" s="170"/>
+      <c r="N152" s="170"/>
+      <c r="O152" s="170"/>
+      <c r="P152" s="170"/>
+      <c r="Q152" s="170"/>
+      <c r="R152" s="170"/>
+      <c r="S152" s="170"/>
+      <c r="T152" s="170"/>
+      <c r="U152" s="170"/>
+      <c r="V152" s="170"/>
+    </row>
+    <row r="153" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F153" s="170"/>
+      <c r="G153" s="170"/>
+      <c r="H153" s="170"/>
+      <c r="I153" s="170"/>
+      <c r="J153" s="170"/>
+      <c r="K153" s="170"/>
+      <c r="L153" s="170"/>
+      <c r="M153" s="170"/>
+      <c r="N153" s="170"/>
+      <c r="O153" s="170"/>
+      <c r="P153" s="170"/>
+      <c r="Q153" s="170"/>
+      <c r="R153" s="170"/>
+      <c r="S153" s="170"/>
+      <c r="T153" s="170"/>
+      <c r="U153" s="170"/>
+      <c r="V153" s="170"/>
+    </row>
+    <row r="154" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F154" s="170"/>
+      <c r="G154" s="170"/>
+      <c r="H154" s="170"/>
+      <c r="I154" s="170"/>
+      <c r="J154" s="170"/>
+      <c r="K154" s="170"/>
+      <c r="L154" s="170"/>
+      <c r="M154" s="170"/>
+      <c r="N154" s="170"/>
+      <c r="O154" s="170"/>
+      <c r="P154" s="170"/>
+      <c r="Q154" s="170"/>
+      <c r="R154" s="170"/>
+      <c r="S154" s="170"/>
+      <c r="T154" s="170"/>
+      <c r="U154" s="170"/>
+      <c r="V154" s="170"/>
+    </row>
+    <row r="155" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F155" s="170"/>
+      <c r="G155" s="170"/>
+      <c r="H155" s="170"/>
+      <c r="I155" s="170"/>
+      <c r="J155" s="170"/>
+      <c r="K155" s="170"/>
+      <c r="L155" s="170"/>
+      <c r="M155" s="170"/>
+      <c r="N155" s="170"/>
+      <c r="O155" s="170"/>
+      <c r="P155" s="170"/>
+      <c r="Q155" s="170"/>
+      <c r="R155" s="170"/>
+      <c r="S155" s="170"/>
+      <c r="T155" s="170"/>
+      <c r="U155" s="170"/>
+      <c r="V155" s="170"/>
+    </row>
+    <row r="156" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F156" s="170"/>
+      <c r="G156" s="170"/>
+      <c r="H156" s="170"/>
+      <c r="I156" s="170"/>
+      <c r="J156" s="170"/>
+      <c r="K156" s="170"/>
+      <c r="L156" s="170"/>
+      <c r="M156" s="170"/>
+      <c r="N156" s="170"/>
+      <c r="O156" s="170"/>
+      <c r="P156" s="170"/>
+      <c r="Q156" s="170"/>
+      <c r="R156" s="170"/>
+      <c r="S156" s="170"/>
+      <c r="T156" s="170"/>
+      <c r="U156" s="170"/>
+      <c r="V156" s="170"/>
+    </row>
+    <row r="157" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F157" s="170"/>
+      <c r="G157" s="170"/>
+      <c r="H157" s="170"/>
+      <c r="I157" s="170"/>
+      <c r="J157" s="170"/>
+      <c r="K157" s="170"/>
+      <c r="L157" s="170"/>
+      <c r="M157" s="170"/>
+      <c r="N157" s="170"/>
+      <c r="O157" s="170"/>
+      <c r="P157" s="170"/>
+      <c r="Q157" s="170"/>
+      <c r="R157" s="170"/>
+      <c r="S157" s="170"/>
+      <c r="T157" s="170"/>
+      <c r="U157" s="170"/>
+      <c r="V157" s="170"/>
+    </row>
+    <row r="158" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F158" s="170"/>
+      <c r="G158" s="170"/>
+      <c r="H158" s="170"/>
+      <c r="I158" s="170"/>
+      <c r="J158" s="170"/>
+      <c r="K158" s="170"/>
+      <c r="L158" s="170"/>
+      <c r="M158" s="170"/>
+      <c r="N158" s="170"/>
+      <c r="O158" s="170"/>
+      <c r="P158" s="170"/>
+      <c r="Q158" s="170"/>
+      <c r="R158" s="170"/>
+      <c r="S158" s="170"/>
+      <c r="T158" s="170"/>
+      <c r="U158" s="170"/>
+      <c r="V158" s="170"/>
+    </row>
+    <row r="159" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F159" s="170"/>
+      <c r="G159" s="170"/>
+      <c r="H159" s="170"/>
+      <c r="I159" s="170"/>
+      <c r="J159" s="170"/>
+      <c r="K159" s="170"/>
+      <c r="L159" s="170"/>
+      <c r="M159" s="170"/>
+      <c r="N159" s="170"/>
+      <c r="O159" s="170"/>
+      <c r="P159" s="170"/>
+      <c r="Q159" s="170"/>
+      <c r="R159" s="170"/>
+      <c r="S159" s="170"/>
+      <c r="T159" s="170"/>
+      <c r="U159" s="170"/>
+      <c r="V159" s="170"/>
+    </row>
+    <row r="160" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F160" s="170"/>
+      <c r="G160" s="170"/>
+      <c r="H160" s="170"/>
+      <c r="I160" s="170"/>
+      <c r="J160" s="170"/>
+      <c r="K160" s="170"/>
+      <c r="L160" s="170"/>
+      <c r="M160" s="170"/>
+      <c r="N160" s="170"/>
+      <c r="O160" s="170"/>
+      <c r="P160" s="170"/>
+      <c r="Q160" s="170"/>
+      <c r="R160" s="170"/>
+      <c r="S160" s="170"/>
+      <c r="T160" s="170"/>
+      <c r="U160" s="170"/>
+      <c r="V160" s="170"/>
+    </row>
+    <row r="161" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F161" s="170"/>
+      <c r="G161" s="170"/>
+      <c r="H161" s="170"/>
+      <c r="I161" s="170"/>
+      <c r="J161" s="170"/>
+      <c r="K161" s="170"/>
+      <c r="L161" s="170"/>
+      <c r="M161" s="170"/>
+      <c r="N161" s="170"/>
+      <c r="O161" s="170"/>
+      <c r="P161" s="170"/>
+      <c r="Q161" s="170"/>
+      <c r="R161" s="170"/>
+      <c r="S161" s="170"/>
+      <c r="T161" s="170"/>
+      <c r="U161" s="170"/>
+      <c r="V161" s="170"/>
+    </row>
+    <row r="162" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F162" s="170"/>
+      <c r="G162" s="170"/>
+      <c r="H162" s="170"/>
+      <c r="I162" s="170"/>
+      <c r="J162" s="170"/>
+      <c r="K162" s="170"/>
+      <c r="L162" s="170"/>
+      <c r="M162" s="170"/>
+      <c r="N162" s="170"/>
+      <c r="O162" s="170"/>
+      <c r="P162" s="170"/>
+      <c r="Q162" s="170"/>
+      <c r="R162" s="170"/>
+      <c r="S162" s="170"/>
+      <c r="T162" s="170"/>
+      <c r="U162" s="170"/>
+      <c r="V162" s="170"/>
+    </row>
+    <row r="163" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F163" s="170"/>
+      <c r="G163" s="170"/>
+      <c r="H163" s="170"/>
+      <c r="I163" s="170"/>
+      <c r="J163" s="170"/>
+      <c r="K163" s="170"/>
+      <c r="L163" s="170"/>
+      <c r="M163" s="170"/>
+      <c r="N163" s="170"/>
+      <c r="O163" s="170"/>
+      <c r="P163" s="170"/>
+      <c r="Q163" s="170"/>
+      <c r="R163" s="170"/>
+      <c r="S163" s="170"/>
+      <c r="T163" s="170"/>
+      <c r="U163" s="170"/>
+      <c r="V163" s="170"/>
+    </row>
+    <row r="164" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F164" s="170"/>
+      <c r="G164" s="170"/>
+      <c r="H164" s="170"/>
+      <c r="I164" s="170"/>
+      <c r="J164" s="170"/>
+      <c r="K164" s="170"/>
+      <c r="L164" s="170"/>
+      <c r="M164" s="170"/>
+      <c r="N164" s="170"/>
+      <c r="O164" s="170"/>
+      <c r="P164" s="170"/>
+      <c r="Q164" s="170"/>
+      <c r="R164" s="170"/>
+      <c r="S164" s="170"/>
+      <c r="T164" s="170"/>
+      <c r="U164" s="170"/>
+      <c r="V164" s="170"/>
+    </row>
+    <row r="165" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F165" s="170"/>
+      <c r="G165" s="170"/>
+      <c r="H165" s="170"/>
+      <c r="I165" s="170"/>
+      <c r="J165" s="170"/>
+      <c r="K165" s="170"/>
+      <c r="L165" s="170"/>
+      <c r="M165" s="170"/>
+      <c r="N165" s="170"/>
+      <c r="O165" s="170"/>
+      <c r="P165" s="170"/>
+      <c r="Q165" s="170"/>
+      <c r="R165" s="170"/>
+      <c r="S165" s="170"/>
+      <c r="T165" s="170"/>
+      <c r="U165" s="170"/>
+      <c r="V165" s="170"/>
+    </row>
+    <row r="166" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F166" s="170"/>
+      <c r="G166" s="170"/>
+      <c r="H166" s="170"/>
+      <c r="I166" s="170"/>
+      <c r="J166" s="170"/>
+      <c r="K166" s="170"/>
+      <c r="L166" s="170"/>
+      <c r="M166" s="170"/>
+      <c r="N166" s="170"/>
+      <c r="O166" s="170"/>
+      <c r="P166" s="170"/>
+      <c r="Q166" s="170"/>
+      <c r="R166" s="170"/>
+      <c r="S166" s="170"/>
+      <c r="T166" s="170"/>
+      <c r="U166" s="170"/>
+      <c r="V166" s="170"/>
+    </row>
+    <row r="167" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F167" s="170"/>
+      <c r="G167" s="170"/>
+      <c r="H167" s="170"/>
+      <c r="I167" s="170"/>
+      <c r="J167" s="170"/>
+      <c r="K167" s="170"/>
+      <c r="L167" s="170"/>
+      <c r="M167" s="170"/>
+      <c r="N167" s="170"/>
+      <c r="O167" s="170"/>
+      <c r="P167" s="170"/>
+      <c r="Q167" s="170"/>
+      <c r="R167" s="170"/>
+      <c r="S167" s="170"/>
+      <c r="T167" s="170"/>
+      <c r="U167" s="170"/>
+      <c r="V167" s="170"/>
+    </row>
+    <row r="168" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F168" s="170"/>
+      <c r="G168" s="170"/>
+      <c r="H168" s="170"/>
+      <c r="I168" s="170"/>
+      <c r="J168" s="170"/>
+      <c r="K168" s="170"/>
+      <c r="L168" s="170"/>
+      <c r="M168" s="170"/>
+      <c r="N168" s="170"/>
+      <c r="O168" s="170"/>
+      <c r="P168" s="170"/>
+      <c r="Q168" s="170"/>
+      <c r="R168" s="170"/>
+      <c r="S168" s="170"/>
+      <c r="T168" s="170"/>
+      <c r="U168" s="170"/>
+      <c r="V168" s="170"/>
+    </row>
+    <row r="169" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F169" s="170"/>
+      <c r="G169" s="170"/>
+      <c r="H169" s="170"/>
+      <c r="I169" s="170"/>
+      <c r="J169" s="170"/>
+      <c r="K169" s="170"/>
+      <c r="L169" s="170"/>
+      <c r="M169" s="170"/>
+      <c r="N169" s="170"/>
+      <c r="O169" s="170"/>
+      <c r="P169" s="170"/>
+      <c r="Q169" s="170"/>
+      <c r="R169" s="170"/>
+      <c r="S169" s="170"/>
+      <c r="T169" s="170"/>
+      <c r="U169" s="170"/>
+      <c r="V169" s="170"/>
+    </row>
+    <row r="170" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F170" s="170"/>
+      <c r="G170" s="170"/>
+      <c r="H170" s="170"/>
+      <c r="I170" s="170"/>
+      <c r="J170" s="170"/>
+      <c r="K170" s="170"/>
+      <c r="L170" s="170"/>
+      <c r="M170" s="170"/>
+      <c r="N170" s="170"/>
+      <c r="O170" s="170"/>
+      <c r="P170" s="170"/>
+      <c r="Q170" s="170"/>
+      <c r="R170" s="170"/>
+      <c r="S170" s="170"/>
+      <c r="T170" s="170"/>
+      <c r="U170" s="170"/>
+      <c r="V170" s="170"/>
+    </row>
+    <row r="171" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F171" s="170"/>
+      <c r="G171" s="170"/>
+      <c r="H171" s="170"/>
+      <c r="I171" s="170"/>
+      <c r="J171" s="170"/>
+      <c r="K171" s="170"/>
+      <c r="L171" s="170"/>
+      <c r="M171" s="170"/>
+      <c r="N171" s="170"/>
+      <c r="O171" s="170"/>
+      <c r="P171" s="170"/>
+      <c r="Q171" s="170"/>
+      <c r="R171" s="170"/>
+      <c r="S171" s="170"/>
+      <c r="T171" s="170"/>
+      <c r="U171" s="170"/>
+      <c r="V171" s="170"/>
+    </row>
+    <row r="172" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F172" s="170"/>
+      <c r="G172" s="170"/>
+      <c r="H172" s="170"/>
+      <c r="I172" s="170"/>
+      <c r="J172" s="170"/>
+      <c r="K172" s="170"/>
+      <c r="L172" s="170"/>
+      <c r="M172" s="170"/>
+      <c r="N172" s="170"/>
+      <c r="O172" s="170"/>
+      <c r="P172" s="170"/>
+      <c r="Q172" s="170"/>
+      <c r="R172" s="170"/>
+      <c r="S172" s="170"/>
+      <c r="T172" s="170"/>
+      <c r="U172" s="170"/>
+      <c r="V172" s="170"/>
+    </row>
+    <row r="173" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F173" s="170"/>
+      <c r="G173" s="170"/>
+      <c r="H173" s="170"/>
+      <c r="I173" s="170"/>
+      <c r="J173" s="170"/>
+      <c r="K173" s="170"/>
+      <c r="L173" s="170"/>
+      <c r="M173" s="170"/>
+      <c r="N173" s="170"/>
+      <c r="O173" s="170"/>
+      <c r="P173" s="170"/>
+      <c r="Q173" s="170"/>
+      <c r="R173" s="170"/>
+      <c r="S173" s="170"/>
+      <c r="T173" s="170"/>
+      <c r="U173" s="170"/>
+      <c r="V173" s="170"/>
+    </row>
+    <row r="174" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F174" s="170"/>
+      <c r="G174" s="170"/>
+      <c r="H174" s="170"/>
+      <c r="I174" s="170"/>
+      <c r="J174" s="170"/>
+      <c r="K174" s="170"/>
+      <c r="L174" s="170"/>
+      <c r="M174" s="170"/>
+      <c r="N174" s="170"/>
+      <c r="O174" s="170"/>
+      <c r="P174" s="170"/>
+      <c r="Q174" s="170"/>
+      <c r="R174" s="170"/>
+      <c r="S174" s="170"/>
+      <c r="T174" s="170"/>
+      <c r="U174" s="170"/>
+      <c r="V174" s="170"/>
+    </row>
+    <row r="175" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F175" s="170"/>
+      <c r="G175" s="170"/>
+      <c r="H175" s="170"/>
+      <c r="I175" s="170"/>
+      <c r="J175" s="170"/>
+      <c r="K175" s="170"/>
+      <c r="L175" s="170"/>
+      <c r="M175" s="170"/>
+      <c r="N175" s="170"/>
+      <c r="O175" s="170"/>
+      <c r="P175" s="170"/>
+      <c r="Q175" s="170"/>
+      <c r="R175" s="170"/>
+      <c r="S175" s="170"/>
+      <c r="T175" s="170"/>
+      <c r="U175" s="170"/>
+      <c r="V175" s="170"/>
+    </row>
+    <row r="176" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F176" s="170"/>
+      <c r="G176" s="170"/>
+      <c r="H176" s="170"/>
+      <c r="I176" s="170"/>
+      <c r="J176" s="170"/>
+      <c r="K176" s="170"/>
+      <c r="L176" s="170"/>
+      <c r="M176" s="170"/>
+      <c r="N176" s="170"/>
+      <c r="O176" s="170"/>
+      <c r="P176" s="170"/>
+      <c r="Q176" s="170"/>
+      <c r="R176" s="170"/>
+      <c r="S176" s="170"/>
+      <c r="T176" s="170"/>
+      <c r="U176" s="170"/>
+      <c r="V176" s="170"/>
+    </row>
+    <row r="177" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F177" s="170"/>
+      <c r="G177" s="170"/>
+      <c r="H177" s="170"/>
+      <c r="I177" s="170"/>
+      <c r="J177" s="170"/>
+      <c r="K177" s="170"/>
+      <c r="L177" s="170"/>
+      <c r="M177" s="170"/>
+      <c r="N177" s="170"/>
+      <c r="O177" s="170"/>
+      <c r="P177" s="170"/>
+      <c r="Q177" s="170"/>
+      <c r="R177" s="170"/>
+      <c r="S177" s="170"/>
+      <c r="T177" s="170"/>
+      <c r="U177" s="170"/>
+      <c r="V177" s="170"/>
+    </row>
+    <row r="178" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F178" s="170"/>
+      <c r="G178" s="170"/>
+      <c r="H178" s="170"/>
+      <c r="I178" s="170"/>
+      <c r="J178" s="170"/>
+      <c r="K178" s="170"/>
+      <c r="L178" s="170"/>
+      <c r="M178" s="170"/>
+      <c r="N178" s="170"/>
+      <c r="O178" s="170"/>
+      <c r="P178" s="170"/>
+      <c r="Q178" s="170"/>
+      <c r="R178" s="170"/>
+      <c r="S178" s="170"/>
+      <c r="T178" s="170"/>
+      <c r="U178" s="170"/>
+      <c r="V178" s="170"/>
+    </row>
+    <row r="179" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F179" s="170"/>
+      <c r="G179" s="170"/>
+      <c r="H179" s="170"/>
+      <c r="I179" s="170"/>
+      <c r="J179" s="170"/>
+      <c r="K179" s="170"/>
+      <c r="L179" s="170"/>
+      <c r="M179" s="170"/>
+      <c r="N179" s="170"/>
+      <c r="O179" s="170"/>
+      <c r="P179" s="170"/>
+      <c r="Q179" s="170"/>
+      <c r="R179" s="170"/>
+      <c r="S179" s="170"/>
+      <c r="T179" s="170"/>
+      <c r="U179" s="170"/>
+      <c r="V179" s="170"/>
+    </row>
+    <row r="180" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F180" s="170"/>
+      <c r="G180" s="170"/>
+      <c r="H180" s="170"/>
+      <c r="I180" s="170"/>
+      <c r="J180" s="170"/>
+      <c r="K180" s="170"/>
+      <c r="L180" s="170"/>
+      <c r="M180" s="170"/>
+      <c r="N180" s="170"/>
+      <c r="O180" s="170"/>
+      <c r="P180" s="170"/>
+      <c r="Q180" s="170"/>
+      <c r="R180" s="170"/>
+      <c r="S180" s="170"/>
+      <c r="T180" s="170"/>
+      <c r="U180" s="170"/>
+      <c r="V180" s="170"/>
+    </row>
+    <row r="181" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F181" s="170"/>
+      <c r="G181" s="170"/>
+      <c r="H181" s="170"/>
+      <c r="I181" s="170"/>
+      <c r="J181" s="170"/>
+      <c r="K181" s="170"/>
+      <c r="L181" s="170"/>
+      <c r="M181" s="170"/>
+      <c r="N181" s="170"/>
+      <c r="O181" s="170"/>
+      <c r="P181" s="170"/>
+      <c r="Q181" s="170"/>
+      <c r="R181" s="170"/>
+      <c r="S181" s="170"/>
+      <c r="T181" s="170"/>
+      <c r="U181" s="170"/>
+      <c r="V181" s="170"/>
+    </row>
+    <row r="182" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F182" s="170"/>
+      <c r="G182" s="170"/>
+      <c r="H182" s="170"/>
+      <c r="I182" s="170"/>
+      <c r="J182" s="170"/>
+      <c r="K182" s="170"/>
+      <c r="L182" s="170"/>
+      <c r="M182" s="170"/>
+      <c r="N182" s="170"/>
+      <c r="O182" s="170"/>
+      <c r="P182" s="170"/>
+      <c r="Q182" s="170"/>
+      <c r="R182" s="170"/>
+      <c r="S182" s="170"/>
+      <c r="T182" s="170"/>
+      <c r="U182" s="170"/>
+      <c r="V182" s="170"/>
+    </row>
+    <row r="183" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F183" s="170"/>
+      <c r="G183" s="170"/>
+      <c r="H183" s="170"/>
+      <c r="I183" s="170"/>
+      <c r="J183" s="170"/>
+      <c r="K183" s="170"/>
+      <c r="L183" s="170"/>
+      <c r="M183" s="170"/>
+      <c r="N183" s="170"/>
+      <c r="O183" s="170"/>
+      <c r="P183" s="170"/>
+      <c r="Q183" s="170"/>
+      <c r="R183" s="170"/>
+      <c r="S183" s="170"/>
+      <c r="T183" s="170"/>
+      <c r="U183" s="170"/>
+      <c r="V183" s="170"/>
+    </row>
+    <row r="184" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F184" s="170"/>
+      <c r="G184" s="170"/>
+      <c r="H184" s="170"/>
+      <c r="I184" s="170"/>
+      <c r="J184" s="170"/>
+      <c r="K184" s="170"/>
+      <c r="L184" s="170"/>
+      <c r="M184" s="170"/>
+      <c r="N184" s="170"/>
+      <c r="O184" s="170"/>
+      <c r="P184" s="170"/>
+      <c r="Q184" s="170"/>
+      <c r="R184" s="170"/>
+      <c r="S184" s="170"/>
+      <c r="T184" s="170"/>
+      <c r="U184" s="170"/>
+      <c r="V184" s="170"/>
+    </row>
+    <row r="185" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F185" s="170"/>
+      <c r="G185" s="170"/>
+      <c r="H185" s="170"/>
+      <c r="I185" s="170"/>
+      <c r="J185" s="170"/>
+      <c r="K185" s="170"/>
+      <c r="L185" s="170"/>
+      <c r="M185" s="170"/>
+      <c r="N185" s="170"/>
+      <c r="O185" s="170"/>
+      <c r="P185" s="170"/>
+      <c r="Q185" s="170"/>
+      <c r="R185" s="170"/>
+      <c r="S185" s="170"/>
+      <c r="T185" s="170"/>
+      <c r="U185" s="170"/>
+      <c r="V185" s="170"/>
+    </row>
+    <row r="186" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F186" s="170"/>
+      <c r="G186" s="170"/>
+      <c r="H186" s="170"/>
+      <c r="I186" s="170"/>
+      <c r="J186" s="170"/>
+      <c r="K186" s="170"/>
+      <c r="L186" s="170"/>
+      <c r="M186" s="170"/>
+      <c r="N186" s="170"/>
+      <c r="O186" s="170"/>
+      <c r="P186" s="170"/>
+      <c r="Q186" s="170"/>
+      <c r="R186" s="170"/>
+      <c r="S186" s="170"/>
+      <c r="T186" s="170"/>
+      <c r="U186" s="170"/>
+      <c r="V186" s="170"/>
+    </row>
+    <row r="187" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F187" s="170"/>
+      <c r="G187" s="170"/>
+      <c r="H187" s="170"/>
+      <c r="I187" s="170"/>
+      <c r="J187" s="170"/>
+      <c r="K187" s="170"/>
+      <c r="L187" s="170"/>
+      <c r="M187" s="170"/>
+      <c r="N187" s="170"/>
+      <c r="O187" s="170"/>
+      <c r="P187" s="170"/>
+      <c r="Q187" s="170"/>
+      <c r="R187" s="170"/>
+      <c r="S187" s="170"/>
+      <c r="T187" s="170"/>
+      <c r="U187" s="170"/>
+      <c r="V187" s="170"/>
+    </row>
+    <row r="188" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F188" s="170"/>
+      <c r="G188" s="170"/>
+      <c r="H188" s="170"/>
+      <c r="I188" s="170"/>
+      <c r="J188" s="170"/>
+      <c r="K188" s="170"/>
+      <c r="L188" s="170"/>
+      <c r="M188" s="170"/>
+      <c r="N188" s="170"/>
+      <c r="O188" s="170"/>
+      <c r="P188" s="170"/>
+      <c r="Q188" s="170"/>
+      <c r="R188" s="170"/>
+      <c r="S188" s="170"/>
+      <c r="T188" s="170"/>
+      <c r="U188" s="170"/>
+      <c r="V188" s="170"/>
+    </row>
+    <row r="189" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F189" s="170"/>
+      <c r="G189" s="170"/>
+      <c r="H189" s="170"/>
+      <c r="I189" s="170"/>
+      <c r="J189" s="170"/>
+      <c r="K189" s="170"/>
+      <c r="L189" s="170"/>
+      <c r="M189" s="170"/>
+      <c r="N189" s="170"/>
+      <c r="O189" s="170"/>
+      <c r="P189" s="170"/>
+      <c r="Q189" s="170"/>
+      <c r="R189" s="170"/>
+      <c r="S189" s="170"/>
+      <c r="T189" s="170"/>
+      <c r="U189" s="170"/>
+      <c r="V189" s="170"/>
+    </row>
+    <row r="190" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F190" s="170"/>
+      <c r="G190" s="170"/>
+      <c r="H190" s="170"/>
+      <c r="I190" s="170"/>
+      <c r="J190" s="170"/>
+      <c r="K190" s="170"/>
+      <c r="L190" s="170"/>
+      <c r="M190" s="170"/>
+      <c r="N190" s="170"/>
+      <c r="O190" s="170"/>
+      <c r="P190" s="170"/>
+      <c r="Q190" s="170"/>
+      <c r="R190" s="170"/>
+      <c r="S190" s="170"/>
+      <c r="T190" s="170"/>
+      <c r="U190" s="170"/>
+      <c r="V190" s="170"/>
+    </row>
+    <row r="191" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F191" s="170"/>
+      <c r="G191" s="170"/>
+      <c r="H191" s="170"/>
+      <c r="I191" s="170"/>
+      <c r="J191" s="170"/>
+      <c r="K191" s="170"/>
+      <c r="L191" s="170"/>
+      <c r="M191" s="170"/>
+      <c r="N191" s="170"/>
+      <c r="O191" s="170"/>
+      <c r="P191" s="170"/>
+      <c r="Q191" s="170"/>
+      <c r="R191" s="170"/>
+      <c r="S191" s="170"/>
+      <c r="T191" s="170"/>
+      <c r="U191" s="170"/>
+      <c r="V191" s="170"/>
+    </row>
+    <row r="192" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F192" s="170"/>
+      <c r="G192" s="170"/>
+      <c r="H192" s="170"/>
+      <c r="I192" s="170"/>
+      <c r="J192" s="170"/>
+      <c r="K192" s="170"/>
+      <c r="L192" s="170"/>
+      <c r="M192" s="170"/>
+      <c r="N192" s="170"/>
+      <c r="O192" s="170"/>
+      <c r="P192" s="170"/>
+      <c r="Q192" s="170"/>
+      <c r="R192" s="170"/>
+      <c r="S192" s="170"/>
+      <c r="T192" s="170"/>
+      <c r="U192" s="170"/>
+      <c r="V192" s="170"/>
+    </row>
+    <row r="193" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F193" s="170"/>
+      <c r="G193" s="170"/>
+      <c r="H193" s="170"/>
+      <c r="I193" s="170"/>
+      <c r="J193" s="170"/>
+      <c r="K193" s="170"/>
+      <c r="L193" s="170"/>
+      <c r="M193" s="170"/>
+      <c r="N193" s="170"/>
+      <c r="O193" s="170"/>
+      <c r="P193" s="170"/>
+      <c r="Q193" s="170"/>
+      <c r="R193" s="170"/>
+      <c r="S193" s="170"/>
+      <c r="T193" s="170"/>
+      <c r="U193" s="170"/>
+      <c r="V193" s="170"/>
+    </row>
+    <row r="194" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F194" s="170"/>
+      <c r="G194" s="170"/>
+      <c r="H194" s="170"/>
+      <c r="I194" s="170"/>
+      <c r="J194" s="170"/>
+      <c r="K194" s="170"/>
+      <c r="L194" s="170"/>
+      <c r="M194" s="170"/>
+      <c r="N194" s="170"/>
+      <c r="O194" s="170"/>
+      <c r="P194" s="170"/>
+      <c r="Q194" s="170"/>
+      <c r="R194" s="170"/>
+      <c r="S194" s="170"/>
+      <c r="T194" s="170"/>
+      <c r="U194" s="170"/>
+      <c r="V194" s="170"/>
+    </row>
+    <row r="195" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F195" s="170"/>
+      <c r="G195" s="170"/>
+      <c r="H195" s="170"/>
+      <c r="I195" s="170"/>
+      <c r="J195" s="170"/>
+      <c r="K195" s="170"/>
+      <c r="L195" s="170"/>
+      <c r="M195" s="170"/>
+      <c r="N195" s="170"/>
+      <c r="O195" s="170"/>
+      <c r="P195" s="170"/>
+      <c r="Q195" s="170"/>
+      <c r="R195" s="170"/>
+      <c r="S195" s="170"/>
+      <c r="T195" s="170"/>
+      <c r="U195" s="170"/>
+      <c r="V195" s="170"/>
+    </row>
+    <row r="196" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F196" s="170"/>
+      <c r="G196" s="170"/>
+      <c r="H196" s="170"/>
+      <c r="I196" s="170"/>
+      <c r="J196" s="170"/>
+      <c r="K196" s="170"/>
+      <c r="L196" s="170"/>
+      <c r="M196" s="170"/>
+      <c r="N196" s="170"/>
+      <c r="O196" s="170"/>
+      <c r="P196" s="170"/>
+      <c r="Q196" s="170"/>
+      <c r="R196" s="170"/>
+      <c r="S196" s="170"/>
+      <c r="T196" s="170"/>
+      <c r="U196" s="170"/>
+      <c r="V196" s="170"/>
+    </row>
+    <row r="197" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F197" s="170"/>
+      <c r="G197" s="170"/>
+      <c r="H197" s="170"/>
+      <c r="I197" s="170"/>
+      <c r="J197" s="170"/>
+      <c r="K197" s="170"/>
+      <c r="L197" s="170"/>
+      <c r="M197" s="170"/>
+      <c r="N197" s="170"/>
+      <c r="O197" s="170"/>
+      <c r="P197" s="170"/>
+      <c r="Q197" s="170"/>
+      <c r="R197" s="170"/>
+      <c r="S197" s="170"/>
+      <c r="T197" s="170"/>
+      <c r="U197" s="170"/>
+      <c r="V197" s="170"/>
+    </row>
+    <row r="198" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F198" s="170"/>
+      <c r="G198" s="170"/>
+      <c r="H198" s="170"/>
+      <c r="I198" s="170"/>
+      <c r="J198" s="170"/>
+      <c r="K198" s="170"/>
+      <c r="L198" s="170"/>
+      <c r="M198" s="170"/>
+      <c r="N198" s="170"/>
+      <c r="O198" s="170"/>
+      <c r="P198" s="170"/>
+      <c r="Q198" s="170"/>
+      <c r="R198" s="170"/>
+      <c r="S198" s="170"/>
+      <c r="T198" s="170"/>
+      <c r="U198" s="170"/>
+      <c r="V198" s="170"/>
+    </row>
+    <row r="199" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F199" s="170"/>
+      <c r="G199" s="170"/>
+      <c r="H199" s="170"/>
+      <c r="I199" s="170"/>
+      <c r="J199" s="170"/>
+      <c r="K199" s="170"/>
+      <c r="L199" s="170"/>
+      <c r="M199" s="170"/>
+      <c r="N199" s="170"/>
+      <c r="O199" s="170"/>
+      <c r="P199" s="170"/>
+      <c r="Q199" s="170"/>
+      <c r="R199" s="170"/>
+      <c r="S199" s="170"/>
+      <c r="T199" s="170"/>
+      <c r="U199" s="170"/>
+      <c r="V199" s="170"/>
+    </row>
+    <row r="200" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F200" s="170"/>
+      <c r="G200" s="170"/>
+      <c r="H200" s="170"/>
+      <c r="I200" s="170"/>
+      <c r="J200" s="170"/>
+      <c r="K200" s="170"/>
+      <c r="L200" s="170"/>
+      <c r="M200" s="170"/>
+      <c r="N200" s="170"/>
+      <c r="O200" s="170"/>
+      <c r="P200" s="170"/>
+      <c r="Q200" s="170"/>
+      <c r="R200" s="170"/>
+      <c r="S200" s="170"/>
+      <c r="T200" s="170"/>
+      <c r="U200" s="170"/>
+      <c r="V200" s="170"/>
+    </row>
+    <row r="201" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F201" s="170"/>
+      <c r="G201" s="170"/>
+      <c r="H201" s="170"/>
+      <c r="I201" s="170"/>
+      <c r="J201" s="170"/>
+      <c r="K201" s="170"/>
+      <c r="L201" s="170"/>
+      <c r="M201" s="170"/>
+      <c r="N201" s="170"/>
+      <c r="O201" s="170"/>
+      <c r="P201" s="170"/>
+      <c r="Q201" s="170"/>
+      <c r="R201" s="170"/>
+      <c r="S201" s="170"/>
+      <c r="T201" s="170"/>
+      <c r="U201" s="170"/>
+      <c r="V201" s="170"/>
+    </row>
+    <row r="202" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F202" s="170"/>
+      <c r="G202" s="170"/>
+      <c r="H202" s="170"/>
+      <c r="I202" s="170"/>
+      <c r="J202" s="170"/>
+      <c r="K202" s="170"/>
+      <c r="L202" s="170"/>
+      <c r="M202" s="170"/>
+      <c r="N202" s="170"/>
+      <c r="O202" s="170"/>
+      <c r="P202" s="170"/>
+      <c r="Q202" s="170"/>
+      <c r="R202" s="170"/>
+      <c r="S202" s="170"/>
+      <c r="T202" s="170"/>
+      <c r="U202" s="170"/>
+      <c r="V202" s="170"/>
+    </row>
+    <row r="203" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F203" s="170"/>
+      <c r="G203" s="170"/>
+      <c r="H203" s="170"/>
+      <c r="I203" s="170"/>
+      <c r="J203" s="170"/>
+      <c r="K203" s="170"/>
+      <c r="L203" s="170"/>
+      <c r="M203" s="170"/>
+      <c r="N203" s="170"/>
+      <c r="O203" s="170"/>
+      <c r="P203" s="170"/>
+      <c r="Q203" s="170"/>
+      <c r="R203" s="170"/>
+      <c r="S203" s="170"/>
+      <c r="T203" s="170"/>
+      <c r="U203" s="170"/>
+      <c r="V203" s="170"/>
+    </row>
+    <row r="204" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F204" s="170"/>
+      <c r="G204" s="170"/>
+      <c r="H204" s="170"/>
+      <c r="I204" s="170"/>
+      <c r="J204" s="170"/>
+      <c r="K204" s="170"/>
+      <c r="L204" s="170"/>
+      <c r="M204" s="170"/>
+      <c r="N204" s="170"/>
+      <c r="O204" s="170"/>
+      <c r="P204" s="170"/>
+      <c r="Q204" s="170"/>
+      <c r="R204" s="170"/>
+      <c r="S204" s="170"/>
+      <c r="T204" s="170"/>
+      <c r="U204" s="170"/>
+      <c r="V204" s="170"/>
+    </row>
+    <row r="205" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F205" s="170"/>
+      <c r="G205" s="170"/>
+      <c r="H205" s="170"/>
+      <c r="I205" s="170"/>
+      <c r="J205" s="170"/>
+      <c r="K205" s="170"/>
+      <c r="L205" s="170"/>
+      <c r="M205" s="170"/>
+      <c r="N205" s="170"/>
+      <c r="O205" s="170"/>
+      <c r="P205" s="170"/>
+      <c r="Q205" s="170"/>
+      <c r="R205" s="170"/>
+      <c r="S205" s="170"/>
+      <c r="T205" s="170"/>
+      <c r="U205" s="170"/>
+      <c r="V205" s="170"/>
+    </row>
+    <row r="206" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F206" s="170"/>
+      <c r="G206" s="170"/>
+      <c r="H206" s="170"/>
+      <c r="I206" s="170"/>
+      <c r="J206" s="170"/>
+      <c r="K206" s="170"/>
+      <c r="L206" s="170"/>
+      <c r="M206" s="170"/>
+      <c r="N206" s="170"/>
+      <c r="O206" s="170"/>
+      <c r="P206" s="170"/>
+      <c r="Q206" s="170"/>
+      <c r="R206" s="170"/>
+      <c r="S206" s="170"/>
+      <c r="T206" s="170"/>
+      <c r="U206" s="170"/>
+      <c r="V206" s="170"/>
+    </row>
+    <row r="207" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F207" s="170"/>
+      <c r="G207" s="170"/>
+      <c r="H207" s="170"/>
+      <c r="I207" s="170"/>
+      <c r="J207" s="170"/>
+      <c r="K207" s="170"/>
+      <c r="L207" s="170"/>
+      <c r="M207" s="170"/>
+      <c r="N207" s="170"/>
+      <c r="O207" s="170"/>
+      <c r="P207" s="170"/>
+      <c r="Q207" s="170"/>
+      <c r="R207" s="170"/>
+      <c r="S207" s="170"/>
+      <c r="T207" s="170"/>
+      <c r="U207" s="170"/>
+      <c r="V207" s="170"/>
+    </row>
+    <row r="208" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F208" s="170"/>
+      <c r="G208" s="170"/>
+      <c r="H208" s="170"/>
+      <c r="I208" s="170"/>
+      <c r="J208" s="170"/>
+      <c r="K208" s="170"/>
+      <c r="L208" s="170"/>
+      <c r="M208" s="170"/>
+      <c r="N208" s="170"/>
+      <c r="O208" s="170"/>
+      <c r="P208" s="170"/>
+      <c r="Q208" s="170"/>
+      <c r="R208" s="170"/>
+      <c r="S208" s="170"/>
+      <c r="T208" s="170"/>
+      <c r="U208" s="170"/>
+      <c r="V208" s="170"/>
+    </row>
+    <row r="209" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F209" s="170"/>
+      <c r="G209" s="170"/>
+      <c r="H209" s="170"/>
+      <c r="I209" s="170"/>
+      <c r="J209" s="170"/>
+      <c r="K209" s="170"/>
+      <c r="L209" s="170"/>
+      <c r="M209" s="170"/>
+      <c r="N209" s="170"/>
+      <c r="O209" s="170"/>
+      <c r="P209" s="170"/>
+      <c r="Q209" s="170"/>
+      <c r="R209" s="170"/>
+      <c r="S209" s="170"/>
+      <c r="T209" s="170"/>
+      <c r="U209" s="170"/>
+      <c r="V209" s="170"/>
+    </row>
+    <row r="210" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F210" s="170"/>
+      <c r="G210" s="170"/>
+      <c r="H210" s="170"/>
+      <c r="I210" s="170"/>
+      <c r="J210" s="170"/>
+      <c r="K210" s="170"/>
+      <c r="L210" s="170"/>
+      <c r="M210" s="170"/>
+      <c r="N210" s="170"/>
+      <c r="O210" s="170"/>
+      <c r="P210" s="170"/>
+      <c r="Q210" s="170"/>
+      <c r="R210" s="170"/>
+      <c r="S210" s="170"/>
+      <c r="T210" s="170"/>
+      <c r="U210" s="170"/>
+      <c r="V210" s="170"/>
+    </row>
+    <row r="211" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F211" s="170"/>
+      <c r="G211" s="170"/>
+      <c r="H211" s="170"/>
+      <c r="I211" s="170"/>
+      <c r="J211" s="170"/>
+      <c r="K211" s="170"/>
+      <c r="L211" s="170"/>
+      <c r="M211" s="170"/>
+      <c r="N211" s="170"/>
+      <c r="O211" s="170"/>
+      <c r="P211" s="170"/>
+      <c r="Q211" s="170"/>
+      <c r="R211" s="170"/>
+      <c r="S211" s="170"/>
+      <c r="T211" s="170"/>
+      <c r="U211" s="170"/>
+      <c r="V211" s="170"/>
+    </row>
+    <row r="212" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F212" s="170"/>
+      <c r="G212" s="170"/>
+      <c r="H212" s="170"/>
+      <c r="I212" s="170"/>
+      <c r="J212" s="170"/>
+      <c r="K212" s="170"/>
+      <c r="L212" s="170"/>
+      <c r="M212" s="170"/>
+      <c r="N212" s="170"/>
+      <c r="O212" s="170"/>
+      <c r="P212" s="170"/>
+      <c r="Q212" s="170"/>
+      <c r="R212" s="170"/>
+      <c r="S212" s="170"/>
+      <c r="T212" s="170"/>
+      <c r="U212" s="170"/>
+      <c r="V212" s="170"/>
+    </row>
+    <row r="213" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F213" s="170"/>
+      <c r="G213" s="170"/>
+      <c r="H213" s="170"/>
+      <c r="I213" s="170"/>
+      <c r="J213" s="170"/>
+      <c r="K213" s="170"/>
+      <c r="L213" s="170"/>
+      <c r="M213" s="170"/>
+      <c r="N213" s="170"/>
+      <c r="O213" s="170"/>
+      <c r="P213" s="170"/>
+      <c r="Q213" s="170"/>
+      <c r="R213" s="170"/>
+      <c r="S213" s="170"/>
+      <c r="T213" s="170"/>
+      <c r="U213" s="170"/>
+      <c r="V213" s="170"/>
+    </row>
+    <row r="214" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F214" s="170"/>
+      <c r="G214" s="170"/>
+      <c r="H214" s="170"/>
+      <c r="I214" s="170"/>
+      <c r="J214" s="170"/>
+      <c r="K214" s="170"/>
+      <c r="L214" s="170"/>
+      <c r="M214" s="170"/>
+      <c r="N214" s="170"/>
+      <c r="O214" s="170"/>
+      <c r="P214" s="170"/>
+      <c r="Q214" s="170"/>
+      <c r="R214" s="170"/>
+      <c r="S214" s="170"/>
+      <c r="T214" s="170"/>
+      <c r="U214" s="170"/>
+      <c r="V214" s="170"/>
+    </row>
+    <row r="215" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F215" s="170"/>
+      <c r="G215" s="170"/>
+      <c r="H215" s="170"/>
+      <c r="I215" s="170"/>
+      <c r="J215" s="170"/>
+      <c r="K215" s="170"/>
+      <c r="L215" s="170"/>
+      <c r="M215" s="170"/>
+      <c r="N215" s="170"/>
+      <c r="O215" s="170"/>
+      <c r="P215" s="170"/>
+      <c r="Q215" s="170"/>
+      <c r="R215" s="170"/>
+      <c r="S215" s="170"/>
+      <c r="T215" s="170"/>
+      <c r="U215" s="170"/>
+      <c r="V215" s="170"/>
+    </row>
+    <row r="216" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F216" s="170"/>
+      <c r="G216" s="170"/>
+      <c r="H216" s="170"/>
+      <c r="I216" s="170"/>
+      <c r="J216" s="170"/>
+      <c r="K216" s="170"/>
+      <c r="L216" s="170"/>
+      <c r="M216" s="170"/>
+      <c r="N216" s="170"/>
+      <c r="O216" s="170"/>
+      <c r="P216" s="170"/>
+      <c r="Q216" s="170"/>
+      <c r="R216" s="170"/>
+      <c r="S216" s="170"/>
+      <c r="T216" s="170"/>
+      <c r="U216" s="170"/>
+      <c r="V216" s="170"/>
+    </row>
+    <row r="217" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F217" s="170"/>
+      <c r="G217" s="170"/>
+      <c r="H217" s="170"/>
+      <c r="I217" s="170"/>
+      <c r="J217" s="170"/>
+      <c r="K217" s="170"/>
+      <c r="L217" s="170"/>
+      <c r="M217" s="170"/>
+      <c r="N217" s="170"/>
+      <c r="O217" s="170"/>
+      <c r="P217" s="170"/>
+      <c r="Q217" s="170"/>
+      <c r="R217" s="170"/>
+      <c r="S217" s="170"/>
+      <c r="T217" s="170"/>
+      <c r="U217" s="170"/>
+      <c r="V217" s="170"/>
+    </row>
+    <row r="218" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F218" s="170"/>
+      <c r="G218" s="170"/>
+      <c r="H218" s="170"/>
+      <c r="I218" s="170"/>
+      <c r="J218" s="170"/>
+      <c r="K218" s="170"/>
+      <c r="L218" s="170"/>
+      <c r="M218" s="170"/>
+      <c r="N218" s="170"/>
+      <c r="O218" s="170"/>
+      <c r="P218" s="170"/>
+      <c r="Q218" s="170"/>
+      <c r="R218" s="170"/>
+      <c r="S218" s="170"/>
+      <c r="T218" s="170"/>
+      <c r="U218" s="170"/>
+      <c r="V218" s="170"/>
+    </row>
+    <row r="219" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F219" s="170"/>
+      <c r="G219" s="170"/>
+      <c r="H219" s="170"/>
+      <c r="I219" s="170"/>
+      <c r="J219" s="170"/>
+      <c r="K219" s="170"/>
+      <c r="L219" s="170"/>
+      <c r="M219" s="170"/>
+      <c r="N219" s="170"/>
+      <c r="O219" s="170"/>
+      <c r="P219" s="170"/>
+      <c r="Q219" s="170"/>
+      <c r="R219" s="170"/>
+      <c r="S219" s="170"/>
+      <c r="T219" s="170"/>
+      <c r="U219" s="170"/>
+      <c r="V219" s="170"/>
+    </row>
+    <row r="220" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F220" s="170"/>
+      <c r="G220" s="170"/>
+      <c r="H220" s="170"/>
+      <c r="I220" s="170"/>
+      <c r="J220" s="170"/>
+      <c r="K220" s="170"/>
+      <c r="L220" s="170"/>
+      <c r="M220" s="170"/>
+      <c r="N220" s="170"/>
+      <c r="O220" s="170"/>
+      <c r="P220" s="170"/>
+      <c r="Q220" s="170"/>
+      <c r="R220" s="170"/>
+      <c r="S220" s="170"/>
+      <c r="T220" s="170"/>
+      <c r="U220" s="170"/>
+      <c r="V220" s="170"/>
+    </row>
+    <row r="221" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F221" s="170"/>
+      <c r="G221" s="170"/>
+      <c r="H221" s="170"/>
+      <c r="I221" s="170"/>
+      <c r="J221" s="170"/>
+      <c r="K221" s="170"/>
+      <c r="L221" s="170"/>
+      <c r="M221" s="170"/>
+      <c r="N221" s="170"/>
+      <c r="O221" s="170"/>
+      <c r="P221" s="170"/>
+      <c r="Q221" s="170"/>
+      <c r="R221" s="170"/>
+      <c r="S221" s="170"/>
+      <c r="T221" s="170"/>
+      <c r="U221" s="170"/>
+      <c r="V221" s="170"/>
+    </row>
+    <row r="222" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F222" s="170"/>
+      <c r="G222" s="170"/>
+      <c r="H222" s="170"/>
+      <c r="I222" s="170"/>
+      <c r="J222" s="170"/>
+      <c r="K222" s="170"/>
+      <c r="L222" s="170"/>
+      <c r="M222" s="170"/>
+      <c r="N222" s="170"/>
+      <c r="O222" s="170"/>
+      <c r="P222" s="170"/>
+      <c r="Q222" s="170"/>
+      <c r="R222" s="170"/>
+      <c r="S222" s="170"/>
+      <c r="T222" s="170"/>
+      <c r="U222" s="170"/>
+      <c r="V222" s="170"/>
+    </row>
+    <row r="223" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F223" s="170"/>
+      <c r="G223" s="170"/>
+      <c r="H223" s="170"/>
+      <c r="I223" s="170"/>
+      <c r="J223" s="170"/>
+      <c r="K223" s="170"/>
+      <c r="L223" s="170"/>
+      <c r="M223" s="170"/>
+      <c r="N223" s="170"/>
+      <c r="O223" s="170"/>
+      <c r="P223" s="170"/>
+      <c r="Q223" s="170"/>
+      <c r="R223" s="170"/>
+      <c r="S223" s="170"/>
+      <c r="T223" s="170"/>
+      <c r="U223" s="170"/>
+      <c r="V223" s="170"/>
+    </row>
+    <row r="224" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F224" s="170"/>
+      <c r="G224" s="170"/>
+      <c r="H224" s="170"/>
+      <c r="I224" s="170"/>
+      <c r="J224" s="170"/>
+      <c r="K224" s="170"/>
+      <c r="L224" s="170"/>
+      <c r="M224" s="170"/>
+      <c r="N224" s="170"/>
+      <c r="O224" s="170"/>
+      <c r="P224" s="170"/>
+      <c r="Q224" s="170"/>
+      <c r="R224" s="170"/>
+      <c r="S224" s="170"/>
+      <c r="T224" s="170"/>
+      <c r="U224" s="170"/>
+      <c r="V224" s="170"/>
+    </row>
+    <row r="225" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F225" s="170"/>
+      <c r="G225" s="170"/>
+      <c r="H225" s="170"/>
+      <c r="I225" s="170"/>
+      <c r="J225" s="170"/>
+      <c r="K225" s="170"/>
+      <c r="L225" s="170"/>
+      <c r="M225" s="170"/>
+      <c r="N225" s="170"/>
+      <c r="O225" s="170"/>
+      <c r="P225" s="170"/>
+      <c r="Q225" s="170"/>
+      <c r="R225" s="170"/>
+      <c r="S225" s="170"/>
+      <c r="T225" s="170"/>
+      <c r="U225" s="170"/>
+      <c r="V225" s="170"/>
+    </row>
+    <row r="226" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F226" s="170"/>
+      <c r="G226" s="170"/>
+      <c r="H226" s="170"/>
+      <c r="I226" s="170"/>
+      <c r="J226" s="170"/>
+      <c r="K226" s="170"/>
+      <c r="L226" s="170"/>
+      <c r="M226" s="170"/>
+      <c r="N226" s="170"/>
+      <c r="O226" s="170"/>
+      <c r="P226" s="170"/>
+      <c r="Q226" s="170"/>
+      <c r="R226" s="170"/>
+      <c r="S226" s="170"/>
+      <c r="T226" s="170"/>
+      <c r="U226" s="170"/>
+      <c r="V226" s="170"/>
+    </row>
+    <row r="227" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F227" s="170"/>
+      <c r="G227" s="170"/>
+      <c r="H227" s="170"/>
+      <c r="I227" s="170"/>
+      <c r="J227" s="170"/>
+      <c r="K227" s="170"/>
+      <c r="L227" s="170"/>
+      <c r="M227" s="170"/>
+      <c r="N227" s="170"/>
+      <c r="O227" s="170"/>
+      <c r="P227" s="170"/>
+      <c r="Q227" s="170"/>
+      <c r="R227" s="170"/>
+      <c r="S227" s="170"/>
+      <c r="T227" s="170"/>
+      <c r="U227" s="170"/>
+      <c r="V227" s="170"/>
+    </row>
+    <row r="228" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F228" s="170"/>
+      <c r="G228" s="170"/>
+      <c r="H228" s="170"/>
+      <c r="I228" s="170"/>
+      <c r="J228" s="170"/>
+      <c r="K228" s="170"/>
+      <c r="L228" s="170"/>
+      <c r="M228" s="170"/>
+      <c r="N228" s="170"/>
+      <c r="O228" s="170"/>
+      <c r="P228" s="170"/>
+      <c r="Q228" s="170"/>
+      <c r="R228" s="170"/>
+      <c r="S228" s="170"/>
+      <c r="T228" s="170"/>
+      <c r="U228" s="170"/>
+      <c r="V228" s="170"/>
+    </row>
+    <row r="229" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F229" s="170"/>
+      <c r="G229" s="170"/>
+      <c r="H229" s="170"/>
+      <c r="I229" s="170"/>
+      <c r="J229" s="170"/>
+      <c r="K229" s="170"/>
+      <c r="L229" s="170"/>
+      <c r="M229" s="170"/>
+      <c r="N229" s="170"/>
+      <c r="O229" s="170"/>
+      <c r="P229" s="170"/>
+      <c r="Q229" s="170"/>
+      <c r="R229" s="170"/>
+      <c r="S229" s="170"/>
+      <c r="T229" s="170"/>
+      <c r="U229" s="170"/>
+      <c r="V229" s="170"/>
+    </row>
+    <row r="230" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F230" s="170"/>
+      <c r="G230" s="170"/>
+      <c r="H230" s="170"/>
+      <c r="I230" s="170"/>
+      <c r="J230" s="170"/>
+      <c r="K230" s="170"/>
+      <c r="L230" s="170"/>
+      <c r="M230" s="170"/>
+      <c r="N230" s="170"/>
+      <c r="O230" s="170"/>
+      <c r="P230" s="170"/>
+      <c r="Q230" s="170"/>
+      <c r="R230" s="170"/>
+      <c r="S230" s="170"/>
+      <c r="T230" s="170"/>
+      <c r="U230" s="170"/>
+      <c r="V230" s="170"/>
+    </row>
+    <row r="231" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F231" s="170"/>
+      <c r="G231" s="170"/>
+      <c r="H231" s="170"/>
+      <c r="I231" s="170"/>
+      <c r="J231" s="170"/>
+      <c r="K231" s="170"/>
+      <c r="L231" s="170"/>
+      <c r="M231" s="170"/>
+      <c r="N231" s="170"/>
+      <c r="O231" s="170"/>
+      <c r="P231" s="170"/>
+      <c r="Q231" s="170"/>
+      <c r="R231" s="170"/>
+      <c r="S231" s="170"/>
+      <c r="T231" s="170"/>
+      <c r="U231" s="170"/>
+      <c r="V231" s="170"/>
+    </row>
+    <row r="232" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F232" s="170"/>
+      <c r="G232" s="170"/>
+      <c r="H232" s="170"/>
+      <c r="I232" s="170"/>
+      <c r="J232" s="170"/>
+      <c r="K232" s="170"/>
+      <c r="L232" s="170"/>
+      <c r="M232" s="170"/>
+      <c r="N232" s="170"/>
+      <c r="O232" s="170"/>
+      <c r="P232" s="170"/>
+      <c r="Q232" s="170"/>
+      <c r="R232" s="170"/>
+      <c r="S232" s="170"/>
+      <c r="T232" s="170"/>
+      <c r="U232" s="170"/>
+      <c r="V232" s="170"/>
+    </row>
+    <row r="233" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F233" s="170"/>
+      <c r="G233" s="170"/>
+      <c r="H233" s="170"/>
+      <c r="I233" s="170"/>
+      <c r="J233" s="170"/>
+      <c r="K233" s="170"/>
+      <c r="L233" s="170"/>
+      <c r="M233" s="170"/>
+      <c r="N233" s="170"/>
+      <c r="O233" s="170"/>
+      <c r="P233" s="170"/>
+      <c r="Q233" s="170"/>
+      <c r="R233" s="170"/>
+      <c r="S233" s="170"/>
+      <c r="T233" s="170"/>
+      <c r="U233" s="170"/>
+      <c r="V233" s="170"/>
+    </row>
+    <row r="234" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F234" s="170"/>
+      <c r="G234" s="170"/>
+      <c r="H234" s="170"/>
+      <c r="I234" s="170"/>
+      <c r="J234" s="170"/>
+      <c r="K234" s="170"/>
+      <c r="L234" s="170"/>
+      <c r="M234" s="170"/>
+      <c r="N234" s="170"/>
+      <c r="O234" s="170"/>
+      <c r="P234" s="170"/>
+      <c r="Q234" s="170"/>
+      <c r="R234" s="170"/>
+      <c r="S234" s="170"/>
+      <c r="T234" s="170"/>
+      <c r="U234" s="170"/>
+      <c r="V234" s="170"/>
+    </row>
+    <row r="235" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F235" s="170"/>
+      <c r="G235" s="170"/>
+      <c r="H235" s="170"/>
+      <c r="I235" s="170"/>
+      <c r="J235" s="170"/>
+      <c r="K235" s="170"/>
+      <c r="L235" s="170"/>
+      <c r="M235" s="170"/>
+      <c r="N235" s="170"/>
+      <c r="O235" s="170"/>
+      <c r="P235" s="170"/>
+      <c r="Q235" s="170"/>
+      <c r="R235" s="170"/>
+      <c r="S235" s="170"/>
+      <c r="T235" s="170"/>
+      <c r="U235" s="170"/>
+      <c r="V235" s="170"/>
+    </row>
+    <row r="236" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F236" s="170"/>
+      <c r="G236" s="170"/>
+      <c r="H236" s="170"/>
+      <c r="I236" s="170"/>
+      <c r="J236" s="170"/>
+      <c r="K236" s="170"/>
+      <c r="L236" s="170"/>
+      <c r="M236" s="170"/>
+      <c r="N236" s="170"/>
+      <c r="O236" s="170"/>
+      <c r="P236" s="170"/>
+      <c r="Q236" s="170"/>
+      <c r="R236" s="170"/>
+      <c r="S236" s="170"/>
+      <c r="T236" s="170"/>
+      <c r="U236" s="170"/>
+      <c r="V236" s="170"/>
+    </row>
+    <row r="237" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F237" s="170"/>
+      <c r="G237" s="170"/>
+      <c r="H237" s="170"/>
+      <c r="I237" s="170"/>
+      <c r="J237" s="170"/>
+      <c r="K237" s="170"/>
+      <c r="L237" s="170"/>
+      <c r="M237" s="170"/>
+      <c r="N237" s="170"/>
+      <c r="O237" s="170"/>
+      <c r="P237" s="170"/>
+      <c r="Q237" s="170"/>
+      <c r="R237" s="170"/>
+      <c r="S237" s="170"/>
+      <c r="T237" s="170"/>
+      <c r="U237" s="170"/>
+      <c r="V237" s="170"/>
+    </row>
+    <row r="238" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F238" s="170"/>
+      <c r="G238" s="170"/>
+      <c r="H238" s="170"/>
+      <c r="I238" s="170"/>
+      <c r="J238" s="170"/>
+      <c r="K238" s="170"/>
+      <c r="L238" s="170"/>
+      <c r="M238" s="170"/>
+      <c r="N238" s="170"/>
+      <c r="O238" s="170"/>
+      <c r="P238" s="170"/>
+      <c r="Q238" s="170"/>
+      <c r="R238" s="170"/>
+      <c r="S238" s="170"/>
+      <c r="T238" s="170"/>
+      <c r="U238" s="170"/>
+      <c r="V238" s="170"/>
+    </row>
+    <row r="239" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F239" s="170"/>
+      <c r="G239" s="170"/>
+      <c r="H239" s="170"/>
+      <c r="I239" s="170"/>
+      <c r="J239" s="170"/>
+      <c r="K239" s="170"/>
+      <c r="L239" s="170"/>
+      <c r="M239" s="170"/>
+      <c r="N239" s="170"/>
+      <c r="O239" s="170"/>
+      <c r="P239" s="170"/>
+      <c r="Q239" s="170"/>
+      <c r="R239" s="170"/>
+      <c r="S239" s="170"/>
+      <c r="T239" s="170"/>
+      <c r="U239" s="170"/>
+      <c r="V239" s="170"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="F1:U1"/>
     <mergeCell ref="A51:A64"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A3:A8"/>
@@ -5003,6 +10016,7 @@
     <mergeCell ref="A38:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Proxy data summary" sheetId="1" r:id="rId1"/>
     <sheet name="Hourly emissions - hypotesis" sheetId="2" r:id="rId2"/>
     <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="215">
   <si>
     <t>NFR category</t>
   </si>
@@ -674,12 +674,85 @@
   <si>
     <t>Example</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Periodic, Periodic-sine or Binary</t>
+  </si>
+  <si>
+    <t>https://www.timeanddate.com/sun/serbia/belgrade?month=12&amp;year=2015</t>
+  </si>
+  <si>
+    <t>Periodic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data collected from public service </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dateandtime.com,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for 2015 year. Function was created from the data that describes daylight for the whole year.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data collected from public service </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dateandtime.com,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for 2015 year. Function was created from the data that describes season periods for the whole year.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sunrise, Sunset, and Daylength for Serbia in 2015 year</t>
+  </si>
+  <si>
+    <t>Solstices and Equinoxes for Serbia in 2015</t>
+  </si>
+  <si>
+    <t>https://www.timeanddate.com/calendar/seasons.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +850,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -846,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1612,12 +1693,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2024,6 +2118,208 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2105,275 +2401,79 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2691,11 +2791,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="144" t="s">
+      <c r="J1" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="145"/>
-      <c r="L1" s="146"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="214"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2745,7 +2845,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="228" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2778,7 +2878,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="161"/>
+      <c r="A4" s="229"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2809,7 +2909,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
+      <c r="A5" s="229"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -2840,7 +2940,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
+      <c r="A6" s="229"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -2871,7 +2971,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
+      <c r="A7" s="229"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -2902,7 +3002,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
+      <c r="A8" s="229"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -2933,7 +3033,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="218" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2972,7 +3072,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="151"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -3007,7 +3107,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="151"/>
+      <c r="A11" s="219"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -3042,7 +3142,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
+      <c r="A12" s="220"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -3077,7 +3177,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="221" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3116,7 +3216,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="153"/>
+      <c r="A14" s="221"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -3153,7 +3253,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="153"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3190,7 +3290,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3327,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
+      <c r="A17" s="221"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -3264,7 +3364,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
+      <c r="A18" s="221"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -3301,7 +3401,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -3338,7 +3438,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="153"/>
+      <c r="A20" s="221"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -3375,7 +3475,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="153"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3512,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="153"/>
+      <c r="A22" s="221"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -3449,7 +3549,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="153"/>
+      <c r="A23" s="221"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -3484,7 +3584,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="154"/>
+      <c r="A24" s="222"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -3519,7 +3619,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="223" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -3556,7 +3656,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
+      <c r="A26" s="224"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -3593,7 +3693,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -3630,7 +3730,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="157"/>
+      <c r="A28" s="225"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -3667,7 +3767,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="209" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3700,7 +3800,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="142"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -3731,7 +3831,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="142"/>
+      <c r="A31" s="210"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -3762,7 +3862,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="142"/>
+      <c r="A32" s="210"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -3793,7 +3893,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="142"/>
+      <c r="A33" s="210"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -3824,7 +3924,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="142"/>
+      <c r="A34" s="210"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -3855,7 +3955,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="142"/>
+      <c r="A35" s="210"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -3886,7 +3986,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="142"/>
+      <c r="A36" s="210"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -3925,7 +4025,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="143"/>
+      <c r="A37" s="211"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -3962,7 +4062,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="206" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -3995,7 +4095,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4032,7 +4132,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
+      <c r="A40" s="207"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4067,7 +4167,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="139"/>
+      <c r="A41" s="207"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -4104,7 +4204,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -4139,7 +4239,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="139"/>
+      <c r="A43" s="207"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -4174,7 +4274,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="139"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -4209,7 +4309,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="139"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -4246,7 +4346,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="139"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -4283,7 +4383,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="139"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -4320,7 +4420,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="139"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -4357,7 +4457,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="139"/>
+      <c r="A49" s="207"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -4394,7 +4494,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="140"/>
+      <c r="A50" s="208"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -4431,7 +4531,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="158" t="s">
+      <c r="A51" s="226" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -4470,7 +4570,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="159"/>
+      <c r="A52" s="227"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -4507,7 +4607,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="159"/>
+      <c r="A53" s="227"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -4544,7 +4644,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="159"/>
+      <c r="A54" s="227"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -4575,7 +4675,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="159"/>
+      <c r="A55" s="227"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -4612,7 +4712,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="159"/>
+      <c r="A56" s="227"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -4649,7 +4749,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="159"/>
+      <c r="A57" s="227"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -4680,7 +4780,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="159"/>
+      <c r="A58" s="227"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -4717,7 +4817,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="159"/>
+      <c r="A59" s="227"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -4754,7 +4854,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="159"/>
+      <c r="A60" s="227"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -4791,7 +4891,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="159"/>
+      <c r="A61" s="227"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -4828,7 +4928,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="159"/>
+      <c r="A62" s="227"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -4865,7 +4965,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="159"/>
+      <c r="A63" s="227"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -4902,7 +5002,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="159"/>
+      <c r="A64" s="227"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -4939,7 +5039,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="147" t="s">
+      <c r="A65" s="215" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -4978,7 +5078,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="148"/>
+      <c r="A66" s="216"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -5015,7 +5115,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="148"/>
+      <c r="A67" s="216"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -5050,7 +5150,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="149"/>
+      <c r="A68" s="217"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -5113,11 +5213,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,28 +5247,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="164"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="232"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
@@ -5237,10 +5337,10 @@
       <c r="V2" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="W2" s="208" t="s">
+      <c r="W2" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="X2" s="208" t="s">
+      <c r="X2" s="171" t="s">
         <v>198</v>
       </c>
       <c r="Y2" s="124" t="s">
@@ -5254,88 +5354,88 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="144" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="127"/>
       <c r="E3" s="127"/>
-      <c r="F3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="M3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="O3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="P3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q3" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="S3" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="U3" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="V3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="W3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="X3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y3" s="179" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="190" t="s">
+      <c r="F3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="V3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="W3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="X3" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y3" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z3" s="156" t="s">
         <v>173</v>
       </c>
       <c r="AA3" s="134">
-        <f>COUNTIF(F3:Y3,"X")</f>
+        <f t="shared" ref="AA3:AA34" si="0">COUNTIF(F3:Y3,"X")</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166"/>
-      <c r="B4" s="193" t="s">
+      <c r="A4" s="240"/>
+      <c r="B4" s="159" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -5403,17 +5503,17 @@
       <c r="Y4" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z4" s="191" t="s">
+      <c r="Z4" s="157" t="s">
         <v>174</v>
       </c>
       <c r="AA4" s="132">
-        <f>COUNTIF(F4:Y4,"X")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
-      <c r="B5" s="193" t="s">
+      <c r="A5" s="240"/>
+      <c r="B5" s="159" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -5481,17 +5581,17 @@
       <c r="Y5" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z5" s="191" t="s">
+      <c r="Z5" s="157" t="s">
         <v>174</v>
       </c>
       <c r="AA5" s="132">
-        <f>COUNTIF(F5:Y5,"X")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="166"/>
-      <c r="B6" s="193" t="s">
+      <c r="A6" s="240"/>
+      <c r="B6" s="159" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -5559,24 +5659,24 @@
       <c r="Y6" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z6" s="191" t="s">
+      <c r="Z6" s="157" t="s">
         <v>174</v>
       </c>
       <c r="AA6" s="132">
-        <f>COUNTIF(F6:Y6,"X")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
-      <c r="B7" s="193" t="s">
+      <c r="A7" s="240"/>
+      <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D7" s="126"/>
-      <c r="E7" s="194" t="s">
+      <c r="E7" s="160" t="s">
         <v>172</v>
       </c>
       <c r="F7" s="133" t="s">
@@ -5639,177 +5739,177 @@
       <c r="Y7" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z7" s="191" t="s">
+      <c r="Z7" s="157" t="s">
         <v>175</v>
       </c>
       <c r="AA7" s="132">
-        <f>COUNTIF(F7:Y7,"X")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="170"/>
-      <c r="B8" s="211" t="s">
+      <c r="A8" s="241"/>
+      <c r="B8" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="212" t="s">
+      <c r="D8" s="139"/>
+      <c r="E8" s="175" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="L8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="M8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="N8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="P8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q8" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="R8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="S8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="T8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="U8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="V8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="W8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="X8" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y8" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z8" s="192" t="s">
+      <c r="F8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="M8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="N8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="S8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="T8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="U8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="V8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="W8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="X8" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y8" s="141" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z8" s="158" t="s">
         <v>175</v>
       </c>
-      <c r="AA8" s="169">
-        <f>COUNTIF(F8:Y8,"X")</f>
+      <c r="AA8" s="138">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="242" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="144" t="s">
         <v>169</v>
       </c>
       <c r="D9" s="127"/>
       <c r="E9" s="127"/>
-      <c r="F9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="L9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="M9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="N9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="P9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q9" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="R9" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="S9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="T9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="U9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="V9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="W9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="X9" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y9" s="179" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z9" s="209" t="s">
+      <c r="F9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="L9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="T9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="V9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="W9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="X9" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y9" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z9" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="AA9" s="187">
-        <f>COUNTIF(F9:Y9,"X")</f>
+      <c r="AA9" s="153">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
-      <c r="B10" s="174" t="s">
+      <c r="A10" s="243"/>
+      <c r="B10" s="142" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -5877,17 +5977,17 @@
       <c r="Y10" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z10" s="210" t="s">
+      <c r="Z10" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="AA10" s="188">
-        <f>COUNTIF(F10:Y10,"X")</f>
+      <c r="AA10" s="154">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
-      <c r="B11" s="174" t="s">
+      <c r="A11" s="243"/>
+      <c r="B11" s="142" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -5955,175 +6055,175 @@
       <c r="Y11" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z11" s="210" t="s">
+      <c r="Z11" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="AA11" s="188">
-        <f>COUNTIF(F11:Y11,"X")</f>
+      <c r="AA11" s="154">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="240"/>
-      <c r="B12" s="241" t="s">
+      <c r="A12" s="244"/>
+      <c r="B12" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="197" t="s">
+      <c r="C12" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="L12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="M12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="R12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="S12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="T12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="U12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="V12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="W12" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="X12" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y12" s="173" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z12" s="213" t="s">
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="M12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="S12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="T12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="U12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="V12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="W12" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y12" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z12" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="AA12" s="207">
-        <f>COUNTIF(F12:Y12,"X")</f>
+      <c r="AA12" s="170">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="243" t="s">
+      <c r="A13" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="244" t="s">
+      <c r="B13" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="144" t="s">
         <v>169</v>
       </c>
       <c r="D13" s="127"/>
       <c r="E13" s="127"/>
-      <c r="F13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="I13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="N13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="O13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="P13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="R13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="S13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="T13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="U13" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="V13" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="W13" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="X13" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y13" s="182" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z13" s="184" t="s">
+      <c r="F13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="O13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="S13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="T13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U13" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="V13" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="W13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="X13" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z13" s="150" t="s">
         <v>199</v>
       </c>
-      <c r="AA13" s="187">
-        <f>COUNTIF(F13:Y13,"X")</f>
+      <c r="AA13" s="153">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="245"/>
-      <c r="B14" s="242" t="s">
+      <c r="A14" s="246"/>
+      <c r="B14" s="194" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -6188,20 +6288,20 @@
       <c r="X14" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y14" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z14" s="185" t="s">
+      <c r="Y14" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z14" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="AA14" s="188">
-        <f>COUNTIF(F14:Y14,"X")</f>
+      <c r="AA14" s="154">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="245"/>
-      <c r="B15" s="242" t="s">
+      <c r="A15" s="246"/>
+      <c r="B15" s="194" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -6266,20 +6366,20 @@
       <c r="X15" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y15" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z15" s="185" t="s">
+      <c r="Y15" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z15" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="AA15" s="188">
-        <f>COUNTIF(F15:Y15,"X")</f>
+      <c r="AA15" s="154">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="245"/>
-      <c r="B16" s="242" t="s">
+      <c r="A16" s="246"/>
+      <c r="B16" s="194" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -6344,20 +6444,20 @@
       <c r="X16" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y16" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z16" s="185" t="s">
+      <c r="Y16" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z16" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="AA16" s="188">
-        <f>COUNTIF(F16:Y16,"X")</f>
+      <c r="AA16" s="154">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="245"/>
-      <c r="B17" s="242" t="s">
+      <c r="A17" s="246"/>
+      <c r="B17" s="194" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -6422,20 +6522,20 @@
       <c r="X17" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y17" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z17" s="185" t="s">
+      <c r="Y17" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z17" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="AA17" s="188">
-        <f>COUNTIF(F17:Y17,"X")</f>
+      <c r="AA17" s="154">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="245"/>
-      <c r="B18" s="242" t="s">
+      <c r="A18" s="246"/>
+      <c r="B18" s="194" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -6500,20 +6600,20 @@
       <c r="X18" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y18" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z18" s="185" t="s">
+      <c r="Y18" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z18" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="AA18" s="188">
-        <f>COUNTIF(F18:Y18,"X")</f>
+      <c r="AA18" s="154">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="245"/>
-      <c r="B19" s="242" t="s">
+      <c r="A19" s="246"/>
+      <c r="B19" s="194" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -6578,20 +6678,20 @@
       <c r="X19" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y19" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z19" s="185" t="s">
+      <c r="Y19" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z19" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="AA19" s="188">
-        <f>COUNTIF(F19:Y19,"X")</f>
+      <c r="AA19" s="154">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="245"/>
-      <c r="B20" s="242" t="s">
+      <c r="A20" s="246"/>
+      <c r="B20" s="194" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -6656,20 +6756,20 @@
       <c r="X20" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y20" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z20" s="185" t="s">
+      <c r="Y20" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z20" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="AA20" s="188">
-        <f>COUNTIF(F20:Y20,"X")</f>
+      <c r="AA20" s="154">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="245"/>
-      <c r="B21" s="242" t="s">
+      <c r="A21" s="246"/>
+      <c r="B21" s="194" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -6734,20 +6834,20 @@
       <c r="X21" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y21" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z21" s="185" t="s">
+      <c r="Y21" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z21" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="AA21" s="188">
-        <f>COUNTIF(F21:Y21,"X")</f>
+      <c r="AA21" s="154">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="245"/>
-      <c r="B22" s="242" t="s">
+      <c r="A22" s="246"/>
+      <c r="B22" s="194" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -6812,20 +6912,20 @@
       <c r="X22" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y22" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z22" s="185" t="s">
+      <c r="Y22" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z22" s="151" t="s">
         <v>201</v>
       </c>
-      <c r="AA22" s="188">
-        <f>COUNTIF(F22:Y22,"X")</f>
+      <c r="AA22" s="154">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="245"/>
-      <c r="B23" s="242" t="s">
+      <c r="A23" s="246"/>
+      <c r="B23" s="194" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -6890,178 +6990,178 @@
       <c r="X23" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="Y23" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z23" s="185" t="s">
+      <c r="Y23" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z23" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="AA23" s="188">
-        <f>COUNTIF(F23:Y23,"X")</f>
+      <c r="AA23" s="154">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="247"/>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="197" t="s">
+      <c r="C24" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="J24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="M24" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="N24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="O24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="P24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q24" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="R24" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="S24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="T24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="U24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="V24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="W24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="X24" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y24" s="204" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z24" s="186" t="s">
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="N24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="O24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="S24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="T24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="U24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="V24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="W24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="X24" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y24" s="167" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z24" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="AA24" s="189">
-        <f>COUNTIF(F24:Y24,"X")</f>
+      <c r="AA24" s="155">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="199" t="s">
+      <c r="A25" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="200" t="s">
+      <c r="B25" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="144" t="s">
         <v>169</v>
       </c>
       <c r="D25" s="127"/>
       <c r="E25" s="127"/>
-      <c r="F25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="K25" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="M25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="N25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="O25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="R25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="S25" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="T25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="U25" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="V25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="W25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="X25" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y25" s="179" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z25" s="246" t="s">
+      <c r="F25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="N25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="S25" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U25" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="V25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="W25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="X25" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y25" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z25" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="AA25" s="235">
-        <f>COUNTIF(F25:Y25,"X")</f>
+      <c r="AA25" s="188">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="201"/>
-      <c r="B26" s="198" t="s">
+      <c r="A26" s="249"/>
+      <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -7129,17 +7229,17 @@
       <c r="Y26" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z26" s="210" t="s">
+      <c r="Z26" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="AA26" s="188">
-        <f>COUNTIF(F26:Y26,"X")</f>
+      <c r="AA26" s="154">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="201"/>
-      <c r="B27" s="198" t="s">
+      <c r="A27" s="249"/>
+      <c r="B27" s="164" t="s">
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -7207,175 +7307,175 @@
       <c r="Y27" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z27" s="210" t="s">
+      <c r="Z27" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="AA27" s="188">
-        <f>COUNTIF(F27:Y27,"X")</f>
+      <c r="AA27" s="154">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="202"/>
-      <c r="B28" s="203" t="s">
+      <c r="A28" s="250"/>
+      <c r="B28" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="197" t="s">
+      <c r="C28" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="J28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="L28" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="M28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="O28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="P28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q28" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="R28" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="S28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="T28" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="U28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="V28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="W28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="X28" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y28" s="173" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z28" s="213" t="s">
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="O28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="R28" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="S28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="T28" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="U28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="V28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="W28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="X28" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y28" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z28" s="176" t="s">
         <v>182</v>
       </c>
-      <c r="AA28" s="207">
-        <f>COUNTIF(F28:Y28,"X")</f>
+      <c r="AA28" s="170">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="251" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="206" t="s">
+      <c r="B29" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="144" t="s">
         <v>169</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
-      <c r="F29" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="K29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="L29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="M29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="N29" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="O29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="P29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q29" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="R29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="S29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="T29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="U29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="V29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="W29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="X29" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y29" s="179" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z29" s="209" t="s">
+      <c r="F29" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="M29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="O29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q29" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="R29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="S29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="T29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="V29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="W29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="X29" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y29" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z29" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="AA29" s="187">
-        <f>COUNTIF(F29:Y29,"X")</f>
+      <c r="AA29" s="153">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="168"/>
-      <c r="B30" s="205" t="s">
+      <c r="A30" s="252"/>
+      <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -7443,17 +7543,17 @@
       <c r="Y30" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z30" s="210" t="s">
+      <c r="Z30" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="AA30" s="188">
-        <f>COUNTIF(F30:Y30,"X")</f>
+      <c r="AA30" s="154">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="168"/>
-      <c r="B31" s="205" t="s">
+      <c r="A31" s="252"/>
+      <c r="B31" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -7521,17 +7621,17 @@
       <c r="Y31" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z31" s="210" t="s">
+      <c r="Z31" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="AA31" s="188">
-        <f>COUNTIF(F31:Y31,"X")</f>
+      <c r="AA31" s="154">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="168"/>
-      <c r="B32" s="205" t="s">
+      <c r="A32" s="252"/>
+      <c r="B32" s="168" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -7599,17 +7699,17 @@
       <c r="Y32" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z32" s="210" t="s">
+      <c r="Z32" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="AA32" s="188">
-        <f>COUNTIF(F32:Y32,"X")</f>
+      <c r="AA32" s="154">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="168"/>
-      <c r="B33" s="205" t="s">
+      <c r="A33" s="252"/>
+      <c r="B33" s="168" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -7677,17 +7777,17 @@
       <c r="Y33" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z33" s="210" t="s">
+      <c r="Z33" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="AA33" s="188">
-        <f>COUNTIF(F33:Y33,"X")</f>
+      <c r="AA33" s="154">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="168"/>
-      <c r="B34" s="205" t="s">
+      <c r="A34" s="252"/>
+      <c r="B34" s="168" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -7755,17 +7855,17 @@
       <c r="Y34" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z34" s="210" t="s">
+      <c r="Z34" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="AA34" s="188">
-        <f>COUNTIF(F34:Y34,"X")</f>
+      <c r="AA34" s="154">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
-      <c r="B35" s="205" t="s">
+      <c r="A35" s="252"/>
+      <c r="B35" s="168" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -7833,17 +7933,17 @@
       <c r="Y35" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z35" s="210" t="s">
+      <c r="Z35" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="AA35" s="188">
-        <f>COUNTIF(F35:Y35,"X")</f>
+      <c r="AA35" s="154">
+        <f t="shared" ref="AA35:AA64" si="1">COUNTIF(F35:Y35,"X")</f>
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="168"/>
-      <c r="B36" s="205" t="s">
+      <c r="A36" s="252"/>
+      <c r="B36" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -7911,175 +8011,175 @@
       <c r="Y36" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="Z36" s="210" t="s">
+      <c r="Z36" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="AA36" s="188">
-        <f>COUNTIF(F36:Y36,"X")</f>
+      <c r="AA36" s="154">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="214"/>
-      <c r="B37" s="215" t="s">
+      <c r="A37" s="253"/>
+      <c r="B37" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="197" t="s">
+      <c r="C37" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="J37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="K37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="L37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="M37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="N37" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="O37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="P37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q37" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="R37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="S37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="T37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="U37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="V37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="W37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="X37" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y37" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z37" s="213" t="s">
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q37" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="R37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="S37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="T37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="U37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="V37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="W37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="X37" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y37" s="141" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z37" s="176" t="s">
         <v>183</v>
       </c>
-      <c r="AA37" s="207">
-        <f>COUNTIF(F37:Y37,"X")</f>
+      <c r="AA37" s="170">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="217" t="s">
+      <c r="A38" s="254" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="218" t="s">
+      <c r="B38" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="177" t="s">
+      <c r="C38" s="144" t="s">
         <v>169</v>
       </c>
       <c r="D38" s="127"/>
       <c r="E38" s="127"/>
-      <c r="F38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="I38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="K38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="L38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="M38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="N38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="O38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="P38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q38" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="R38" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="S38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="T38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="U38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="V38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="W38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="X38" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y38" s="179" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z38" s="209" t="s">
+      <c r="F38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="M38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="O38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="R38" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="S38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="T38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="V38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="W38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="X38" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y38" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z38" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="AA38" s="187">
-        <f>COUNTIF(F38:Y38,"X")</f>
+      <c r="AA38" s="153">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="219"/>
-      <c r="B39" s="216" t="s">
+      <c r="A39" s="255"/>
+      <c r="B39" s="178" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -8147,17 +8247,17 @@
       <c r="Y39" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z39" s="210" t="s">
+      <c r="Z39" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="AA39" s="188">
-        <f>COUNTIF(F39:Y39,"X")</f>
+      <c r="AA39" s="154">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="219"/>
-      <c r="B40" s="216" t="s">
+      <c r="A40" s="255"/>
+      <c r="B40" s="178" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -8225,17 +8325,17 @@
       <c r="Y40" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z40" s="210" t="s">
+      <c r="Z40" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="AA40" s="188">
-        <f>COUNTIF(F40:Y40,"X")</f>
+      <c r="AA40" s="154">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="219"/>
-      <c r="B41" s="216" t="s">
+      <c r="A41" s="255"/>
+      <c r="B41" s="178" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -8303,17 +8403,17 @@
       <c r="Y41" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z41" s="210" t="s">
+      <c r="Z41" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="AA41" s="188">
-        <f>COUNTIF(F41:Y41,"X")</f>
+      <c r="AA41" s="154">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="219"/>
-      <c r="B42" s="216" t="s">
+      <c r="A42" s="255"/>
+      <c r="B42" s="178" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -8381,17 +8481,17 @@
       <c r="Y42" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z42" s="210" t="s">
+      <c r="Z42" s="173" t="s">
         <v>188</v>
       </c>
-      <c r="AA42" s="188">
-        <f>COUNTIF(F42:Y42,"X")</f>
+      <c r="AA42" s="154">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="219"/>
-      <c r="B43" s="216" t="s">
+      <c r="A43" s="255"/>
+      <c r="B43" s="178" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -8459,17 +8559,17 @@
       <c r="Y43" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z43" s="210" t="s">
+      <c r="Z43" s="173" t="s">
         <v>188</v>
       </c>
-      <c r="AA43" s="188">
-        <f>COUNTIF(F43:Y43,"X")</f>
+      <c r="AA43" s="154">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
-      <c r="B44" s="216" t="s">
+      <c r="A44" s="255"/>
+      <c r="B44" s="178" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -8537,17 +8637,17 @@
       <c r="Y44" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z44" s="210" t="s">
+      <c r="Z44" s="173" t="s">
         <v>188</v>
       </c>
-      <c r="AA44" s="188">
-        <f>COUNTIF(F44:Y44,"X")</f>
+      <c r="AA44" s="154">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="219"/>
-      <c r="B45" s="216" t="s">
+      <c r="A45" s="255"/>
+      <c r="B45" s="178" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -8615,17 +8715,17 @@
       <c r="Y45" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z45" s="210" t="s">
+      <c r="Z45" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="AA45" s="188">
-        <f>COUNTIF(F45:Y45,"X")</f>
+      <c r="AA45" s="154">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219"/>
-      <c r="B46" s="216" t="s">
+      <c r="A46" s="255"/>
+      <c r="B46" s="178" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -8693,17 +8793,17 @@
       <c r="Y46" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z46" s="210" t="s">
+      <c r="Z46" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="AA46" s="188">
-        <f>COUNTIF(F46:Y46,"X")</f>
+      <c r="AA46" s="154">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="219"/>
-      <c r="B47" s="216" t="s">
+      <c r="A47" s="255"/>
+      <c r="B47" s="178" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -8771,17 +8871,17 @@
       <c r="Y47" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z47" s="210" t="s">
+      <c r="Z47" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="AA47" s="188">
-        <f>COUNTIF(F47:Y47,"X")</f>
+      <c r="AA47" s="154">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="219"/>
-      <c r="B48" s="216" t="s">
+      <c r="A48" s="255"/>
+      <c r="B48" s="178" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -8849,17 +8949,17 @@
       <c r="Y48" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z48" s="210" t="s">
+      <c r="Z48" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="AA48" s="188">
-        <f>COUNTIF(F48:Y48,"X")</f>
+      <c r="AA48" s="154">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="219"/>
-      <c r="B49" s="216" t="s">
+      <c r="A49" s="255"/>
+      <c r="B49" s="178" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -8927,175 +9027,175 @@
       <c r="Y49" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z49" s="210" t="s">
+      <c r="Z49" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="AA49" s="188">
-        <f>COUNTIF(F49:Y49,"X")</f>
+      <c r="AA49" s="154">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="220"/>
-      <c r="B50" s="221" t="s">
+      <c r="A50" s="256"/>
+      <c r="B50" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="197" t="s">
+      <c r="C50" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="171"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="H50" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="I50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="J50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="K50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="L50" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="M50" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="N50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="O50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="P50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q50" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="R50" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="S50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="T50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="U50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="V50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="W50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="X50" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y50" s="173" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z50" s="213" t="s">
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="K50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="L50" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="M50" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="N50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="O50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="P50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q50" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="R50" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="S50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="T50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="U50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="V50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="W50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="X50" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y50" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z50" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="AA50" s="207">
-        <f>COUNTIF(F50:Y50,"X")</f>
+      <c r="AA50" s="170">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="223" t="s">
+      <c r="A51" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="224" t="s">
+      <c r="B51" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="177" t="s">
+      <c r="C51" s="144" t="s">
         <v>169</v>
       </c>
       <c r="D51" s="127"/>
       <c r="E51" s="127"/>
-      <c r="F51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="G51" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="H51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="I51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="J51" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="K51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="L51" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="M51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="N51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="O51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="P51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="R51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="S51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="T51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="U51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="V51" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="W51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="X51" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y51" s="179" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z51" s="209" t="s">
+      <c r="F51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="J51" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="K51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="L51" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="M51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="N51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="O51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="R51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="S51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="T51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="V51" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="W51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="X51" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y51" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z51" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="AA51" s="187">
-        <f>COUNTIF(F51:Y51,"X")</f>
+      <c r="AA51" s="153">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="225"/>
-      <c r="B52" s="222" t="s">
+      <c r="A52" s="234"/>
+      <c r="B52" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -9163,17 +9263,17 @@
       <c r="Y52" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z52" s="210" t="s">
+      <c r="Z52" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AA52" s="188">
-        <f>COUNTIF(F52:Y52,"X")</f>
+      <c r="AA52" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="225"/>
-      <c r="B53" s="222" t="s">
+      <c r="A53" s="234"/>
+      <c r="B53" s="181" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -9241,17 +9341,17 @@
       <c r="Y53" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z53" s="210" t="s">
+      <c r="Z53" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AA53" s="188">
-        <f>COUNTIF(F53:Y53,"X")</f>
+      <c r="AA53" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="225"/>
-      <c r="B54" s="222" t="s">
+      <c r="A54" s="234"/>
+      <c r="B54" s="181" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -9319,17 +9419,17 @@
       <c r="Y54" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z54" s="210" t="s">
+      <c r="Z54" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AA54" s="188">
-        <f>COUNTIF(F54:Y54,"X")</f>
+      <c r="AA54" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="225"/>
-      <c r="B55" s="222" t="s">
+      <c r="A55" s="234"/>
+      <c r="B55" s="181" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -9397,17 +9497,17 @@
       <c r="Y55" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z55" s="210" t="s">
+      <c r="Z55" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AA55" s="188">
-        <f>COUNTIF(F55:Y55,"X")</f>
+      <c r="AA55" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="225"/>
-      <c r="B56" s="222" t="s">
+      <c r="A56" s="234"/>
+      <c r="B56" s="181" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -9475,17 +9575,17 @@
       <c r="Y56" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z56" s="210" t="s">
+      <c r="Z56" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AA56" s="188">
-        <f>COUNTIF(F56:Y56,"X")</f>
+      <c r="AA56" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="225"/>
-      <c r="B57" s="222" t="s">
+      <c r="A57" s="234"/>
+      <c r="B57" s="181" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -9553,17 +9653,17 @@
       <c r="Y57" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z57" s="210" t="s">
+      <c r="Z57" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AA57" s="188">
-        <f>COUNTIF(F57:Y57,"X")</f>
+      <c r="AA57" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="225"/>
-      <c r="B58" s="222" t="s">
+      <c r="A58" s="234"/>
+      <c r="B58" s="181" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -9631,17 +9731,17 @@
       <c r="Y58" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z58" s="210" t="s">
+      <c r="Z58" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AA58" s="188">
-        <f>COUNTIF(F58:Y58,"X")</f>
+      <c r="AA58" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="225"/>
-      <c r="B59" s="222" t="s">
+      <c r="A59" s="234"/>
+      <c r="B59" s="181" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -9709,17 +9809,17 @@
       <c r="Y59" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z59" s="210" t="s">
+      <c r="Z59" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AA59" s="188">
-        <f>COUNTIF(F59:Y59,"X")</f>
+      <c r="AA59" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="225"/>
-      <c r="B60" s="222" t="s">
+      <c r="A60" s="234"/>
+      <c r="B60" s="181" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -9783,17 +9883,17 @@
       <c r="Y60" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z60" s="210" t="s">
+      <c r="Z60" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="AA60" s="188">
-        <f>COUNTIF(F60:Y60,"X")</f>
+      <c r="AA60" s="154">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="225"/>
-      <c r="B61" s="222" t="s">
+      <c r="A61" s="234"/>
+      <c r="B61" s="181" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
@@ -9857,17 +9957,17 @@
       <c r="Y61" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z61" s="210" t="s">
+      <c r="Z61" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="AA61" s="188">
-        <f>COUNTIF(F61:Y61,"X")</f>
+      <c r="AA61" s="154">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="225"/>
-      <c r="B62" s="222" t="s">
+      <c r="A62" s="234"/>
+      <c r="B62" s="181" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -9935,17 +10035,17 @@
       <c r="Y62" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z62" s="210" t="s">
+      <c r="Z62" s="173" t="s">
         <v>192</v>
       </c>
-      <c r="AA62" s="188">
-        <f>COUNTIF(F62:Y62,"X")</f>
+      <c r="AA62" s="154">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="225"/>
-      <c r="B63" s="222" t="s">
+      <c r="A63" s="234"/>
+      <c r="B63" s="181" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -10013,175 +10113,175 @@
       <c r="Y63" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z63" s="210" t="s">
+      <c r="Z63" s="173" t="s">
         <v>193</v>
       </c>
-      <c r="AA63" s="188">
-        <f>COUNTIF(F63:Y63,"X")</f>
+      <c r="AA63" s="154">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="226"/>
-      <c r="B64" s="227" t="s">
+      <c r="A64" s="235"/>
+      <c r="B64" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="197" t="s">
+      <c r="C64" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="171"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="G64" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="H64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="I64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="J64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="K64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="L64" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="M64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="N64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="O64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="P64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q64" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="R64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="S64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="T64" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="U64" s="172" t="s">
-        <v>138</v>
-      </c>
-      <c r="V64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="W64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="X64" s="172" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y64" s="173" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z64" s="196" t="s">
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="K64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="L64" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="M64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="N64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="O64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="P64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q64" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="R64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="S64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="T64" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="U64" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="V64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="W64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="X64" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y64" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z64" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="AA64" s="189">
-        <f>COUNTIF(F64:Y64,"X")</f>
+      <c r="AA64" s="155">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="230" t="s">
+      <c r="A65" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="231" t="s">
+      <c r="B65" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="177" t="s">
+      <c r="C65" s="144" t="s">
         <v>169</v>
       </c>
       <c r="D65" s="127"/>
       <c r="E65" s="127"/>
-      <c r="F65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="G65" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="H65" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="I65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="J65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="K65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="L65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="M65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="N65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="O65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="P65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q65" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="R65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="S65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="T65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="U65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="V65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="W65" s="178" t="s">
-        <v>138</v>
-      </c>
-      <c r="X65" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y65" s="179" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z65" s="246" t="s">
+      <c r="F65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="J65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="K65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="L65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="M65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="N65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="O65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="P65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q65" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="R65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="S65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="T65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="U65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="V65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="W65" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="X65" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y65" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z65" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="AA65" s="235">
+      <c r="AA65" s="188">
         <f>COUNTIF(G65:Y65,"X")</f>
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="232"/>
-      <c r="B66" s="229" t="s">
+      <c r="A66" s="237"/>
+      <c r="B66" s="185" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -10249,17 +10349,17 @@
       <c r="Y66" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z66" s="210" t="s">
+      <c r="Z66" s="173" t="s">
         <v>196</v>
       </c>
-      <c r="AA66" s="188">
+      <c r="AA66" s="154">
         <f>COUNTIF(F66:Y66,"X")</f>
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="232"/>
-      <c r="B67" s="229" t="s">
+      <c r="A67" s="237"/>
+      <c r="B67" s="185" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -10327,20 +10427,20 @@
       <c r="Y67" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="Z67" s="210" t="s">
+      <c r="Z67" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="AA67" s="188">
+      <c r="AA67" s="154">
         <f>COUNTIF(F67:Y67,"X")</f>
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="233"/>
-      <c r="B68" s="234" t="s">
+      <c r="A68" s="238"/>
+      <c r="B68" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="181" t="s">
+      <c r="C68" s="147" t="s">
         <v>169</v>
       </c>
       <c r="D68" s="128"/>
@@ -10405,103 +10505,103 @@
       <c r="Y68" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="Z68" s="196" t="s">
+      <c r="Z68" s="162" t="s">
         <v>197</v>
       </c>
-      <c r="AA68" s="189">
+      <c r="AA68" s="155">
         <f>COUNTIF(F68:Y68,"X")</f>
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="228" t="s">
+      <c r="E69" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="F69" s="237">
+      <c r="F69" s="190">
         <f>COUNTIF(F3:F68,"X")</f>
         <v>26</v>
       </c>
-      <c r="G69" s="238">
-        <f t="shared" ref="G69:Y69" si="0">COUNTIF(G3:G68,"X")</f>
+      <c r="G69" s="191">
+        <f t="shared" ref="G69:Y69" si="2">COUNTIF(G3:G68,"X")</f>
         <v>39</v>
       </c>
-      <c r="H69" s="238">
-        <f t="shared" si="0"/>
+      <c r="H69" s="191">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="I69" s="238">
-        <f t="shared" si="0"/>
+      <c r="I69" s="191">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="J69" s="238">
-        <f t="shared" si="0"/>
+      <c r="J69" s="191">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K69" s="238">
-        <f t="shared" si="0"/>
+      <c r="K69" s="191">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L69" s="238">
-        <f t="shared" si="0"/>
+      <c r="L69" s="191">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="M69" s="238">
-        <f t="shared" si="0"/>
+      <c r="M69" s="191">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N69" s="238">
-        <f t="shared" si="0"/>
+      <c r="N69" s="191">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O69" s="238">
-        <f t="shared" si="0"/>
+      <c r="O69" s="191">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P69" s="238">
-        <f t="shared" si="0"/>
+      <c r="P69" s="191">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q69" s="238">
-        <f t="shared" si="0"/>
+      <c r="Q69" s="191">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="R69" s="238">
-        <f t="shared" si="0"/>
+      <c r="R69" s="191">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="S69" s="238">
-        <f t="shared" si="0"/>
+      <c r="S69" s="191">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="T69" s="238">
-        <f t="shared" si="0"/>
+      <c r="T69" s="191">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U69" s="238">
-        <f t="shared" si="0"/>
+      <c r="U69" s="191">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="V69" s="238">
-        <f t="shared" si="0"/>
+      <c r="V69" s="191">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="W69" s="238">
-        <f t="shared" si="0"/>
+      <c r="W69" s="191">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="X69" s="238">
-        <f t="shared" si="0"/>
+      <c r="X69" s="191">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y69" s="239">
-        <f t="shared" si="0"/>
+      <c r="Y69" s="192">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="Z69" s="236">
+      <c r="Z69" s="189">
         <f>SUM(F69:Y69)</f>
         <v>380</v>
       </c>
-      <c r="AA69" s="236">
+      <c r="AA69" s="189">
         <f>SUM(AA3:AA68)</f>
         <v>380</v>
       </c>
@@ -14474,154 +14574,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="2" max="3" width="61.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="199" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="251" t="s">
+      <c r="C1" s="205" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="E1" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="F1" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-    </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="253" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+    </row>
+    <row r="2" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="202" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="254" t="s">
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="203" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="254" t="s">
+    <row r="4" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="203" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="254" t="s">
+    <row r="5" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="203" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="254" t="s">
+    <row r="6" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="203" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="254" t="s">
+    <row r="7" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="203" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="254" t="s">
+    <row r="8" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="203" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="254" t="s">
+      <c r="B8" s="117" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="189" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="257" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="203" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="254" t="s">
+    <row r="10" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="203" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="254" t="s">
+    <row r="11" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="203" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="254" t="s">
+    <row r="12" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="203" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="254" t="s">
+    <row r="13" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="203" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="254" t="s">
+    <row r="14" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="203" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="254" t="s">
+      <c r="B14" s="117" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="189" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="257" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="203" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="254" t="s">
+    <row r="16" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="203" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="254" t="s">
+      <c r="A17" s="203" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="254" t="s">
+      <c r="A18" s="203" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="254" t="s">
+      <c r="A19" s="203" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="254" t="s">
+      <c r="A20" s="203" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="255" t="s">
+      <c r="A21" s="204" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="221">
   <si>
     <t>NFR category</t>
   </si>
@@ -746,6 +746,24 @@
   </si>
   <si>
     <t>https://www.timeanddate.com/calendar/seasons.html</t>
+  </si>
+  <si>
+    <t>Calculation of hourly emissions - Indicator for temporal disaggregation</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators and equation, given in the order. The hypothesis is based on data collected from official body work programs within public heat and electric production. Hours of power plants and heating plants are year-round, 24 hours a day, with increased production during the winter - heating season, as well as with very low temperatures. During the overhaul period, production is at half capacity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators and equation, given in the order.  The hypothesis is based on data collected from official body work programs within rafineries. Working hours of rafineries are year-round, 24 hours a day. During the overhaul period, production is at half capacity. </t>
+  </si>
+  <si>
+    <t>http://www.beoelektrane.rs/about_us.html</t>
+  </si>
+  <si>
+    <t>Overhaul - reparing period is in the third quarter of the year and lasts no more than two weeks.</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2320,6 +2338,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,7 +2494,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2766,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="H55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,11 +2812,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="212" t="s">
+      <c r="J1" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="213"/>
-      <c r="L1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="215"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2845,7 +2866,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="229" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2878,7 +2899,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="229"/>
+      <c r="A4" s="230"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2909,7 +2930,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="229"/>
+      <c r="A5" s="230"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -2940,7 +2961,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="229"/>
+      <c r="A6" s="230"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -2971,7 +2992,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="229"/>
+      <c r="A7" s="230"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -3002,7 +3023,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="229"/>
+      <c r="A8" s="230"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -3033,7 +3054,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="219" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3072,7 +3093,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="219"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -3107,7 +3128,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="219"/>
+      <c r="A11" s="220"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -3142,7 +3163,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="220"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -3177,7 +3198,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="222" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3216,7 +3237,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -3253,7 +3274,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3290,7 +3311,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
+      <c r="A16" s="222"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -3327,7 +3348,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
+      <c r="A17" s="222"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -3364,7 +3385,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
+      <c r="A18" s="222"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -3401,7 +3422,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -3438,7 +3459,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
+      <c r="A20" s="222"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -3475,7 +3496,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="221"/>
+      <c r="A21" s="222"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -3512,7 +3533,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="221"/>
+      <c r="A22" s="222"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -3549,7 +3570,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="221"/>
+      <c r="A23" s="222"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -3584,7 +3605,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="222"/>
+      <c r="A24" s="223"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -3619,7 +3640,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="223" t="s">
+      <c r="A25" s="224" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -3656,7 +3677,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="224"/>
+      <c r="A26" s="225"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -3693,7 +3714,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="224"/>
+      <c r="A27" s="225"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -3730,7 +3751,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="225"/>
+      <c r="A28" s="226"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -3767,7 +3788,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="209" t="s">
+      <c r="A29" s="210" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3800,7 +3821,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="210"/>
+      <c r="A30" s="211"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -3831,7 +3852,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="210"/>
+      <c r="A31" s="211"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -3862,7 +3883,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="210"/>
+      <c r="A32" s="211"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -3893,7 +3914,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="210"/>
+      <c r="A33" s="211"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -3924,7 +3945,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="210"/>
+      <c r="A34" s="211"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -3955,7 +3976,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="210"/>
+      <c r="A35" s="211"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -3986,7 +4007,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="210"/>
+      <c r="A36" s="211"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -4025,7 +4046,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="211"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -4062,7 +4083,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="206" t="s">
+      <c r="A38" s="207" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -4095,7 +4116,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="207"/>
+      <c r="A39" s="208"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4132,7 +4153,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="207"/>
+      <c r="A40" s="208"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4167,7 +4188,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="207"/>
+      <c r="A41" s="208"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -4204,7 +4225,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="207"/>
+      <c r="A42" s="208"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -4239,7 +4260,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="207"/>
+      <c r="A43" s="208"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -4274,7 +4295,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="207"/>
+      <c r="A44" s="208"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -4309,7 +4330,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="207"/>
+      <c r="A45" s="208"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -4346,7 +4367,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="207"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -4383,7 +4404,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="207"/>
+      <c r="A47" s="208"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -4420,7 +4441,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="207"/>
+      <c r="A48" s="208"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -4457,7 +4478,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="207"/>
+      <c r="A49" s="208"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -4494,7 +4515,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="208"/>
+      <c r="A50" s="209"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -4531,7 +4552,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="226" t="s">
+      <c r="A51" s="227" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -4570,7 +4591,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="227"/>
+      <c r="A52" s="228"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -4607,7 +4628,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="227"/>
+      <c r="A53" s="228"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -4644,7 +4665,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="227"/>
+      <c r="A54" s="228"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -4675,7 +4696,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="227"/>
+      <c r="A55" s="228"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -4712,7 +4733,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="227"/>
+      <c r="A56" s="228"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -4749,7 +4770,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="227"/>
+      <c r="A57" s="228"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -4780,7 +4801,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="227"/>
+      <c r="A58" s="228"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -4817,7 +4838,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="227"/>
+      <c r="A59" s="228"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -4854,7 +4875,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="227"/>
+      <c r="A60" s="228"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -4891,7 +4912,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="227"/>
+      <c r="A61" s="228"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -4928,7 +4949,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="227"/>
+      <c r="A62" s="228"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -4965,7 +4986,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="227"/>
+      <c r="A63" s="228"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -5002,7 +5023,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="227"/>
+      <c r="A64" s="228"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -5039,7 +5060,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="215" t="s">
+      <c r="A65" s="216" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -5078,7 +5099,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="216"/>
+      <c r="A66" s="217"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -5115,7 +5136,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="216"/>
+      <c r="A67" s="217"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -5150,7 +5171,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="217"/>
+      <c r="A68" s="218"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -5213,11 +5234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,28 +5268,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="230" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="232"/>
+      <c r="F1" s="231" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="232"/>
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="233"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
@@ -5281,7 +5302,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="E2" s="121" t="s">
         <v>115</v>
@@ -5354,17 +5375,21 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="240" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="161" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
+        <v>217</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="258" t="s">
+        <v>219</v>
+      </c>
       <c r="F3" s="145" t="s">
         <v>165</v>
       </c>
@@ -5434,14 +5459,16 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="159" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="126"/>
+        <v>218</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="E4" s="126"/>
       <c r="F4" s="133" t="s">
         <v>165</v>
@@ -5512,7 +5539,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="240"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="159" t="s">
         <v>68</v>
       </c>
@@ -5590,7 +5617,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="240"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="159" t="s">
         <v>69</v>
       </c>
@@ -5668,7 +5695,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="240"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
@@ -5748,7 +5775,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="241"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="174" t="s">
         <v>70</v>
       </c>
@@ -5828,7 +5855,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="242" t="s">
+      <c r="A9" s="243" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="143" t="s">
@@ -5908,7 +5935,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="243"/>
+      <c r="A10" s="244"/>
       <c r="B10" s="142" t="s">
         <v>75</v>
       </c>
@@ -5986,7 +6013,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="243"/>
+      <c r="A11" s="244"/>
       <c r="B11" s="142" t="s">
         <v>111</v>
       </c>
@@ -6064,7 +6091,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="244"/>
+      <c r="A12" s="245"/>
       <c r="B12" s="193" t="s">
         <v>76</v>
       </c>
@@ -6142,7 +6169,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="245" t="s">
+      <c r="A13" s="246" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="195" t="s">
@@ -6222,7 +6249,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="246"/>
+      <c r="A14" s="247"/>
       <c r="B14" s="194" t="s">
         <v>9</v>
       </c>
@@ -6300,7 +6327,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246"/>
+      <c r="A15" s="247"/>
       <c r="B15" s="194" t="s">
         <v>10</v>
       </c>
@@ -6378,7 +6405,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="246"/>
+      <c r="A16" s="247"/>
       <c r="B16" s="194" t="s">
         <v>11</v>
       </c>
@@ -6456,7 +6483,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="246"/>
+      <c r="A17" s="247"/>
       <c r="B17" s="194" t="s">
         <v>12</v>
       </c>
@@ -6534,7 +6561,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="246"/>
+      <c r="A18" s="247"/>
       <c r="B18" s="194" t="s">
         <v>13</v>
       </c>
@@ -6612,7 +6639,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="246"/>
+      <c r="A19" s="247"/>
       <c r="B19" s="194" t="s">
         <v>14</v>
       </c>
@@ -6690,7 +6717,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="246"/>
+      <c r="A20" s="247"/>
       <c r="B20" s="194" t="s">
         <v>15</v>
       </c>
@@ -6768,7 +6795,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="246"/>
+      <c r="A21" s="247"/>
       <c r="B21" s="194" t="s">
         <v>16</v>
       </c>
@@ -6846,7 +6873,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="246"/>
+      <c r="A22" s="247"/>
       <c r="B22" s="194" t="s">
         <v>17</v>
       </c>
@@ -6924,7 +6951,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="246"/>
+      <c r="A23" s="247"/>
       <c r="B23" s="194" t="s">
         <v>18</v>
       </c>
@@ -7002,7 +7029,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="247"/>
+      <c r="A24" s="248"/>
       <c r="B24" s="197" t="s">
         <v>19</v>
       </c>
@@ -7080,7 +7107,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="248" t="s">
+      <c r="A25" s="249" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="165" t="s">
@@ -7160,7 +7187,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="249"/>
+      <c r="A26" s="250"/>
       <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
@@ -7238,7 +7265,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="249"/>
+      <c r="A27" s="250"/>
       <c r="B27" s="164" t="s">
         <v>92</v>
       </c>
@@ -7316,7 +7343,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="250"/>
+      <c r="A28" s="251"/>
       <c r="B28" s="166" t="s">
         <v>21</v>
       </c>
@@ -7394,7 +7421,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="251" t="s">
+      <c r="A29" s="252" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
@@ -7474,7 +7501,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="252"/>
+      <c r="A30" s="253"/>
       <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
@@ -7552,7 +7579,7 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="252"/>
+      <c r="A31" s="253"/>
       <c r="B31" s="168" t="s">
         <v>106</v>
       </c>
@@ -7630,7 +7657,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="252"/>
+      <c r="A32" s="253"/>
       <c r="B32" s="168" t="s">
         <v>105</v>
       </c>
@@ -7708,7 +7735,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="252"/>
+      <c r="A33" s="253"/>
       <c r="B33" s="168" t="s">
         <v>107</v>
       </c>
@@ -7786,7 +7813,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="252"/>
+      <c r="A34" s="253"/>
       <c r="B34" s="168" t="s">
         <v>109</v>
       </c>
@@ -7864,7 +7891,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="252"/>
+      <c r="A35" s="253"/>
       <c r="B35" s="168" t="s">
         <v>24</v>
       </c>
@@ -7942,7 +7969,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="252"/>
+      <c r="A36" s="253"/>
       <c r="B36" s="168" t="s">
         <v>25</v>
       </c>
@@ -8020,7 +8047,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="253"/>
+      <c r="A37" s="254"/>
       <c r="B37" s="177" t="s">
         <v>26</v>
       </c>
@@ -8098,7 +8125,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="254" t="s">
+      <c r="A38" s="255" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="179" t="s">
@@ -8178,7 +8205,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="255"/>
+      <c r="A39" s="256"/>
       <c r="B39" s="178" t="s">
         <v>28</v>
       </c>
@@ -8256,7 +8283,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="255"/>
+      <c r="A40" s="256"/>
       <c r="B40" s="178" t="s">
         <v>29</v>
       </c>
@@ -8334,7 +8361,7 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="255"/>
+      <c r="A41" s="256"/>
       <c r="B41" s="178" t="s">
         <v>30</v>
       </c>
@@ -8412,7 +8439,7 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="255"/>
+      <c r="A42" s="256"/>
       <c r="B42" s="178" t="s">
         <v>31</v>
       </c>
@@ -8490,7 +8517,7 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="255"/>
+      <c r="A43" s="256"/>
       <c r="B43" s="178" t="s">
         <v>32</v>
       </c>
@@ -8568,7 +8595,7 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="255"/>
+      <c r="A44" s="256"/>
       <c r="B44" s="178" t="s">
         <v>33</v>
       </c>
@@ -8646,7 +8673,7 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="255"/>
+      <c r="A45" s="256"/>
       <c r="B45" s="178" t="s">
         <v>34</v>
       </c>
@@ -8724,7 +8751,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="255"/>
+      <c r="A46" s="256"/>
       <c r="B46" s="178" t="s">
         <v>35</v>
       </c>
@@ -8802,7 +8829,7 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="255"/>
+      <c r="A47" s="256"/>
       <c r="B47" s="178" t="s">
         <v>36</v>
       </c>
@@ -8880,7 +8907,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="255"/>
+      <c r="A48" s="256"/>
       <c r="B48" s="178" t="s">
         <v>37</v>
       </c>
@@ -8958,7 +8985,7 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="255"/>
+      <c r="A49" s="256"/>
       <c r="B49" s="178" t="s">
         <v>120</v>
       </c>
@@ -9036,7 +9063,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="256"/>
+      <c r="A50" s="257"/>
       <c r="B50" s="180" t="s">
         <v>38</v>
       </c>
@@ -9114,7 +9141,7 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="233" t="s">
+      <c r="A51" s="234" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="182" t="s">
@@ -9194,7 +9221,7 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="234"/>
+      <c r="A52" s="235"/>
       <c r="B52" s="181" t="s">
         <v>41</v>
       </c>
@@ -9272,7 +9299,7 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="234"/>
+      <c r="A53" s="235"/>
       <c r="B53" s="181" t="s">
         <v>42</v>
       </c>
@@ -9350,7 +9377,7 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="234"/>
+      <c r="A54" s="235"/>
       <c r="B54" s="181" t="s">
         <v>43</v>
       </c>
@@ -9428,7 +9455,7 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="234"/>
+      <c r="A55" s="235"/>
       <c r="B55" s="181" t="s">
         <v>44</v>
       </c>
@@ -9506,7 +9533,7 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="234"/>
+      <c r="A56" s="235"/>
       <c r="B56" s="181" t="s">
         <v>45</v>
       </c>
@@ -9584,7 +9611,7 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="234"/>
+      <c r="A57" s="235"/>
       <c r="B57" s="181" t="s">
         <v>46</v>
       </c>
@@ -9662,7 +9689,7 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="234"/>
+      <c r="A58" s="235"/>
       <c r="B58" s="181" t="s">
         <v>47</v>
       </c>
@@ -9740,7 +9767,7 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="234"/>
+      <c r="A59" s="235"/>
       <c r="B59" s="181" t="s">
         <v>48</v>
       </c>
@@ -9818,7 +9845,7 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="234"/>
+      <c r="A60" s="235"/>
       <c r="B60" s="181" t="s">
         <v>49</v>
       </c>
@@ -9892,7 +9919,7 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="234"/>
+      <c r="A61" s="235"/>
       <c r="B61" s="181" t="s">
         <v>50</v>
       </c>
@@ -9966,7 +9993,7 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="234"/>
+      <c r="A62" s="235"/>
       <c r="B62" s="181" t="s">
         <v>51</v>
       </c>
@@ -10044,7 +10071,7 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="234"/>
+      <c r="A63" s="235"/>
       <c r="B63" s="181" t="s">
         <v>52</v>
       </c>
@@ -10122,7 +10149,7 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="235"/>
+      <c r="A64" s="236"/>
       <c r="B64" s="183" t="s">
         <v>53</v>
       </c>
@@ -10200,7 +10227,7 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="236" t="s">
+      <c r="A65" s="237" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="186" t="s">
@@ -10280,7 +10307,7 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="237"/>
+      <c r="A66" s="238"/>
       <c r="B66" s="185" t="s">
         <v>56</v>
       </c>
@@ -10358,7 +10385,7 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="237"/>
+      <c r="A67" s="238"/>
       <c r="B67" s="185" t="s">
         <v>57</v>
       </c>
@@ -10436,7 +10463,7 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="238"/>
+      <c r="A68" s="239"/>
       <c r="B68" s="187" t="s">
         <v>58</v>
       </c>
@@ -14563,9 +14590,10 @@
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
     <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <ignoredErrors>
     <ignoredError sqref="AA65" formula="1"/>
   </ignoredErrors>
@@ -14576,8 +14604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14670,7 +14698,7 @@
       <c r="D8" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="257" t="s">
+      <c r="E8" s="206" t="s">
         <v>208</v>
       </c>
     </row>
@@ -14712,7 +14740,7 @@
       <c r="D14" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="257" t="s">
+      <c r="E14" s="206" t="s">
         <v>214</v>
       </c>
     </row>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proxy data summary" sheetId="1" r:id="rId1"/>
     <sheet name="Hourly emissions - hypotesis" sheetId="2" r:id="rId2"/>
     <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="240">
   <si>
     <t>NFR category</t>
   </si>
@@ -594,12 +589,6 @@
     <t>Working Weekends (WW)</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0816 + WT1624 + WT0024 + WW + !PH</t>
-  </si>
-  <si>
-    <t>HE = WDWW + WT0024 + !PH + HS + TEMP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0622 + 2*PH + HS + TEMP</t>
   </si>
   <si>
@@ -654,19 +643,10 @@
     <t>Number of flights per hour (NFH)</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0024 + TEMP + SLP + NFH</t>
-  </si>
-  <si>
-    <t>HE = WDWW + DL + SA + TEMP + SLP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0816 + WT1624 + WE + RH0709 + RH1517 + !PH + TEMP + SLP + VA</t>
   </si>
   <si>
     <t xml:space="preserve">HE = WDWW + WT0816 + WT1624 + WE + !PH </t>
-  </si>
-  <si>
-    <t>HE = WDWW + WT0816 + WT1624 + WE + !PH + SA</t>
   </si>
   <si>
     <t>Description</t>
@@ -754,22 +734,94 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators and equation, given in the order. The hypothesis is based on data collected from official body work programs within public heat and electric production. Hours of power plants and heating plants are year-round, 24 hours a day, with increased production during the winter - heating season, as well as with very low temperatures. During the overhaul period, production is at half capacity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators and equation, given in the order.  The hypothesis is based on data collected from official body work programs within rafineries. Working hours of rafineries are year-round, 24 hours a day. During the overhaul period, production is at half capacity. </t>
-  </si>
-  <si>
     <t>http://www.beoelektrane.rs/about_us.html</t>
   </si>
   <si>
     <t>Overhaul - reparing period is in the third quarter of the year and lasts no more than two weeks.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be tepmoral dissagregated based on identifed indicators and equation, (see column "Equation (HE - Hourly emissions").  The hypothesis is based on insight to the official working schedule of the Refineries. Refineries work for a whole year equally. During the overhaul period, production is at half capacity.</t>
+  </si>
+  <si>
+    <t>The same as 1A1b.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be tepmoral dissagregated based on identifed indicators and equation, (see column "Equation (HE - Hourly emissions"). The hypothesis is based on insight to the official working schedule of the public heat and electric plants. Power plants work for a whole year, with increasing activity during the heating season (late Autumn and Winter), while the heating plants work only during the heating season. During the overhaul period, production is at half capacity. During the public holidays, heating plants increase their activity during the heating season.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that the manufacturing of solid fuels happens during the whole year, whole week, but with less activity during the night and public holidays.</t>
+  </si>
+  <si>
+    <t>The same as 1A1c.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that the coal mining happens during the whole year, whole week, but with less activity during the night and public holidays as well as during the extreme winter.</t>
+  </si>
+  <si>
+    <t>HE = WD + WT0816 + WT1624 + !PH + VA</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + !PH</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the exploration, production, transport of liquid fuels happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the distribution of oil products happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays.  </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>The same  as 1B2av</t>
+  </si>
+  <si>
+    <t>HE =  NFH</t>
+  </si>
+  <si>
+    <t>HE = DL + SA</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the domesting flights happen exclusively by day light and with the less activity in the winter.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by using the average number of flights per hour.</t>
+  </si>
+  <si>
+    <t>Official report available via web page of airports.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by using the hourly counted vehice activity (on the 350 vehicle activity counters). The average hourly vehicle activity for the IA category will be used fo highway inventory. For the rural inventory, the average hourly vehicle activity for IIA and IB will be used. For the urban inventory, the activity graph will be constructed by assuming that the urban road activity is higher by day light, for the working days, for the rush hours as well as for the  public holidays.</t>
+  </si>
+  <si>
+    <t>The same as 1A3bi.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the railway transport happens mostly during the day (day light). But with less activity during the public holidays, but with the increasing activity during the summer season.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the shipping transport happens mostly during the day (day light). But with less activity during the public holidays and winter season.</t>
+  </si>
+  <si>
+    <t>HE = WDWW + DL  + WE + !PH + SA</t>
+  </si>
+  <si>
+    <t>The same as 1A4ai.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the  "Commercial/institutional: Stationary Combustion" happens during the heating season with the increasing activity during the extreme winter, public holidays and less activity at night.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the  Agriculture/Forestry/Fishing: Stationary combustion" happens during the heating season with the increasing activity during the agriculture season, extreme winter and less activity at night and public holidays.</t>
+  </si>
+  <si>
+    <t>The same as 1A4ci.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1729,7 +1781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2341,6 +2393,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2494,8 +2549,20 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2565,7 +2632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2600,7 +2667,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2777,7 +2844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2787,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="H55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,11 +2879,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="213" t="s">
+      <c r="J1" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="214"/>
-      <c r="L1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="216"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2866,7 +2933,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="230" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2899,7 +2966,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2930,7 +2997,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="230"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -2961,7 +3028,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -2992,7 +3059,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="230"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -3023,7 +3090,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="230"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -3054,7 +3121,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="220" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3093,7 +3160,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="220"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -3128,7 +3195,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="220"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -3163,7 +3230,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221"/>
+      <c r="A12" s="222"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -3198,7 +3265,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="223" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3237,7 +3304,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+      <c r="A14" s="223"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -3274,7 +3341,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="222"/>
+      <c r="A15" s="223"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3311,7 +3378,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
+      <c r="A16" s="223"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3415,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="222"/>
+      <c r="A17" s="223"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -3385,7 +3452,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
+      <c r="A18" s="223"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -3422,7 +3489,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="222"/>
+      <c r="A19" s="223"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3526,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="222"/>
+      <c r="A20" s="223"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -3496,7 +3563,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="222"/>
+      <c r="A21" s="223"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -3533,7 +3600,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
+      <c r="A22" s="223"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -3570,7 +3637,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="222"/>
+      <c r="A23" s="223"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -3605,7 +3672,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="223"/>
+      <c r="A24" s="224"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -3640,7 +3707,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="224" t="s">
+      <c r="A25" s="225" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -3677,7 +3744,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="225"/>
+      <c r="A26" s="226"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -3714,7 +3781,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="225"/>
+      <c r="A27" s="226"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -3751,7 +3818,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="226"/>
+      <c r="A28" s="227"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -3788,7 +3855,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="210" t="s">
+      <c r="A29" s="211" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3821,7 +3888,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="211"/>
+      <c r="A30" s="212"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -3852,7 +3919,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="211"/>
+      <c r="A31" s="212"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -3883,7 +3950,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="211"/>
+      <c r="A32" s="212"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -3914,7 +3981,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="211"/>
+      <c r="A33" s="212"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -3945,7 +4012,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="211"/>
+      <c r="A34" s="212"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -3976,7 +4043,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="211"/>
+      <c r="A35" s="212"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -4007,7 +4074,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="211"/>
+      <c r="A36" s="212"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -4046,7 +4113,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="212"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -4083,7 +4150,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="208" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -4116,7 +4183,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="208"/>
+      <c r="A39" s="209"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4153,7 +4220,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="208"/>
+      <c r="A40" s="209"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4188,7 +4255,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="208"/>
+      <c r="A41" s="209"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -4225,7 +4292,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="208"/>
+      <c r="A42" s="209"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -4260,7 +4327,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="208"/>
+      <c r="A43" s="209"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -4295,7 +4362,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="208"/>
+      <c r="A44" s="209"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -4330,7 +4397,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="208"/>
+      <c r="A45" s="209"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -4367,7 +4434,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="208"/>
+      <c r="A46" s="209"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -4404,7 +4471,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="208"/>
+      <c r="A47" s="209"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -4441,7 +4508,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="208"/>
+      <c r="A48" s="209"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -4478,7 +4545,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="208"/>
+      <c r="A49" s="209"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -4515,7 +4582,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="209"/>
+      <c r="A50" s="210"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -4552,7 +4619,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="227" t="s">
+      <c r="A51" s="228" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -4591,7 +4658,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="228"/>
+      <c r="A52" s="229"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -4628,7 +4695,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="228"/>
+      <c r="A53" s="229"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -4665,7 +4732,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="228"/>
+      <c r="A54" s="229"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -4696,7 +4763,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="228"/>
+      <c r="A55" s="229"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -4733,7 +4800,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="228"/>
+      <c r="A56" s="229"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -4770,7 +4837,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="228"/>
+      <c r="A57" s="229"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -4801,7 +4868,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="228"/>
+      <c r="A58" s="229"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -4838,7 +4905,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="228"/>
+      <c r="A59" s="229"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -4875,7 +4942,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="228"/>
+      <c r="A60" s="229"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -4912,7 +4979,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="228"/>
+      <c r="A61" s="229"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -4949,7 +5016,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="228"/>
+      <c r="A62" s="229"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -4986,7 +5053,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="228"/>
+      <c r="A63" s="229"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -5023,7 +5090,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="228"/>
+      <c r="A64" s="229"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -5060,7 +5127,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="216" t="s">
+      <c r="A65" s="217" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -5099,7 +5166,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="217"/>
+      <c r="A66" s="218"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -5136,7 +5203,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="217"/>
+      <c r="A67" s="218"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -5171,7 +5238,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="218"/>
+      <c r="A68" s="219"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -5234,11 +5301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5246,7 +5313,7 @@
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="93" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" style="259" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
@@ -5268,28 +5335,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="231" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="233"/>
+      <c r="F1" s="232" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="233"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="234"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
@@ -5302,7 +5369,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E2" s="121" t="s">
         <v>115</v>
@@ -5359,10 +5426,10 @@
         <v>162</v>
       </c>
       <c r="W2" s="171" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X2" s="171" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Y2" s="124" t="s">
         <v>163</v>
@@ -5375,20 +5442,20 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="241" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="161" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="144" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="258" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="E3" s="207" t="s">
+        <v>212</v>
       </c>
       <c r="F3" s="145" t="s">
         <v>165</v>
@@ -5459,15 +5526,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="159" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E4" s="126"/>
       <c r="F4" s="133" t="s">
@@ -5504,7 +5571,7 @@
         <v>165</v>
       </c>
       <c r="Q4" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="R4" s="133" t="s">
         <v>165</v>
@@ -5535,18 +5602,18 @@
       </c>
       <c r="AA4" s="132">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
+      <c r="A5" s="242"/>
       <c r="B5" s="159" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="126"/>
+        <v>215</v>
+      </c>
+      <c r="D5" s="260"/>
       <c r="E5" s="126"/>
       <c r="F5" s="133" t="s">
         <v>165</v>
@@ -5582,7 +5649,7 @@
         <v>165</v>
       </c>
       <c r="Q5" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="R5" s="133" t="s">
         <v>165</v>
@@ -5613,18 +5680,18 @@
       </c>
       <c r="AA5" s="132">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
+      <c r="A6" s="242"/>
       <c r="B6" s="159" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="126"/>
+        <v>215</v>
+      </c>
+      <c r="D6" s="260"/>
       <c r="E6" s="126"/>
       <c r="F6" s="133" t="s">
         <v>165</v>
@@ -5660,7 +5727,7 @@
         <v>165</v>
       </c>
       <c r="Q6" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="R6" s="133" t="s">
         <v>165</v>
@@ -5691,18 +5758,18 @@
       </c>
       <c r="AA6" s="132">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+      <c r="A7" s="242"/>
       <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="126"/>
+        <v>217</v>
+      </c>
+      <c r="D7" s="260"/>
       <c r="E7" s="160" t="s">
         <v>172</v>
       </c>
@@ -5775,14 +5842,14 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="243"/>
       <c r="B8" s="174" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="139"/>
+        <v>218</v>
+      </c>
+      <c r="D8" s="261"/>
       <c r="E8" s="175" t="s">
         <v>172</v>
       </c>
@@ -5855,16 +5922,16 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="243" t="s">
+      <c r="A9" s="244" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="143" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="127"/>
+        <v>219</v>
+      </c>
+      <c r="D9" s="262"/>
       <c r="E9" s="127"/>
       <c r="F9" s="145" t="s">
         <v>165</v>
@@ -5935,14 +6002,14 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="244"/>
+      <c r="A10" s="245"/>
       <c r="B10" s="142" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="126"/>
+        <v>222</v>
+      </c>
+      <c r="D10" s="260"/>
       <c r="E10" s="126"/>
       <c r="F10" s="133" t="s">
         <v>138</v>
@@ -5969,13 +6036,13 @@
         <v>165</v>
       </c>
       <c r="N10" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O10" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="P10" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="133" t="s">
         <v>138</v>
@@ -6005,22 +6072,22 @@
         <v>165</v>
       </c>
       <c r="Z10" s="173" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="AA10" s="154">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244"/>
+      <c r="A11" s="245"/>
       <c r="B11" s="142" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="126"/>
+        <v>223</v>
+      </c>
+      <c r="D11" s="260"/>
       <c r="E11" s="126"/>
       <c r="F11" s="133" t="s">
         <v>165</v>
@@ -6029,10 +6096,10 @@
         <v>138</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I11" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="J11" s="133" t="s">
         <v>138</v>
@@ -6047,7 +6114,7 @@
         <v>165</v>
       </c>
       <c r="N11" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O11" s="133" t="s">
         <v>165</v>
@@ -6083,37 +6150,37 @@
         <v>165</v>
       </c>
       <c r="Z11" s="173" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="AA11" s="154">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="245"/>
+      <c r="A12" s="246"/>
       <c r="B12" s="193" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="139"/>
+        <v>225</v>
+      </c>
+      <c r="D12" s="261"/>
       <c r="E12" s="139"/>
       <c r="F12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G12" s="140" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="H12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="J12" s="140" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="K12" s="140" t="s">
         <v>165</v>
@@ -6125,13 +6192,13 @@
         <v>165</v>
       </c>
       <c r="N12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="P12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="Q12" s="140" t="s">
         <v>138</v>
@@ -6152,7 +6219,7 @@
         <v>165</v>
       </c>
       <c r="W12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="X12" s="140" t="s">
         <v>165</v>
@@ -6161,30 +6228,32 @@
         <v>165</v>
       </c>
       <c r="Z12" s="176" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="AA12" s="170">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="247" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="195" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="127"/>
+        <v>229</v>
+      </c>
+      <c r="D13" s="262" t="s">
+        <v>230</v>
+      </c>
       <c r="E13" s="127"/>
       <c r="F13" s="145" t="s">
         <v>165</v>
       </c>
       <c r="G13" s="145" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H13" s="145" t="s">
         <v>165</v>
@@ -6193,7 +6262,7 @@
         <v>165</v>
       </c>
       <c r="J13" s="145" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="K13" s="145" t="s">
         <v>165</v>
@@ -6226,10 +6295,10 @@
         <v>165</v>
       </c>
       <c r="U13" s="145" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="V13" s="145" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="W13" s="145" t="s">
         <v>165</v>
@@ -6241,28 +6310,28 @@
         <v>165</v>
       </c>
       <c r="Z13" s="150" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="AA13" s="153">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="247"/>
+      <c r="A14" s="248"/>
       <c r="B14" s="194" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="126"/>
+        <v>228</v>
+      </c>
+      <c r="D14" s="260"/>
       <c r="E14" s="126"/>
       <c r="F14" s="133" t="s">
         <v>165</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H14" s="133" t="s">
         <v>165</v>
@@ -6304,10 +6373,10 @@
         <v>165</v>
       </c>
       <c r="U14" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="V14" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="W14" s="133" t="s">
         <v>165</v>
@@ -6319,22 +6388,22 @@
         <v>165</v>
       </c>
       <c r="Z14" s="151" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AA14" s="154">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="247"/>
+      <c r="A15" s="248"/>
       <c r="B15" s="194" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="126"/>
+        <v>231</v>
+      </c>
+      <c r="D15" s="260"/>
       <c r="E15" s="126"/>
       <c r="F15" s="133" t="s">
         <v>138</v>
@@ -6397,7 +6466,7 @@
         <v>165</v>
       </c>
       <c r="Z15" s="151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA15" s="154">
         <f t="shared" si="0"/>
@@ -6405,14 +6474,14 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="247"/>
+      <c r="A16" s="248"/>
       <c r="B16" s="194" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="D16" s="260"/>
       <c r="E16" s="126"/>
       <c r="F16" s="133" t="s">
         <v>138</v>
@@ -6475,7 +6544,7 @@
         <v>165</v>
       </c>
       <c r="Z16" s="151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA16" s="154">
         <f t="shared" si="0"/>
@@ -6483,14 +6552,14 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="247"/>
+      <c r="A17" s="248"/>
       <c r="B17" s="194" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="D17" s="260"/>
       <c r="E17" s="126"/>
       <c r="F17" s="133" t="s">
         <v>138</v>
@@ -6553,7 +6622,7 @@
         <v>165</v>
       </c>
       <c r="Z17" s="151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA17" s="154">
         <f t="shared" si="0"/>
@@ -6561,14 +6630,14 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="247"/>
+      <c r="A18" s="248"/>
       <c r="B18" s="194" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="D18" s="260"/>
       <c r="E18" s="126"/>
       <c r="F18" s="133" t="s">
         <v>138</v>
@@ -6631,7 +6700,7 @@
         <v>165</v>
       </c>
       <c r="Z18" s="151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA18" s="154">
         <f t="shared" si="0"/>
@@ -6639,14 +6708,14 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="247"/>
+      <c r="A19" s="248"/>
       <c r="B19" s="194" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="D19" s="260"/>
       <c r="E19" s="126"/>
       <c r="F19" s="133" t="s">
         <v>138</v>
@@ -6709,7 +6778,7 @@
         <v>165</v>
       </c>
       <c r="Z19" s="151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA19" s="154">
         <f t="shared" si="0"/>
@@ -6717,14 +6786,14 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="247"/>
+      <c r="A20" s="248"/>
       <c r="B20" s="194" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="D20" s="260"/>
       <c r="E20" s="126"/>
       <c r="F20" s="133" t="s">
         <v>138</v>
@@ -6787,7 +6856,7 @@
         <v>165</v>
       </c>
       <c r="Z20" s="151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA20" s="154">
         <f t="shared" si="0"/>
@@ -6795,14 +6864,14 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="247"/>
+      <c r="A21" s="248"/>
       <c r="B21" s="194" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="D21" s="260"/>
       <c r="E21" s="126"/>
       <c r="F21" s="133" t="s">
         <v>138</v>
@@ -6865,7 +6934,7 @@
         <v>165</v>
       </c>
       <c r="Z21" s="151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA21" s="154">
         <f t="shared" si="0"/>
@@ -6873,14 +6942,14 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="247"/>
+      <c r="A22" s="248"/>
       <c r="B22" s="194" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="D22" s="260"/>
       <c r="E22" s="126"/>
       <c r="F22" s="133" t="s">
         <v>138</v>
@@ -6943,7 +7012,7 @@
         <v>165</v>
       </c>
       <c r="Z22" s="151" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA22" s="154">
         <f t="shared" si="0"/>
@@ -6951,14 +7020,14 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="247"/>
+      <c r="A23" s="248"/>
       <c r="B23" s="194" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="126"/>
+        <v>233</v>
+      </c>
+      <c r="D23" s="260"/>
       <c r="E23" s="126"/>
       <c r="F23" s="133" t="s">
         <v>138</v>
@@ -7021,7 +7090,7 @@
         <v>165</v>
       </c>
       <c r="Z23" s="151" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA23" s="154">
         <f t="shared" si="0"/>
@@ -7029,14 +7098,14 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="248"/>
+      <c r="A24" s="249"/>
       <c r="B24" s="197" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="139"/>
+        <v>234</v>
+      </c>
+      <c r="D24" s="261"/>
       <c r="E24" s="139"/>
       <c r="F24" s="140" t="s">
         <v>138</v>
@@ -7045,10 +7114,10 @@
         <v>165</v>
       </c>
       <c r="H24" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I24" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="J24" s="140" t="s">
         <v>165</v>
@@ -7057,7 +7126,7 @@
         <v>165</v>
       </c>
       <c r="L24" s="140" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="M24" s="140" t="s">
         <v>138</v>
@@ -7099,24 +7168,24 @@
         <v>165</v>
       </c>
       <c r="Z24" s="152" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="AA24" s="155">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="249" t="s">
+      <c r="A25" s="250" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="165" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="127"/>
+        <v>237</v>
+      </c>
+      <c r="D25" s="262"/>
       <c r="E25" s="127"/>
       <c r="F25" s="145" t="s">
         <v>165</v>
@@ -7179,7 +7248,7 @@
         <v>165</v>
       </c>
       <c r="Z25" s="196" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AA25" s="188">
         <f t="shared" si="0"/>
@@ -7187,14 +7256,14 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="250"/>
+      <c r="A26" s="251"/>
       <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="126"/>
+        <v>236</v>
+      </c>
+      <c r="D26" s="260"/>
       <c r="E26" s="126"/>
       <c r="F26" s="133" t="s">
         <v>165</v>
@@ -7209,10 +7278,10 @@
         <v>165</v>
       </c>
       <c r="J26" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="K26" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="L26" s="133" t="s">
         <v>165</v>
@@ -7230,7 +7299,7 @@
         <v>165</v>
       </c>
       <c r="Q26" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="R26" s="133" t="s">
         <v>165</v>
@@ -7257,22 +7326,22 @@
         <v>165</v>
       </c>
       <c r="Z26" s="173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA26" s="154">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="250"/>
+      <c r="A27" s="251"/>
       <c r="B27" s="164" t="s">
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="126"/>
+        <v>238</v>
+      </c>
+      <c r="D27" s="260"/>
       <c r="E27" s="126"/>
       <c r="F27" s="133" t="s">
         <v>165</v>
@@ -7335,7 +7404,7 @@
         <v>165</v>
       </c>
       <c r="Z27" s="173" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AA27" s="154">
         <f t="shared" si="0"/>
@@ -7343,14 +7412,14 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="251"/>
+      <c r="A28" s="252"/>
       <c r="B28" s="166" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="139"/>
+        <v>239</v>
+      </c>
+      <c r="D28" s="261"/>
       <c r="E28" s="139"/>
       <c r="F28" s="140" t="s">
         <v>165</v>
@@ -7413,7 +7482,7 @@
         <v>165</v>
       </c>
       <c r="Z28" s="176" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AA28" s="170">
         <f t="shared" si="0"/>
@@ -7421,7 +7490,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="252" t="s">
+      <c r="A29" s="253" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
@@ -7430,7 +7499,7 @@
       <c r="C29" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="127"/>
+      <c r="D29" s="262"/>
       <c r="E29" s="127"/>
       <c r="F29" s="145" t="s">
         <v>138</v>
@@ -7493,7 +7562,7 @@
         <v>138</v>
       </c>
       <c r="Z29" s="172" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA29" s="153">
         <f t="shared" si="0"/>
@@ -7501,14 +7570,14 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="253"/>
+      <c r="A30" s="254"/>
       <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="126"/>
+      <c r="D30" s="260"/>
       <c r="E30" s="126"/>
       <c r="F30" s="133" t="s">
         <v>138</v>
@@ -7571,7 +7640,7 @@
         <v>138</v>
       </c>
       <c r="Z30" s="173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA30" s="154">
         <f t="shared" si="0"/>
@@ -7579,14 +7648,14 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="253"/>
+      <c r="A31" s="254"/>
       <c r="B31" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D31" s="126"/>
+      <c r="D31" s="260"/>
       <c r="E31" s="126"/>
       <c r="F31" s="133" t="s">
         <v>138</v>
@@ -7649,7 +7718,7 @@
         <v>138</v>
       </c>
       <c r="Z31" s="173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA31" s="154">
         <f t="shared" si="0"/>
@@ -7657,14 +7726,14 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="253"/>
+      <c r="A32" s="254"/>
       <c r="B32" s="168" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="126"/>
+      <c r="D32" s="260"/>
       <c r="E32" s="126"/>
       <c r="F32" s="133" t="s">
         <v>138</v>
@@ -7727,7 +7796,7 @@
         <v>138</v>
       </c>
       <c r="Z32" s="173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA32" s="154">
         <f t="shared" si="0"/>
@@ -7735,14 +7804,14 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="253"/>
+      <c r="A33" s="254"/>
       <c r="B33" s="168" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="126"/>
+      <c r="D33" s="260"/>
       <c r="E33" s="126"/>
       <c r="F33" s="133" t="s">
         <v>138</v>
@@ -7805,7 +7874,7 @@
         <v>138</v>
       </c>
       <c r="Z33" s="173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA33" s="154">
         <f t="shared" si="0"/>
@@ -7813,14 +7882,14 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="253"/>
+      <c r="A34" s="254"/>
       <c r="B34" s="168" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="126"/>
+      <c r="D34" s="260"/>
       <c r="E34" s="126"/>
       <c r="F34" s="133" t="s">
         <v>138</v>
@@ -7883,7 +7952,7 @@
         <v>138</v>
       </c>
       <c r="Z34" s="173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA34" s="154">
         <f t="shared" si="0"/>
@@ -7891,14 +7960,14 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="253"/>
+      <c r="A35" s="254"/>
       <c r="B35" s="168" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="126"/>
+      <c r="D35" s="260"/>
       <c r="E35" s="126"/>
       <c r="F35" s="133" t="s">
         <v>138</v>
@@ -7961,7 +8030,7 @@
         <v>138</v>
       </c>
       <c r="Z35" s="173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA35" s="154">
         <f t="shared" ref="AA35:AA64" si="1">COUNTIF(F35:Y35,"X")</f>
@@ -7969,14 +8038,14 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="253"/>
+      <c r="A36" s="254"/>
       <c r="B36" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="126"/>
+      <c r="D36" s="260"/>
       <c r="E36" s="126"/>
       <c r="F36" s="133" t="s">
         <v>138</v>
@@ -8039,7 +8108,7 @@
         <v>138</v>
       </c>
       <c r="Z36" s="173" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA36" s="154">
         <f t="shared" si="1"/>
@@ -8047,14 +8116,14 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="254"/>
+      <c r="A37" s="255"/>
       <c r="B37" s="177" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="139"/>
+      <c r="D37" s="261"/>
       <c r="E37" s="139"/>
       <c r="F37" s="140" t="s">
         <v>138</v>
@@ -8117,7 +8186,7 @@
         <v>138</v>
       </c>
       <c r="Z37" s="176" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA37" s="170">
         <f t="shared" si="1"/>
@@ -8125,7 +8194,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="256" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="179" t="s">
@@ -8134,7 +8203,7 @@
       <c r="C38" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="127"/>
+      <c r="D38" s="262"/>
       <c r="E38" s="127"/>
       <c r="F38" s="145" t="s">
         <v>165</v>
@@ -8205,14 +8274,14 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="256"/>
+      <c r="A39" s="257"/>
       <c r="B39" s="178" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="126"/>
+      <c r="D39" s="260"/>
       <c r="E39" s="126"/>
       <c r="F39" s="133" t="s">
         <v>165</v>
@@ -8275,7 +8344,7 @@
         <v>165</v>
       </c>
       <c r="Z39" s="173" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AA39" s="154">
         <f t="shared" si="1"/>
@@ -8283,14 +8352,14 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="256"/>
+      <c r="A40" s="257"/>
       <c r="B40" s="178" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="126"/>
+      <c r="D40" s="260"/>
       <c r="E40" s="126"/>
       <c r="F40" s="133" t="s">
         <v>138</v>
@@ -8353,7 +8422,7 @@
         <v>165</v>
       </c>
       <c r="Z40" s="173" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AA40" s="154">
         <f t="shared" si="1"/>
@@ -8361,14 +8430,14 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="256"/>
+      <c r="A41" s="257"/>
       <c r="B41" s="178" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="126"/>
+      <c r="D41" s="260"/>
       <c r="E41" s="126"/>
       <c r="F41" s="133" t="s">
         <v>165</v>
@@ -8431,7 +8500,7 @@
         <v>165</v>
       </c>
       <c r="Z41" s="173" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA41" s="154">
         <f t="shared" si="1"/>
@@ -8439,14 +8508,14 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="256"/>
+      <c r="A42" s="257"/>
       <c r="B42" s="178" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="126"/>
+      <c r="D42" s="260"/>
       <c r="E42" s="126"/>
       <c r="F42" s="133" t="s">
         <v>138</v>
@@ -8509,7 +8578,7 @@
         <v>165</v>
       </c>
       <c r="Z42" s="173" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AA42" s="154">
         <f t="shared" si="1"/>
@@ -8517,14 +8586,14 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="256"/>
+      <c r="A43" s="257"/>
       <c r="B43" s="178" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="126"/>
+      <c r="D43" s="260"/>
       <c r="E43" s="126"/>
       <c r="F43" s="133" t="s">
         <v>138</v>
@@ -8587,7 +8656,7 @@
         <v>165</v>
       </c>
       <c r="Z43" s="173" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AA43" s="154">
         <f t="shared" si="1"/>
@@ -8595,14 +8664,14 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="256"/>
+      <c r="A44" s="257"/>
       <c r="B44" s="178" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="126"/>
+      <c r="D44" s="260"/>
       <c r="E44" s="126"/>
       <c r="F44" s="133" t="s">
         <v>138</v>
@@ -8665,7 +8734,7 @@
         <v>165</v>
       </c>
       <c r="Z44" s="173" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AA44" s="154">
         <f t="shared" si="1"/>
@@ -8673,14 +8742,14 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="256"/>
+      <c r="A45" s="257"/>
       <c r="B45" s="178" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="126"/>
+      <c r="D45" s="260"/>
       <c r="E45" s="126"/>
       <c r="F45" s="133" t="s">
         <v>165</v>
@@ -8743,7 +8812,7 @@
         <v>165</v>
       </c>
       <c r="Z45" s="173" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA45" s="154">
         <f t="shared" si="1"/>
@@ -8751,14 +8820,14 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="256"/>
+      <c r="A46" s="257"/>
       <c r="B46" s="178" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="126"/>
+      <c r="D46" s="260"/>
       <c r="E46" s="126"/>
       <c r="F46" s="133" t="s">
         <v>165</v>
@@ -8821,7 +8890,7 @@
         <v>165</v>
       </c>
       <c r="Z46" s="173" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA46" s="154">
         <f t="shared" si="1"/>
@@ -8829,14 +8898,14 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="256"/>
+      <c r="A47" s="257"/>
       <c r="B47" s="178" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="126"/>
+      <c r="D47" s="260"/>
       <c r="E47" s="126"/>
       <c r="F47" s="133" t="s">
         <v>165</v>
@@ -8899,7 +8968,7 @@
         <v>165</v>
       </c>
       <c r="Z47" s="173" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA47" s="154">
         <f t="shared" si="1"/>
@@ -8907,14 +8976,14 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="256"/>
+      <c r="A48" s="257"/>
       <c r="B48" s="178" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="126"/>
+      <c r="D48" s="260"/>
       <c r="E48" s="126"/>
       <c r="F48" s="133" t="s">
         <v>165</v>
@@ -8977,7 +9046,7 @@
         <v>165</v>
       </c>
       <c r="Z48" s="173" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA48" s="154">
         <f t="shared" si="1"/>
@@ -8985,14 +9054,14 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="256"/>
+      <c r="A49" s="257"/>
       <c r="B49" s="178" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D49" s="126"/>
+      <c r="D49" s="260"/>
       <c r="E49" s="126"/>
       <c r="F49" s="133" t="s">
         <v>165</v>
@@ -9055,7 +9124,7 @@
         <v>165</v>
       </c>
       <c r="Z49" s="173" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA49" s="154">
         <f t="shared" si="1"/>
@@ -9063,14 +9132,14 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="257"/>
+      <c r="A50" s="258"/>
       <c r="B50" s="180" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="139"/>
+      <c r="D50" s="261"/>
       <c r="E50" s="139"/>
       <c r="F50" s="140" t="s">
         <v>138</v>
@@ -9133,7 +9202,7 @@
         <v>165</v>
       </c>
       <c r="Z50" s="176" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA50" s="170">
         <f t="shared" si="1"/>
@@ -9141,7 +9210,7 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="235" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="182" t="s">
@@ -9150,7 +9219,7 @@
       <c r="C51" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="127"/>
+      <c r="D51" s="262"/>
       <c r="E51" s="127"/>
       <c r="F51" s="145" t="s">
         <v>165</v>
@@ -9213,7 +9282,7 @@
         <v>165</v>
       </c>
       <c r="Z51" s="172" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA51" s="153">
         <f t="shared" si="1"/>
@@ -9221,14 +9290,14 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="235"/>
+      <c r="A52" s="236"/>
       <c r="B52" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D52" s="126"/>
+      <c r="D52" s="260"/>
       <c r="E52" s="126"/>
       <c r="F52" s="133" t="s">
         <v>165</v>
@@ -9291,7 +9360,7 @@
         <v>165</v>
       </c>
       <c r="Z52" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA52" s="154">
         <f t="shared" si="1"/>
@@ -9299,14 +9368,14 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="235"/>
+      <c r="A53" s="236"/>
       <c r="B53" s="181" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="126"/>
+      <c r="D53" s="260"/>
       <c r="E53" s="126"/>
       <c r="F53" s="133" t="s">
         <v>165</v>
@@ -9369,7 +9438,7 @@
         <v>165</v>
       </c>
       <c r="Z53" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA53" s="154">
         <f t="shared" si="1"/>
@@ -9377,14 +9446,14 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="235"/>
+      <c r="A54" s="236"/>
       <c r="B54" s="181" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="126"/>
+      <c r="D54" s="260"/>
       <c r="E54" s="126"/>
       <c r="F54" s="133" t="s">
         <v>165</v>
@@ -9447,7 +9516,7 @@
         <v>165</v>
       </c>
       <c r="Z54" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA54" s="154">
         <f t="shared" si="1"/>
@@ -9455,14 +9524,14 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="235"/>
+      <c r="A55" s="236"/>
       <c r="B55" s="181" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="126"/>
+      <c r="D55" s="260"/>
       <c r="E55" s="126"/>
       <c r="F55" s="133" t="s">
         <v>165</v>
@@ -9525,7 +9594,7 @@
         <v>165</v>
       </c>
       <c r="Z55" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA55" s="154">
         <f t="shared" si="1"/>
@@ -9533,14 +9602,14 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="235"/>
+      <c r="A56" s="236"/>
       <c r="B56" s="181" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="126"/>
+      <c r="D56" s="260"/>
       <c r="E56" s="126"/>
       <c r="F56" s="133" t="s">
         <v>165</v>
@@ -9603,7 +9672,7 @@
         <v>165</v>
       </c>
       <c r="Z56" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA56" s="154">
         <f t="shared" si="1"/>
@@ -9611,14 +9680,14 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="235"/>
+      <c r="A57" s="236"/>
       <c r="B57" s="181" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="126"/>
+      <c r="D57" s="260"/>
       <c r="E57" s="126"/>
       <c r="F57" s="133" t="s">
         <v>165</v>
@@ -9681,7 +9750,7 @@
         <v>165</v>
       </c>
       <c r="Z57" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA57" s="154">
         <f t="shared" si="1"/>
@@ -9689,14 +9758,14 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="235"/>
+      <c r="A58" s="236"/>
       <c r="B58" s="181" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="126"/>
+      <c r="D58" s="260"/>
       <c r="E58" s="126"/>
       <c r="F58" s="133" t="s">
         <v>165</v>
@@ -9759,7 +9828,7 @@
         <v>165</v>
       </c>
       <c r="Z58" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA58" s="154">
         <f t="shared" si="1"/>
@@ -9767,14 +9836,14 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="235"/>
+      <c r="A59" s="236"/>
       <c r="B59" s="181" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="126"/>
+      <c r="D59" s="260"/>
       <c r="E59" s="126"/>
       <c r="F59" s="133" t="s">
         <v>165</v>
@@ -9837,7 +9906,7 @@
         <v>165</v>
       </c>
       <c r="Z59" s="173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA59" s="154">
         <f t="shared" si="1"/>
@@ -9845,14 +9914,14 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="235"/>
+      <c r="A60" s="236"/>
       <c r="B60" s="181" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="126"/>
+      <c r="D60" s="260"/>
       <c r="E60" s="126"/>
       <c r="F60" s="133" t="s">
         <v>165</v>
@@ -9911,7 +9980,7 @@
         <v>165</v>
       </c>
       <c r="Z60" s="173" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA60" s="154">
         <f t="shared" si="1"/>
@@ -9919,14 +9988,14 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="235"/>
+      <c r="A61" s="236"/>
       <c r="B61" s="181" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="126"/>
+      <c r="D61" s="260"/>
       <c r="E61" s="126"/>
       <c r="F61" s="133" t="s">
         <v>165</v>
@@ -9985,7 +10054,7 @@
         <v>165</v>
       </c>
       <c r="Z61" s="173" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA61" s="154">
         <f t="shared" si="1"/>
@@ -9993,14 +10062,14 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="235"/>
+      <c r="A62" s="236"/>
       <c r="B62" s="181" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D62" s="126"/>
+      <c r="D62" s="260"/>
       <c r="E62" s="126"/>
       <c r="F62" s="133" t="s">
         <v>165</v>
@@ -10063,7 +10132,7 @@
         <v>165</v>
       </c>
       <c r="Z62" s="173" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA62" s="154">
         <f t="shared" si="1"/>
@@ -10071,14 +10140,14 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="235"/>
+      <c r="A63" s="236"/>
       <c r="B63" s="181" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="126"/>
+      <c r="D63" s="260"/>
       <c r="E63" s="126"/>
       <c r="F63" s="133" t="s">
         <v>165</v>
@@ -10141,7 +10210,7 @@
         <v>165</v>
       </c>
       <c r="Z63" s="173" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA63" s="154">
         <f t="shared" si="1"/>
@@ -10149,14 +10218,14 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="236"/>
+      <c r="A64" s="237"/>
       <c r="B64" s="183" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="139"/>
+      <c r="D64" s="261"/>
       <c r="E64" s="139"/>
       <c r="F64" s="140" t="s">
         <v>165</v>
@@ -10219,7 +10288,7 @@
         <v>165</v>
       </c>
       <c r="Z64" s="162" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA64" s="155">
         <f t="shared" si="1"/>
@@ -10227,7 +10296,7 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="237" t="s">
+      <c r="A65" s="238" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="186" t="s">
@@ -10236,7 +10305,7 @@
       <c r="C65" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="127"/>
+      <c r="D65" s="262"/>
       <c r="E65" s="127"/>
       <c r="F65" s="145" t="s">
         <v>165</v>
@@ -10299,7 +10368,7 @@
         <v>165</v>
       </c>
       <c r="Z65" s="196" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AA65" s="188">
         <f>COUNTIF(G65:Y65,"X")</f>
@@ -10307,14 +10376,14 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="238"/>
+      <c r="A66" s="239"/>
       <c r="B66" s="185" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="126"/>
+      <c r="D66" s="260"/>
       <c r="E66" s="126"/>
       <c r="F66" s="133" t="s">
         <v>165</v>
@@ -10377,7 +10446,7 @@
         <v>165</v>
       </c>
       <c r="Z66" s="173" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AA66" s="154">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -10385,14 +10454,14 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="238"/>
+      <c r="A67" s="239"/>
       <c r="B67" s="185" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="126"/>
+      <c r="D67" s="260"/>
       <c r="E67" s="126"/>
       <c r="F67" s="133" t="s">
         <v>165</v>
@@ -10455,7 +10524,7 @@
         <v>165</v>
       </c>
       <c r="Z67" s="173" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA67" s="154">
         <f>COUNTIF(F67:Y67,"X")</f>
@@ -10463,14 +10532,14 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="239"/>
+      <c r="A68" s="240"/>
       <c r="B68" s="187" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="147" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="128"/>
+      <c r="D68" s="263"/>
       <c r="E68" s="128"/>
       <c r="F68" s="136" t="s">
         <v>165</v>
@@ -10533,7 +10602,7 @@
         <v>165</v>
       </c>
       <c r="Z68" s="162" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA68" s="155">
         <f>COUNTIF(F68:Y68,"X")</f>
@@ -10546,31 +10615,31 @@
       </c>
       <c r="F69" s="190">
         <f>COUNTIF(F3:F68,"X")</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69" s="191">
         <f t="shared" ref="G69:Y69" si="2">COUNTIF(G3:G68,"X")</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" s="191">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I69" s="191">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J69" s="191">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K69" s="191">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" s="191">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M69" s="191">
         <f t="shared" si="2"/>
@@ -10578,19 +10647,19 @@
       </c>
       <c r="N69" s="191">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O69" s="191">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P69" s="191">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q69" s="191">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R69" s="191">
         <f t="shared" si="2"/>
@@ -10606,15 +10675,15 @@
       </c>
       <c r="U69" s="191">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V69" s="191">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W69" s="191">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X69" s="191">
         <f t="shared" si="2"/>
@@ -10626,11 +10695,11 @@
       </c>
       <c r="Z69" s="189">
         <f>SUM(F69:Y69)</f>
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="AA69" s="189">
         <f>SUM(AA3:AA68)</f>
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
@@ -14604,7 +14673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -14622,10 +14691,10 @@
         <v>150</v>
       </c>
       <c r="B1" s="199" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C1" s="205" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D1" s="200" t="s">
         <v>149</v>
@@ -14634,7 +14703,7 @@
         <v>115</v>
       </c>
       <c r="F1" s="201" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G1" s="198"/>
       <c r="H1" s="198"/>
@@ -14657,7 +14726,7 @@
         <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -14690,16 +14759,16 @@
         <v>154</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C8" s="189" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D8" s="117" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E8" s="206" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -14732,16 +14801,16 @@
         <v>159</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" s="189" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="206" t="s">
         <v>209</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="206" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -14766,12 +14835,12 @@
     </row>
     <row r="19" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="203" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="203" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proxy data summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="230">
   <si>
     <t>NFR category</t>
   </si>
@@ -764,6 +764,33 @@
   </si>
   <si>
     <t>Overhaul - reparing period is in the third quarter of the year and lasts no more than two weeks.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of iron and steel happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of Non-ferrous metals happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of chemicals happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of pulp, paper and print happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of food, beverages and tobacco happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of non-metallic minerals happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production in manufacturing industries and construction happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the  auto-production happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production from other industries happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
   </si>
 </sst>
 </file>
@@ -945,7 +972,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1724,12 +1751,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,13 +2304,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2341,6 +2388,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2482,19 +2532,32 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2787,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="H55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,11 +2875,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="213" t="s">
+      <c r="J1" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="214"/>
-      <c r="L1" s="215"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="214"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2866,7 +2929,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="228" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2899,7 +2962,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
+      <c r="A4" s="229"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2930,7 +2993,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="230"/>
+      <c r="A5" s="229"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -2961,7 +3024,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
+      <c r="A6" s="229"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -2992,7 +3055,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="230"/>
+      <c r="A7" s="229"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -3023,7 +3086,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="230"/>
+      <c r="A8" s="229"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -3054,7 +3117,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="218" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3093,7 +3156,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="220"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -3128,7 +3191,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="220"/>
+      <c r="A11" s="219"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -3163,7 +3226,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221"/>
+      <c r="A12" s="220"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -3198,7 +3261,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="221" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3237,7 +3300,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+      <c r="A14" s="221"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -3274,7 +3337,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="222"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3311,7 +3374,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3411,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="222"/>
+      <c r="A17" s="221"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -3385,7 +3448,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
+      <c r="A18" s="221"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -3422,7 +3485,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="222"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3522,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="222"/>
+      <c r="A20" s="221"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -3496,7 +3559,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="222"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -3533,7 +3596,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
+      <c r="A22" s="221"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -3570,7 +3633,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="222"/>
+      <c r="A23" s="221"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -3605,7 +3668,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="223"/>
+      <c r="A24" s="222"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -3640,7 +3703,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="224" t="s">
+      <c r="A25" s="223" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -3677,7 +3740,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="225"/>
+      <c r="A26" s="224"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -3714,7 +3777,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="225"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -3751,7 +3814,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="226"/>
+      <c r="A28" s="225"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -3788,7 +3851,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="210" t="s">
+      <c r="A29" s="209" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3821,7 +3884,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="211"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -3852,7 +3915,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="211"/>
+      <c r="A31" s="210"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -3883,7 +3946,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="211"/>
+      <c r="A32" s="210"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -3914,7 +3977,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="211"/>
+      <c r="A33" s="210"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -3945,7 +4008,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="211"/>
+      <c r="A34" s="210"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -3976,7 +4039,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="211"/>
+      <c r="A35" s="210"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -4007,7 +4070,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="211"/>
+      <c r="A36" s="210"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -4046,7 +4109,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="212"/>
+      <c r="A37" s="211"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -4083,7 +4146,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="206" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -4116,7 +4179,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="208"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4153,7 +4216,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="208"/>
+      <c r="A40" s="207"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4188,7 +4251,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="208"/>
+      <c r="A41" s="207"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -4225,7 +4288,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="208"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -4260,7 +4323,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="208"/>
+      <c r="A43" s="207"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -4295,7 +4358,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="208"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -4330,7 +4393,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="208"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -4367,7 +4430,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="208"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -4404,7 +4467,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="208"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -4441,7 +4504,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="208"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -4478,7 +4541,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="208"/>
+      <c r="A49" s="207"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -4515,7 +4578,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="209"/>
+      <c r="A50" s="208"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -4552,7 +4615,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="227" t="s">
+      <c r="A51" s="226" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -4591,7 +4654,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="228"/>
+      <c r="A52" s="227"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -4628,7 +4691,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="228"/>
+      <c r="A53" s="227"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -4665,7 +4728,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="228"/>
+      <c r="A54" s="227"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -4696,7 +4759,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="228"/>
+      <c r="A55" s="227"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -4733,7 +4796,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="228"/>
+      <c r="A56" s="227"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -4770,7 +4833,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="228"/>
+      <c r="A57" s="227"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -4801,7 +4864,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="228"/>
+      <c r="A58" s="227"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -4838,7 +4901,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="228"/>
+      <c r="A59" s="227"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -4875,7 +4938,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="228"/>
+      <c r="A60" s="227"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -4912,7 +4975,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="228"/>
+      <c r="A61" s="227"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -4949,7 +5012,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="228"/>
+      <c r="A62" s="227"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -4986,7 +5049,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="228"/>
+      <c r="A63" s="227"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -5023,7 +5086,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="228"/>
+      <c r="A64" s="227"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -5060,7 +5123,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="216" t="s">
+      <c r="A65" s="215" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -5099,7 +5162,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="217"/>
+      <c r="A66" s="216"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -5136,7 +5199,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="217"/>
+      <c r="A67" s="216"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -5171,7 +5234,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="218"/>
+      <c r="A68" s="217"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -5234,11 +5297,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5268,28 +5331,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="231" t="s">
+      <c r="F1" s="230" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="233"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="232"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
@@ -5375,7 +5438,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="239" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="161" t="s">
@@ -5387,7 +5450,7 @@
       <c r="D3" s="144" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="258" t="s">
+      <c r="E3" s="205" t="s">
         <v>219</v>
       </c>
       <c r="F3" s="145" t="s">
@@ -5459,7 +5522,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
+      <c r="A4" s="240"/>
       <c r="B4" s="159" t="s">
         <v>3</v>
       </c>
@@ -5539,7 +5602,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
+      <c r="A5" s="240"/>
       <c r="B5" s="159" t="s">
         <v>68</v>
       </c>
@@ -5617,7 +5680,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
+      <c r="A6" s="240"/>
       <c r="B6" s="159" t="s">
         <v>69</v>
       </c>
@@ -5695,7 +5758,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
@@ -5775,7 +5838,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="241"/>
       <c r="B8" s="174" t="s">
         <v>70</v>
       </c>
@@ -5855,7 +5918,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="243" t="s">
+      <c r="A9" s="242" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="143" t="s">
@@ -5935,7 +5998,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="244"/>
+      <c r="A10" s="243"/>
       <c r="B10" s="142" t="s">
         <v>75</v>
       </c>
@@ -6013,7 +6076,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="142" t="s">
         <v>111</v>
       </c>
@@ -6091,8 +6154,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="245"/>
-      <c r="B12" s="193" t="s">
+      <c r="A12" s="244"/>
+      <c r="B12" s="191" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="163" t="s">
@@ -6169,10 +6232,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="193" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="144" t="s">
@@ -6249,8 +6312,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="247"/>
-      <c r="B14" s="194" t="s">
+      <c r="A14" s="246"/>
+      <c r="B14" s="192" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -6327,8 +6390,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="247"/>
-      <c r="B15" s="194" t="s">
+      <c r="A15" s="246"/>
+      <c r="B15" s="192" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -6405,8 +6468,8 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="247"/>
-      <c r="B16" s="194" t="s">
+      <c r="A16" s="246"/>
+      <c r="B16" s="192" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -6483,8 +6546,8 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="247"/>
-      <c r="B17" s="194" t="s">
+      <c r="A17" s="246"/>
+      <c r="B17" s="192" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -6561,8 +6624,8 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="247"/>
-      <c r="B18" s="194" t="s">
+      <c r="A18" s="246"/>
+      <c r="B18" s="192" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -6639,8 +6702,8 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="247"/>
-      <c r="B19" s="194" t="s">
+      <c r="A19" s="246"/>
+      <c r="B19" s="192" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -6717,8 +6780,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="247"/>
-      <c r="B20" s="194" t="s">
+      <c r="A20" s="246"/>
+      <c r="B20" s="192" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -6795,8 +6858,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="247"/>
-      <c r="B21" s="194" t="s">
+      <c r="A21" s="246"/>
+      <c r="B21" s="192" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -6873,8 +6936,8 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="247"/>
-      <c r="B22" s="194" t="s">
+      <c r="A22" s="246"/>
+      <c r="B22" s="192" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -6951,8 +7014,8 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="247"/>
-      <c r="B23" s="194" t="s">
+      <c r="A23" s="246"/>
+      <c r="B23" s="192" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -7029,8 +7092,8 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="248"/>
-      <c r="B24" s="197" t="s">
+      <c r="A24" s="247"/>
+      <c r="B24" s="195" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="163" t="s">
@@ -7107,7 +7170,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="249" t="s">
+      <c r="A25" s="248" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="165" t="s">
@@ -7178,16 +7241,16 @@
       <c r="Y25" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="Z25" s="196" t="s">
+      <c r="Z25" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="AA25" s="188">
+      <c r="AA25" s="186">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="250"/>
+      <c r="A26" s="249"/>
       <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
@@ -7265,7 +7328,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="250"/>
+      <c r="A27" s="249"/>
       <c r="B27" s="164" t="s">
         <v>92</v>
       </c>
@@ -7343,7 +7406,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="251"/>
+      <c r="A28" s="250"/>
       <c r="B28" s="166" t="s">
         <v>21</v>
       </c>
@@ -7421,14 +7484,14 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="252" t="s">
+      <c r="A29" s="251" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="144" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
@@ -7501,12 +7564,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="253"/>
+      <c r="A30" s="252"/>
       <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="D30" s="126"/>
       <c r="E30" s="126"/>
@@ -7579,12 +7642,12 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="253"/>
+      <c r="A31" s="252"/>
       <c r="B31" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="126"/>
@@ -7657,12 +7720,12 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="253"/>
+      <c r="A32" s="252"/>
       <c r="B32" s="168" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="D32" s="126"/>
       <c r="E32" s="126"/>
@@ -7735,12 +7798,12 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="253"/>
+      <c r="A33" s="252"/>
       <c r="B33" s="168" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="126"/>
@@ -7813,12 +7876,12 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="253"/>
+      <c r="A34" s="252"/>
       <c r="B34" s="168" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="D34" s="126"/>
       <c r="E34" s="126"/>
@@ -7891,12 +7954,12 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="253"/>
+      <c r="A35" s="252"/>
       <c r="B35" s="168" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="D35" s="126"/>
       <c r="E35" s="126"/>
@@ -7969,12 +8032,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="253"/>
+      <c r="A36" s="252"/>
       <c r="B36" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="D36" s="126"/>
       <c r="E36" s="126"/>
@@ -8047,73 +8110,73 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="254"/>
-      <c r="B37" s="177" t="s">
+      <c r="A37" s="261"/>
+      <c r="B37" s="262" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="J37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="K37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="L37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="M37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="N37" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="O37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="P37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q37" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="R37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="S37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="T37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="U37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="V37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="W37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="X37" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y37" s="141" t="s">
+      <c r="C37" s="147" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q37" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="R37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="S37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="T37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="U37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="V37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="W37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="X37" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y37" s="137" t="s">
         <v>138</v>
       </c>
       <c r="Z37" s="176" t="s">
@@ -8128,72 +8191,72 @@
       <c r="A38" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="257" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="I38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="K38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="L38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="M38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="N38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="O38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="P38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q38" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="R38" s="145" t="s">
-        <v>138</v>
-      </c>
-      <c r="S38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="T38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="U38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="V38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="W38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="X38" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y38" s="146" t="s">
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="259" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="259" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="M38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="O38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="P38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38" s="259" t="s">
+        <v>138</v>
+      </c>
+      <c r="R38" s="259" t="s">
+        <v>138</v>
+      </c>
+      <c r="S38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="T38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="U38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="V38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="W38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="X38" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y38" s="260" t="s">
         <v>138</v>
       </c>
       <c r="Z38" s="172" t="s">
@@ -8205,8 +8268,8 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="256"/>
-      <c r="B39" s="178" t="s">
+      <c r="A39" s="253"/>
+      <c r="B39" s="177" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -8283,8 +8346,8 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="256"/>
-      <c r="B40" s="178" t="s">
+      <c r="A40" s="253"/>
+      <c r="B40" s="177" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -8361,8 +8424,8 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="256"/>
-      <c r="B41" s="178" t="s">
+      <c r="A41" s="253"/>
+      <c r="B41" s="177" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -8439,8 +8502,8 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="256"/>
-      <c r="B42" s="178" t="s">
+      <c r="A42" s="253"/>
+      <c r="B42" s="177" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -8517,8 +8580,8 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="256"/>
-      <c r="B43" s="178" t="s">
+      <c r="A43" s="253"/>
+      <c r="B43" s="177" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -8595,8 +8658,8 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="256"/>
-      <c r="B44" s="178" t="s">
+      <c r="A44" s="253"/>
+      <c r="B44" s="177" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -8673,8 +8736,8 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="256"/>
-      <c r="B45" s="178" t="s">
+      <c r="A45" s="253"/>
+      <c r="B45" s="177" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -8751,8 +8814,8 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="256"/>
-      <c r="B46" s="178" t="s">
+      <c r="A46" s="253"/>
+      <c r="B46" s="177" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -8829,8 +8892,8 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="256"/>
-      <c r="B47" s="178" t="s">
+      <c r="A47" s="253"/>
+      <c r="B47" s="177" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -8907,8 +8970,8 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="256"/>
-      <c r="B48" s="178" t="s">
+      <c r="A48" s="253"/>
+      <c r="B48" s="177" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -8985,8 +9048,8 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="256"/>
-      <c r="B49" s="178" t="s">
+      <c r="A49" s="253"/>
+      <c r="B49" s="177" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -9063,8 +9126,8 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="257"/>
-      <c r="B50" s="180" t="s">
+      <c r="A50" s="254"/>
+      <c r="B50" s="178" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="163" t="s">
@@ -9141,10 +9204,10 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="182" t="s">
+      <c r="B51" s="180" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="144" t="s">
@@ -9221,8 +9284,8 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="235"/>
-      <c r="B52" s="181" t="s">
+      <c r="A52" s="234"/>
+      <c r="B52" s="179" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -9299,8 +9362,8 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="235"/>
-      <c r="B53" s="181" t="s">
+      <c r="A53" s="234"/>
+      <c r="B53" s="179" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -9377,8 +9440,8 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="235"/>
-      <c r="B54" s="181" t="s">
+      <c r="A54" s="234"/>
+      <c r="B54" s="179" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -9455,8 +9518,8 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="235"/>
-      <c r="B55" s="181" t="s">
+      <c r="A55" s="234"/>
+      <c r="B55" s="179" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -9533,8 +9596,8 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="235"/>
-      <c r="B56" s="181" t="s">
+      <c r="A56" s="234"/>
+      <c r="B56" s="179" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -9611,8 +9674,8 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="235"/>
-      <c r="B57" s="181" t="s">
+      <c r="A57" s="234"/>
+      <c r="B57" s="179" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -9689,8 +9752,8 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="235"/>
-      <c r="B58" s="181" t="s">
+      <c r="A58" s="234"/>
+      <c r="B58" s="179" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -9767,8 +9830,8 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="235"/>
-      <c r="B59" s="181" t="s">
+      <c r="A59" s="234"/>
+      <c r="B59" s="179" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -9845,8 +9908,8 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="235"/>
-      <c r="B60" s="181" t="s">
+      <c r="A60" s="234"/>
+      <c r="B60" s="179" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -9919,8 +9982,8 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="235"/>
-      <c r="B61" s="181" t="s">
+      <c r="A61" s="234"/>
+      <c r="B61" s="179" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
@@ -9993,8 +10056,8 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="235"/>
-      <c r="B62" s="181" t="s">
+      <c r="A62" s="234"/>
+      <c r="B62" s="179" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -10071,8 +10134,8 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="235"/>
-      <c r="B63" s="181" t="s">
+      <c r="A63" s="234"/>
+      <c r="B63" s="179" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -10149,8 +10212,8 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="236"/>
-      <c r="B64" s="183" t="s">
+      <c r="A64" s="235"/>
+      <c r="B64" s="181" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="163" t="s">
@@ -10227,10 +10290,10 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="237" t="s">
+      <c r="A65" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="186" t="s">
+      <c r="B65" s="184" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="144" t="s">
@@ -10298,17 +10361,17 @@
       <c r="Y65" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="Z65" s="196" t="s">
+      <c r="Z65" s="194" t="s">
         <v>195</v>
       </c>
-      <c r="AA65" s="188">
+      <c r="AA65" s="186">
         <f>COUNTIF(G65:Y65,"X")</f>
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="238"/>
-      <c r="B66" s="185" t="s">
+      <c r="A66" s="237"/>
+      <c r="B66" s="183" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -10385,8 +10448,8 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="238"/>
-      <c r="B67" s="185" t="s">
+      <c r="A67" s="237"/>
+      <c r="B67" s="183" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -10463,8 +10526,8 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="239"/>
-      <c r="B68" s="187" t="s">
+      <c r="A68" s="238"/>
+      <c r="B68" s="185" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="147" t="s">
@@ -10541,94 +10604,94 @@
       </c>
     </row>
     <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="184" t="s">
+      <c r="E69" s="182" t="s">
         <v>176</v>
       </c>
-      <c r="F69" s="190">
+      <c r="F69" s="188">
         <f>COUNTIF(F3:F68,"X")</f>
         <v>26</v>
       </c>
-      <c r="G69" s="191">
+      <c r="G69" s="189">
         <f t="shared" ref="G69:Y69" si="2">COUNTIF(G3:G68,"X")</f>
         <v>39</v>
       </c>
-      <c r="H69" s="191">
+      <c r="H69" s="189">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="I69" s="191">
+      <c r="I69" s="189">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="J69" s="191">
+      <c r="J69" s="189">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K69" s="191">
+      <c r="K69" s="189">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L69" s="191">
+      <c r="L69" s="189">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="M69" s="191">
+      <c r="M69" s="189">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="N69" s="191">
+      <c r="N69" s="189">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O69" s="191">
+      <c r="O69" s="189">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P69" s="191">
+      <c r="P69" s="189">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q69" s="191">
+      <c r="Q69" s="189">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="R69" s="191">
+      <c r="R69" s="189">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="S69" s="191">
+      <c r="S69" s="189">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="T69" s="191">
+      <c r="T69" s="189">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U69" s="191">
+      <c r="U69" s="189">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="V69" s="191">
+      <c r="V69" s="189">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="W69" s="191">
+      <c r="W69" s="189">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="X69" s="191">
+      <c r="X69" s="189">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y69" s="192">
+      <c r="Y69" s="190">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="Z69" s="189">
+      <c r="Z69" s="187">
         <f>SUM(F69:Y69)</f>
         <v>380</v>
       </c>
-      <c r="AA69" s="189">
+      <c r="AA69" s="187">
         <f>SUM(AA3:AA68)</f>
         <v>380</v>
       </c>
@@ -14604,8 +14667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14621,39 +14684,39 @@
       <c r="A1" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="197" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="203" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="200" t="s">
+      <c r="D1" s="198" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="200" t="s">
+      <c r="E1" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
     </row>
     <row r="2" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="200" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
@@ -14661,121 +14724,121 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="201" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="201" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="201" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="201" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="201" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="201" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="187" t="s">
         <v>209</v>
       </c>
       <c r="D8" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="206" t="s">
+      <c r="E8" s="204" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="201" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="201" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="201" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="201" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="203" t="s">
+      <c r="A13" s="201" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="201" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="189" t="s">
+      <c r="C14" s="187" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="206" t="s">
+      <c r="E14" s="204" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="201" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203" t="s">
+      <c r="A16" s="201" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="201" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="203" t="s">
+      <c r="A18" s="201" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="201" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="203" t="s">
+      <c r="A20" s="201" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="204" t="s">
+      <c r="A21" s="202" t="s">
         <v>163</v>
       </c>
     </row>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Proxy data summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Hourly emissions - hypotesis" sheetId="2" r:id="rId2"/>
+    <sheet name="Hourly emissions - methodology" sheetId="2" r:id="rId2"/>
     <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="268">
   <si>
     <t>NFR category</t>
   </si>
@@ -564,9 +565,6 @@
     <t>Number of Level of activity proxys</t>
   </si>
   <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed Level of activity and equation, given in the order. Hypotesis was obtained from  </t>
-  </si>
-  <si>
     <t>Working time [00-24h] (WT0024)</t>
   </si>
   <si>
@@ -579,9 +577,6 @@
     <t>HE = WDWW + WT0024 + WT0624 + !PH + k*SA + k*HS + TEMP + !RP</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0024 + !PH + !RP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0816 + WT1624 + !PH + !RP</t>
   </si>
   <si>
@@ -594,12 +589,6 @@
     <t>Working Weekends (WW)</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0816 + WT1624 + WT0024 + WW + !PH</t>
-  </si>
-  <si>
-    <t>HE = WDWW + WT0024 + !PH + HS + TEMP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0622 + 2*PH + HS + TEMP</t>
   </si>
   <si>
@@ -618,18 +607,12 @@
     <t>HE = WD + WT0816 + WT1624 + WW + RH0709 + RH1517 + !PH + VA</t>
   </si>
   <si>
-    <t>HE = WDWW + DL + SLP</t>
-  </si>
-  <si>
     <t xml:space="preserve">HE = WD + WT0816 + WT1624 + WE + RH0709 + RH1517 + !PH + TEMP + VA </t>
   </si>
   <si>
     <t>HE = WD + WT0816 + DL + WE +  !PH + SA</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0024 + DL + SLP</t>
-  </si>
-  <si>
     <t>HE = WDWW + DL + !PH + SAAG + TEMP + SLP</t>
   </si>
   <si>
@@ -639,34 +622,19 @@
     <t>HE = WDWW + DL + SAAG + TEMP + SLP</t>
   </si>
   <si>
-    <t>HE = WDWW + DL + !PH + SAAG + TEMP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0816 + !PH + VA</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0816 + SLP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0024 + SA + TEMP + SLP</t>
   </si>
   <si>
     <t>Number of flights per hour (NFH)</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0024 + TEMP + SLP + NFH</t>
-  </si>
-  <si>
-    <t>HE = WDWW + DL + SA + TEMP + SLP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0816 + WT1624 + WE + RH0709 + RH1517 + !PH + TEMP + SLP + VA</t>
   </si>
   <si>
     <t xml:space="preserve">HE = WDWW + WT0816 + WT1624 + WE + !PH </t>
-  </si>
-  <si>
-    <t>HE = WDWW + WT0816 + WT1624 + WE + !PH + SA</t>
   </si>
   <si>
     <t>Description</t>
@@ -754,12 +722,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators and equation, given in the order. The hypothesis is based on data collected from official body work programs within public heat and electric production. Hours of power plants and heating plants are year-round, 24 hours a day, with increased production during the winter - heating season, as well as with very low temperatures. During the overhaul period, production is at half capacity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators and equation, given in the order.  The hypothesis is based on data collected from official body work programs within rafineries. Working hours of rafineries are year-round, 24 hours a day. During the overhaul period, production is at half capacity. </t>
-  </si>
-  <si>
     <t>http://www.beoelektrane.rs/about_us.html</t>
   </si>
   <si>
@@ -769,34 +731,187 @@
     <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of iron and steel happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
   </si>
   <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of Non-ferrous metals happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of chemicals happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of pulp, paper and print happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of food, beverages and tobacco happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production of non-metallic minerals happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production in manufacturing industries and construction happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the  auto-production happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on indicators  and equation, given in the order.  The temporal activity graph is constructed by assuming that the production from other industries happens during the whole year, whole week, in two working time periods during the day, but with less activity during the public holidays and repair period. Weekend production is smaller and this is taken into account when constructing the function.</t>
+    <t>The inventory emission from this sub - category will be tepmoral dissagregated based on identifed indicators and equation, (see column "Equation (HE - Hourly emissions"). The hypothesis is based on insight to the official working schedule of the public heat and electric plants. Power plants work for a whole year, with increasing activity during the heating season (late Autumn and Winter), while the heating plants work only during the heating season. During the overhaul period, production is at half capacity. During the public holidays, heating plants increase their activity during the heating season.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be tepmoral dissagregated based on identifed indicators and equation, (see column "Equation (HE - Hourly emissions").  The hypothesis is based on insight to the official working schedule of the Refineries. Refineries work for a whole year equally. During the overhaul period, production is at half capacity.</t>
+  </si>
+  <si>
+    <t>The same as 1A1b.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that the manufacturing of solid fuels happens during the whole year, whole week, but with less activity during the night and public holidays.</t>
+  </si>
+  <si>
+    <t>The same as 1A1c.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that the coal mining happens during the whole year, whole week, but with less activity during the night and public holidays as well as during the extreme winter.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the exploration, production, transport of liquid fuels happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays.</t>
+  </si>
+  <si>
+    <t>HE = WD + WT0816 + WT1624 + !PH + VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the distribution of oil products happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays.  </t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + !PH</t>
+  </si>
+  <si>
+    <t>The same  as 1B2av</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by using the average number of flights per hour.</t>
+  </si>
+  <si>
+    <t>Official report available via web page of airports.</t>
+  </si>
+  <si>
+    <t>HE =  NFH</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the domesting flights happen exclusively by day light and with the less activity in the winter.</t>
+  </si>
+  <si>
+    <t>HE = DL + SA</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by using the hourly counted vehice activity (on the 350 vehicle activity counters). The average hourly vehicle activity for the IA category will be used fo highway inventory. For the rural inventory, the average hourly vehicle activity for IIA and IB will be used. For the urban inventory, the activity graph will be constructed by assuming that the urban road activity is higher by day light, for the working days, for the rush hours as well as for the  public holidays.</t>
+  </si>
+  <si>
+    <t>The same as 1A3bi.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the railway transport happens mostly during the day (day light). But with less activity during the public holidays, but with the increasing activity during the summer season.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the shipping transport happens mostly during the day (day light). But with less activity during the public holidays and winter season.</t>
+  </si>
+  <si>
+    <t>HE = WDWW + DL  + WE + !PH + SA</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the  "Commercial/institutional: Stationary Combustion" happens during the heating season with the increasing activity during the extreme winter, public holidays and less activity at night.</t>
+  </si>
+  <si>
+    <t>The same as 1A4ai.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the  Agriculture/Forestry/Fishing: Stationary combustion" happens during the heating season with the increasing activity during the agriculture season, extreme winter and less activity at night and public holidays.</t>
+  </si>
+  <si>
+    <t>The same as 1A4ci.</t>
+  </si>
+  <si>
+    <t>The same as 1A2a/2C1.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that quarrying and mining of minerals  happens during the whole year, whole week, but with less activity during the night and public holidays as well as during the extreme winter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that construction and demolition  happens during the whole year, whole week, in two working time periods during the day, but with less activity during the weekends and public holidays as well as during the extreme winter.  </t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the storage, handling and transport of mineral products happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays. The activity graph will be constructed by assuming that the road activity is higher by day light, for the working days, for the rush hours.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the road paving with asphalt happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays. The activity graph will be constructed by assuming that the road activity is higher by day light, for the working days, for the rush hours.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the asphalt roofing happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays. The activity graph will be constructed by assuming that the road activity is higher by day light, for the working days, for the rush hours.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the coating applications happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays. The activity graph will be constructed by assuming that the road activity is higher by day light, for the working days, for the rush hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the domestic solvent use including fungicides happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t>HE = WDWW + DL + TEMP + SLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the degreasing happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the dry cleaning happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emission from using chemical products happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emission from printing happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emissions from other solvent and product use happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that wood processing  happens during the whole year at working days, but with less activity during the night, weekends and public holidays as well as during the extreme winter.  </t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + DL + TEMP + SLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that emission  happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t>The same as 3B1a</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that emission  happens during the whole year, but with the less activity during the nigth and public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. Agriculture seasons will be included, within which there is a higher pollution emission.</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that emission  happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. Agriculture seasons will be included, within which there is a higher pollution emission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that emission  happens during the whole year, but with the less activity during the nigth as well as during the extreme winter. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the biological treatment of waste - solid waste disposal on land happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the cremation happens during the whole year, but with the less activity during the nigth and public holidays. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the domestic wastewater handling happens during the whole year, but with the less activity during the public holidays as well as during the extreme winter. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the industrial wastewater handling  happens during the whole year, but with the less activity during the public holidays as well as during the extreme winter. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + !RP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0816 + !PH</t>
+  </si>
+  <si>
+    <t>References:</t>
+  </si>
+  <si>
+    <t>Lenhart L. et al. (1997) Temporal Disaggregation of Emission Data. In: Ebel A., Friedrich R., Rodhe H. (eds) Tropospheric Modelling and Emission Estimation. Transport and Chemical Transformation of Pollutants in the Troposphere, vol 7. Springer, Berlin, Heidelberg       https://doi.org/10.1007/978-3-662-03470-5_7</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Periodic - sine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Enterprise “Roads of Serbia” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained from ~400 automatic Vehicle Counting Devices (VCD), spreaded over the whole territory of Serbia, on three different road category (1A, 2A and 1B) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1739,19 +1854,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1775,6 +1877,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1782,7 +1895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2364,32 +2477,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2532,32 +2646,52 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2583,6 +2717,237 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>443686</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>996325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4015561</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5025400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15650068" y="27285325"/>
+          <a:ext cx="3571875" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4376916</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1018354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7948791</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5047429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19583298" y="27307354"/>
+          <a:ext cx="3571875" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1144019</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>422767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3862973</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>821085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16350401" y="26711767"/>
+          <a:ext cx="2718954" cy="398318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Transport</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> - road class 1A - vehicles activity</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5132294</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>302559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7851248</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>885265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20338676" y="26591559"/>
+          <a:ext cx="2718954" cy="582706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Transport</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> - road class 1A, 1B,- vehicles activity</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2850,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,11 +3240,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="212" t="s">
+      <c r="J1" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="213"/>
-      <c r="L1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="215"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2929,7 +3294,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="229" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2962,7 +3327,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="229"/>
+      <c r="A4" s="230"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2993,7 +3358,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="229"/>
+      <c r="A5" s="230"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -3024,7 +3389,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="229"/>
+      <c r="A6" s="230"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -3055,7 +3420,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="229"/>
+      <c r="A7" s="230"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -3086,7 +3451,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="229"/>
+      <c r="A8" s="230"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -3117,7 +3482,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="219" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3156,7 +3521,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="219"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -3191,7 +3556,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="219"/>
+      <c r="A11" s="220"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -3226,7 +3591,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="220"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -3261,7 +3626,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="222" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3300,7 +3665,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="221"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -3337,7 +3702,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="221"/>
+      <c r="A15" s="222"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3374,7 +3739,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="221"/>
+      <c r="A16" s="222"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -3411,7 +3776,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
+      <c r="A17" s="222"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -3448,7 +3813,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
+      <c r="A18" s="222"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -3485,7 +3850,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="221"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -3522,7 +3887,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
+      <c r="A20" s="222"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -3559,7 +3924,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="221"/>
+      <c r="A21" s="222"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -3596,7 +3961,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="221"/>
+      <c r="A22" s="222"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -3633,7 +3998,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="221"/>
+      <c r="A23" s="222"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -3668,7 +4033,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="222"/>
+      <c r="A24" s="223"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -3703,7 +4068,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="223" t="s">
+      <c r="A25" s="224" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -3740,7 +4105,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="224"/>
+      <c r="A26" s="225"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -3777,7 +4142,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="224"/>
+      <c r="A27" s="225"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -3814,7 +4179,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="225"/>
+      <c r="A28" s="226"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +4216,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="209" t="s">
+      <c r="A29" s="210" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3884,7 +4249,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="210"/>
+      <c r="A30" s="211"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -3915,7 +4280,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="210"/>
+      <c r="A31" s="211"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -3946,7 +4311,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="210"/>
+      <c r="A32" s="211"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -3977,7 +4342,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="210"/>
+      <c r="A33" s="211"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -4008,7 +4373,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="210"/>
+      <c r="A34" s="211"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -4039,7 +4404,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="210"/>
+      <c r="A35" s="211"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -4070,7 +4435,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="210"/>
+      <c r="A36" s="211"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -4109,7 +4474,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="211"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -4146,7 +4511,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="206" t="s">
+      <c r="A38" s="207" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -4179,7 +4544,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="207"/>
+      <c r="A39" s="208"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4216,7 +4581,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="207"/>
+      <c r="A40" s="208"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4251,7 +4616,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="207"/>
+      <c r="A41" s="208"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -4288,7 +4653,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="207"/>
+      <c r="A42" s="208"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -4323,7 +4688,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="207"/>
+      <c r="A43" s="208"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -4358,7 +4723,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="207"/>
+      <c r="A44" s="208"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -4393,7 +4758,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="207"/>
+      <c r="A45" s="208"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -4430,7 +4795,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="207"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -4467,7 +4832,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="207"/>
+      <c r="A47" s="208"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -4504,7 +4869,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="207"/>
+      <c r="A48" s="208"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -4541,7 +4906,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="207"/>
+      <c r="A49" s="208"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -4578,7 +4943,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="208"/>
+      <c r="A50" s="209"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -4615,7 +4980,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="226" t="s">
+      <c r="A51" s="227" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -4654,7 +5019,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="227"/>
+      <c r="A52" s="228"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -4691,7 +5056,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="227"/>
+      <c r="A53" s="228"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -4728,7 +5093,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="227"/>
+      <c r="A54" s="228"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -4759,7 +5124,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="227"/>
+      <c r="A55" s="228"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -4796,7 +5161,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="227"/>
+      <c r="A56" s="228"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -4833,7 +5198,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="227"/>
+      <c r="A57" s="228"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -4864,7 +5229,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="227"/>
+      <c r="A58" s="228"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -4901,7 +5266,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="227"/>
+      <c r="A59" s="228"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -4938,7 +5303,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="227"/>
+      <c r="A60" s="228"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -4975,7 +5340,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="227"/>
+      <c r="A61" s="228"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -5012,7 +5377,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="227"/>
+      <c r="A62" s="228"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -5049,7 +5414,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="227"/>
+      <c r="A63" s="228"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -5086,7 +5451,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="227"/>
+      <c r="A64" s="228"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -5123,7 +5488,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="215" t="s">
+      <c r="A65" s="216" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -5162,7 +5527,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="216"/>
+      <c r="A66" s="217"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -5199,7 +5564,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="216"/>
+      <c r="A67" s="217"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -5234,7 +5599,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="217"/>
+      <c r="A68" s="218"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -5297,11 +5662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5331,28 +5696,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="230" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="232"/>
+      <c r="F1" s="231" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
+      <c r="S1" s="232"/>
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="233"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
@@ -5365,7 +5730,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E2" s="121" t="s">
         <v>115</v>
@@ -5374,7 +5739,7 @@
         <v>151</v>
       </c>
       <c r="G2" s="122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H2" s="123" t="s">
         <v>152</v>
@@ -5383,7 +5748,7 @@
         <v>153</v>
       </c>
       <c r="J2" s="123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K2" s="123" t="s">
         <v>167</v>
@@ -5395,7 +5760,7 @@
         <v>155</v>
       </c>
       <c r="N2" s="123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O2" s="123" t="s">
         <v>156</v>
@@ -5422,10 +5787,10 @@
         <v>162</v>
       </c>
       <c r="W2" s="171" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="X2" s="171" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Y2" s="124" t="s">
         <v>163</v>
@@ -5438,20 +5803,20 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="240" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="161" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D3" s="144" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="205" t="s">
-        <v>219</v>
+        <v>207</v>
+      </c>
+      <c r="E3" s="197" t="s">
+        <v>206</v>
       </c>
       <c r="F3" s="145" t="s">
         <v>165</v>
@@ -5514,7 +5879,7 @@
         <v>138</v>
       </c>
       <c r="Z3" s="156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA3" s="134">
         <f t="shared" ref="AA3:AA34" si="0">COUNTIF(F3:Y3,"X")</f>
@@ -5522,15 +5887,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="159" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E4" s="126"/>
       <c r="F4" s="133" t="s">
@@ -5567,7 +5932,7 @@
         <v>165</v>
       </c>
       <c r="Q4" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="R4" s="133" t="s">
         <v>165</v>
@@ -5594,22 +5959,22 @@
         <v>138</v>
       </c>
       <c r="Z4" s="157" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="AA4" s="132">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="240"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="159" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="126"/>
+        <v>211</v>
+      </c>
+      <c r="D5" s="204"/>
       <c r="E5" s="126"/>
       <c r="F5" s="133" t="s">
         <v>165</v>
@@ -5645,7 +6010,7 @@
         <v>165</v>
       </c>
       <c r="Q5" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="R5" s="133" t="s">
         <v>165</v>
@@ -5672,22 +6037,22 @@
         <v>138</v>
       </c>
       <c r="Z5" s="157" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="AA5" s="132">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="240"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="159" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="126"/>
+        <v>211</v>
+      </c>
+      <c r="D6" s="204"/>
       <c r="E6" s="126"/>
       <c r="F6" s="133" t="s">
         <v>165</v>
@@ -5723,7 +6088,7 @@
         <v>165</v>
       </c>
       <c r="Q6" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="R6" s="133" t="s">
         <v>165</v>
@@ -5750,24 +6115,24 @@
         <v>138</v>
       </c>
       <c r="Z6" s="157" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="AA6" s="132">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="240"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="126"/>
+        <v>212</v>
+      </c>
+      <c r="D7" s="204"/>
       <c r="E7" s="160" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="133" t="s">
         <v>165</v>
@@ -5830,7 +6195,7 @@
         <v>138</v>
       </c>
       <c r="Z7" s="157" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA7" s="132">
         <f t="shared" si="0"/>
@@ -5838,16 +6203,16 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="241"/>
+      <c r="A8" s="242"/>
       <c r="B8" s="174" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="139"/>
+        <v>213</v>
+      </c>
+      <c r="D8" s="205"/>
       <c r="E8" s="175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F8" s="140" t="s">
         <v>165</v>
@@ -5910,7 +6275,7 @@
         <v>138</v>
       </c>
       <c r="Z8" s="158" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA8" s="138">
         <f t="shared" si="0"/>
@@ -5918,16 +6283,16 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="242" t="s">
+      <c r="A9" s="243" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="143" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="127"/>
+        <v>214</v>
+      </c>
+      <c r="D9" s="206"/>
       <c r="E9" s="127"/>
       <c r="F9" s="145" t="s">
         <v>165</v>
@@ -5990,7 +6355,7 @@
         <v>138</v>
       </c>
       <c r="Z9" s="172" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA9" s="153">
         <f t="shared" si="0"/>
@@ -5998,14 +6363,14 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="243"/>
+      <c r="A10" s="244"/>
       <c r="B10" s="142" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="126"/>
+        <v>215</v>
+      </c>
+      <c r="D10" s="204"/>
       <c r="E10" s="126"/>
       <c r="F10" s="133" t="s">
         <v>138</v>
@@ -6032,13 +6397,13 @@
         <v>165</v>
       </c>
       <c r="N10" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O10" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="P10" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="133" t="s">
         <v>138</v>
@@ -6068,22 +6433,22 @@
         <v>165</v>
       </c>
       <c r="Z10" s="173" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="AA10" s="154">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="243"/>
+      <c r="A11" s="244"/>
       <c r="B11" s="142" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="126"/>
+        <v>217</v>
+      </c>
+      <c r="D11" s="204"/>
       <c r="E11" s="126"/>
       <c r="F11" s="133" t="s">
         <v>165</v>
@@ -6092,10 +6457,10 @@
         <v>138</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I11" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="J11" s="133" t="s">
         <v>138</v>
@@ -6110,7 +6475,7 @@
         <v>165</v>
       </c>
       <c r="N11" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O11" s="133" t="s">
         <v>165</v>
@@ -6146,37 +6511,37 @@
         <v>165</v>
       </c>
       <c r="Z11" s="173" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="AA11" s="154">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="244"/>
+      <c r="A12" s="245"/>
       <c r="B12" s="191" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="139"/>
+        <v>219</v>
+      </c>
+      <c r="D12" s="205"/>
       <c r="E12" s="139"/>
       <c r="F12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="G12" s="140" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="H12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="J12" s="140" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="K12" s="140" t="s">
         <v>165</v>
@@ -6188,13 +6553,13 @@
         <v>165</v>
       </c>
       <c r="N12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="P12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="Q12" s="140" t="s">
         <v>138</v>
@@ -6215,7 +6580,7 @@
         <v>165</v>
       </c>
       <c r="W12" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="X12" s="140" t="s">
         <v>165</v>
@@ -6224,30 +6589,32 @@
         <v>165</v>
       </c>
       <c r="Z12" s="176" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AA12" s="170">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="245" t="s">
+      <c r="A13" s="246" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="193" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="127"/>
+        <v>221</v>
+      </c>
+      <c r="D13" s="144" t="s">
+        <v>222</v>
+      </c>
       <c r="E13" s="127"/>
       <c r="F13" s="145" t="s">
         <v>165</v>
       </c>
       <c r="G13" s="145" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H13" s="145" t="s">
         <v>165</v>
@@ -6256,7 +6623,7 @@
         <v>165</v>
       </c>
       <c r="J13" s="145" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="K13" s="145" t="s">
         <v>165</v>
@@ -6289,10 +6656,10 @@
         <v>165</v>
       </c>
       <c r="U13" s="145" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="V13" s="145" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="W13" s="145" t="s">
         <v>165</v>
@@ -6304,28 +6671,28 @@
         <v>165</v>
       </c>
       <c r="Z13" s="150" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="AA13" s="153">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="246"/>
+      <c r="A14" s="247"/>
       <c r="B14" s="192" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="126"/>
+        <v>224</v>
+      </c>
+      <c r="D14" s="204"/>
       <c r="E14" s="126"/>
       <c r="F14" s="133" t="s">
         <v>165</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H14" s="133" t="s">
         <v>165</v>
@@ -6367,10 +6734,10 @@
         <v>165</v>
       </c>
       <c r="U14" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="V14" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="W14" s="133" t="s">
         <v>165</v>
@@ -6382,22 +6749,22 @@
         <v>165</v>
       </c>
       <c r="Z14" s="151" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AA14" s="154">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246"/>
+      <c r="A15" s="247"/>
       <c r="B15" s="192" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="126"/>
+        <v>226</v>
+      </c>
+      <c r="D15" s="204"/>
       <c r="E15" s="126"/>
       <c r="F15" s="133" t="s">
         <v>138</v>
@@ -6460,7 +6827,7 @@
         <v>165</v>
       </c>
       <c r="Z15" s="151" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA15" s="154">
         <f t="shared" si="0"/>
@@ -6468,14 +6835,14 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="246"/>
+      <c r="A16" s="247"/>
       <c r="B16" s="192" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="126"/>
+        <v>227</v>
+      </c>
+      <c r="D16" s="204"/>
       <c r="E16" s="126"/>
       <c r="F16" s="133" t="s">
         <v>138</v>
@@ -6538,7 +6905,7 @@
         <v>165</v>
       </c>
       <c r="Z16" s="151" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA16" s="154">
         <f t="shared" si="0"/>
@@ -6546,14 +6913,14 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="246"/>
+      <c r="A17" s="247"/>
       <c r="B17" s="192" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="126"/>
+        <v>227</v>
+      </c>
+      <c r="D17" s="204"/>
       <c r="E17" s="126"/>
       <c r="F17" s="133" t="s">
         <v>138</v>
@@ -6616,7 +6983,7 @@
         <v>165</v>
       </c>
       <c r="Z17" s="151" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA17" s="154">
         <f t="shared" si="0"/>
@@ -6624,14 +6991,14 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="246"/>
+      <c r="A18" s="247"/>
       <c r="B18" s="192" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="126"/>
+        <v>227</v>
+      </c>
+      <c r="D18" s="204"/>
       <c r="E18" s="126"/>
       <c r="F18" s="133" t="s">
         <v>138</v>
@@ -6694,7 +7061,7 @@
         <v>165</v>
       </c>
       <c r="Z18" s="151" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA18" s="154">
         <f t="shared" si="0"/>
@@ -6702,14 +7069,14 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="246"/>
+      <c r="A19" s="247"/>
       <c r="B19" s="192" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="126"/>
+        <v>227</v>
+      </c>
+      <c r="D19" s="204"/>
       <c r="E19" s="126"/>
       <c r="F19" s="133" t="s">
         <v>138</v>
@@ -6772,7 +7139,7 @@
         <v>165</v>
       </c>
       <c r="Z19" s="151" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA19" s="154">
         <f t="shared" si="0"/>
@@ -6780,14 +7147,14 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="246"/>
+      <c r="A20" s="247"/>
       <c r="B20" s="192" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="126"/>
+        <v>227</v>
+      </c>
+      <c r="D20" s="204"/>
       <c r="E20" s="126"/>
       <c r="F20" s="133" t="s">
         <v>138</v>
@@ -6850,7 +7217,7 @@
         <v>165</v>
       </c>
       <c r="Z20" s="151" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA20" s="154">
         <f t="shared" si="0"/>
@@ -6858,14 +7225,14 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="246"/>
+      <c r="A21" s="247"/>
       <c r="B21" s="192" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="126"/>
+        <v>227</v>
+      </c>
+      <c r="D21" s="204"/>
       <c r="E21" s="126"/>
       <c r="F21" s="133" t="s">
         <v>138</v>
@@ -6928,7 +7295,7 @@
         <v>165</v>
       </c>
       <c r="Z21" s="151" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA21" s="154">
         <f t="shared" si="0"/>
@@ -6936,14 +7303,14 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="246"/>
+      <c r="A22" s="247"/>
       <c r="B22" s="192" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="126"/>
+        <v>227</v>
+      </c>
+      <c r="D22" s="204"/>
       <c r="E22" s="126"/>
       <c r="F22" s="133" t="s">
         <v>138</v>
@@ -7006,7 +7373,7 @@
         <v>165</v>
       </c>
       <c r="Z22" s="151" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AA22" s="154">
         <f t="shared" si="0"/>
@@ -7014,14 +7381,14 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="246"/>
+      <c r="A23" s="247"/>
       <c r="B23" s="192" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="126"/>
+        <v>228</v>
+      </c>
+      <c r="D23" s="204"/>
       <c r="E23" s="126"/>
       <c r="F23" s="133" t="s">
         <v>138</v>
@@ -7084,7 +7451,7 @@
         <v>165</v>
       </c>
       <c r="Z23" s="151" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AA23" s="154">
         <f t="shared" si="0"/>
@@ -7092,14 +7459,14 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="247"/>
+      <c r="A24" s="248"/>
       <c r="B24" s="195" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="139"/>
+        <v>229</v>
+      </c>
+      <c r="D24" s="205"/>
       <c r="E24" s="139"/>
       <c r="F24" s="140" t="s">
         <v>138</v>
@@ -7108,10 +7475,10 @@
         <v>165</v>
       </c>
       <c r="H24" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I24" s="140" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="J24" s="140" t="s">
         <v>165</v>
@@ -7120,7 +7487,7 @@
         <v>165</v>
       </c>
       <c r="L24" s="140" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="M24" s="140" t="s">
         <v>138</v>
@@ -7162,24 +7529,24 @@
         <v>165</v>
       </c>
       <c r="Z24" s="152" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="AA24" s="155">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="248" t="s">
+      <c r="A25" s="249" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="165" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="144" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="127"/>
+        <v>231</v>
+      </c>
+      <c r="D25" s="206"/>
       <c r="E25" s="127"/>
       <c r="F25" s="145" t="s">
         <v>165</v>
@@ -7242,7 +7609,7 @@
         <v>165</v>
       </c>
       <c r="Z25" s="194" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AA25" s="186">
         <f t="shared" si="0"/>
@@ -7250,14 +7617,14 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="249"/>
+      <c r="A26" s="250"/>
       <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="126"/>
+        <v>232</v>
+      </c>
+      <c r="D26" s="204"/>
       <c r="E26" s="126"/>
       <c r="F26" s="133" t="s">
         <v>165</v>
@@ -7272,10 +7639,10 @@
         <v>165</v>
       </c>
       <c r="J26" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="K26" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="L26" s="133" t="s">
         <v>165</v>
@@ -7293,7 +7660,7 @@
         <v>165</v>
       </c>
       <c r="Q26" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="R26" s="133" t="s">
         <v>165</v>
@@ -7320,22 +7687,22 @@
         <v>165</v>
       </c>
       <c r="Z26" s="173" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AA26" s="154">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="249"/>
+      <c r="A27" s="250"/>
       <c r="B27" s="164" t="s">
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="126"/>
+        <v>233</v>
+      </c>
+      <c r="D27" s="204"/>
       <c r="E27" s="126"/>
       <c r="F27" s="133" t="s">
         <v>165</v>
@@ -7398,7 +7765,7 @@
         <v>165</v>
       </c>
       <c r="Z27" s="173" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AA27" s="154">
         <f t="shared" si="0"/>
@@ -7406,14 +7773,14 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="250"/>
+      <c r="A28" s="251"/>
       <c r="B28" s="166" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="139"/>
+        <v>234</v>
+      </c>
+      <c r="D28" s="205"/>
       <c r="E28" s="139"/>
       <c r="F28" s="140" t="s">
         <v>165</v>
@@ -7476,7 +7843,7 @@
         <v>165</v>
       </c>
       <c r="Z28" s="176" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AA28" s="170">
         <f t="shared" si="0"/>
@@ -7484,14 +7851,14 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="251" t="s">
+      <c r="A29" s="252" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="144" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
@@ -7556,7 +7923,7 @@
         <v>138</v>
       </c>
       <c r="Z29" s="172" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA29" s="153">
         <f t="shared" si="0"/>
@@ -7564,12 +7931,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="252"/>
+      <c r="A30" s="253"/>
       <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D30" s="126"/>
       <c r="E30" s="126"/>
@@ -7634,7 +8001,7 @@
         <v>138</v>
       </c>
       <c r="Z30" s="173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA30" s="154">
         <f t="shared" si="0"/>
@@ -7642,12 +8009,12 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="252"/>
+      <c r="A31" s="253"/>
       <c r="B31" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="126"/>
@@ -7712,7 +8079,7 @@
         <v>138</v>
       </c>
       <c r="Z31" s="173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA31" s="154">
         <f t="shared" si="0"/>
@@ -7720,12 +8087,12 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="252"/>
+      <c r="A32" s="253"/>
       <c r="B32" s="168" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D32" s="126"/>
       <c r="E32" s="126"/>
@@ -7790,7 +8157,7 @@
         <v>138</v>
       </c>
       <c r="Z32" s="173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA32" s="154">
         <f t="shared" si="0"/>
@@ -7798,12 +8165,12 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="252"/>
+      <c r="A33" s="253"/>
       <c r="B33" s="168" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="126"/>
@@ -7868,7 +8235,7 @@
         <v>138</v>
       </c>
       <c r="Z33" s="173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA33" s="154">
         <f t="shared" si="0"/>
@@ -7876,12 +8243,12 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="252"/>
+      <c r="A34" s="253"/>
       <c r="B34" s="168" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D34" s="126"/>
       <c r="E34" s="126"/>
@@ -7946,7 +8313,7 @@
         <v>138</v>
       </c>
       <c r="Z34" s="173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA34" s="154">
         <f t="shared" si="0"/>
@@ -7954,12 +8321,12 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="252"/>
+      <c r="A35" s="253"/>
       <c r="B35" s="168" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D35" s="126"/>
       <c r="E35" s="126"/>
@@ -8024,7 +8391,7 @@
         <v>138</v>
       </c>
       <c r="Z35" s="173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA35" s="154">
         <f t="shared" ref="AA35:AA64" si="1">COUNTIF(F35:Y35,"X")</f>
@@ -8032,12 +8399,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="252"/>
+      <c r="A36" s="253"/>
       <c r="B36" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D36" s="126"/>
       <c r="E36" s="126"/>
@@ -8102,7 +8469,7 @@
         <v>138</v>
       </c>
       <c r="Z36" s="173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA36" s="154">
         <f t="shared" si="1"/>
@@ -8110,12 +8477,12 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="261"/>
-      <c r="B37" s="262" t="s">
+      <c r="A37" s="254"/>
+      <c r="B37" s="203" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="147" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D37" s="128"/>
       <c r="E37" s="128"/>
@@ -8180,7 +8547,7 @@
         <v>138</v>
       </c>
       <c r="Z37" s="176" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA37" s="170">
         <f t="shared" si="1"/>
@@ -8191,76 +8558,76 @@
       <c r="A38" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="256" t="s">
+      <c r="B38" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="257" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="259" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="I38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38" s="259" t="s">
-        <v>138</v>
-      </c>
-      <c r="K38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="L38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="M38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="N38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="O38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="P38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q38" s="259" t="s">
-        <v>138</v>
-      </c>
-      <c r="R38" s="259" t="s">
-        <v>138</v>
-      </c>
-      <c r="S38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="T38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="U38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="V38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="W38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="X38" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y38" s="260" t="s">
+      <c r="C38" s="199" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="200"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="201" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="201" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="M38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="O38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="P38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38" s="201" t="s">
+        <v>138</v>
+      </c>
+      <c r="R38" s="201" t="s">
+        <v>138</v>
+      </c>
+      <c r="S38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="T38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="U38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="V38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="W38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="X38" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y38" s="202" t="s">
         <v>138</v>
       </c>
       <c r="Z38" s="172" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA38" s="153">
         <f t="shared" si="1"/>
@@ -8268,12 +8635,12 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="253"/>
+      <c r="A39" s="256"/>
       <c r="B39" s="177" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="D39" s="126"/>
       <c r="E39" s="126"/>
@@ -8338,7 +8705,7 @@
         <v>165</v>
       </c>
       <c r="Z39" s="173" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AA39" s="154">
         <f t="shared" si="1"/>
@@ -8346,12 +8713,12 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="253"/>
+      <c r="A40" s="256"/>
       <c r="B40" s="177" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="D40" s="126"/>
       <c r="E40" s="126"/>
@@ -8416,7 +8783,7 @@
         <v>165</v>
       </c>
       <c r="Z40" s="173" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AA40" s="154">
         <f t="shared" si="1"/>
@@ -8424,12 +8791,12 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="253"/>
+      <c r="A41" s="256"/>
       <c r="B41" s="177" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D41" s="126"/>
       <c r="E41" s="126"/>
@@ -8479,7 +8846,7 @@
         <v>165</v>
       </c>
       <c r="U41" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V41" s="133" t="s">
         <v>138</v>
@@ -8494,20 +8861,20 @@
         <v>165</v>
       </c>
       <c r="Z41" s="173" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AA41" s="154">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="253"/>
+      <c r="A42" s="256"/>
       <c r="B42" s="177" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="D42" s="126"/>
       <c r="E42" s="126"/>
@@ -8572,7 +8939,7 @@
         <v>165</v>
       </c>
       <c r="Z42" s="173" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AA42" s="154">
         <f t="shared" si="1"/>
@@ -8580,12 +8947,12 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="253"/>
+      <c r="A43" s="256"/>
       <c r="B43" s="177" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="D43" s="126"/>
       <c r="E43" s="126"/>
@@ -8650,7 +9017,7 @@
         <v>165</v>
       </c>
       <c r="Z43" s="173" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AA43" s="154">
         <f t="shared" si="1"/>
@@ -8658,12 +9025,12 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="253"/>
+      <c r="A44" s="256"/>
       <c r="B44" s="177" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="D44" s="126"/>
       <c r="E44" s="126"/>
@@ -8728,7 +9095,7 @@
         <v>165</v>
       </c>
       <c r="Z44" s="173" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AA44" s="154">
         <f t="shared" si="1"/>
@@ -8736,12 +9103,12 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="253"/>
+      <c r="A45" s="256"/>
       <c r="B45" s="177" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D45" s="126"/>
       <c r="E45" s="126"/>
@@ -8791,7 +9158,7 @@
         <v>165</v>
       </c>
       <c r="U45" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V45" s="133" t="s">
         <v>138</v>
@@ -8806,20 +9173,20 @@
         <v>165</v>
       </c>
       <c r="Z45" s="173" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AA45" s="154">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="253"/>
+      <c r="A46" s="256"/>
       <c r="B46" s="177" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
@@ -8869,7 +9236,7 @@
         <v>165</v>
       </c>
       <c r="U46" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V46" s="133" t="s">
         <v>138</v>
@@ -8884,20 +9251,20 @@
         <v>165</v>
       </c>
       <c r="Z46" s="173" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AA46" s="154">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="253"/>
+      <c r="A47" s="256"/>
       <c r="B47" s="177" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="D47" s="126"/>
       <c r="E47" s="126"/>
@@ -8947,7 +9314,7 @@
         <v>165</v>
       </c>
       <c r="U47" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V47" s="133" t="s">
         <v>138</v>
@@ -8962,20 +9329,20 @@
         <v>165</v>
       </c>
       <c r="Z47" s="173" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AA47" s="154">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="253"/>
+      <c r="A48" s="256"/>
       <c r="B48" s="177" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D48" s="126"/>
       <c r="E48" s="126"/>
@@ -9025,7 +9392,7 @@
         <v>165</v>
       </c>
       <c r="U48" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V48" s="133" t="s">
         <v>138</v>
@@ -9040,20 +9407,20 @@
         <v>165</v>
       </c>
       <c r="Z48" s="173" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AA48" s="154">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="253"/>
+      <c r="A49" s="256"/>
       <c r="B49" s="177" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="D49" s="126"/>
       <c r="E49" s="126"/>
@@ -9103,7 +9470,7 @@
         <v>165</v>
       </c>
       <c r="U49" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V49" s="133" t="s">
         <v>138</v>
@@ -9118,20 +9485,20 @@
         <v>165</v>
       </c>
       <c r="Z49" s="173" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AA49" s="154">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="254"/>
+      <c r="A50" s="257"/>
       <c r="B50" s="178" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="163" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D50" s="139"/>
       <c r="E50" s="139"/>
@@ -9196,7 +9563,7 @@
         <v>165</v>
       </c>
       <c r="Z50" s="176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AA50" s="170">
         <f t="shared" si="1"/>
@@ -9204,14 +9571,14 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="233" t="s">
+      <c r="A51" s="234" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="180" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="144" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="D51" s="127"/>
       <c r="E51" s="127"/>
@@ -9261,7 +9628,7 @@
         <v>165</v>
       </c>
       <c r="U51" s="145" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V51" s="145" t="s">
         <v>138</v>
@@ -9276,20 +9643,20 @@
         <v>165</v>
       </c>
       <c r="Z51" s="172" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA51" s="153">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="234"/>
+      <c r="A52" s="235"/>
       <c r="B52" s="179" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D52" s="126"/>
       <c r="E52" s="126"/>
@@ -9339,7 +9706,7 @@
         <v>165</v>
       </c>
       <c r="U52" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V52" s="133" t="s">
         <v>138</v>
@@ -9354,20 +9721,20 @@
         <v>165</v>
       </c>
       <c r="Z52" s="173" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA52" s="154">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="234"/>
+      <c r="A53" s="235"/>
       <c r="B53" s="179" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D53" s="126"/>
       <c r="E53" s="126"/>
@@ -9417,7 +9784,7 @@
         <v>165</v>
       </c>
       <c r="U53" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V53" s="133" t="s">
         <v>138</v>
@@ -9432,20 +9799,20 @@
         <v>165</v>
       </c>
       <c r="Z53" s="173" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA53" s="154">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="234"/>
+      <c r="A54" s="235"/>
       <c r="B54" s="179" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D54" s="126"/>
       <c r="E54" s="126"/>
@@ -9495,7 +9862,7 @@
         <v>165</v>
       </c>
       <c r="U54" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V54" s="133" t="s">
         <v>138</v>
@@ -9510,20 +9877,20 @@
         <v>165</v>
       </c>
       <c r="Z54" s="173" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA54" s="154">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="234"/>
+      <c r="A55" s="235"/>
       <c r="B55" s="179" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D55" s="126"/>
       <c r="E55" s="126"/>
@@ -9573,7 +9940,7 @@
         <v>165</v>
       </c>
       <c r="U55" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V55" s="133" t="s">
         <v>138</v>
@@ -9588,20 +9955,20 @@
         <v>165</v>
       </c>
       <c r="Z55" s="173" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA55" s="154">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="234"/>
+      <c r="A56" s="235"/>
       <c r="B56" s="179" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D56" s="126"/>
       <c r="E56" s="126"/>
@@ -9651,7 +10018,7 @@
         <v>165</v>
       </c>
       <c r="U56" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V56" s="133" t="s">
         <v>138</v>
@@ -9666,20 +10033,20 @@
         <v>165</v>
       </c>
       <c r="Z56" s="173" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA56" s="154">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="234"/>
+      <c r="A57" s="235"/>
       <c r="B57" s="179" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D57" s="126"/>
       <c r="E57" s="126"/>
@@ -9729,7 +10096,7 @@
         <v>165</v>
       </c>
       <c r="U57" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V57" s="133" t="s">
         <v>138</v>
@@ -9744,20 +10111,20 @@
         <v>165</v>
       </c>
       <c r="Z57" s="173" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA57" s="154">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="234"/>
+      <c r="A58" s="235"/>
       <c r="B58" s="179" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D58" s="126"/>
       <c r="E58" s="126"/>
@@ -9807,7 +10174,7 @@
         <v>165</v>
       </c>
       <c r="U58" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V58" s="133" t="s">
         <v>138</v>
@@ -9822,20 +10189,20 @@
         <v>165</v>
       </c>
       <c r="Z58" s="173" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA58" s="154">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="234"/>
+      <c r="A59" s="235"/>
       <c r="B59" s="179" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D59" s="126"/>
       <c r="E59" s="126"/>
@@ -9885,7 +10252,7 @@
         <v>165</v>
       </c>
       <c r="U59" s="133" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="V59" s="133" t="s">
         <v>138</v>
@@ -9900,20 +10267,20 @@
         <v>165</v>
       </c>
       <c r="Z59" s="173" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AA59" s="154">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="234"/>
+      <c r="A60" s="235"/>
       <c r="B60" s="179" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="D60" s="126"/>
       <c r="E60" s="126"/>
@@ -9974,7 +10341,7 @@
         <v>165</v>
       </c>
       <c r="Z60" s="173" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AA60" s="154">
         <f t="shared" si="1"/>
@@ -9982,12 +10349,12 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="234"/>
+      <c r="A61" s="235"/>
       <c r="B61" s="179" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="D61" s="126"/>
       <c r="E61" s="126"/>
@@ -10048,7 +10415,7 @@
         <v>165</v>
       </c>
       <c r="Z61" s="173" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AA61" s="154">
         <f t="shared" si="1"/>
@@ -10056,12 +10423,12 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="234"/>
+      <c r="A62" s="235"/>
       <c r="B62" s="179" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="D62" s="126"/>
       <c r="E62" s="126"/>
@@ -10126,7 +10493,7 @@
         <v>165</v>
       </c>
       <c r="Z62" s="173" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AA62" s="154">
         <f t="shared" si="1"/>
@@ -10134,12 +10501,12 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="234"/>
+      <c r="A63" s="235"/>
       <c r="B63" s="179" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="D63" s="126"/>
       <c r="E63" s="126"/>
@@ -10204,7 +10571,7 @@
         <v>165</v>
       </c>
       <c r="Z63" s="173" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AA63" s="154">
         <f t="shared" si="1"/>
@@ -10212,12 +10579,12 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="235"/>
+      <c r="A64" s="236"/>
       <c r="B64" s="181" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="163" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
@@ -10269,8 +10636,8 @@
       <c r="U64" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="V64" s="140" t="s">
-        <v>165</v>
+      <c r="V64" s="133" t="s">
+        <v>138</v>
       </c>
       <c r="W64" s="140" t="s">
         <v>165</v>
@@ -10282,22 +10649,22 @@
         <v>165</v>
       </c>
       <c r="Z64" s="162" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AA64" s="155">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="236" t="s">
+      <c r="A65" s="237" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="184" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="144" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="D65" s="127"/>
       <c r="E65" s="127"/>
@@ -10362,7 +10729,7 @@
         <v>165</v>
       </c>
       <c r="Z65" s="194" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AA65" s="186">
         <f>COUNTIF(G65:Y65,"X")</f>
@@ -10370,12 +10737,12 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="237"/>
+      <c r="A66" s="238"/>
       <c r="B66" s="183" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="D66" s="126"/>
       <c r="E66" s="126"/>
@@ -10428,7 +10795,7 @@
         <v>165</v>
       </c>
       <c r="V66" s="133" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="W66" s="133" t="s">
         <v>165</v>
@@ -10440,20 +10807,20 @@
         <v>165</v>
       </c>
       <c r="Z66" s="173" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="AA66" s="154">
         <f>COUNTIF(F66:Y66,"X")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="237"/>
+      <c r="A67" s="238"/>
       <c r="B67" s="183" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="D67" s="126"/>
       <c r="E67" s="126"/>
@@ -10518,7 +10885,7 @@
         <v>165</v>
       </c>
       <c r="Z67" s="173" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AA67" s="154">
         <f>COUNTIF(F67:Y67,"X")</f>
@@ -10526,12 +10893,12 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="238"/>
+      <c r="A68" s="239"/>
       <c r="B68" s="185" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="147" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D68" s="128"/>
       <c r="E68" s="128"/>
@@ -10596,7 +10963,7 @@
         <v>165</v>
       </c>
       <c r="Z68" s="162" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AA68" s="155">
         <f>COUNTIF(F68:Y68,"X")</f>
@@ -10605,35 +10972,35 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69" s="182" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F69" s="188">
         <f>COUNTIF(F3:F68,"X")</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69" s="189">
         <f t="shared" ref="G69:Y69" si="2">COUNTIF(G3:G68,"X")</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" s="189">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I69" s="189">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J69" s="189">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K69" s="189">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" s="189">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M69" s="189">
         <f t="shared" si="2"/>
@@ -10641,19 +11008,19 @@
       </c>
       <c r="N69" s="189">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O69" s="189">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P69" s="189">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q69" s="189">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R69" s="189">
         <f t="shared" si="2"/>
@@ -10669,15 +11036,15 @@
       </c>
       <c r="U69" s="189">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="V69" s="189">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W69" s="189">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X69" s="189">
         <f t="shared" si="2"/>
@@ -10689,11 +11056,11 @@
       </c>
       <c r="Z69" s="187">
         <f>SUM(F69:Y69)</f>
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AA69" s="187">
         <f>SUM(AA3:AA68)</f>
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
@@ -14665,41 +15032,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
     <col min="2" max="3" width="61.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="46" customWidth="1"/>
+    <col min="4" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="126.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="197" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="203" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="198" t="s">
+      <c r="B1" s="265" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="266" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="267" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="198" t="s">
+      <c r="E1" s="267" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="267" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="199" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="196"/>
+      <c r="G1" s="268" t="s">
+        <v>194</v>
+      </c>
       <c r="H1" s="196"/>
       <c r="I1" s="196"/>
       <c r="J1" s="196"/>
@@ -14714,139 +15084,319 @@
       <c r="S1" s="196"/>
       <c r="T1" s="196"/>
       <c r="U1" s="196"/>
-    </row>
-    <row r="2" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="V1" s="196"/>
+    </row>
+    <row r="2" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="262" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="201" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="201" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="269" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+    </row>
+    <row r="3" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="263" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="126"/>
+      <c r="C3" s="269" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="263" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="201" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="269" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="263" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="201" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="201" t="s">
+      <c r="B5" s="126"/>
+      <c r="C5" s="269" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+    </row>
+    <row r="6" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="263" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="269" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+    </row>
+    <row r="7" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="263" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="201" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="269" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+    </row>
+    <row r="8" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="263" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="117" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="187" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="204" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="201" t="s">
+      <c r="B8" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="269" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F8" s="160" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="126"/>
+    </row>
+    <row r="9" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="263" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="201" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="201" t="s">
+      <c r="B9" s="126"/>
+      <c r="C9" s="269" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+    </row>
+    <row r="10" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="263" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="126"/>
+      <c r="C10" s="269" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+    </row>
+    <row r="11" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="263" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="201" t="s">
+      <c r="B11" s="126"/>
+      <c r="C11" s="269" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+    </row>
+    <row r="12" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="263" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="201" t="s">
+      <c r="B12" s="126"/>
+      <c r="C12" s="269" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+    </row>
+    <row r="13" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="263" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="201" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="269" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+    </row>
+    <row r="14" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="263" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="117" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="187" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="204" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
+      <c r="B14" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="269" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F14" s="160" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="126"/>
+    </row>
+    <row r="15" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="263" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="201" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="269" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+    </row>
+    <row r="16" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="263" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="201" t="s">
+      <c r="B16" s="126"/>
+      <c r="C16" s="269" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+    </row>
+    <row r="17" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="263" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="201" t="s">
+      <c r="B17" s="126"/>
+      <c r="C17" s="269" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+    </row>
+    <row r="18" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="263" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="201" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="201" t="s">
+      <c r="B18" s="126"/>
+      <c r="C18" s="269" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="202" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+    </row>
+    <row r="19" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="263" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="269" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+    </row>
+    <row r="20" spans="1:7" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="263" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="126"/>
+      <c r="C20" s="269" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+    </row>
+    <row r="21" spans="1:7" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="264" t="s">
         <v>163</v>
       </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="269" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="258" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="259"/>
+      <c r="C26" s="260"/>
+    </row>
+    <row r="27" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="261"/>
+      <c r="C27" s="261"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A26:C26"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2505,6 +2504,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2658,6 +2681,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2665,33 +2691,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3240,11 +3239,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="213" t="s">
+      <c r="J1" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="214"/>
-      <c r="L1" s="215"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -3294,7 +3293,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="237" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3327,7 +3326,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
+      <c r="A4" s="238"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3358,7 +3357,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="230"/>
+      <c r="A5" s="238"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -3389,7 +3388,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
+      <c r="A6" s="238"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -3420,7 +3419,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="230"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -3451,7 +3450,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="230"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -3482,7 +3481,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="227" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3521,7 +3520,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="220"/>
+      <c r="A10" s="228"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -3556,7 +3555,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="220"/>
+      <c r="A11" s="228"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -3591,7 +3590,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221"/>
+      <c r="A12" s="229"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -3626,7 +3625,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="230" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3665,7 +3664,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+      <c r="A14" s="230"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3701,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="222"/>
+      <c r="A15" s="230"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3739,7 +3738,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
+      <c r="A16" s="230"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +3775,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="222"/>
+      <c r="A17" s="230"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -3813,7 +3812,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
+      <c r="A18" s="230"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -3850,7 +3849,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="222"/>
+      <c r="A19" s="230"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -3887,7 +3886,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="222"/>
+      <c r="A20" s="230"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -3924,7 +3923,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="222"/>
+      <c r="A21" s="230"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -3961,7 +3960,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
+      <c r="A22" s="230"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +3997,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="222"/>
+      <c r="A23" s="230"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -4033,7 +4032,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="223"/>
+      <c r="A24" s="231"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -4068,7 +4067,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="224" t="s">
+      <c r="A25" s="232" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -4105,7 +4104,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="225"/>
+      <c r="A26" s="233"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -4142,7 +4141,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="225"/>
+      <c r="A27" s="233"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -4179,7 +4178,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="226"/>
+      <c r="A28" s="234"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="210" t="s">
+      <c r="A29" s="218" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4249,7 +4248,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="211"/>
+      <c r="A30" s="219"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="211"/>
+      <c r="A31" s="219"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -4311,7 +4310,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="211"/>
+      <c r="A32" s="219"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -4342,7 +4341,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="211"/>
+      <c r="A33" s="219"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -4373,7 +4372,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="211"/>
+      <c r="A34" s="219"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -4404,7 +4403,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="211"/>
+      <c r="A35" s="219"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -4435,7 +4434,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="211"/>
+      <c r="A36" s="219"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -4474,7 +4473,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="212"/>
+      <c r="A37" s="220"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -4511,7 +4510,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="215" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -4544,7 +4543,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="208"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4581,7 +4580,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="208"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4616,7 +4615,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="208"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -4653,7 +4652,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="208"/>
+      <c r="A42" s="216"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -4688,7 +4687,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="208"/>
+      <c r="A43" s="216"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -4723,7 +4722,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="208"/>
+      <c r="A44" s="216"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -4758,7 +4757,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="208"/>
+      <c r="A45" s="216"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -4795,7 +4794,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="208"/>
+      <c r="A46" s="216"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -4832,7 +4831,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="208"/>
+      <c r="A47" s="216"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -4869,7 +4868,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="208"/>
+      <c r="A48" s="216"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -4906,7 +4905,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="208"/>
+      <c r="A49" s="216"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -4943,7 +4942,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="209"/>
+      <c r="A50" s="217"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -4980,7 +4979,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="227" t="s">
+      <c r="A51" s="235" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -5019,7 +5018,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="228"/>
+      <c r="A52" s="236"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -5056,7 +5055,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="228"/>
+      <c r="A53" s="236"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -5093,7 +5092,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="228"/>
+      <c r="A54" s="236"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -5124,7 +5123,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="228"/>
+      <c r="A55" s="236"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -5161,7 +5160,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="228"/>
+      <c r="A56" s="236"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -5198,7 +5197,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="228"/>
+      <c r="A57" s="236"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -5229,7 +5228,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="228"/>
+      <c r="A58" s="236"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -5266,7 +5265,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="228"/>
+      <c r="A59" s="236"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -5303,7 +5302,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="228"/>
+      <c r="A60" s="236"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -5340,7 +5339,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="228"/>
+      <c r="A61" s="236"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -5377,7 +5376,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="228"/>
+      <c r="A62" s="236"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -5414,7 +5413,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="228"/>
+      <c r="A63" s="236"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -5451,7 +5450,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="228"/>
+      <c r="A64" s="236"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -5488,7 +5487,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="216" t="s">
+      <c r="A65" s="224" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -5527,7 +5526,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="217"/>
+      <c r="A66" s="225"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -5564,7 +5563,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="217"/>
+      <c r="A67" s="225"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -5599,7 +5598,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="218"/>
+      <c r="A68" s="226"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -5696,28 +5695,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="231" t="s">
+      <c r="F1" s="239" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
-      <c r="S1" s="232"/>
-      <c r="T1" s="232"/>
-      <c r="U1" s="232"/>
-      <c r="V1" s="232"/>
-      <c r="W1" s="232"/>
-      <c r="X1" s="232"/>
-      <c r="Y1" s="233"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="240"/>
+      <c r="S1" s="240"/>
+      <c r="T1" s="240"/>
+      <c r="U1" s="240"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="240"/>
+      <c r="X1" s="240"/>
+      <c r="Y1" s="241"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
@@ -5803,7 +5802,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="248" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="161" t="s">
@@ -5887,7 +5886,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="241"/>
+      <c r="A4" s="249"/>
       <c r="B4" s="159" t="s">
         <v>3</v>
       </c>
@@ -5967,7 +5966,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="241"/>
+      <c r="A5" s="249"/>
       <c r="B5" s="159" t="s">
         <v>68</v>
       </c>
@@ -6045,7 +6044,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="241"/>
+      <c r="A6" s="249"/>
       <c r="B6" s="159" t="s">
         <v>69</v>
       </c>
@@ -6123,7 +6122,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="241"/>
+      <c r="A7" s="249"/>
       <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
@@ -6203,7 +6202,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242"/>
+      <c r="A8" s="250"/>
       <c r="B8" s="174" t="s">
         <v>70</v>
       </c>
@@ -6283,7 +6282,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="243" t="s">
+      <c r="A9" s="251" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="143" t="s">
@@ -6363,7 +6362,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="244"/>
+      <c r="A10" s="252"/>
       <c r="B10" s="142" t="s">
         <v>75</v>
       </c>
@@ -6441,7 +6440,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244"/>
+      <c r="A11" s="252"/>
       <c r="B11" s="142" t="s">
         <v>111</v>
       </c>
@@ -6519,7 +6518,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="245"/>
+      <c r="A12" s="253"/>
       <c r="B12" s="191" t="s">
         <v>76</v>
       </c>
@@ -6597,7 +6596,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="254" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="193" t="s">
@@ -6679,7 +6678,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="247"/>
+      <c r="A14" s="255"/>
       <c r="B14" s="192" t="s">
         <v>9</v>
       </c>
@@ -6757,7 +6756,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="247"/>
+      <c r="A15" s="255"/>
       <c r="B15" s="192" t="s">
         <v>10</v>
       </c>
@@ -6835,7 +6834,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="247"/>
+      <c r="A16" s="255"/>
       <c r="B16" s="192" t="s">
         <v>11</v>
       </c>
@@ -6913,7 +6912,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="247"/>
+      <c r="A17" s="255"/>
       <c r="B17" s="192" t="s">
         <v>12</v>
       </c>
@@ -6991,7 +6990,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="247"/>
+      <c r="A18" s="255"/>
       <c r="B18" s="192" t="s">
         <v>13</v>
       </c>
@@ -7069,7 +7068,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="247"/>
+      <c r="A19" s="255"/>
       <c r="B19" s="192" t="s">
         <v>14</v>
       </c>
@@ -7147,7 +7146,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="247"/>
+      <c r="A20" s="255"/>
       <c r="B20" s="192" t="s">
         <v>15</v>
       </c>
@@ -7225,7 +7224,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="247"/>
+      <c r="A21" s="255"/>
       <c r="B21" s="192" t="s">
         <v>16</v>
       </c>
@@ -7303,7 +7302,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="247"/>
+      <c r="A22" s="255"/>
       <c r="B22" s="192" t="s">
         <v>17</v>
       </c>
@@ -7381,7 +7380,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="247"/>
+      <c r="A23" s="255"/>
       <c r="B23" s="192" t="s">
         <v>18</v>
       </c>
@@ -7459,7 +7458,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="248"/>
+      <c r="A24" s="256"/>
       <c r="B24" s="195" t="s">
         <v>19</v>
       </c>
@@ -7537,7 +7536,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="249" t="s">
+      <c r="A25" s="257" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="165" t="s">
@@ -7617,7 +7616,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="250"/>
+      <c r="A26" s="258"/>
       <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
@@ -7695,7 +7694,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="250"/>
+      <c r="A27" s="258"/>
       <c r="B27" s="164" t="s">
         <v>92</v>
       </c>
@@ -7773,7 +7772,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="251"/>
+      <c r="A28" s="259"/>
       <c r="B28" s="166" t="s">
         <v>21</v>
       </c>
@@ -7851,7 +7850,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="252" t="s">
+      <c r="A29" s="260" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
@@ -7931,7 +7930,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="253"/>
+      <c r="A30" s="261"/>
       <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
@@ -8009,7 +8008,7 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="253"/>
+      <c r="A31" s="261"/>
       <c r="B31" s="168" t="s">
         <v>106</v>
       </c>
@@ -8087,7 +8086,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="253"/>
+      <c r="A32" s="261"/>
       <c r="B32" s="168" t="s">
         <v>105</v>
       </c>
@@ -8165,7 +8164,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="253"/>
+      <c r="A33" s="261"/>
       <c r="B33" s="168" t="s">
         <v>107</v>
       </c>
@@ -8243,7 +8242,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="253"/>
+      <c r="A34" s="261"/>
       <c r="B34" s="168" t="s">
         <v>109</v>
       </c>
@@ -8321,7 +8320,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="253"/>
+      <c r="A35" s="261"/>
       <c r="B35" s="168" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8398,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="253"/>
+      <c r="A36" s="261"/>
       <c r="B36" s="168" t="s">
         <v>25</v>
       </c>
@@ -8477,7 +8476,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="254"/>
+      <c r="A37" s="262"/>
       <c r="B37" s="203" t="s">
         <v>26</v>
       </c>
@@ -8555,7 +8554,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="263" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="198" t="s">
@@ -8635,7 +8634,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="256"/>
+      <c r="A39" s="264"/>
       <c r="B39" s="177" t="s">
         <v>28</v>
       </c>
@@ -8713,7 +8712,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="256"/>
+      <c r="A40" s="264"/>
       <c r="B40" s="177" t="s">
         <v>29</v>
       </c>
@@ -8791,7 +8790,7 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="256"/>
+      <c r="A41" s="264"/>
       <c r="B41" s="177" t="s">
         <v>30</v>
       </c>
@@ -8869,7 +8868,7 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="256"/>
+      <c r="A42" s="264"/>
       <c r="B42" s="177" t="s">
         <v>31</v>
       </c>
@@ -8947,7 +8946,7 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="256"/>
+      <c r="A43" s="264"/>
       <c r="B43" s="177" t="s">
         <v>32</v>
       </c>
@@ -9025,7 +9024,7 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="256"/>
+      <c r="A44" s="264"/>
       <c r="B44" s="177" t="s">
         <v>33</v>
       </c>
@@ -9103,7 +9102,7 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="256"/>
+      <c r="A45" s="264"/>
       <c r="B45" s="177" t="s">
         <v>34</v>
       </c>
@@ -9181,7 +9180,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="256"/>
+      <c r="A46" s="264"/>
       <c r="B46" s="177" t="s">
         <v>35</v>
       </c>
@@ -9259,7 +9258,7 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="256"/>
+      <c r="A47" s="264"/>
       <c r="B47" s="177" t="s">
         <v>36</v>
       </c>
@@ -9337,7 +9336,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="256"/>
+      <c r="A48" s="264"/>
       <c r="B48" s="177" t="s">
         <v>37</v>
       </c>
@@ -9415,7 +9414,7 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="256"/>
+      <c r="A49" s="264"/>
       <c r="B49" s="177" t="s">
         <v>120</v>
       </c>
@@ -9493,7 +9492,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="257"/>
+      <c r="A50" s="265"/>
       <c r="B50" s="178" t="s">
         <v>38</v>
       </c>
@@ -9571,7 +9570,7 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="242" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="180" t="s">
@@ -9651,7 +9650,7 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="235"/>
+      <c r="A52" s="243"/>
       <c r="B52" s="179" t="s">
         <v>41</v>
       </c>
@@ -9729,7 +9728,7 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="235"/>
+      <c r="A53" s="243"/>
       <c r="B53" s="179" t="s">
         <v>42</v>
       </c>
@@ -9807,7 +9806,7 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="235"/>
+      <c r="A54" s="243"/>
       <c r="B54" s="179" t="s">
         <v>43</v>
       </c>
@@ -9885,7 +9884,7 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="235"/>
+      <c r="A55" s="243"/>
       <c r="B55" s="179" t="s">
         <v>44</v>
       </c>
@@ -9963,7 +9962,7 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="235"/>
+      <c r="A56" s="243"/>
       <c r="B56" s="179" t="s">
         <v>45</v>
       </c>
@@ -10041,7 +10040,7 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="235"/>
+      <c r="A57" s="243"/>
       <c r="B57" s="179" t="s">
         <v>46</v>
       </c>
@@ -10119,7 +10118,7 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="235"/>
+      <c r="A58" s="243"/>
       <c r="B58" s="179" t="s">
         <v>47</v>
       </c>
@@ -10197,7 +10196,7 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="235"/>
+      <c r="A59" s="243"/>
       <c r="B59" s="179" t="s">
         <v>48</v>
       </c>
@@ -10275,7 +10274,7 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="235"/>
+      <c r="A60" s="243"/>
       <c r="B60" s="179" t="s">
         <v>49</v>
       </c>
@@ -10349,7 +10348,7 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="235"/>
+      <c r="A61" s="243"/>
       <c r="B61" s="179" t="s">
         <v>50</v>
       </c>
@@ -10423,7 +10422,7 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="235"/>
+      <c r="A62" s="243"/>
       <c r="B62" s="179" t="s">
         <v>51</v>
       </c>
@@ -10501,7 +10500,7 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="235"/>
+      <c r="A63" s="243"/>
       <c r="B63" s="179" t="s">
         <v>52</v>
       </c>
@@ -10579,7 +10578,7 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="236"/>
+      <c r="A64" s="244"/>
       <c r="B64" s="181" t="s">
         <v>53</v>
       </c>
@@ -10657,7 +10656,7 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="237" t="s">
+      <c r="A65" s="245" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="184" t="s">
@@ -10737,7 +10736,7 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="238"/>
+      <c r="A66" s="246"/>
       <c r="B66" s="183" t="s">
         <v>56</v>
       </c>
@@ -10815,7 +10814,7 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="238"/>
+      <c r="A67" s="246"/>
       <c r="B67" s="183" t="s">
         <v>57</v>
       </c>
@@ -10893,7 +10892,7 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="239"/>
+      <c r="A68" s="247"/>
       <c r="B68" s="185" t="s">
         <v>58</v>
       </c>
@@ -15035,7 +15034,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15052,22 +15051,22 @@
       <c r="A1" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="210" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="266" t="s">
+      <c r="C1" s="211" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="267" t="s">
+      <c r="D1" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="267" t="s">
+      <c r="E1" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="267" t="s">
+      <c r="F1" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="268" t="s">
+      <c r="G1" s="213" t="s">
         <v>194</v>
       </c>
       <c r="H1" s="196"/>
@@ -15087,11 +15086,11 @@
       <c r="V1" s="196"/>
     </row>
     <row r="2" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="207" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="126"/>
-      <c r="C2" s="269" t="s">
+      <c r="C2" s="214" t="s">
         <v>264</v>
       </c>
       <c r="D2" s="126"/>
@@ -15100,11 +15099,11 @@
       <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="208" t="s">
         <v>170</v>
       </c>
       <c r="B3" s="126"/>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="214" t="s">
         <v>264</v>
       </c>
       <c r="D3" s="126"/>
@@ -15113,11 +15112,11 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="208" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="126"/>
-      <c r="C4" s="269" t="s">
+      <c r="C4" s="214" t="s">
         <v>265</v>
       </c>
       <c r="D4" s="126"/>
@@ -15129,11 +15128,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="208" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="126"/>
-      <c r="C5" s="269" t="s">
+      <c r="C5" s="214" t="s">
         <v>265</v>
       </c>
       <c r="D5" s="126"/>
@@ -15142,11 +15141,11 @@
       <c r="G5" s="126"/>
     </row>
     <row r="6" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="263" t="s">
+      <c r="A6" s="208" t="s">
         <v>169</v>
       </c>
       <c r="B6" s="126"/>
-      <c r="C6" s="269" t="s">
+      <c r="C6" s="214" t="s">
         <v>265</v>
       </c>
       <c r="D6" s="126"/>
@@ -15155,11 +15154,11 @@
       <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="263" t="s">
+      <c r="A7" s="208" t="s">
         <v>167</v>
       </c>
       <c r="B7" s="126"/>
-      <c r="C7" s="269" t="s">
+      <c r="C7" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D7" s="126"/>
@@ -15168,13 +15167,13 @@
       <c r="G7" s="126"/>
     </row>
     <row r="8" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="263" t="s">
+      <c r="A8" s="208" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -15189,11 +15188,11 @@
       <c r="G8" s="126"/>
     </row>
     <row r="9" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="263" t="s">
+      <c r="A9" s="208" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="126"/>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="214" t="s">
         <v>264</v>
       </c>
       <c r="D9" s="126"/>
@@ -15202,11 +15201,11 @@
       <c r="G9" s="126"/>
     </row>
     <row r="10" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="263" t="s">
+      <c r="A10" s="208" t="s">
         <v>176</v>
       </c>
       <c r="B10" s="126"/>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="214" t="s">
         <v>264</v>
       </c>
       <c r="D10" s="126"/>
@@ -15215,11 +15214,11 @@
       <c r="G10" s="126"/>
     </row>
     <row r="11" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="263" t="s">
+      <c r="A11" s="208" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="126"/>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="214" t="s">
         <v>265</v>
       </c>
       <c r="D11" s="126"/>
@@ -15228,11 +15227,11 @@
       <c r="G11" s="126"/>
     </row>
     <row r="12" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="263" t="s">
+      <c r="A12" s="208" t="s">
         <v>157</v>
       </c>
       <c r="B12" s="126"/>
-      <c r="C12" s="269" t="s">
+      <c r="C12" s="214" t="s">
         <v>265</v>
       </c>
       <c r="D12" s="126"/>
@@ -15241,11 +15240,11 @@
       <c r="G12" s="126"/>
     </row>
     <row r="13" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="263" t="s">
+      <c r="A13" s="208" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="126"/>
-      <c r="C13" s="269" t="s">
+      <c r="C13" s="214" t="s">
         <v>264</v>
       </c>
       <c r="D13" s="126"/>
@@ -15254,13 +15253,13 @@
       <c r="G13" s="126"/>
     </row>
     <row r="14" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="263" t="s">
+      <c r="A14" s="208" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="269" t="s">
+      <c r="C14" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -15275,11 +15274,11 @@
       <c r="G14" s="126"/>
     </row>
     <row r="15" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="263" t="s">
+      <c r="A15" s="208" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="126"/>
-      <c r="C15" s="269" t="s">
+      <c r="C15" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D15" s="126"/>
@@ -15288,11 +15287,11 @@
       <c r="G15" s="126"/>
     </row>
     <row r="16" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="208" t="s">
         <v>160</v>
       </c>
       <c r="B16" s="126"/>
-      <c r="C16" s="269" t="s">
+      <c r="C16" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D16" s="126"/>
@@ -15301,11 +15300,11 @@
       <c r="G16" s="126"/>
     </row>
     <row r="17" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="263" t="s">
+      <c r="A17" s="208" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="126"/>
-      <c r="C17" s="269" t="s">
+      <c r="C17" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D17" s="126"/>
@@ -15314,11 +15313,11 @@
       <c r="G17" s="126"/>
     </row>
     <row r="18" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="263" t="s">
+      <c r="A18" s="208" t="s">
         <v>162</v>
       </c>
       <c r="B18" s="126"/>
-      <c r="C18" s="269" t="s">
+      <c r="C18" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D18" s="126"/>
@@ -15327,13 +15326,13 @@
       <c r="G18" s="126"/>
     </row>
     <row r="19" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="263" t="s">
+      <c r="A19" s="208" t="s">
         <v>181</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C19" s="269" t="s">
+      <c r="C19" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -15346,11 +15345,11 @@
       <c r="G19" s="126"/>
     </row>
     <row r="20" spans="1:7" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="263" t="s">
+      <c r="A20" s="208" t="s">
         <v>190</v>
       </c>
       <c r="B20" s="126"/>
-      <c r="C20" s="269" t="s">
+      <c r="C20" s="214" t="s">
         <v>198</v>
       </c>
       <c r="D20" s="126"/>
@@ -15359,11 +15358,11 @@
       <c r="G20" s="126"/>
     </row>
     <row r="21" spans="1:7" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="264" t="s">
+      <c r="A21" s="209" t="s">
         <v>163</v>
       </c>
       <c r="B21" s="126"/>
-      <c r="C21" s="269" t="s">
+      <c r="C21" s="214" t="s">
         <v>264</v>
       </c>
       <c r="D21" s="126"/>
@@ -15373,18 +15372,18 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="258" t="s">
+      <c r="A26" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
+      <c r="B26" s="268"/>
+      <c r="C26" s="269"/>
     </row>
     <row r="27" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="266" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="261"/>
-      <c r="C27" s="261"/>
+      <c r="B27" s="266"/>
+      <c r="C27" s="266"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
@@ -16,7 +16,7 @@
     <sheet name="Hourly emissions - methodology" sheetId="2" r:id="rId2"/>
     <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="296">
   <si>
     <t>NFR category</t>
   </si>
@@ -507,9 +507,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Calculation of hourly emissions - level of activity</t>
-  </si>
-  <si>
     <t>Working days (WD)</t>
   </si>
   <si>
@@ -643,9 +640,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Periodic, Periodic-sine or Binary</t>
   </si>
   <si>
     <t>https://www.timeanddate.com/sun/serbia/belgrade?month=12&amp;year=2015</t>
@@ -895,9 +889,6 @@
     <t>Lenhart L. et al. (1997) Temporal Disaggregation of Emission Data. In: Ebel A., Friedrich R., Rodhe H. (eds) Tropospheric Modelling and Emission Estimation. Transport and Chemical Transformation of Pollutants in the Troposphere, vol 7. Springer, Berlin, Heidelberg       https://doi.org/10.1007/978-3-662-03470-5_7</t>
   </si>
   <si>
-    <t>Binary</t>
-  </si>
-  <si>
     <t>Periodic - sine</t>
   </si>
   <si>
@@ -905,13 +896,139 @@
   </si>
   <si>
     <t xml:space="preserve">Obtained from ~400 automatic Vehicle Counting Devices (VCD), spreaded over the whole territory of Serbia, on three different road category (1A, 2A and 1B) </t>
+  </si>
+  <si>
+    <t>http://www.ilo.org/dyn/travail/docs/2403/Labour%20Law%20Republic%20of%20Serbia.pdf</t>
+  </si>
+  <si>
+    <t>This indicator represent working days from Monday to Sunday.</t>
+  </si>
+  <si>
+    <t>Information collected on the basis of the official labor law in the Republic of Serbia. Working days are from Monday to Friday.</t>
+  </si>
+  <si>
+    <t>This indicator represent working time from 08h to 16h, with a working time of 8 hours which is by labor law.</t>
+  </si>
+  <si>
+    <t>This indicator represent working time from 16h to 24h, with a working time of 8 hours which is by labor law.</t>
+  </si>
+  <si>
+    <t>This indicator represent working time from 00h to 24h, assuming the activity is expressed throughout the day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The official labor law in the Republic of Serbia</t>
+  </si>
+  <si>
+    <t>This indicator represent working time for heating season, assuming the activity of public heat production is expressed from 06h to 22h.</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Periodic - step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodic </t>
+  </si>
+  <si>
+    <t>The origin of the source</t>
+  </si>
+  <si>
+    <t>From data</t>
+  </si>
+  <si>
+    <t>Simulated</t>
+  </si>
+  <si>
+    <t>Calculation of hourly emissions - indicator for temporal disaggregation</t>
+  </si>
+  <si>
+    <t>This indicator represents weekends as indicator - binary function, where weekend days are Saturday and Sunday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator represents weekends as periodic - sine function, where weekend days are Saturday and Sunday. This indicator is necessary to create a periodic function for the purposes of continuous temporal disaggregations. </t>
+  </si>
+  <si>
+    <t>This indicator represents rush hours from 15h to 17h during working days, which is modeled as periodic - sine function.</t>
+  </si>
+  <si>
+    <t>This indicator represents rush hours from 07h to 09h during working days, which is modeled as periodic - sine function.</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.beoelektrane.rs/?cat=19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://www.nstoplana.rs/ckfinder/userfiles/images/pdf/odluka.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.paragraf.rs/neradni-dani/2015.html</t>
+  </si>
+  <si>
+    <t>This indicator represents official public holidays for 2015 year in the Republic of Serbia, and they are represented for some functions as days off for working time.</t>
+  </si>
+  <si>
+    <t>This indicator represent heating season for 2015 year.</t>
+  </si>
+  <si>
+    <t>This indicator represent agriculture season for 2015 year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public company “Toplane Srbije” </t>
+  </si>
+  <si>
+    <t>This indicator represents mean temperature function, obtained from data, which is collected from aprox. 65 measuring station. Raw data are measured each hour for whole year.</t>
+  </si>
+  <si>
+    <t>https://www.ogimet.com/home.phtml.en</t>
+  </si>
+  <si>
+    <t>OGIMET public service</t>
+  </si>
+  <si>
+    <t>This indicator represents mean sea level function, obtained from data, which is collected from aprox. 65 measuring station. Raw data are measured each hour for whole year.</t>
+  </si>
+  <si>
+    <t>This indicator represents mean number of flights per hour, for 2015 year for each day in week, which is then represented as periodic function. Function is represented as mena for both airports.</t>
+  </si>
+  <si>
+    <t>This indicator represents repair - overhaul period which is present and necessary in production. Repair period is in the most production sectors in the third quarter of the year and shall not exceed two weeks.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,6 +1134,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1086,7 +1210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1878,23 +2002,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2504,19 +2617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2691,6 +2792,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2722,13 +2853,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>443686</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>996325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4015561</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>5025400</xdr:rowOff>
@@ -2766,13 +2897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4376916</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1018354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>7948791</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>5047429</xdr:rowOff>
@@ -2810,13 +2941,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1144019</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>422767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3862973</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>821085</xdr:rowOff>
@@ -2879,13 +3010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5132294</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>302559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>7851248</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>885265</xdr:rowOff>
@@ -2944,6 +3075,490 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>693964</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7904389</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5150304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20056928" y="557893"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>727364</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7937789</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5147830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20071773" y="5749637"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>774988</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7985413</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5167312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20119397" y="10960243"/>
+          <a:ext cx="7210425" cy="5100205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7972425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20121563" y="16168687"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>785812</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7996237</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5167313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20145375" y="21336001"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8020050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5119688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20169188" y="26479501"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>833438</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8043863</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5167313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20193001" y="31718251"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7900987</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5167312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20050125" y="36909375"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7972425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5119687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20121563" y="42052875"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>779318</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7989743</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5147830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20123727" y="52508728"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>785813</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7996238</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5143500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20145376" y="47267813"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3214,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,11 +3854,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="221" t="s">
+      <c r="J1" s="217" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="219"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -3293,7 +3908,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="233" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3326,7 +3941,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="238"/>
+      <c r="A4" s="234"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3357,7 +3972,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="238"/>
+      <c r="A5" s="234"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -3388,7 +4003,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="238"/>
+      <c r="A6" s="234"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -3419,7 +4034,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="238"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -3450,7 +4065,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="238"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -3481,7 +4096,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="223" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3520,7 +4135,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="228"/>
+      <c r="A10" s="224"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -3555,7 +4170,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="228"/>
+      <c r="A11" s="224"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -3590,7 +4205,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="229"/>
+      <c r="A12" s="225"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -3625,7 +4240,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="230" t="s">
+      <c r="A13" s="226" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3664,7 +4279,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="230"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +4316,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="230"/>
+      <c r="A15" s="226"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -3738,7 +4353,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="230"/>
+      <c r="A16" s="226"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -3775,7 +4390,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="230"/>
+      <c r="A17" s="226"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -3812,7 +4427,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="230"/>
+      <c r="A18" s="226"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -3849,7 +4464,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="230"/>
+      <c r="A19" s="226"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -3886,7 +4501,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="230"/>
+      <c r="A20" s="226"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -3923,7 +4538,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="230"/>
+      <c r="A21" s="226"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -3960,7 +4575,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="230"/>
+      <c r="A22" s="226"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -3997,7 +4612,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="230"/>
+      <c r="A23" s="226"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -4032,7 +4647,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="231"/>
+      <c r="A24" s="227"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -4067,7 +4682,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="232" t="s">
+      <c r="A25" s="228" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -4104,7 +4719,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="233"/>
+      <c r="A26" s="229"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -4141,7 +4756,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="233"/>
+      <c r="A27" s="229"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -4178,7 +4793,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="234"/>
+      <c r="A28" s="230"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -4215,7 +4830,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="218" t="s">
+      <c r="A29" s="214" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4248,7 +4863,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="219"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -4279,7 +4894,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="219"/>
+      <c r="A31" s="215"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -4310,7 +4925,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="219"/>
+      <c r="A32" s="215"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -4341,7 +4956,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="219"/>
+      <c r="A33" s="215"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -4372,7 +4987,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="219"/>
+      <c r="A34" s="215"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -4403,7 +5018,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="219"/>
+      <c r="A35" s="215"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -4434,7 +5049,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="219"/>
+      <c r="A36" s="215"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -4473,7 +5088,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="220"/>
+      <c r="A37" s="216"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -4510,7 +5125,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="215" t="s">
+      <c r="A38" s="211" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -4543,7 +5158,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="216"/>
+      <c r="A39" s="212"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4580,7 +5195,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="216"/>
+      <c r="A40" s="212"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4615,7 +5230,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="216"/>
+      <c r="A41" s="212"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -4652,7 +5267,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="216"/>
+      <c r="A42" s="212"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -4687,7 +5302,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="216"/>
+      <c r="A43" s="212"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -4722,7 +5337,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="216"/>
+      <c r="A44" s="212"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -4757,7 +5372,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="216"/>
+      <c r="A45" s="212"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -4794,7 +5409,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="216"/>
+      <c r="A46" s="212"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -4831,7 +5446,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="216"/>
+      <c r="A47" s="212"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -4868,7 +5483,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="216"/>
+      <c r="A48" s="212"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -4905,7 +5520,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="216"/>
+      <c r="A49" s="212"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -4942,7 +5557,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="217"/>
+      <c r="A50" s="213"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -4979,7 +5594,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="235" t="s">
+      <c r="A51" s="231" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -5018,7 +5633,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="236"/>
+      <c r="A52" s="232"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -5055,7 +5670,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="236"/>
+      <c r="A53" s="232"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -5092,7 +5707,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="236"/>
+      <c r="A54" s="232"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -5123,7 +5738,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="236"/>
+      <c r="A55" s="232"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -5160,7 +5775,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="236"/>
+      <c r="A56" s="232"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -5197,7 +5812,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="236"/>
+      <c r="A57" s="232"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -5228,7 +5843,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="236"/>
+      <c r="A58" s="232"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -5265,7 +5880,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="236"/>
+      <c r="A59" s="232"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -5302,7 +5917,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="236"/>
+      <c r="A60" s="232"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -5339,7 +5954,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="236"/>
+      <c r="A61" s="232"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -5376,7 +5991,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="236"/>
+      <c r="A62" s="232"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -5413,7 +6028,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="236"/>
+      <c r="A63" s="232"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -5450,7 +6065,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="236"/>
+      <c r="A64" s="232"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -5487,7 +6102,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="224" t="s">
+      <c r="A65" s="220" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -5526,7 +6141,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="225"/>
+      <c r="A66" s="221"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -5563,7 +6178,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="225"/>
+      <c r="A67" s="221"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -5598,7 +6213,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="226"/>
+      <c r="A68" s="222"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -5661,11 +6276,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,28 +6310,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="239" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="240"/>
-      <c r="T1" s="240"/>
-      <c r="U1" s="240"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="240"/>
-      <c r="X1" s="240"/>
-      <c r="Y1" s="241"/>
+      <c r="F1" s="235" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="237"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
@@ -5729,105 +6344,105 @@
         <v>148</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="121" t="s">
         <v>115</v>
       </c>
       <c r="F2" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="122" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="123" t="s">
+      <c r="I2" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="J2" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="123" t="s">
+      <c r="M2" s="123" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="123" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="123" t="s">
+        <v>158</v>
+      </c>
+      <c r="S2" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="W2" s="171" t="s">
+        <v>180</v>
+      </c>
+      <c r="X2" s="171" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y2" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z2" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA2" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="123" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="O2" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" s="123" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" s="123" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="T2" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="U2" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="V2" s="123" t="s">
-        <v>162</v>
-      </c>
-      <c r="W2" s="171" t="s">
-        <v>181</v>
-      </c>
-      <c r="X2" s="171" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y2" s="124" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z2" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA2" s="130" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="244" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="161" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D3" s="144" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3" s="197" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="145" t="s">
         <v>138</v>
       </c>
       <c r="H3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J3" s="145" t="s">
         <v>138</v>
@@ -5836,19 +6451,19 @@
         <v>138</v>
       </c>
       <c r="L3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q3" s="145" t="s">
         <v>138</v>
@@ -5860,25 +6475,25 @@
         <v>138</v>
       </c>
       <c r="T3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U3" s="145" t="s">
         <v>138</v>
       </c>
       <c r="V3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X3" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y3" s="146" t="s">
         <v>138</v>
       </c>
       <c r="Z3" s="156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA3" s="134">
         <f t="shared" ref="AA3:AA34" si="0">COUNTIF(F3:Y3,"X")</f>
@@ -5886,79 +6501,79 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="249"/>
+      <c r="A4" s="245"/>
       <c r="B4" s="159" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="126"/>
       <c r="F4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J4" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X4" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y4" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z4" s="157" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AA4" s="132">
         <f t="shared" si="0"/>
@@ -5966,77 +6581,77 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="249"/>
+      <c r="A5" s="245"/>
       <c r="B5" s="159" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="126"/>
       <c r="F5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G5" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J5" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X5" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y5" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z5" s="157" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AA5" s="132">
         <f t="shared" si="0"/>
@@ -6044,77 +6659,77 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="249"/>
+      <c r="A6" s="245"/>
       <c r="B6" s="159" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D6" s="204"/>
       <c r="E6" s="126"/>
       <c r="F6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G6" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J6" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X6" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y6" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z6" s="157" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AA6" s="132">
         <f t="shared" si="0"/>
@@ -6122,19 +6737,19 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
+      <c r="A7" s="245"/>
       <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="204"/>
       <c r="E7" s="160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="133" t="s">
         <v>138</v>
@@ -6146,55 +6761,55 @@
         <v>138</v>
       </c>
       <c r="J7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X7" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y7" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z7" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA7" s="132">
         <f t="shared" si="0"/>
@@ -6202,19 +6817,19 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="250"/>
+      <c r="A8" s="246"/>
       <c r="B8" s="174" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="163" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D8" s="205"/>
       <c r="E8" s="175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="140" t="s">
         <v>138</v>
@@ -6226,55 +6841,55 @@
         <v>138</v>
       </c>
       <c r="J8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="140" t="s">
         <v>138</v>
       </c>
       <c r="R8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X8" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y8" s="141" t="s">
         <v>138</v>
       </c>
       <c r="Z8" s="158" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA8" s="138">
         <f t="shared" si="0"/>
@@ -6282,49 +6897,49 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="251" t="s">
+      <c r="A9" s="247" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="143" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9" s="206"/>
       <c r="E9" s="127"/>
       <c r="F9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="145" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J9" s="145" t="s">
         <v>138</v>
       </c>
       <c r="K9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="145" t="s">
         <v>138</v>
@@ -6333,28 +6948,28 @@
         <v>138</v>
       </c>
       <c r="S9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X9" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y9" s="146" t="s">
         <v>138</v>
       </c>
       <c r="Z9" s="172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA9" s="153">
         <f t="shared" si="0"/>
@@ -6362,12 +6977,12 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="252"/>
+      <c r="A10" s="248"/>
       <c r="B10" s="142" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D10" s="204"/>
       <c r="E10" s="126"/>
@@ -6375,7 +6990,7 @@
         <v>138</v>
       </c>
       <c r="G10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="133" t="s">
         <v>138</v>
@@ -6384,55 +6999,55 @@
         <v>138</v>
       </c>
       <c r="J10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W10" s="133" t="s">
         <v>138</v>
       </c>
       <c r="X10" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y10" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z10" s="173" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AA10" s="154">
         <f t="shared" si="0"/>
@@ -6440,77 +7055,77 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="252"/>
+      <c r="A11" s="248"/>
       <c r="B11" s="142" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D11" s="204"/>
       <c r="E11" s="126"/>
       <c r="F11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G11" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J11" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X11" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y11" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z11" s="173" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA11" s="154">
         <f t="shared" si="0"/>
@@ -6518,77 +7133,77 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="253"/>
+      <c r="A12" s="249"/>
       <c r="B12" s="191" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="163" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D12" s="205"/>
       <c r="E12" s="139"/>
       <c r="F12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G12" s="140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J12" s="140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="140" t="s">
         <v>138</v>
       </c>
       <c r="R12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X12" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y12" s="141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z12" s="176" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA12" s="170">
         <f t="shared" si="0"/>
@@ -6596,81 +7211,81 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="254" t="s">
+      <c r="A13" s="250" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="193" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="144" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" s="144" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E13" s="127"/>
       <c r="F13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W13" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X13" s="145" t="s">
         <v>138</v>
       </c>
       <c r="Y13" s="148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z13" s="150" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA13" s="153">
         <f t="shared" si="0"/>
@@ -6678,77 +7293,77 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="255"/>
+      <c r="A14" s="251"/>
       <c r="B14" s="192" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" s="204"/>
       <c r="E14" s="126"/>
       <c r="F14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L14" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R14" s="133" t="s">
         <v>138</v>
       </c>
       <c r="S14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X14" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y14" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z14" s="151" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AA14" s="154">
         <f t="shared" si="0"/>
@@ -6756,12 +7371,12 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="255"/>
+      <c r="A15" s="251"/>
       <c r="B15" s="192" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D15" s="204"/>
       <c r="E15" s="126"/>
@@ -6769,7 +7384,7 @@
         <v>138</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H15" s="133" t="s">
         <v>138</v>
@@ -6778,19 +7393,19 @@
         <v>138</v>
       </c>
       <c r="J15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M15" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O15" s="133" t="s">
         <v>138</v>
@@ -6802,13 +7417,13 @@
         <v>138</v>
       </c>
       <c r="R15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U15" s="133" t="s">
         <v>138</v>
@@ -6820,13 +7435,13 @@
         <v>138</v>
       </c>
       <c r="X15" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y15" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z15" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA15" s="154">
         <f t="shared" si="0"/>
@@ -6834,12 +7449,12 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="255"/>
+      <c r="A16" s="251"/>
       <c r="B16" s="192" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D16" s="204"/>
       <c r="E16" s="126"/>
@@ -6847,7 +7462,7 @@
         <v>138</v>
       </c>
       <c r="G16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H16" s="133" t="s">
         <v>138</v>
@@ -6856,19 +7471,19 @@
         <v>138</v>
       </c>
       <c r="J16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M16" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O16" s="133" t="s">
         <v>138</v>
@@ -6880,13 +7495,13 @@
         <v>138</v>
       </c>
       <c r="R16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U16" s="133" t="s">
         <v>138</v>
@@ -6898,13 +7513,13 @@
         <v>138</v>
       </c>
       <c r="X16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y16" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z16" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA16" s="154">
         <f t="shared" si="0"/>
@@ -6912,12 +7527,12 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="255"/>
+      <c r="A17" s="251"/>
       <c r="B17" s="192" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D17" s="204"/>
       <c r="E17" s="126"/>
@@ -6925,7 +7540,7 @@
         <v>138</v>
       </c>
       <c r="G17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H17" s="133" t="s">
         <v>138</v>
@@ -6934,19 +7549,19 @@
         <v>138</v>
       </c>
       <c r="J17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M17" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O17" s="133" t="s">
         <v>138</v>
@@ -6958,13 +7573,13 @@
         <v>138</v>
       </c>
       <c r="R17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U17" s="133" t="s">
         <v>138</v>
@@ -6976,13 +7591,13 @@
         <v>138</v>
       </c>
       <c r="X17" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y17" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z17" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA17" s="154">
         <f t="shared" si="0"/>
@@ -6990,12 +7605,12 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="255"/>
+      <c r="A18" s="251"/>
       <c r="B18" s="192" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D18" s="204"/>
       <c r="E18" s="126"/>
@@ -7003,7 +7618,7 @@
         <v>138</v>
       </c>
       <c r="G18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="133" t="s">
         <v>138</v>
@@ -7012,19 +7627,19 @@
         <v>138</v>
       </c>
       <c r="J18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M18" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O18" s="133" t="s">
         <v>138</v>
@@ -7036,13 +7651,13 @@
         <v>138</v>
       </c>
       <c r="R18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U18" s="133" t="s">
         <v>138</v>
@@ -7054,13 +7669,13 @@
         <v>138</v>
       </c>
       <c r="X18" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y18" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z18" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA18" s="154">
         <f t="shared" si="0"/>
@@ -7068,12 +7683,12 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="255"/>
+      <c r="A19" s="251"/>
       <c r="B19" s="192" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D19" s="204"/>
       <c r="E19" s="126"/>
@@ -7081,7 +7696,7 @@
         <v>138</v>
       </c>
       <c r="G19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H19" s="133" t="s">
         <v>138</v>
@@ -7090,19 +7705,19 @@
         <v>138</v>
       </c>
       <c r="J19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M19" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O19" s="133" t="s">
         <v>138</v>
@@ -7114,13 +7729,13 @@
         <v>138</v>
       </c>
       <c r="R19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U19" s="133" t="s">
         <v>138</v>
@@ -7132,13 +7747,13 @@
         <v>138</v>
       </c>
       <c r="X19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y19" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z19" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA19" s="154">
         <f t="shared" si="0"/>
@@ -7146,12 +7761,12 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="255"/>
+      <c r="A20" s="251"/>
       <c r="B20" s="192" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D20" s="204"/>
       <c r="E20" s="126"/>
@@ -7159,7 +7774,7 @@
         <v>138</v>
       </c>
       <c r="G20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H20" s="133" t="s">
         <v>138</v>
@@ -7168,19 +7783,19 @@
         <v>138</v>
       </c>
       <c r="J20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M20" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O20" s="133" t="s">
         <v>138</v>
@@ -7192,13 +7807,13 @@
         <v>138</v>
       </c>
       <c r="R20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U20" s="133" t="s">
         <v>138</v>
@@ -7210,13 +7825,13 @@
         <v>138</v>
       </c>
       <c r="X20" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y20" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z20" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA20" s="154">
         <f t="shared" si="0"/>
@@ -7224,12 +7839,12 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="255"/>
+      <c r="A21" s="251"/>
       <c r="B21" s="192" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D21" s="204"/>
       <c r="E21" s="126"/>
@@ -7237,7 +7852,7 @@
         <v>138</v>
       </c>
       <c r="G21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H21" s="133" t="s">
         <v>138</v>
@@ -7246,19 +7861,19 @@
         <v>138</v>
       </c>
       <c r="J21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M21" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O21" s="133" t="s">
         <v>138</v>
@@ -7270,13 +7885,13 @@
         <v>138</v>
       </c>
       <c r="R21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U21" s="133" t="s">
         <v>138</v>
@@ -7288,13 +7903,13 @@
         <v>138</v>
       </c>
       <c r="X21" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y21" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z21" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA21" s="154">
         <f t="shared" si="0"/>
@@ -7302,12 +7917,12 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="255"/>
+      <c r="A22" s="251"/>
       <c r="B22" s="192" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D22" s="204"/>
       <c r="E22" s="126"/>
@@ -7315,7 +7930,7 @@
         <v>138</v>
       </c>
       <c r="G22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H22" s="133" t="s">
         <v>138</v>
@@ -7324,19 +7939,19 @@
         <v>138</v>
       </c>
       <c r="J22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M22" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O22" s="133" t="s">
         <v>138</v>
@@ -7348,13 +7963,13 @@
         <v>138</v>
       </c>
       <c r="R22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U22" s="133" t="s">
         <v>138</v>
@@ -7366,13 +7981,13 @@
         <v>138</v>
       </c>
       <c r="X22" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y22" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z22" s="151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA22" s="154">
         <f t="shared" si="0"/>
@@ -7380,12 +7995,12 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="255"/>
+      <c r="A23" s="251"/>
       <c r="B23" s="192" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" s="204"/>
       <c r="E23" s="126"/>
@@ -7393,7 +8008,7 @@
         <v>138</v>
       </c>
       <c r="G23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H23" s="133" t="s">
         <v>138</v>
@@ -7402,55 +8017,55 @@
         <v>138</v>
       </c>
       <c r="J23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M23" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X23" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y23" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z23" s="151" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA23" s="154">
         <f t="shared" si="0"/>
@@ -7458,12 +8073,12 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="256"/>
+      <c r="A24" s="252"/>
       <c r="B24" s="195" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="163" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="205"/>
       <c r="E24" s="139"/>
@@ -7471,19 +8086,19 @@
         <v>138</v>
       </c>
       <c r="G24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L24" s="140" t="s">
         <v>138</v>
@@ -7492,13 +8107,13 @@
         <v>138</v>
       </c>
       <c r="N24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="140" t="s">
         <v>138</v>
@@ -7507,28 +8122,28 @@
         <v>138</v>
       </c>
       <c r="S24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X24" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y24" s="167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z24" s="152" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AA24" s="155">
         <f t="shared" si="0"/>
@@ -7536,79 +8151,79 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="257" t="s">
+      <c r="A25" s="253" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="165" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="144" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D25" s="206"/>
       <c r="E25" s="127"/>
       <c r="F25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G25" s="145" t="s">
         <v>138</v>
       </c>
       <c r="H25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K25" s="145" t="s">
         <v>138</v>
       </c>
       <c r="L25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="145" t="s">
         <v>138</v>
       </c>
       <c r="R25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S25" s="145" t="s">
         <v>138</v>
       </c>
       <c r="T25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U25" s="145" t="s">
         <v>138</v>
       </c>
       <c r="V25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X25" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y25" s="146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z25" s="194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA25" s="186">
         <f t="shared" si="0"/>
@@ -7616,77 +8231,77 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="258"/>
+      <c r="A26" s="254"/>
       <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D26" s="204"/>
       <c r="E26" s="126"/>
       <c r="F26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G26" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K26" s="133" t="s">
         <v>138</v>
       </c>
       <c r="L26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S26" s="133" t="s">
         <v>138</v>
       </c>
       <c r="T26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U26" s="133" t="s">
         <v>138</v>
       </c>
       <c r="V26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X26" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y26" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z26" s="173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA26" s="154">
         <f t="shared" si="0"/>
@@ -7694,47 +8309,47 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="258"/>
+      <c r="A27" s="254"/>
       <c r="B27" s="164" t="s">
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" s="204"/>
       <c r="E27" s="126"/>
       <c r="F27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G27" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L27" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="133" t="s">
         <v>138</v>
@@ -7743,28 +8358,28 @@
         <v>138</v>
       </c>
       <c r="S27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T27" s="133" t="s">
         <v>138</v>
       </c>
       <c r="U27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X27" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y27" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z27" s="173" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA27" s="154">
         <f t="shared" si="0"/>
@@ -7772,47 +8387,47 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="259"/>
+      <c r="A28" s="255"/>
       <c r="B28" s="166" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D28" s="205"/>
       <c r="E28" s="139"/>
       <c r="F28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G28" s="140" t="s">
         <v>138</v>
       </c>
       <c r="H28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L28" s="140" t="s">
         <v>138</v>
       </c>
       <c r="M28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="140" t="s">
         <v>138</v>
@@ -7821,28 +8436,28 @@
         <v>138</v>
       </c>
       <c r="S28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T28" s="140" t="s">
         <v>138</v>
       </c>
       <c r="U28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X28" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y28" s="141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z28" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA28" s="170">
         <f t="shared" si="0"/>
@@ -7850,14 +8465,14 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="260" t="s">
+      <c r="A29" s="256" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="144" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
@@ -7865,7 +8480,7 @@
         <v>138</v>
       </c>
       <c r="G29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" s="145" t="s">
         <v>138</v>
@@ -7874,55 +8489,55 @@
         <v>138</v>
       </c>
       <c r="J29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N29" s="145" t="s">
         <v>138</v>
       </c>
       <c r="O29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="145" t="s">
         <v>138</v>
       </c>
       <c r="R29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X29" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y29" s="146" t="s">
         <v>138</v>
       </c>
       <c r="Z29" s="172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA29" s="153">
         <f t="shared" si="0"/>
@@ -7930,12 +8545,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="261"/>
+      <c r="A30" s="257"/>
       <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D30" s="126"/>
       <c r="E30" s="126"/>
@@ -7943,7 +8558,7 @@
         <v>138</v>
       </c>
       <c r="G30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H30" s="133" t="s">
         <v>138</v>
@@ -7952,55 +8567,55 @@
         <v>138</v>
       </c>
       <c r="J30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N30" s="133" t="s">
         <v>138</v>
       </c>
       <c r="O30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X30" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y30" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z30" s="173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA30" s="154">
         <f t="shared" si="0"/>
@@ -8008,12 +8623,12 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="261"/>
+      <c r="A31" s="257"/>
       <c r="B31" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="126"/>
@@ -8021,7 +8636,7 @@
         <v>138</v>
       </c>
       <c r="G31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H31" s="133" t="s">
         <v>138</v>
@@ -8030,55 +8645,55 @@
         <v>138</v>
       </c>
       <c r="J31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N31" s="133" t="s">
         <v>138</v>
       </c>
       <c r="O31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q31" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X31" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y31" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z31" s="173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA31" s="154">
         <f t="shared" si="0"/>
@@ -8086,12 +8701,12 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="261"/>
+      <c r="A32" s="257"/>
       <c r="B32" s="168" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D32" s="126"/>
       <c r="E32" s="126"/>
@@ -8099,7 +8714,7 @@
         <v>138</v>
       </c>
       <c r="G32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H32" s="133" t="s">
         <v>138</v>
@@ -8108,55 +8723,55 @@
         <v>138</v>
       </c>
       <c r="J32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N32" s="133" t="s">
         <v>138</v>
       </c>
       <c r="O32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X32" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y32" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z32" s="173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA32" s="154">
         <f t="shared" si="0"/>
@@ -8164,12 +8779,12 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="261"/>
+      <c r="A33" s="257"/>
       <c r="B33" s="168" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="126"/>
@@ -8177,7 +8792,7 @@
         <v>138</v>
       </c>
       <c r="G33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H33" s="133" t="s">
         <v>138</v>
@@ -8186,55 +8801,55 @@
         <v>138</v>
       </c>
       <c r="J33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N33" s="133" t="s">
         <v>138</v>
       </c>
       <c r="O33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q33" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X33" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y33" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z33" s="173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA33" s="154">
         <f t="shared" si="0"/>
@@ -8242,12 +8857,12 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="261"/>
+      <c r="A34" s="257"/>
       <c r="B34" s="168" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D34" s="126"/>
       <c r="E34" s="126"/>
@@ -8255,7 +8870,7 @@
         <v>138</v>
       </c>
       <c r="G34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H34" s="133" t="s">
         <v>138</v>
@@ -8264,55 +8879,55 @@
         <v>138</v>
       </c>
       <c r="J34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N34" s="133" t="s">
         <v>138</v>
       </c>
       <c r="O34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q34" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X34" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y34" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z34" s="173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA34" s="154">
         <f t="shared" si="0"/>
@@ -8320,12 +8935,12 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="261"/>
+      <c r="A35" s="257"/>
       <c r="B35" s="168" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D35" s="126"/>
       <c r="E35" s="126"/>
@@ -8333,7 +8948,7 @@
         <v>138</v>
       </c>
       <c r="G35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H35" s="133" t="s">
         <v>138</v>
@@ -8342,55 +8957,55 @@
         <v>138</v>
       </c>
       <c r="J35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N35" s="133" t="s">
         <v>138</v>
       </c>
       <c r="O35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q35" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X35" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y35" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z35" s="173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA35" s="154">
         <f t="shared" ref="AA35:AA64" si="1">COUNTIF(F35:Y35,"X")</f>
@@ -8398,12 +9013,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="261"/>
+      <c r="A36" s="257"/>
       <c r="B36" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D36" s="126"/>
       <c r="E36" s="126"/>
@@ -8411,7 +9026,7 @@
         <v>138</v>
       </c>
       <c r="G36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H36" s="133" t="s">
         <v>138</v>
@@ -8420,55 +9035,55 @@
         <v>138</v>
       </c>
       <c r="J36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N36" s="133" t="s">
         <v>138</v>
       </c>
       <c r="O36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X36" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y36" s="135" t="s">
         <v>138</v>
       </c>
       <c r="Z36" s="173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA36" s="154">
         <f t="shared" si="1"/>
@@ -8476,12 +9091,12 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="262"/>
+      <c r="A37" s="258"/>
       <c r="B37" s="203" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D37" s="128"/>
       <c r="E37" s="128"/>
@@ -8489,7 +9104,7 @@
         <v>138</v>
       </c>
       <c r="G37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H37" s="136" t="s">
         <v>138</v>
@@ -8498,55 +9113,55 @@
         <v>138</v>
       </c>
       <c r="J37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N37" s="136" t="s">
         <v>138</v>
       </c>
       <c r="O37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q37" s="136" t="s">
         <v>138</v>
       </c>
       <c r="R37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X37" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y37" s="137" t="s">
         <v>138</v>
       </c>
       <c r="Z37" s="176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA37" s="170">
         <f t="shared" si="1"/>
@@ -8554,49 +9169,49 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="263" t="s">
+      <c r="A38" s="259" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="198" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="199" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D38" s="200"/>
       <c r="E38" s="200"/>
       <c r="F38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G38" s="201" t="s">
         <v>138</v>
       </c>
       <c r="H38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J38" s="201" t="s">
         <v>138</v>
       </c>
       <c r="K38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q38" s="201" t="s">
         <v>138</v>
@@ -8605,28 +9220,28 @@
         <v>138</v>
       </c>
       <c r="S38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X38" s="201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y38" s="202" t="s">
         <v>138</v>
       </c>
       <c r="Z38" s="172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA38" s="153">
         <f t="shared" si="1"/>
@@ -8634,17 +9249,17 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="264"/>
+      <c r="A39" s="260"/>
       <c r="B39" s="177" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D39" s="126"/>
       <c r="E39" s="126"/>
       <c r="F39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G39" s="133" t="s">
         <v>138</v>
@@ -8656,25 +9271,25 @@
         <v>138</v>
       </c>
       <c r="J39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q39" s="133" t="s">
         <v>138</v>
@@ -8683,28 +9298,28 @@
         <v>138</v>
       </c>
       <c r="S39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X39" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y39" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z39" s="173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA39" s="154">
         <f t="shared" si="1"/>
@@ -8712,12 +9327,12 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264"/>
+      <c r="A40" s="260"/>
       <c r="B40" s="177" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D40" s="126"/>
       <c r="E40" s="126"/>
@@ -8725,7 +9340,7 @@
         <v>138</v>
       </c>
       <c r="G40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H40" s="133" t="s">
         <v>138</v>
@@ -8734,16 +9349,16 @@
         <v>138</v>
       </c>
       <c r="J40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N40" s="133" t="s">
         <v>138</v>
@@ -8758,31 +9373,31 @@
         <v>138</v>
       </c>
       <c r="R40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W40" s="133" t="s">
         <v>138</v>
       </c>
       <c r="X40" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y40" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z40" s="173" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA40" s="154">
         <f t="shared" si="1"/>
@@ -8790,59 +9405,59 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="264"/>
+      <c r="A41" s="260"/>
       <c r="B41" s="177" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D41" s="126"/>
       <c r="E41" s="126"/>
       <c r="F41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G41" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L41" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U41" s="133" t="s">
         <v>138</v>
@@ -8851,16 +9466,16 @@
         <v>138</v>
       </c>
       <c r="W41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X41" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y41" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z41" s="173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA41" s="154">
         <f t="shared" si="1"/>
@@ -8868,12 +9483,12 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="264"/>
+      <c r="A42" s="260"/>
       <c r="B42" s="177" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D42" s="126"/>
       <c r="E42" s="126"/>
@@ -8881,7 +9496,7 @@
         <v>138</v>
       </c>
       <c r="G42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H42" s="133" t="s">
         <v>138</v>
@@ -8890,19 +9505,19 @@
         <v>138</v>
       </c>
       <c r="J42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M42" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O42" s="133" t="s">
         <v>138</v>
@@ -8914,31 +9529,31 @@
         <v>138</v>
       </c>
       <c r="R42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U42" s="133" t="s">
         <v>138</v>
       </c>
       <c r="V42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W42" s="133" t="s">
         <v>138</v>
       </c>
       <c r="X42" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y42" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z42" s="173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA42" s="154">
         <f t="shared" si="1"/>
@@ -8946,12 +9561,12 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="264"/>
+      <c r="A43" s="260"/>
       <c r="B43" s="177" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D43" s="126"/>
       <c r="E43" s="126"/>
@@ -8959,7 +9574,7 @@
         <v>138</v>
       </c>
       <c r="G43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H43" s="133" t="s">
         <v>138</v>
@@ -8968,19 +9583,19 @@
         <v>138</v>
       </c>
       <c r="J43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M43" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O43" s="133" t="s">
         <v>138</v>
@@ -8992,31 +9607,31 @@
         <v>138</v>
       </c>
       <c r="R43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U43" s="133" t="s">
         <v>138</v>
       </c>
       <c r="V43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W43" s="133" t="s">
         <v>138</v>
       </c>
       <c r="X43" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y43" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z43" s="173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA43" s="154">
         <f t="shared" si="1"/>
@@ -9024,12 +9639,12 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="264"/>
+      <c r="A44" s="260"/>
       <c r="B44" s="177" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D44" s="126"/>
       <c r="E44" s="126"/>
@@ -9037,7 +9652,7 @@
         <v>138</v>
       </c>
       <c r="G44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H44" s="133" t="s">
         <v>138</v>
@@ -9046,19 +9661,19 @@
         <v>138</v>
       </c>
       <c r="J44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M44" s="133" t="s">
         <v>138</v>
       </c>
       <c r="N44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O44" s="133" t="s">
         <v>138</v>
@@ -9070,31 +9685,31 @@
         <v>138</v>
       </c>
       <c r="R44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U44" s="133" t="s">
         <v>138</v>
       </c>
       <c r="V44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W44" s="133" t="s">
         <v>138</v>
       </c>
       <c r="X44" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y44" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z44" s="173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA44" s="154">
         <f t="shared" si="1"/>
@@ -9102,59 +9717,59 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="264"/>
+      <c r="A45" s="260"/>
       <c r="B45" s="177" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D45" s="126"/>
       <c r="E45" s="126"/>
       <c r="F45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G45" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L45" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U45" s="133" t="s">
         <v>138</v>
@@ -9163,16 +9778,16 @@
         <v>138</v>
       </c>
       <c r="W45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X45" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y45" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z45" s="173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA45" s="154">
         <f t="shared" si="1"/>
@@ -9180,59 +9795,59 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="264"/>
+      <c r="A46" s="260"/>
       <c r="B46" s="177" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
       <c r="F46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G46" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L46" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U46" s="133" t="s">
         <v>138</v>
@@ -9241,16 +9856,16 @@
         <v>138</v>
       </c>
       <c r="W46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X46" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y46" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z46" s="173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA46" s="154">
         <f t="shared" si="1"/>
@@ -9258,59 +9873,59 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="264"/>
+      <c r="A47" s="260"/>
       <c r="B47" s="177" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D47" s="126"/>
       <c r="E47" s="126"/>
       <c r="F47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G47" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L47" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U47" s="133" t="s">
         <v>138</v>
@@ -9319,16 +9934,16 @@
         <v>138</v>
       </c>
       <c r="W47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X47" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y47" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z47" s="173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA47" s="154">
         <f t="shared" si="1"/>
@@ -9336,59 +9951,59 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="264"/>
+      <c r="A48" s="260"/>
       <c r="B48" s="177" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D48" s="126"/>
       <c r="E48" s="126"/>
       <c r="F48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G48" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L48" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U48" s="133" t="s">
         <v>138</v>
@@ -9397,16 +10012,16 @@
         <v>138</v>
       </c>
       <c r="W48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X48" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y48" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z48" s="173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA48" s="154">
         <f t="shared" si="1"/>
@@ -9414,59 +10029,59 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="264"/>
+      <c r="A49" s="260"/>
       <c r="B49" s="177" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D49" s="126"/>
       <c r="E49" s="126"/>
       <c r="F49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G49" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L49" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U49" s="133" t="s">
         <v>138</v>
@@ -9475,16 +10090,16 @@
         <v>138</v>
       </c>
       <c r="W49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X49" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y49" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z49" s="173" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA49" s="154">
         <f t="shared" si="1"/>
@@ -9492,12 +10107,12 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="265"/>
+      <c r="A50" s="261"/>
       <c r="B50" s="178" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="163" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D50" s="139"/>
       <c r="E50" s="139"/>
@@ -9505,19 +10120,19 @@
         <v>138</v>
       </c>
       <c r="G50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H50" s="140" t="s">
         <v>138</v>
       </c>
       <c r="I50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L50" s="140" t="s">
         <v>138</v>
@@ -9526,13 +10141,13 @@
         <v>138</v>
       </c>
       <c r="N50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q50" s="140" t="s">
         <v>138</v>
@@ -9541,28 +10156,28 @@
         <v>138</v>
       </c>
       <c r="S50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X50" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y50" s="141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z50" s="176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA50" s="170">
         <f t="shared" si="1"/>
@@ -9570,61 +10185,61 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="242" t="s">
+      <c r="A51" s="238" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="180" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="144" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D51" s="127"/>
       <c r="E51" s="127"/>
       <c r="F51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G51" s="145" t="s">
         <v>138</v>
       </c>
       <c r="H51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J51" s="145" t="s">
         <v>138</v>
       </c>
       <c r="K51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L51" s="145" t="s">
         <v>138</v>
       </c>
       <c r="M51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U51" s="145" t="s">
         <v>138</v>
@@ -9633,16 +10248,16 @@
         <v>138</v>
       </c>
       <c r="W51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X51" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y51" s="146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z51" s="172" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA51" s="153">
         <f t="shared" si="1"/>
@@ -9650,59 +10265,59 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="243"/>
+      <c r="A52" s="239"/>
       <c r="B52" s="179" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D52" s="126"/>
       <c r="E52" s="126"/>
       <c r="F52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G52" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J52" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L52" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U52" s="133" t="s">
         <v>138</v>
@@ -9711,16 +10326,16 @@
         <v>138</v>
       </c>
       <c r="W52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X52" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y52" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z52" s="173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA52" s="154">
         <f t="shared" si="1"/>
@@ -9728,59 +10343,59 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="243"/>
+      <c r="A53" s="239"/>
       <c r="B53" s="179" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D53" s="126"/>
       <c r="E53" s="126"/>
       <c r="F53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G53" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J53" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L53" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U53" s="133" t="s">
         <v>138</v>
@@ -9789,16 +10404,16 @@
         <v>138</v>
       </c>
       <c r="W53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X53" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y53" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z53" s="173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA53" s="154">
         <f t="shared" si="1"/>
@@ -9806,59 +10421,59 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="243"/>
+      <c r="A54" s="239"/>
       <c r="B54" s="179" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D54" s="126"/>
       <c r="E54" s="126"/>
       <c r="F54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G54" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J54" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L54" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U54" s="133" t="s">
         <v>138</v>
@@ -9867,16 +10482,16 @@
         <v>138</v>
       </c>
       <c r="W54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X54" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y54" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z54" s="173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA54" s="154">
         <f t="shared" si="1"/>
@@ -9884,59 +10499,59 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="243"/>
+      <c r="A55" s="239"/>
       <c r="B55" s="179" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D55" s="126"/>
       <c r="E55" s="126"/>
       <c r="F55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G55" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J55" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L55" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U55" s="133" t="s">
         <v>138</v>
@@ -9945,16 +10560,16 @@
         <v>138</v>
       </c>
       <c r="W55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X55" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y55" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z55" s="173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA55" s="154">
         <f t="shared" si="1"/>
@@ -9962,59 +10577,59 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="243"/>
+      <c r="A56" s="239"/>
       <c r="B56" s="179" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D56" s="126"/>
       <c r="E56" s="126"/>
       <c r="F56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G56" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J56" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L56" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U56" s="133" t="s">
         <v>138</v>
@@ -10023,16 +10638,16 @@
         <v>138</v>
       </c>
       <c r="W56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X56" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y56" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z56" s="173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA56" s="154">
         <f t="shared" si="1"/>
@@ -10040,59 +10655,59 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="243"/>
+      <c r="A57" s="239"/>
       <c r="B57" s="179" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D57" s="126"/>
       <c r="E57" s="126"/>
       <c r="F57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G57" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J57" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L57" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U57" s="133" t="s">
         <v>138</v>
@@ -10101,16 +10716,16 @@
         <v>138</v>
       </c>
       <c r="W57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X57" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y57" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z57" s="173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA57" s="154">
         <f t="shared" si="1"/>
@@ -10118,59 +10733,59 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="243"/>
+      <c r="A58" s="239"/>
       <c r="B58" s="179" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D58" s="126"/>
       <c r="E58" s="126"/>
       <c r="F58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G58" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J58" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L58" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U58" s="133" t="s">
         <v>138</v>
@@ -10179,16 +10794,16 @@
         <v>138</v>
       </c>
       <c r="W58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X58" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y58" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z58" s="173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA58" s="154">
         <f t="shared" si="1"/>
@@ -10196,59 +10811,59 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="243"/>
+      <c r="A59" s="239"/>
       <c r="B59" s="179" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D59" s="126"/>
       <c r="E59" s="126"/>
       <c r="F59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G59" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J59" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L59" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U59" s="133" t="s">
         <v>138</v>
@@ -10257,16 +10872,16 @@
         <v>138</v>
       </c>
       <c r="W59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X59" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y59" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z59" s="173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA59" s="154">
         <f t="shared" si="1"/>
@@ -10274,52 +10889,52 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="243"/>
+      <c r="A60" s="239"/>
       <c r="B60" s="179" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D60" s="126"/>
       <c r="E60" s="126"/>
       <c r="F60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G60" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H60" s="133"/>
       <c r="I60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J60" s="133"/>
       <c r="K60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L60" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q60" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T60" s="133" t="s">
         <v>138</v>
@@ -10331,16 +10946,16 @@
         <v>138</v>
       </c>
       <c r="W60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X60" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y60" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z60" s="173" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA60" s="154">
         <f t="shared" si="1"/>
@@ -10348,52 +10963,52 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="243"/>
+      <c r="A61" s="239"/>
       <c r="B61" s="179" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D61" s="126"/>
       <c r="E61" s="126"/>
       <c r="F61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G61" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H61" s="133"/>
       <c r="I61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J61" s="133"/>
       <c r="K61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L61" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q61" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T61" s="133" t="s">
         <v>138</v>
@@ -10405,16 +11020,16 @@
         <v>138</v>
       </c>
       <c r="W61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X61" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y61" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z61" s="173" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA61" s="154">
         <f t="shared" si="1"/>
@@ -10422,59 +11037,59 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="243"/>
+      <c r="A62" s="239"/>
       <c r="B62" s="179" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D62" s="126"/>
       <c r="E62" s="126"/>
       <c r="F62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L62" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R62" s="133" t="s">
         <v>138</v>
       </c>
       <c r="S62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U62" s="133" t="s">
         <v>138</v>
@@ -10483,16 +11098,16 @@
         <v>138</v>
       </c>
       <c r="W62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X62" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y62" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z62" s="173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA62" s="154">
         <f t="shared" si="1"/>
@@ -10500,56 +11115,56 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="243"/>
+      <c r="A63" s="239"/>
       <c r="B63" s="179" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D63" s="126"/>
       <c r="E63" s="126"/>
       <c r="F63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G63" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L63" s="133" t="s">
         <v>138</v>
       </c>
       <c r="M63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T63" s="133" t="s">
         <v>138</v>
@@ -10561,16 +11176,16 @@
         <v>138</v>
       </c>
       <c r="W63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X63" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y63" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z63" s="173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA63" s="154">
         <f t="shared" si="1"/>
@@ -10578,56 +11193,56 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="244"/>
+      <c r="A64" s="240"/>
       <c r="B64" s="181" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="163" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
       <c r="F64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G64" s="140" t="s">
         <v>138</v>
       </c>
       <c r="H64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L64" s="140" t="s">
         <v>138</v>
       </c>
       <c r="M64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q64" s="140" t="s">
         <v>138</v>
       </c>
       <c r="R64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T64" s="140" t="s">
         <v>138</v>
@@ -10639,16 +11254,16 @@
         <v>138</v>
       </c>
       <c r="W64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X64" s="140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y64" s="141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z64" s="162" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA64" s="155">
         <f t="shared" si="1"/>
@@ -10656,19 +11271,19 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="245" t="s">
+      <c r="A65" s="241" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="184" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="144" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D65" s="127"/>
       <c r="E65" s="127"/>
       <c r="F65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G65" s="145" t="s">
         <v>138</v>
@@ -10677,58 +11292,58 @@
         <v>138</v>
       </c>
       <c r="I65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q65" s="145" t="s">
         <v>138</v>
       </c>
       <c r="R65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W65" s="145" t="s">
         <v>138</v>
       </c>
       <c r="X65" s="145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y65" s="146" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z65" s="194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA65" s="186">
         <f>COUNTIF(G65:Y65,"X")</f>
@@ -10736,17 +11351,17 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="246"/>
+      <c r="A66" s="242"/>
       <c r="B66" s="183" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D66" s="126"/>
       <c r="E66" s="126"/>
       <c r="F66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G66" s="133" t="s">
         <v>138</v>
@@ -10755,58 +11370,58 @@
         <v>138</v>
       </c>
       <c r="I66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q66" s="133" t="s">
         <v>138</v>
       </c>
       <c r="R66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X66" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y66" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z66" s="173" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA66" s="154">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -10814,59 +11429,59 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="246"/>
+      <c r="A67" s="242"/>
       <c r="B67" s="183" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D67" s="126"/>
       <c r="E67" s="126"/>
       <c r="F67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G67" s="133" t="s">
         <v>138</v>
       </c>
       <c r="H67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J67" s="133" t="s">
         <v>138</v>
       </c>
       <c r="K67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R67" s="133" t="s">
         <v>138</v>
       </c>
       <c r="S67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U67" s="133" t="s">
         <v>138</v>
@@ -10875,16 +11490,16 @@
         <v>138</v>
       </c>
       <c r="W67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X67" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y67" s="135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z67" s="173" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA67" s="154">
         <f>COUNTIF(F67:Y67,"X")</f>
@@ -10892,59 +11507,59 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="247"/>
+      <c r="A68" s="243"/>
       <c r="B68" s="185" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="147" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D68" s="128"/>
       <c r="E68" s="128"/>
       <c r="F68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G68" s="136" t="s">
         <v>138</v>
       </c>
       <c r="H68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J68" s="136" t="s">
         <v>138</v>
       </c>
       <c r="K68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R68" s="136" t="s">
         <v>138</v>
       </c>
       <c r="S68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U68" s="136" t="s">
         <v>138</v>
@@ -10953,16 +11568,16 @@
         <v>138</v>
       </c>
       <c r="W68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X68" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y68" s="137" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z68" s="162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA68" s="155">
         <f>COUNTIF(F68:Y68,"X")</f>
@@ -10971,7 +11586,7 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69" s="182" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F69" s="188">
         <f>COUNTIF(F3:F68,"X")</f>
@@ -15031,45 +15646,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
     <col min="2" max="3" width="61.85546875" customWidth="1"/>
-    <col min="4" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="126.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="126.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="210" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="207" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="208" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="208" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="208" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="208" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="208" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="209" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="211" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="212" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="212" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="212" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="213" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="196"/>
       <c r="I1" s="196"/>
       <c r="J1" s="196"/>
       <c r="K1" s="196"/>
@@ -15084,306 +15702,460 @@
       <c r="T1" s="196"/>
       <c r="U1" s="196"/>
       <c r="V1" s="196"/>
-    </row>
-    <row r="2" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="207" t="s">
+      <c r="W1" s="196"/>
+    </row>
+    <row r="2" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="268" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="269" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="269" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="144" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="144">
+        <v>2015</v>
+      </c>
+      <c r="G2" s="197" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="270"/>
+    </row>
+    <row r="3" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="271" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="210" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="271" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="214" t="s">
+      <c r="B4" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G4" s="126"/>
+      <c r="H4" s="272"/>
+    </row>
+    <row r="5" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="271" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G5" s="126"/>
+      <c r="H5" s="272"/>
+    </row>
+    <row r="6" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="271" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G6" s="126"/>
+      <c r="H6" s="272"/>
+    </row>
+    <row r="7" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="271" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="277" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="272"/>
+    </row>
+    <row r="8" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="271" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G8" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="272"/>
+    </row>
+    <row r="9" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="271" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="210" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G9" s="126"/>
+      <c r="H9" s="272"/>
+    </row>
+    <row r="10" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="271" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G10" s="126"/>
+      <c r="H10" s="272"/>
+    </row>
+    <row r="11" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="271" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G11" s="126"/>
+      <c r="H11" s="272"/>
+    </row>
+    <row r="12" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="271" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="163"/>
+      <c r="F12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G12" s="126"/>
+      <c r="H12" s="272"/>
+    </row>
+    <row r="13" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="271" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="210" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G13" s="277" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="272"/>
+    </row>
+    <row r="14" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="271" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="210" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G14" s="160" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="272"/>
+    </row>
+    <row r="15" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="271" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="210" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G15" s="277" t="s">
+        <v>284</v>
+      </c>
+      <c r="H15" s="272"/>
+    </row>
+    <row r="16" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="271" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="210" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G16" s="126"/>
+      <c r="H16" s="272"/>
+    </row>
+    <row r="17" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="271" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="210" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G17" s="160" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="272"/>
+    </row>
+    <row r="18" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="271" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G18" s="160" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="272"/>
+    </row>
+    <row r="19" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="271" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-    </row>
-    <row r="3" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="208" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="214" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="208" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="214" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="K4" t="s">
+      <c r="C19" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="163" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G19" s="126"/>
+      <c r="H19" s="272"/>
+    </row>
+    <row r="20" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="271" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="210" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="214" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-    </row>
-    <row r="6" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="208" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="214" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-    </row>
-    <row r="7" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="208" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-    </row>
-    <row r="8" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="208" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D20" s="210" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="1">
         <v>2015</v>
       </c>
-      <c r="F8" s="160" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="126"/>
-    </row>
-    <row r="9" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="208" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="214" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-    </row>
-    <row r="10" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="208" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="214" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-    </row>
-    <row r="11" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="214" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-    </row>
-    <row r="12" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="208" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="214" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-    </row>
-    <row r="13" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="208" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="214" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-    </row>
-    <row r="14" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="208" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="G20" s="126"/>
+      <c r="H20" s="272"/>
+    </row>
+    <row r="21" spans="1:8" ht="408.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="273" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="147" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="274" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="274" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" s="147"/>
+      <c r="F21" s="275">
         <v>2015</v>
       </c>
-      <c r="F14" s="160" t="s">
-        <v>203</v>
-      </c>
-      <c r="G14" s="126"/>
-    </row>
-    <row r="15" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-    </row>
-    <row r="16" spans="1:22" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="208" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-    </row>
-    <row r="17" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="208" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-    </row>
-    <row r="18" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="208" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-    </row>
-    <row r="19" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="208" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-    </row>
-    <row r="20" spans="1:7" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="208" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="214" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-    </row>
-    <row r="21" spans="1:7" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="209" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="214" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="267" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="268"/>
-      <c r="C26" s="269"/>
-    </row>
-    <row r="27" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="266" t="s">
-        <v>263</v>
-      </c>
-      <c r="B27" s="266"/>
-      <c r="C27" s="266"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="276"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="263" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="264"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="266"/>
+    </row>
+    <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="262"/>
+      <c r="C27" s="262"/>
+      <c r="D27" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15391,11 +16163,17 @@
     <mergeCell ref="A26:C26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F14" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://www.beoelektrane.rs/?cat=19"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G15" r:id="rId6" display="https://www.beoelektrane.rs/?cat=19"/>
+    <hyperlink ref="G17" r:id="rId7"/>
+    <hyperlink ref="G18" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
@@ -16,7 +16,7 @@
     <sheet name="Hourly emissions - methodology" sheetId="2" r:id="rId2"/>
     <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="295">
   <si>
     <t>NFR category</t>
   </si>
@@ -643,9 +643,6 @@
   </si>
   <si>
     <t>https://www.timeanddate.com/sun/serbia/belgrade?month=12&amp;year=2015</t>
-  </si>
-  <si>
-    <t>Periodic</t>
   </si>
   <si>
     <r>
@@ -1027,7 +1024,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2629,6 +2626,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2792,36 +2819,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3080,50 +3077,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>693964</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7904389</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5150304</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20056928" y="557893"/>
-          <a:ext cx="7210425" cy="5095875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>727364</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
@@ -3142,7 +3095,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3186,7 +3139,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3230,7 +3183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3274,7 +3227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3318,7 +3271,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3362,7 +3315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3376,50 +3329,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20193001" y="31718251"/>
-          <a:ext cx="7210425" cy="5095875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>690562</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7900987</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>5167312</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20050125" y="36909375"/>
           <a:ext cx="7210425" cy="5095875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3450,7 +3359,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3494,7 +3403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3538,6 +3447,94 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20145376" y="47267813"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>802821</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8013246</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5163909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20165785" y="62946641"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>802822</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8013247</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5177517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -3551,7 +3548,359 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20145376" y="47267813"/>
+          <a:off x="20165786" y="68158178"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>775607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7986032</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5136697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20138571" y="57721501"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8026853</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5109482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20179392" y="36902571"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>796637</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8007062</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5165148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20141046" y="571500"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>865909</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8076334</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5165148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20210318" y="73307864"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7896225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5153025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20097750" y="99383850"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7743825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5133975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19945350" y="78562200"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7667625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5133975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19869150" y="83762850"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7705725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5133975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19907250" y="94164150"/>
           <a:ext cx="7210425" cy="5095875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3854,11 +4203,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="217" t="s">
+      <c r="J1" s="229" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="218"/>
-      <c r="L1" s="219"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="231"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -3908,7 +4257,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="245" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3941,7 +4290,7 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="234"/>
+      <c r="A4" s="246"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3972,7 +4321,7 @@
       <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="234"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -4003,7 +4352,7 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="234"/>
+      <c r="A6" s="246"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -4034,7 +4383,7 @@
       <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="234"/>
+      <c r="A7" s="246"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -4065,7 +4414,7 @@
       <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="234"/>
+      <c r="A8" s="246"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -4096,7 +4445,7 @@
       <c r="O8" s="71"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="223" t="s">
+      <c r="A9" s="235" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4135,7 +4484,7 @@
       <c r="O9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -4170,7 +4519,7 @@
       <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="224"/>
+      <c r="A11" s="236"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -4205,7 +4554,7 @@
       <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="225"/>
+      <c r="A12" s="237"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -4240,7 +4589,7 @@
       <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="226" t="s">
+      <c r="A13" s="238" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -4279,7 +4628,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="226"/>
+      <c r="A14" s="238"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -4316,7 +4665,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="226"/>
+      <c r="A15" s="238"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -4353,7 +4702,7 @@
       <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="226"/>
+      <c r="A16" s="238"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -4390,7 +4739,7 @@
       <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="226"/>
+      <c r="A17" s="238"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -4427,7 +4776,7 @@
       <c r="O17" s="63"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="226"/>
+      <c r="A18" s="238"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -4464,7 +4813,7 @@
       <c r="O18" s="63"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="226"/>
+      <c r="A19" s="238"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -4501,7 +4850,7 @@
       <c r="O19" s="63"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="226"/>
+      <c r="A20" s="238"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -4538,7 +4887,7 @@
       <c r="O20" s="63"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="226"/>
+      <c r="A21" s="238"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -4575,7 +4924,7 @@
       <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="226"/>
+      <c r="A22" s="238"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -4612,7 +4961,7 @@
       <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="226"/>
+      <c r="A23" s="238"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -4647,7 +4996,7 @@
       <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="227"/>
+      <c r="A24" s="239"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -4682,7 +5031,7 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="228" t="s">
+      <c r="A25" s="240" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
@@ -4719,7 +5068,7 @@
       <c r="O25" s="67"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="229"/>
+      <c r="A26" s="241"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -4756,7 +5105,7 @@
       <c r="O26" s="69"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="229"/>
+      <c r="A27" s="241"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -4793,7 +5142,7 @@
       <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="230"/>
+      <c r="A28" s="242"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -4830,7 +5179,7 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="214" t="s">
+      <c r="A29" s="226" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4863,7 +5212,7 @@
       <c r="O29" s="67"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="215"/>
+      <c r="A30" s="227"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -4894,7 +5243,7 @@
       <c r="O30" s="69"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="215"/>
+      <c r="A31" s="227"/>
       <c r="B31" s="59" t="s">
         <v>106</v>
       </c>
@@ -4925,7 +5274,7 @@
       <c r="O31" s="69"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="215"/>
+      <c r="A32" s="227"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -4956,7 +5305,7 @@
       <c r="O32" s="69"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="215"/>
+      <c r="A33" s="227"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -4987,7 +5336,7 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="215"/>
+      <c r="A34" s="227"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -5018,7 +5367,7 @@
       <c r="O34" s="69"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
+      <c r="A35" s="227"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -5049,7 +5398,7 @@
       <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="215"/>
+      <c r="A36" s="227"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -5088,7 +5437,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="216"/>
+      <c r="A37" s="228"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -5125,7 +5474,7 @@
       <c r="O37" s="71"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="211" t="s">
+      <c r="A38" s="223" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -5158,7 +5507,7 @@
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="212"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -5195,7 +5544,7 @@
       <c r="O39" s="69"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="212"/>
+      <c r="A40" s="224"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -5230,7 +5579,7 @@
       <c r="O40" s="69"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="212"/>
+      <c r="A41" s="224"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -5267,7 +5616,7 @@
       <c r="O41" s="69"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="212"/>
+      <c r="A42" s="224"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -5302,7 +5651,7 @@
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="212"/>
+      <c r="A43" s="224"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -5337,7 +5686,7 @@
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="212"/>
+      <c r="A44" s="224"/>
       <c r="B44" s="52" t="s">
         <v>33</v>
       </c>
@@ -5372,7 +5721,7 @@
       <c r="O44" s="69"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="212"/>
+      <c r="A45" s="224"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -5409,7 +5758,7 @@
       <c r="O45" s="69"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="212"/>
+      <c r="A46" s="224"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -5446,7 +5795,7 @@
       <c r="O46" s="69"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="212"/>
+      <c r="A47" s="224"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -5483,7 +5832,7 @@
       <c r="O47" s="69"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="212"/>
+      <c r="A48" s="224"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -5520,7 +5869,7 @@
       <c r="O48" s="69"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="212"/>
+      <c r="A49" s="224"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
@@ -5557,7 +5906,7 @@
       <c r="O49" s="69"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="213"/>
+      <c r="A50" s="225"/>
       <c r="B50" s="53" t="s">
         <v>38</v>
       </c>
@@ -5594,7 +5943,7 @@
       <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="231" t="s">
+      <c r="A51" s="243" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -5633,7 +5982,7 @@
       <c r="O51" s="67"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="232"/>
+      <c r="A52" s="244"/>
       <c r="B52" s="50" t="s">
         <v>41</v>
       </c>
@@ -5670,7 +6019,7 @@
       <c r="O52" s="69"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="232"/>
+      <c r="A53" s="244"/>
       <c r="B53" s="50" t="s">
         <v>42</v>
       </c>
@@ -5707,7 +6056,7 @@
       <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="232"/>
+      <c r="A54" s="244"/>
       <c r="B54" s="50" t="s">
         <v>43</v>
       </c>
@@ -5738,7 +6087,7 @@
       <c r="O54" s="69"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="232"/>
+      <c r="A55" s="244"/>
       <c r="B55" s="50" t="s">
         <v>44</v>
       </c>
@@ -5775,7 +6124,7 @@
       <c r="O55" s="69"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="232"/>
+      <c r="A56" s="244"/>
       <c r="B56" s="50" t="s">
         <v>45</v>
       </c>
@@ -5812,7 +6161,7 @@
       <c r="O56" s="69"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="232"/>
+      <c r="A57" s="244"/>
       <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
@@ -5843,7 +6192,7 @@
       <c r="O57" s="69"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="232"/>
+      <c r="A58" s="244"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
@@ -5880,7 +6229,7 @@
       <c r="O58" s="69"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="232"/>
+      <c r="A59" s="244"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
@@ -5917,7 +6266,7 @@
       <c r="O59" s="69"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="232"/>
+      <c r="A60" s="244"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
@@ -5954,7 +6303,7 @@
       <c r="O60" s="69"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="232"/>
+      <c r="A61" s="244"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
@@ -5991,7 +6340,7 @@
       <c r="O61" s="69"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="232"/>
+      <c r="A62" s="244"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
@@ -6028,7 +6377,7 @@
       <c r="O62" s="69"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="232"/>
+      <c r="A63" s="244"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
@@ -6065,7 +6414,7 @@
       <c r="O63" s="69"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="232"/>
+      <c r="A64" s="244"/>
       <c r="B64" s="98" t="s">
         <v>53</v>
       </c>
@@ -6102,7 +6451,7 @@
       <c r="O64" s="69"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="220" t="s">
+      <c r="A65" s="232" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="79" t="s">
@@ -6141,7 +6490,7 @@
       <c r="O65" s="108"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="221"/>
+      <c r="A66" s="233"/>
       <c r="B66" s="80" t="s">
         <v>56</v>
       </c>
@@ -6178,7 +6527,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="221"/>
+      <c r="A67" s="233"/>
       <c r="B67" s="80" t="s">
         <v>57</v>
       </c>
@@ -6213,7 +6562,7 @@
       <c r="O67" s="110"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="222"/>
+      <c r="A68" s="234"/>
       <c r="B68" s="81" t="s">
         <v>58</v>
       </c>
@@ -6280,7 +6629,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6310,28 +6659,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="235" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="237"/>
+      <c r="F1" s="247" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
+      <c r="X1" s="248"/>
+      <c r="Y1" s="249"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
@@ -6344,7 +6693,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="121" t="s">
         <v>115</v>
@@ -6417,20 +6766,20 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="256" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="161" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="144" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="144" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" s="197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F3" s="145" t="s">
         <v>164</v>
@@ -6501,15 +6850,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="245"/>
+      <c r="A4" s="257"/>
       <c r="B4" s="159" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="126"/>
       <c r="F4" s="133" t="s">
@@ -6573,7 +6922,7 @@
         <v>138</v>
       </c>
       <c r="Z4" s="157" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA4" s="132">
         <f t="shared" si="0"/>
@@ -6581,12 +6930,12 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="245"/>
+      <c r="A5" s="257"/>
       <c r="B5" s="159" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="126"/>
@@ -6651,7 +7000,7 @@
         <v>138</v>
       </c>
       <c r="Z5" s="157" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA5" s="132">
         <f t="shared" si="0"/>
@@ -6659,12 +7008,12 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="245"/>
+      <c r="A6" s="257"/>
       <c r="B6" s="159" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="204"/>
       <c r="E6" s="126"/>
@@ -6729,7 +7078,7 @@
         <v>138</v>
       </c>
       <c r="Z6" s="157" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA6" s="132">
         <f t="shared" si="0"/>
@@ -6737,12 +7086,12 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="245"/>
+      <c r="A7" s="257"/>
       <c r="B7" s="159" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="204"/>
       <c r="E7" s="160" t="s">
@@ -6817,12 +7166,12 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="246"/>
+      <c r="A8" s="258"/>
       <c r="B8" s="174" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="163" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="205"/>
       <c r="E8" s="175" t="s">
@@ -6897,14 +7246,14 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="247" t="s">
+      <c r="A9" s="259" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="143" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="206"/>
       <c r="E9" s="127"/>
@@ -6977,12 +7326,12 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="248"/>
+      <c r="A10" s="260"/>
       <c r="B10" s="142" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="204"/>
       <c r="E10" s="126"/>
@@ -7047,7 +7396,7 @@
         <v>164</v>
       </c>
       <c r="Z10" s="173" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA10" s="154">
         <f t="shared" si="0"/>
@@ -7055,12 +7404,12 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="248"/>
+      <c r="A11" s="260"/>
       <c r="B11" s="142" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="204"/>
       <c r="E11" s="126"/>
@@ -7125,7 +7474,7 @@
         <v>164</v>
       </c>
       <c r="Z11" s="173" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA11" s="154">
         <f t="shared" si="0"/>
@@ -7133,12 +7482,12 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="249"/>
+      <c r="A12" s="261"/>
       <c r="B12" s="191" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="205"/>
       <c r="E12" s="139"/>
@@ -7146,7 +7495,7 @@
         <v>164</v>
       </c>
       <c r="G12" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H12" s="140" t="s">
         <v>164</v>
@@ -7155,7 +7504,7 @@
         <v>164</v>
       </c>
       <c r="J12" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K12" s="140" t="s">
         <v>164</v>
@@ -7203,7 +7552,7 @@
         <v>164</v>
       </c>
       <c r="Z12" s="176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA12" s="170">
         <f t="shared" si="0"/>
@@ -7211,17 +7560,17 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="250" t="s">
+      <c r="A13" s="262" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="193" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="144" t="s">
         <v>219</v>
-      </c>
-      <c r="D13" s="144" t="s">
-        <v>220</v>
       </c>
       <c r="E13" s="127"/>
       <c r="F13" s="145" t="s">
@@ -7285,7 +7634,7 @@
         <v>164</v>
       </c>
       <c r="Z13" s="150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA13" s="153">
         <f t="shared" si="0"/>
@@ -7293,12 +7642,12 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
+      <c r="A14" s="263"/>
       <c r="B14" s="192" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="204"/>
       <c r="E14" s="126"/>
@@ -7363,7 +7712,7 @@
         <v>164</v>
       </c>
       <c r="Z14" s="151" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AA14" s="154">
         <f t="shared" si="0"/>
@@ -7371,12 +7720,12 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
+      <c r="A15" s="263"/>
       <c r="B15" s="192" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="204"/>
       <c r="E15" s="126"/>
@@ -7449,12 +7798,12 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="251"/>
+      <c r="A16" s="263"/>
       <c r="B16" s="192" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16" s="204"/>
       <c r="E16" s="126"/>
@@ -7527,12 +7876,12 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="251"/>
+      <c r="A17" s="263"/>
       <c r="B17" s="192" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D17" s="204"/>
       <c r="E17" s="126"/>
@@ -7605,12 +7954,12 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="251"/>
+      <c r="A18" s="263"/>
       <c r="B18" s="192" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" s="204"/>
       <c r="E18" s="126"/>
@@ -7683,12 +8032,12 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
+      <c r="A19" s="263"/>
       <c r="B19" s="192" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" s="204"/>
       <c r="E19" s="126"/>
@@ -7761,12 +8110,12 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="251"/>
+      <c r="A20" s="263"/>
       <c r="B20" s="192" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="204"/>
       <c r="E20" s="126"/>
@@ -7839,12 +8188,12 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="251"/>
+      <c r="A21" s="263"/>
       <c r="B21" s="192" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" s="204"/>
       <c r="E21" s="126"/>
@@ -7917,12 +8266,12 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="251"/>
+      <c r="A22" s="263"/>
       <c r="B22" s="192" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D22" s="204"/>
       <c r="E22" s="126"/>
@@ -7995,12 +8344,12 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
+      <c r="A23" s="263"/>
       <c r="B23" s="192" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" s="204"/>
       <c r="E23" s="126"/>
@@ -8073,12 +8422,12 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="252"/>
+      <c r="A24" s="264"/>
       <c r="B24" s="195" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="163" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" s="205"/>
       <c r="E24" s="139"/>
@@ -8143,7 +8492,7 @@
         <v>164</v>
       </c>
       <c r="Z24" s="152" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA24" s="155">
         <f t="shared" si="0"/>
@@ -8151,14 +8500,14 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="253" t="s">
+      <c r="A25" s="265" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="165" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="144" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25" s="206"/>
       <c r="E25" s="127"/>
@@ -8231,12 +8580,12 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="254"/>
+      <c r="A26" s="266"/>
       <c r="B26" s="164" t="s">
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" s="204"/>
       <c r="E26" s="126"/>
@@ -8309,12 +8658,12 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="254"/>
+      <c r="A27" s="266"/>
       <c r="B27" s="164" t="s">
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D27" s="204"/>
       <c r="E27" s="126"/>
@@ -8387,12 +8736,12 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="255"/>
+      <c r="A28" s="267"/>
       <c r="B28" s="166" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28" s="205"/>
       <c r="E28" s="139"/>
@@ -8465,14 +8814,14 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="256" t="s">
+      <c r="A29" s="268" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
@@ -8545,12 +8894,12 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="257"/>
+      <c r="A30" s="269"/>
       <c r="B30" s="168" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D30" s="126"/>
       <c r="E30" s="126"/>
@@ -8623,12 +8972,12 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="257"/>
+      <c r="A31" s="269"/>
       <c r="B31" s="168" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="126"/>
@@ -8701,12 +9050,12 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="257"/>
+      <c r="A32" s="269"/>
       <c r="B32" s="168" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D32" s="126"/>
       <c r="E32" s="126"/>
@@ -8779,12 +9128,12 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="257"/>
+      <c r="A33" s="269"/>
       <c r="B33" s="168" t="s">
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="126"/>
@@ -8857,12 +9206,12 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="257"/>
+      <c r="A34" s="269"/>
       <c r="B34" s="168" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D34" s="126"/>
       <c r="E34" s="126"/>
@@ -8935,12 +9284,12 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="257"/>
+      <c r="A35" s="269"/>
       <c r="B35" s="168" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" s="126"/>
       <c r="E35" s="126"/>
@@ -9013,12 +9362,12 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="257"/>
+      <c r="A36" s="269"/>
       <c r="B36" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D36" s="126"/>
       <c r="E36" s="126"/>
@@ -9091,12 +9440,12 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="258"/>
+      <c r="A37" s="270"/>
       <c r="B37" s="203" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="147" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" s="128"/>
       <c r="E37" s="128"/>
@@ -9169,14 +9518,14 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="259" t="s">
+      <c r="A38" s="271" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="198" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="199" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" s="200"/>
       <c r="E38" s="200"/>
@@ -9249,12 +9598,12 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="260"/>
+      <c r="A39" s="272"/>
       <c r="B39" s="177" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D39" s="126"/>
       <c r="E39" s="126"/>
@@ -9327,12 +9676,12 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="260"/>
+      <c r="A40" s="272"/>
       <c r="B40" s="177" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" s="126"/>
       <c r="E40" s="126"/>
@@ -9405,12 +9754,12 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="260"/>
+      <c r="A41" s="272"/>
       <c r="B41" s="177" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D41" s="126"/>
       <c r="E41" s="126"/>
@@ -9475,7 +9824,7 @@
         <v>164</v>
       </c>
       <c r="Z41" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA41" s="154">
         <f t="shared" si="1"/>
@@ -9483,12 +9832,12 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="260"/>
+      <c r="A42" s="272"/>
       <c r="B42" s="177" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D42" s="126"/>
       <c r="E42" s="126"/>
@@ -9561,12 +9910,12 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="260"/>
+      <c r="A43" s="272"/>
       <c r="B43" s="177" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D43" s="126"/>
       <c r="E43" s="126"/>
@@ -9639,12 +9988,12 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="260"/>
+      <c r="A44" s="272"/>
       <c r="B44" s="177" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" s="126"/>
       <c r="E44" s="126"/>
@@ -9717,12 +10066,12 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="260"/>
+      <c r="A45" s="272"/>
       <c r="B45" s="177" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D45" s="126"/>
       <c r="E45" s="126"/>
@@ -9787,7 +10136,7 @@
         <v>164</v>
       </c>
       <c r="Z45" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA45" s="154">
         <f t="shared" si="1"/>
@@ -9795,12 +10144,12 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="260"/>
+      <c r="A46" s="272"/>
       <c r="B46" s="177" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
@@ -9865,7 +10214,7 @@
         <v>164</v>
       </c>
       <c r="Z46" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA46" s="154">
         <f t="shared" si="1"/>
@@ -9873,12 +10222,12 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="260"/>
+      <c r="A47" s="272"/>
       <c r="B47" s="177" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D47" s="126"/>
       <c r="E47" s="126"/>
@@ -9943,7 +10292,7 @@
         <v>164</v>
       </c>
       <c r="Z47" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA47" s="154">
         <f t="shared" si="1"/>
@@ -9951,12 +10300,12 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260"/>
+      <c r="A48" s="272"/>
       <c r="B48" s="177" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D48" s="126"/>
       <c r="E48" s="126"/>
@@ -10021,7 +10370,7 @@
         <v>164</v>
       </c>
       <c r="Z48" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA48" s="154">
         <f t="shared" si="1"/>
@@ -10029,12 +10378,12 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="260"/>
+      <c r="A49" s="272"/>
       <c r="B49" s="177" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D49" s="126"/>
       <c r="E49" s="126"/>
@@ -10099,7 +10448,7 @@
         <v>164</v>
       </c>
       <c r="Z49" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA49" s="154">
         <f t="shared" si="1"/>
@@ -10107,12 +10456,12 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="261"/>
+      <c r="A50" s="273"/>
       <c r="B50" s="178" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="163" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D50" s="139"/>
       <c r="E50" s="139"/>
@@ -10185,14 +10534,14 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="238" t="s">
+      <c r="A51" s="250" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="180" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="144" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D51" s="127"/>
       <c r="E51" s="127"/>
@@ -10257,7 +10606,7 @@
         <v>164</v>
       </c>
       <c r="Z51" s="172" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA51" s="153">
         <f t="shared" si="1"/>
@@ -10265,12 +10614,12 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="239"/>
+      <c r="A52" s="251"/>
       <c r="B52" s="179" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D52" s="126"/>
       <c r="E52" s="126"/>
@@ -10335,7 +10684,7 @@
         <v>164</v>
       </c>
       <c r="Z52" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA52" s="154">
         <f t="shared" si="1"/>
@@ -10343,12 +10692,12 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="239"/>
+      <c r="A53" s="251"/>
       <c r="B53" s="179" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D53" s="126"/>
       <c r="E53" s="126"/>
@@ -10413,7 +10762,7 @@
         <v>164</v>
       </c>
       <c r="Z53" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA53" s="154">
         <f t="shared" si="1"/>
@@ -10421,12 +10770,12 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="239"/>
+      <c r="A54" s="251"/>
       <c r="B54" s="179" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D54" s="126"/>
       <c r="E54" s="126"/>
@@ -10491,7 +10840,7 @@
         <v>164</v>
       </c>
       <c r="Z54" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA54" s="154">
         <f t="shared" si="1"/>
@@ -10499,12 +10848,12 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="239"/>
+      <c r="A55" s="251"/>
       <c r="B55" s="179" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D55" s="126"/>
       <c r="E55" s="126"/>
@@ -10569,7 +10918,7 @@
         <v>164</v>
       </c>
       <c r="Z55" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA55" s="154">
         <f t="shared" si="1"/>
@@ -10577,12 +10926,12 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="239"/>
+      <c r="A56" s="251"/>
       <c r="B56" s="179" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D56" s="126"/>
       <c r="E56" s="126"/>
@@ -10647,7 +10996,7 @@
         <v>164</v>
       </c>
       <c r="Z56" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA56" s="154">
         <f t="shared" si="1"/>
@@ -10655,12 +11004,12 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="239"/>
+      <c r="A57" s="251"/>
       <c r="B57" s="179" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D57" s="126"/>
       <c r="E57" s="126"/>
@@ -10725,7 +11074,7 @@
         <v>164</v>
       </c>
       <c r="Z57" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA57" s="154">
         <f t="shared" si="1"/>
@@ -10733,12 +11082,12 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="239"/>
+      <c r="A58" s="251"/>
       <c r="B58" s="179" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D58" s="126"/>
       <c r="E58" s="126"/>
@@ -10803,7 +11152,7 @@
         <v>164</v>
       </c>
       <c r="Z58" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA58" s="154">
         <f t="shared" si="1"/>
@@ -10811,12 +11160,12 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="239"/>
+      <c r="A59" s="251"/>
       <c r="B59" s="179" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D59" s="126"/>
       <c r="E59" s="126"/>
@@ -10881,7 +11230,7 @@
         <v>164</v>
       </c>
       <c r="Z59" s="173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA59" s="154">
         <f t="shared" si="1"/>
@@ -10889,12 +11238,12 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="239"/>
+      <c r="A60" s="251"/>
       <c r="B60" s="179" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D60" s="126"/>
       <c r="E60" s="126"/>
@@ -10963,12 +11312,12 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="239"/>
+      <c r="A61" s="251"/>
       <c r="B61" s="179" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D61" s="126"/>
       <c r="E61" s="126"/>
@@ -11037,12 +11386,12 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="239"/>
+      <c r="A62" s="251"/>
       <c r="B62" s="179" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" s="126"/>
       <c r="E62" s="126"/>
@@ -11115,12 +11464,12 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="239"/>
+      <c r="A63" s="251"/>
       <c r="B63" s="179" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D63" s="126"/>
       <c r="E63" s="126"/>
@@ -11193,12 +11542,12 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="240"/>
+      <c r="A64" s="252"/>
       <c r="B64" s="181" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="163" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
@@ -11271,14 +11620,14 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="241" t="s">
+      <c r="A65" s="253" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="184" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="144" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D65" s="127"/>
       <c r="E65" s="127"/>
@@ -11351,12 +11700,12 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="242"/>
+      <c r="A66" s="254"/>
       <c r="B66" s="183" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D66" s="126"/>
       <c r="E66" s="126"/>
@@ -11421,7 +11770,7 @@
         <v>164</v>
       </c>
       <c r="Z66" s="173" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AA66" s="154">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -11429,12 +11778,12 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="242"/>
+      <c r="A67" s="254"/>
       <c r="B67" s="183" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D67" s="126"/>
       <c r="E67" s="126"/>
@@ -11507,12 +11856,12 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="243"/>
+      <c r="A68" s="255"/>
       <c r="B68" s="185" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="147" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D68" s="128"/>
       <c r="E68" s="128"/>
@@ -15648,8 +15997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15665,7 +16014,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="207" t="s">
         <v>192</v>
@@ -15677,7 +16026,7 @@
         <v>149</v>
       </c>
       <c r="E1" s="208" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F1" s="208" t="s">
         <v>61</v>
@@ -15705,41 +16054,41 @@
       <c r="W1" s="196"/>
     </row>
     <row r="2" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="213" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="269" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="269" t="s">
-        <v>277</v>
+        <v>266</v>
+      </c>
+      <c r="C2" s="214" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="214" t="s">
+        <v>276</v>
       </c>
       <c r="E2" s="144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="144">
         <v>2015</v>
       </c>
       <c r="G2" s="197" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="215"/>
+    </row>
+    <row r="3" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="216" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="270"/>
-    </row>
-    <row r="3" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="271" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>266</v>
-      </c>
       <c r="C3" s="210" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
@@ -15749,104 +16098,104 @@
       <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="271" t="s">
+      <c r="A4" s="216" t="s">
         <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
         <v>2015</v>
       </c>
       <c r="G4" s="126"/>
-      <c r="H4" s="272"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="271" t="s">
+      <c r="A5" s="216" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
         <v>2015</v>
       </c>
       <c r="G5" s="126"/>
-      <c r="H5" s="272"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="216" t="s">
         <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
         <v>2015</v>
       </c>
       <c r="G6" s="126"/>
-      <c r="H6" s="272"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="271" t="s">
+      <c r="A7" s="216" t="s">
         <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D7" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" s="11">
         <v>2015</v>
       </c>
-      <c r="G7" s="277" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="272"/>
+      <c r="G7" s="222" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="271" t="s">
+      <c r="A8" s="216" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="11">
         <v>2015</v>
@@ -15854,308 +16203,308 @@
       <c r="G8" s="160" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="272"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="216" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="210" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D9" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1">
         <v>2015</v>
       </c>
       <c r="G9" s="126"/>
-      <c r="H9" s="272"/>
+      <c r="H9" s="217"/>
     </row>
     <row r="10" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="271" t="s">
+      <c r="A10" s="216" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="1">
         <v>2015</v>
       </c>
       <c r="G10" s="126"/>
-      <c r="H10" s="272"/>
+      <c r="H10" s="217"/>
     </row>
     <row r="11" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="271" t="s">
+      <c r="A11" s="216" t="s">
         <v>155</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D11" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="1">
         <v>2015</v>
       </c>
       <c r="G11" s="126"/>
-      <c r="H11" s="272"/>
+      <c r="H11" s="217"/>
     </row>
     <row r="12" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="271" t="s">
+      <c r="A12" s="216" t="s">
         <v>156</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C12" s="210" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" s="163"/>
       <c r="F12" s="1">
         <v>2015</v>
       </c>
       <c r="G12" s="126"/>
-      <c r="H12" s="272"/>
+      <c r="H12" s="217"/>
     </row>
     <row r="13" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="271" t="s">
+      <c r="A13" s="216" t="s">
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="210" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F13" s="1">
         <v>2015</v>
       </c>
-      <c r="G13" s="277" t="s">
-        <v>285</v>
-      </c>
-      <c r="H13" s="272"/>
+      <c r="G13" s="222" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="217"/>
     </row>
     <row r="14" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="271" t="s">
+      <c r="A14" s="216" t="s">
         <v>158</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="210" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="D14" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F14" s="11">
         <v>2015</v>
       </c>
       <c r="G14" s="160" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="272"/>
+        <v>200</v>
+      </c>
+      <c r="H14" s="217"/>
     </row>
     <row r="15" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="271" t="s">
+      <c r="A15" s="216" t="s">
         <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" s="210" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F15" s="11">
         <v>2015</v>
       </c>
-      <c r="G15" s="277" t="s">
-        <v>284</v>
-      </c>
-      <c r="H15" s="272"/>
+      <c r="G15" s="222" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="217"/>
     </row>
     <row r="16" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
+      <c r="A16" s="216" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" s="210" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D16" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="1">
         <v>2015</v>
       </c>
       <c r="G16" s="126"/>
-      <c r="H16" s="272"/>
+      <c r="H16" s="217"/>
     </row>
     <row r="17" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="271" t="s">
+      <c r="A17" s="216" t="s">
         <v>160</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C17" s="210" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="D17" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F17" s="1">
         <v>2015</v>
       </c>
       <c r="G17" s="160" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" s="217"/>
+    </row>
+    <row r="18" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="216" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="210" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="210" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="H17" s="272"/>
-    </row>
-    <row r="18" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="271" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="210" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="F18" s="1">
         <v>2015</v>
       </c>
       <c r="G18" s="160" t="s">
-        <v>291</v>
-      </c>
-      <c r="H18" s="272"/>
+        <v>290</v>
+      </c>
+      <c r="H18" s="217"/>
     </row>
     <row r="19" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="271" t="s">
+      <c r="A19" s="216" t="s">
         <v>180</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="210" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F19" s="11">
         <v>2015</v>
       </c>
       <c r="G19" s="126"/>
-      <c r="H19" s="272"/>
+      <c r="H19" s="217"/>
     </row>
     <row r="20" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="271" t="s">
+      <c r="A20" s="216" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" s="210" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="D20" s="210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" s="1">
         <v>2015</v>
       </c>
       <c r="G20" s="126"/>
-      <c r="H20" s="272"/>
+      <c r="H20" s="217"/>
     </row>
     <row r="21" spans="1:8" ht="408.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="273" t="s">
+      <c r="A21" s="218" t="s">
         <v>162</v>
       </c>
       <c r="B21" s="147" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" s="274" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="274" t="s">
-        <v>277</v>
+        <v>294</v>
+      </c>
+      <c r="C21" s="219" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="219" t="s">
+        <v>276</v>
       </c>
       <c r="E21" s="147"/>
-      <c r="F21" s="275">
+      <c r="F21" s="220">
         <v>2015</v>
       </c>
       <c r="G21" s="128"/>
-      <c r="H21" s="276"/>
+      <c r="H21" s="221"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="275" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="276"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="211"/>
+    </row>
+    <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="B26" s="264"/>
-      <c r="C26" s="265"/>
-      <c r="D26" s="266"/>
-    </row>
-    <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="262" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27" s="262"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="267"/>
+      <c r="B27" s="274"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Proxy data summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Hourly emissions - methodology" sheetId="2" r:id="rId2"/>
-    <sheet name="Hourly emissions-proxy summary" sheetId="3" r:id="rId3"/>
+    <sheet name="Temporal distrib. - methodology" sheetId="2" r:id="rId2"/>
+    <sheet name="Temporal distribution - summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2634,6 +2634,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2688,6 +2715,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2786,42 +2822,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4205,11 +4205,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="218" t="s">
+      <c r="J1" s="227" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="219"/>
-      <c r="L1" s="220"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="229"/>
     </row>
     <row r="2" spans="1:15" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="243" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -4292,7 +4292,7 @@
       <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="232"/>
+      <c r="A4" s="244"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="O4" s="64"/>
     </row>
     <row r="5" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="232"/>
+      <c r="A5" s="244"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -4354,7 +4354,7 @@
       <c r="O5" s="64"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="232"/>
+      <c r="A6" s="244"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="232"/>
+      <c r="A7" s="244"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="232"/>
+      <c r="A8" s="244"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="223" t="s">
+      <c r="A9" s="232" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4486,7 +4486,7 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
+      <c r="A10" s="233"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -4521,7 +4521,7 @@
       <c r="O10" s="64"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="224"/>
+      <c r="A11" s="233"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="O11" s="64"/>
     </row>
     <row r="12" spans="1:15" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="225"/>
+      <c r="A12" s="234"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="O12" s="64"/>
     </row>
     <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="226" t="s">
+      <c r="A13" s="235" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -4630,7 +4630,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="226"/>
+      <c r="A14" s="235"/>
       <c r="B14" s="22" t="s">
         <v>9</v>
       </c>
@@ -4667,7 +4667,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="226"/>
+      <c r="A15" s="235"/>
       <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="O15" s="58"/>
     </row>
     <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="226"/>
+      <c r="A16" s="235"/>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="O16" s="58"/>
     </row>
     <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="226"/>
+      <c r="A17" s="235"/>
       <c r="B17" s="22" t="s">
         <v>12</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="O17" s="58"/>
     </row>
     <row r="18" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="226"/>
+      <c r="A18" s="235"/>
       <c r="B18" s="22" t="s">
         <v>13</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="O18" s="58"/>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="226"/>
+      <c r="A19" s="235"/>
       <c r="B19" s="22" t="s">
         <v>14</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="O19" s="58"/>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="226"/>
+      <c r="A20" s="235"/>
       <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
@@ -4889,7 +4889,7 @@
       <c r="O20" s="58"/>
     </row>
     <row r="21" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="226"/>
+      <c r="A21" s="235"/>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="O21" s="58"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="226"/>
+      <c r="A22" s="235"/>
       <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
@@ -4963,7 +4963,7 @@
       <c r="O22" s="58"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="226"/>
+      <c r="A23" s="235"/>
       <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
@@ -4998,7 +4998,7 @@
       <c r="O23" s="58"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="227"/>
+      <c r="A24" s="236"/>
       <c r="B24" s="23" t="s">
         <v>19</v>
       </c>
@@ -5033,7 +5033,7 @@
       <c r="O24" s="60"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="228" t="s">
+      <c r="A25" s="237" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="41" t="s">
@@ -5070,7 +5070,7 @@
       <c r="O25" s="62"/>
     </row>
     <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="229"/>
+      <c r="A26" s="238"/>
       <c r="B26" s="19" t="s">
         <v>93</v>
       </c>
@@ -5107,7 +5107,7 @@
       <c r="O26" s="64"/>
     </row>
     <row r="27" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="229"/>
+      <c r="A27" s="238"/>
       <c r="B27" s="19" t="s">
         <v>92</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="O27" s="64"/>
     </row>
     <row r="28" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="230"/>
+      <c r="A28" s="239"/>
       <c r="B28" s="20" t="s">
         <v>21</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="O28" s="66"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="224" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -5214,7 +5214,7 @@
       <c r="O29" s="62"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="216"/>
+      <c r="A30" s="225"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="O30" s="64"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="216"/>
+      <c r="A31" s="225"/>
       <c r="B31" s="54" t="s">
         <v>106</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="O31" s="64"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="216"/>
+      <c r="A32" s="225"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="O32" s="64"/>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="216"/>
+      <c r="A33" s="225"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="O33" s="64"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="216"/>
+      <c r="A34" s="225"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="O34" s="64"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="216"/>
+      <c r="A35" s="225"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="O35" s="64"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="216"/>
+      <c r="A36" s="225"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -5439,7 +5439,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="217"/>
+      <c r="A37" s="226"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="O37" s="66"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="213" t="s">
+      <c r="A38" s="222" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="47" t="s">
@@ -5509,7 +5509,7 @@
       <c r="O38" s="62"/>
     </row>
     <row r="39" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="214"/>
+      <c r="A39" s="223"/>
       <c r="B39" s="48" t="s">
         <v>28</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="O39" s="64"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="214"/>
+      <c r="A40" s="223"/>
       <c r="B40" s="48" t="s">
         <v>29</v>
       </c>
@@ -5581,7 +5581,7 @@
       <c r="O40" s="64"/>
     </row>
     <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="214"/>
+      <c r="A41" s="223"/>
       <c r="B41" s="48" t="s">
         <v>30</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="O41" s="64"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="214"/>
+      <c r="A42" s="223"/>
       <c r="B42" s="48" t="s">
         <v>31</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="O42" s="64"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="214"/>
+      <c r="A43" s="223"/>
       <c r="B43" s="48" t="s">
         <v>32</v>
       </c>
@@ -5688,7 +5688,7 @@
       <c r="O43" s="64"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="214"/>
+      <c r="A44" s="223"/>
       <c r="B44" s="48" t="s">
         <v>33</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="O44" s="64"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="214"/>
+      <c r="A45" s="223"/>
       <c r="B45" s="48" t="s">
         <v>34</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="O45" s="64"/>
     </row>
     <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="214"/>
+      <c r="A46" s="223"/>
       <c r="B46" s="48" t="s">
         <v>35</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="O46" s="64"/>
     </row>
     <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="214"/>
+      <c r="A47" s="223"/>
       <c r="B47" s="48" t="s">
         <v>36</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="O47" s="64"/>
     </row>
     <row r="48" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="214"/>
+      <c r="A48" s="223"/>
       <c r="B48" s="48" t="s">
         <v>37</v>
       </c>
@@ -5871,7 +5871,7 @@
       <c r="O48" s="64"/>
     </row>
     <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="214"/>
+      <c r="A49" s="223"/>
       <c r="B49" s="48" t="s">
         <v>120</v>
       </c>
@@ -5908,8 +5908,8 @@
       <c r="O49" s="64"/>
     </row>
     <row r="50" spans="1:15" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="214"/>
-      <c r="B50" s="264" t="s">
+      <c r="A50" s="223"/>
+      <c r="B50" s="213" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="42" t="s">
@@ -5945,10 +5945,10 @@
       <c r="O50" s="66"/>
     </row>
     <row r="51" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="271" t="s">
+      <c r="A51" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="272" t="s">
+      <c r="B51" s="220" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -5984,8 +5984,8 @@
       <c r="O51" s="62"/>
     </row>
     <row r="52" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="273"/>
-      <c r="B52" s="270" t="s">
+      <c r="A52" s="241"/>
+      <c r="B52" s="219" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -6021,8 +6021,8 @@
       <c r="O52" s="64"/>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="273"/>
-      <c r="B53" s="270" t="s">
+      <c r="A53" s="241"/>
+      <c r="B53" s="219" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -6058,8 +6058,8 @@
       <c r="O53" s="64"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="273"/>
-      <c r="B54" s="270" t="s">
+      <c r="A54" s="241"/>
+      <c r="B54" s="219" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -6089,8 +6089,8 @@
       <c r="O54" s="64"/>
     </row>
     <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="273"/>
-      <c r="B55" s="270" t="s">
+      <c r="A55" s="241"/>
+      <c r="B55" s="219" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -6126,8 +6126,8 @@
       <c r="O55" s="64"/>
     </row>
     <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="273"/>
-      <c r="B56" s="270" t="s">
+      <c r="A56" s="241"/>
+      <c r="B56" s="219" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -6163,8 +6163,8 @@
       <c r="O56" s="64"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="273"/>
-      <c r="B57" s="270" t="s">
+      <c r="A57" s="241"/>
+      <c r="B57" s="219" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -6194,8 +6194,8 @@
       <c r="O57" s="64"/>
     </row>
     <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="273"/>
-      <c r="B58" s="270" t="s">
+      <c r="A58" s="241"/>
+      <c r="B58" s="219" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -6231,8 +6231,8 @@
       <c r="O58" s="64"/>
     </row>
     <row r="59" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="273"/>
-      <c r="B59" s="270" t="s">
+      <c r="A59" s="241"/>
+      <c r="B59" s="219" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -6268,8 +6268,8 @@
       <c r="O59" s="64"/>
     </row>
     <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="273"/>
-      <c r="B60" s="270" t="s">
+      <c r="A60" s="241"/>
+      <c r="B60" s="219" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -6305,8 +6305,8 @@
       <c r="O60" s="64"/>
     </row>
     <row r="61" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="273"/>
-      <c r="B61" s="270" t="s">
+      <c r="A61" s="241"/>
+      <c r="B61" s="219" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -6342,8 +6342,8 @@
       <c r="O61" s="64"/>
     </row>
     <row r="62" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="273"/>
-      <c r="B62" s="270" t="s">
+      <c r="A62" s="241"/>
+      <c r="B62" s="219" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="10" t="s">
@@ -6379,8 +6379,8 @@
       <c r="O62" s="64"/>
     </row>
     <row r="63" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="273"/>
-      <c r="B63" s="270" t="s">
+      <c r="A63" s="241"/>
+      <c r="B63" s="219" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -6416,8 +6416,8 @@
       <c r="O63" s="64"/>
     </row>
     <row r="64" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="274"/>
-      <c r="B64" s="275" t="s">
+      <c r="A64" s="242"/>
+      <c r="B64" s="221" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -6453,10 +6453,10 @@
       <c r="O64" s="64"/>
     </row>
     <row r="65" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="221" t="s">
+      <c r="A65" s="230" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="265" t="s">
+      <c r="B65" s="214" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="24" t="s">
@@ -6471,28 +6471,28 @@
       <c r="F65" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="266" t="s">
+      <c r="G65" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="H65" s="266" t="s">
+      <c r="H65" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="266" t="s">
+      <c r="I65" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="J65" s="267"/>
-      <c r="K65" s="267"/>
-      <c r="L65" s="268" t="s">
-        <v>138</v>
-      </c>
-      <c r="M65" s="269" t="s">
+      <c r="J65" s="216"/>
+      <c r="K65" s="216"/>
+      <c r="L65" s="217" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" s="218" t="s">
         <v>130</v>
       </c>
       <c r="N65" s="61"/>
       <c r="O65" s="98"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="221"/>
+      <c r="A66" s="230"/>
       <c r="B66" s="74" t="s">
         <v>56</v>
       </c>
@@ -6529,7 +6529,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="221"/>
+      <c r="A67" s="230"/>
       <c r="B67" s="74" t="s">
         <v>57</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="O67" s="100"/>
     </row>
     <row r="68" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="222"/>
+      <c r="A68" s="231"/>
       <c r="B68" s="75" t="s">
         <v>58</v>
       </c>
@@ -6628,7 +6628,7 @@
   <dimension ref="A1:AA239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
@@ -6661,28 +6661,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="233" t="s">
+      <c r="F1" s="245" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="235"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
+      <c r="T1" s="246"/>
+      <c r="U1" s="246"/>
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="247"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="108" t="s">
@@ -6768,7 +6768,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="254" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="151" t="s">
@@ -6852,7 +6852,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="243"/>
+      <c r="A4" s="255"/>
       <c r="B4" s="149" t="s">
         <v>3</v>
       </c>
@@ -6932,7 +6932,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243"/>
+      <c r="A5" s="255"/>
       <c r="B5" s="149" t="s">
         <v>68</v>
       </c>
@@ -7010,7 +7010,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="243"/>
+      <c r="A6" s="255"/>
       <c r="B6" s="149" t="s">
         <v>69</v>
       </c>
@@ -7088,7 +7088,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="243"/>
+      <c r="A7" s="255"/>
       <c r="B7" s="149" t="s">
         <v>4</v>
       </c>
@@ -7168,7 +7168,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="244"/>
+      <c r="A8" s="256"/>
       <c r="B8" s="164" t="s">
         <v>70</v>
       </c>
@@ -7248,7 +7248,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="257" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="133" t="s">
@@ -7328,7 +7328,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
+      <c r="A10" s="258"/>
       <c r="B10" s="132" t="s">
         <v>75</v>
       </c>
@@ -7406,7 +7406,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246"/>
+      <c r="A11" s="258"/>
       <c r="B11" s="132" t="s">
         <v>111</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="247"/>
+      <c r="A12" s="259"/>
       <c r="B12" s="181" t="s">
         <v>76</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="248" t="s">
+      <c r="A13" s="260" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="183" t="s">
@@ -7642,7 +7642,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="249"/>
+      <c r="A14" s="261"/>
       <c r="B14" s="182" t="s">
         <v>9</v>
       </c>
@@ -7720,7 +7720,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="249"/>
+      <c r="A15" s="261"/>
       <c r="B15" s="182" t="s">
         <v>10</v>
       </c>
@@ -7798,7 +7798,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="249"/>
+      <c r="A16" s="261"/>
       <c r="B16" s="182" t="s">
         <v>11</v>
       </c>
@@ -7876,7 +7876,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="249"/>
+      <c r="A17" s="261"/>
       <c r="B17" s="182" t="s">
         <v>12</v>
       </c>
@@ -7954,7 +7954,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="249"/>
+      <c r="A18" s="261"/>
       <c r="B18" s="182" t="s">
         <v>13</v>
       </c>
@@ -8032,7 +8032,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="249"/>
+      <c r="A19" s="261"/>
       <c r="B19" s="182" t="s">
         <v>14</v>
       </c>
@@ -8110,7 +8110,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="249"/>
+      <c r="A20" s="261"/>
       <c r="B20" s="182" t="s">
         <v>15</v>
       </c>
@@ -8188,7 +8188,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="249"/>
+      <c r="A21" s="261"/>
       <c r="B21" s="182" t="s">
         <v>16</v>
       </c>
@@ -8266,7 +8266,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="249"/>
+      <c r="A22" s="261"/>
       <c r="B22" s="182" t="s">
         <v>17</v>
       </c>
@@ -8344,7 +8344,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="249"/>
+      <c r="A23" s="261"/>
       <c r="B23" s="182" t="s">
         <v>18</v>
       </c>
@@ -8422,7 +8422,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="250"/>
+      <c r="A24" s="262"/>
       <c r="B24" s="185" t="s">
         <v>19</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="251" t="s">
+      <c r="A25" s="263" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="155" t="s">
@@ -8580,7 +8580,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="252"/>
+      <c r="A26" s="264"/>
       <c r="B26" s="154" t="s">
         <v>93</v>
       </c>
@@ -8658,7 +8658,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="252"/>
+      <c r="A27" s="264"/>
       <c r="B27" s="154" t="s">
         <v>92</v>
       </c>
@@ -8736,7 +8736,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="253"/>
+      <c r="A28" s="265"/>
       <c r="B28" s="156" t="s">
         <v>21</v>
       </c>
@@ -8814,7 +8814,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="254" t="s">
+      <c r="A29" s="266" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="159" t="s">
@@ -8894,7 +8894,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="255"/>
+      <c r="A30" s="267"/>
       <c r="B30" s="158" t="s">
         <v>104</v>
       </c>
@@ -8972,7 +8972,7 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="255"/>
+      <c r="A31" s="267"/>
       <c r="B31" s="158" t="s">
         <v>106</v>
       </c>
@@ -9050,7 +9050,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="255"/>
+      <c r="A32" s="267"/>
       <c r="B32" s="158" t="s">
         <v>105</v>
       </c>
@@ -9128,7 +9128,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="255"/>
+      <c r="A33" s="267"/>
       <c r="B33" s="158" t="s">
         <v>107</v>
       </c>
@@ -9206,7 +9206,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="255"/>
+      <c r="A34" s="267"/>
       <c r="B34" s="158" t="s">
         <v>109</v>
       </c>
@@ -9284,7 +9284,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="255"/>
+      <c r="A35" s="267"/>
       <c r="B35" s="158" t="s">
         <v>24</v>
       </c>
@@ -9362,7 +9362,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="255"/>
+      <c r="A36" s="267"/>
       <c r="B36" s="158" t="s">
         <v>25</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="256"/>
+      <c r="A37" s="268"/>
       <c r="B37" s="193" t="s">
         <v>26</v>
       </c>
@@ -9518,7 +9518,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="257" t="s">
+      <c r="A38" s="269" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="188" t="s">
@@ -9598,7 +9598,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="258"/>
+      <c r="A39" s="270"/>
       <c r="B39" s="167" t="s">
         <v>28</v>
       </c>
@@ -9676,7 +9676,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="258"/>
+      <c r="A40" s="270"/>
       <c r="B40" s="167" t="s">
         <v>29</v>
       </c>
@@ -9754,7 +9754,7 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="258"/>
+      <c r="A41" s="270"/>
       <c r="B41" s="167" t="s">
         <v>30</v>
       </c>
@@ -9832,7 +9832,7 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="258"/>
+      <c r="A42" s="270"/>
       <c r="B42" s="167" t="s">
         <v>31</v>
       </c>
@@ -9910,7 +9910,7 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="258"/>
+      <c r="A43" s="270"/>
       <c r="B43" s="167" t="s">
         <v>32</v>
       </c>
@@ -9988,7 +9988,7 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="258"/>
+      <c r="A44" s="270"/>
       <c r="B44" s="167" t="s">
         <v>33</v>
       </c>
@@ -10066,7 +10066,7 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="258"/>
+      <c r="A45" s="270"/>
       <c r="B45" s="167" t="s">
         <v>34</v>
       </c>
@@ -10144,7 +10144,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="258"/>
+      <c r="A46" s="270"/>
       <c r="B46" s="167" t="s">
         <v>35</v>
       </c>
@@ -10222,7 +10222,7 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="258"/>
+      <c r="A47" s="270"/>
       <c r="B47" s="167" t="s">
         <v>36</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="258"/>
+      <c r="A48" s="270"/>
       <c r="B48" s="167" t="s">
         <v>37</v>
       </c>
@@ -10378,7 +10378,7 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="258"/>
+      <c r="A49" s="270"/>
       <c r="B49" s="167" t="s">
         <v>120</v>
       </c>
@@ -10456,7 +10456,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="259"/>
+      <c r="A50" s="271"/>
       <c r="B50" s="168" t="s">
         <v>38</v>
       </c>
@@ -10534,7 +10534,7 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="236" t="s">
+      <c r="A51" s="248" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="170" t="s">
@@ -10614,7 +10614,7 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="237"/>
+      <c r="A52" s="249"/>
       <c r="B52" s="169" t="s">
         <v>41</v>
       </c>
@@ -10692,7 +10692,7 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="237"/>
+      <c r="A53" s="249"/>
       <c r="B53" s="169" t="s">
         <v>42</v>
       </c>
@@ -10770,7 +10770,7 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="237"/>
+      <c r="A54" s="249"/>
       <c r="B54" s="169" t="s">
         <v>43</v>
       </c>
@@ -10848,7 +10848,7 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="237"/>
+      <c r="A55" s="249"/>
       <c r="B55" s="169" t="s">
         <v>44</v>
       </c>
@@ -10926,7 +10926,7 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="237"/>
+      <c r="A56" s="249"/>
       <c r="B56" s="169" t="s">
         <v>45</v>
       </c>
@@ -11004,7 +11004,7 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="237"/>
+      <c r="A57" s="249"/>
       <c r="B57" s="169" t="s">
         <v>46</v>
       </c>
@@ -11082,7 +11082,7 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="237"/>
+      <c r="A58" s="249"/>
       <c r="B58" s="169" t="s">
         <v>47</v>
       </c>
@@ -11160,7 +11160,7 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="237"/>
+      <c r="A59" s="249"/>
       <c r="B59" s="169" t="s">
         <v>48</v>
       </c>
@@ -11238,7 +11238,7 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="237"/>
+      <c r="A60" s="249"/>
       <c r="B60" s="169" t="s">
         <v>49</v>
       </c>
@@ -11312,7 +11312,7 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="237"/>
+      <c r="A61" s="249"/>
       <c r="B61" s="169" t="s">
         <v>50</v>
       </c>
@@ -11386,7 +11386,7 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="237"/>
+      <c r="A62" s="249"/>
       <c r="B62" s="169" t="s">
         <v>51</v>
       </c>
@@ -11464,7 +11464,7 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="237"/>
+      <c r="A63" s="249"/>
       <c r="B63" s="169" t="s">
         <v>52</v>
       </c>
@@ -11542,7 +11542,7 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="238"/>
+      <c r="A64" s="250"/>
       <c r="B64" s="171" t="s">
         <v>53</v>
       </c>
@@ -11620,7 +11620,7 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="239" t="s">
+      <c r="A65" s="251" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="174" t="s">
@@ -11700,7 +11700,7 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="240"/>
+      <c r="A66" s="252"/>
       <c r="B66" s="173" t="s">
         <v>56</v>
       </c>
@@ -11778,7 +11778,7 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="240"/>
+      <c r="A67" s="252"/>
       <c r="B67" s="173" t="s">
         <v>57</v>
       </c>
@@ -11856,7 +11856,7 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="241"/>
+      <c r="A68" s="253"/>
       <c r="B68" s="175" t="s">
         <v>58</v>
       </c>
@@ -16489,19 +16489,19 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="261" t="s">
+      <c r="A26" s="273" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="262"/>
-      <c r="C26" s="263"/>
+      <c r="B26" s="274"/>
+      <c r="C26" s="275"/>
       <c r="D26" s="201"/>
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="260" t="s">
+      <c r="A27" s="272" t="s">
         <v>258</v>
       </c>
-      <c r="B27" s="260"/>
-      <c r="C27" s="260"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="272"/>
       <c r="D27" s="202"/>
     </row>
   </sheetData>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -3912,6 +3912,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>577561</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5147830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28419136" y="62899637"/>
+          <a:ext cx="7210425" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6627,11 +6671,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15997,8 +16041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
@@ -16,7 +16,7 @@
     <sheet name="Temporal distrib. - methodology" sheetId="2" r:id="rId2"/>
     <sheet name="Temporal distribution - summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1021,7 +1021,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6671,11 +6671,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16041,7 +16041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -585,9 +585,6 @@
     <t>Working Weekends (WW)</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0622 + 2*PH + HS + TEMP</t>
-  </si>
-  <si>
     <t>HE = WDWW +DL + !PH + SA + SAAG</t>
   </si>
   <si>
@@ -785,9 +782,6 @@
   </si>
   <si>
     <t>The same as 1A4ai.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the  Agriculture/Forestry/Fishing: Stationary combustion" happens during the heating season with the increasing activity during the agriculture season, extreme winter and less activity at night and public holidays.</t>
   </si>
   <si>
     <t>The same as 1A4ci.</t>
@@ -1016,6 +1010,12 @@
   </si>
   <si>
     <t>This indicator represents mean number of flights per hour, for 2015 year for each day in week. Function is represented as mean for both airports, which is simulated as periodic - sine function, with assuming the number flights per hour changes periodically and follows the daylight.</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0622 + k*PH + HS + inverse(TEMP)</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the  Agriculture/Forestry/Fishing: Stationary combustion" happens with the increasing activity during the agriculture season and less activity at night and public holidays.</t>
   </si>
 </sst>
 </file>
@@ -6671,11 +6671,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6706,7 +6706,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="245" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G1" s="246"/>
       <c r="H1" s="246"/>
@@ -6739,7 +6739,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>115</v>
@@ -6796,10 +6796,10 @@
         <v>161</v>
       </c>
       <c r="W2" s="161" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X2" s="161" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y2" s="114" t="s">
         <v>162</v>
@@ -6819,13 +6819,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="187" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" s="135" t="s">
         <v>164</v>
@@ -6901,10 +6901,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4" s="123" t="s">
@@ -6968,7 +6968,7 @@
         <v>138</v>
       </c>
       <c r="Z4" s="147" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA4" s="122">
         <f t="shared" si="0"/>
@@ -6981,7 +6981,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" s="194"/>
       <c r="E5" s="116"/>
@@ -7046,7 +7046,7 @@
         <v>138</v>
       </c>
       <c r="Z5" s="147" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA5" s="122">
         <f t="shared" si="0"/>
@@ -7059,7 +7059,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="194"/>
       <c r="E6" s="116"/>
@@ -7124,7 +7124,7 @@
         <v>138</v>
       </c>
       <c r="Z6" s="147" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA6" s="122">
         <f t="shared" si="0"/>
@@ -7137,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="194"/>
       <c r="E7" s="150" t="s">
@@ -7217,7 +7217,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" s="195"/>
       <c r="E8" s="165" t="s">
@@ -7299,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="196"/>
       <c r="E9" s="117"/>
@@ -7377,7 +7377,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="194"/>
       <c r="E10" s="116"/>
@@ -7442,7 +7442,7 @@
         <v>164</v>
       </c>
       <c r="Z10" s="163" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA10" s="144">
         <f t="shared" si="0"/>
@@ -7455,7 +7455,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="194"/>
       <c r="E11" s="116"/>
@@ -7520,7 +7520,7 @@
         <v>164</v>
       </c>
       <c r="Z11" s="163" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA11" s="144">
         <f t="shared" si="0"/>
@@ -7533,7 +7533,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="195"/>
       <c r="E12" s="129"/>
@@ -7541,7 +7541,7 @@
         <v>164</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H12" s="130" t="s">
         <v>164</v>
@@ -7550,7 +7550,7 @@
         <v>164</v>
       </c>
       <c r="J12" s="130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K12" s="130" t="s">
         <v>164</v>
@@ -7598,7 +7598,7 @@
         <v>164</v>
       </c>
       <c r="Z12" s="166" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA12" s="160">
         <f t="shared" si="0"/>
@@ -7613,7 +7613,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="117"/>
@@ -7678,7 +7678,7 @@
         <v>164</v>
       </c>
       <c r="Z13" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA13" s="143">
         <f t="shared" si="0"/>
@@ -7691,7 +7691,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" s="194"/>
       <c r="E14" s="116"/>
@@ -7756,7 +7756,7 @@
         <v>164</v>
       </c>
       <c r="Z14" s="141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA14" s="144">
         <f t="shared" si="0"/>
@@ -7769,7 +7769,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="116"/>
@@ -7834,7 +7834,7 @@
         <v>164</v>
       </c>
       <c r="Z15" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA15" s="144">
         <f t="shared" si="0"/>
@@ -7847,7 +7847,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="116"/>
@@ -7912,7 +7912,7 @@
         <v>164</v>
       </c>
       <c r="Z16" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA16" s="144">
         <f t="shared" si="0"/>
@@ -7925,7 +7925,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="116"/>
@@ -7990,7 +7990,7 @@
         <v>164</v>
       </c>
       <c r="Z17" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA17" s="144">
         <f t="shared" si="0"/>
@@ -8003,7 +8003,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="116"/>
@@ -8068,7 +8068,7 @@
         <v>164</v>
       </c>
       <c r="Z18" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA18" s="144">
         <f t="shared" si="0"/>
@@ -8081,7 +8081,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="116"/>
@@ -8146,7 +8146,7 @@
         <v>164</v>
       </c>
       <c r="Z19" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA19" s="144">
         <f t="shared" si="0"/>
@@ -8159,7 +8159,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="116"/>
@@ -8224,7 +8224,7 @@
         <v>164</v>
       </c>
       <c r="Z20" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA20" s="144">
         <f t="shared" si="0"/>
@@ -8237,7 +8237,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="194"/>
       <c r="E21" s="116"/>
@@ -8302,7 +8302,7 @@
         <v>164</v>
       </c>
       <c r="Z21" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA21" s="144">
         <f t="shared" si="0"/>
@@ -8315,7 +8315,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="116"/>
@@ -8380,7 +8380,7 @@
         <v>164</v>
       </c>
       <c r="Z22" s="141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA22" s="144">
         <f t="shared" si="0"/>
@@ -8393,7 +8393,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="194"/>
       <c r="E23" s="116"/>
@@ -8458,7 +8458,7 @@
         <v>164</v>
       </c>
       <c r="Z23" s="141" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA23" s="144">
         <f t="shared" si="0"/>
@@ -8471,7 +8471,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D24" s="195"/>
       <c r="E24" s="129"/>
@@ -8536,7 +8536,7 @@
         <v>164</v>
       </c>
       <c r="Z24" s="142" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA24" s="145">
         <f t="shared" si="0"/>
@@ -8551,7 +8551,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="196"/>
       <c r="E25" s="117"/>
@@ -8616,7 +8616,7 @@
         <v>164</v>
       </c>
       <c r="Z25" s="184" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="AA25" s="176">
         <f t="shared" si="0"/>
@@ -8629,7 +8629,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="194"/>
       <c r="E26" s="116"/>
@@ -8694,7 +8694,7 @@
         <v>164</v>
       </c>
       <c r="Z26" s="163" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="AA26" s="144">
         <f t="shared" si="0"/>
@@ -8707,7 +8707,7 @@
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="D27" s="194"/>
       <c r="E27" s="116"/>
@@ -8772,7 +8772,7 @@
         <v>164</v>
       </c>
       <c r="Z27" s="163" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA27" s="144">
         <f t="shared" si="0"/>
@@ -8785,7 +8785,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28" s="195"/>
       <c r="E28" s="129"/>
@@ -8850,7 +8850,7 @@
         <v>164</v>
       </c>
       <c r="Z28" s="166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA28" s="160">
         <f t="shared" si="0"/>
@@ -8865,7 +8865,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -8930,7 +8930,7 @@
         <v>138</v>
       </c>
       <c r="Z29" s="162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA29" s="143">
         <f t="shared" si="0"/>
@@ -8943,7 +8943,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
@@ -9008,7 +9008,7 @@
         <v>138</v>
       </c>
       <c r="Z30" s="163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA30" s="144">
         <f t="shared" si="0"/>
@@ -9021,7 +9021,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="116"/>
       <c r="E31" s="116"/>
@@ -9086,7 +9086,7 @@
         <v>138</v>
       </c>
       <c r="Z31" s="163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA31" s="144">
         <f t="shared" si="0"/>
@@ -9099,7 +9099,7 @@
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
@@ -9164,7 +9164,7 @@
         <v>138</v>
       </c>
       <c r="Z32" s="163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA32" s="144">
         <f t="shared" si="0"/>
@@ -9177,7 +9177,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
@@ -9242,7 +9242,7 @@
         <v>138</v>
       </c>
       <c r="Z33" s="163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA33" s="144">
         <f t="shared" si="0"/>
@@ -9255,7 +9255,7 @@
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -9320,7 +9320,7 @@
         <v>138</v>
       </c>
       <c r="Z34" s="163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA34" s="144">
         <f t="shared" si="0"/>
@@ -9333,7 +9333,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -9398,7 +9398,7 @@
         <v>138</v>
       </c>
       <c r="Z35" s="163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA35" s="144">
         <f t="shared" ref="AA35:AA64" si="1">COUNTIF(F35:Y35,"X")</f>
@@ -9411,7 +9411,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -9476,7 +9476,7 @@
         <v>138</v>
       </c>
       <c r="Z36" s="163" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA36" s="144">
         <f t="shared" si="1"/>
@@ -9489,7 +9489,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
@@ -9554,7 +9554,7 @@
         <v>138</v>
       </c>
       <c r="Z37" s="166" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA37" s="160">
         <f t="shared" si="1"/>
@@ -9569,7 +9569,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="189" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D38" s="190"/>
       <c r="E38" s="190"/>
@@ -9647,7 +9647,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -9712,7 +9712,7 @@
         <v>164</v>
       </c>
       <c r="Z39" s="163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA39" s="144">
         <f t="shared" si="1"/>
@@ -9725,7 +9725,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
@@ -9790,7 +9790,7 @@
         <v>164</v>
       </c>
       <c r="Z40" s="163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA40" s="144">
         <f t="shared" si="1"/>
@@ -9803,7 +9803,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
@@ -9868,7 +9868,7 @@
         <v>164</v>
       </c>
       <c r="Z41" s="163" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA41" s="144">
         <f t="shared" si="1"/>
@@ -9881,7 +9881,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="116"/>
@@ -9946,7 +9946,7 @@
         <v>164</v>
       </c>
       <c r="Z42" s="163" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA42" s="144">
         <f t="shared" si="1"/>
@@ -9959,7 +9959,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
@@ -10024,7 +10024,7 @@
         <v>164</v>
       </c>
       <c r="Z43" s="163" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA43" s="144">
         <f t="shared" si="1"/>
@@ -10037,7 +10037,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D44" s="116"/>
       <c r="E44" s="116"/>
@@ -10102,7 +10102,7 @@
         <v>164</v>
       </c>
       <c r="Z44" s="163" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA44" s="144">
         <f t="shared" si="1"/>
@@ -10115,7 +10115,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="116"/>
@@ -10180,7 +10180,7 @@
         <v>164</v>
       </c>
       <c r="Z45" s="163" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA45" s="144">
         <f t="shared" si="1"/>
@@ -10193,7 +10193,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
@@ -10258,7 +10258,7 @@
         <v>164</v>
       </c>
       <c r="Z46" s="163" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA46" s="144">
         <f t="shared" si="1"/>
@@ -10271,7 +10271,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
@@ -10336,7 +10336,7 @@
         <v>164</v>
       </c>
       <c r="Z47" s="163" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA47" s="144">
         <f t="shared" si="1"/>
@@ -10349,7 +10349,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="116"/>
@@ -10414,7 +10414,7 @@
         <v>164</v>
       </c>
       <c r="Z48" s="163" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA48" s="144">
         <f t="shared" si="1"/>
@@ -10427,7 +10427,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="116"/>
@@ -10492,7 +10492,7 @@
         <v>164</v>
       </c>
       <c r="Z49" s="163" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA49" s="144">
         <f t="shared" si="1"/>
@@ -10505,7 +10505,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="153" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D50" s="129"/>
       <c r="E50" s="129"/>
@@ -10570,7 +10570,7 @@
         <v>164</v>
       </c>
       <c r="Z50" s="166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA50" s="160">
         <f t="shared" si="1"/>
@@ -10585,7 +10585,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="134" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="117"/>
@@ -10650,7 +10650,7 @@
         <v>164</v>
       </c>
       <c r="Z51" s="162" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA51" s="143">
         <f t="shared" si="1"/>
@@ -10663,7 +10663,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="116"/>
@@ -10728,7 +10728,7 @@
         <v>164</v>
       </c>
       <c r="Z52" s="163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA52" s="144">
         <f t="shared" si="1"/>
@@ -10741,7 +10741,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D53" s="116"/>
       <c r="E53" s="116"/>
@@ -10806,7 +10806,7 @@
         <v>164</v>
       </c>
       <c r="Z53" s="163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA53" s="144">
         <f t="shared" si="1"/>
@@ -10819,7 +10819,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="116"/>
@@ -10884,7 +10884,7 @@
         <v>164</v>
       </c>
       <c r="Z54" s="163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA54" s="144">
         <f t="shared" si="1"/>
@@ -10897,7 +10897,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D55" s="116"/>
       <c r="E55" s="116"/>
@@ -10962,7 +10962,7 @@
         <v>164</v>
       </c>
       <c r="Z55" s="163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA55" s="144">
         <f t="shared" si="1"/>
@@ -10975,7 +10975,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="116"/>
@@ -11040,7 +11040,7 @@
         <v>164</v>
       </c>
       <c r="Z56" s="163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA56" s="144">
         <f t="shared" si="1"/>
@@ -11053,7 +11053,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="116"/>
@@ -11118,7 +11118,7 @@
         <v>164</v>
       </c>
       <c r="Z57" s="163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA57" s="144">
         <f t="shared" si="1"/>
@@ -11131,7 +11131,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
@@ -11196,7 +11196,7 @@
         <v>164</v>
       </c>
       <c r="Z58" s="163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA58" s="144">
         <f t="shared" si="1"/>
@@ -11209,7 +11209,7 @@
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D59" s="116"/>
       <c r="E59" s="116"/>
@@ -11274,7 +11274,7 @@
         <v>164</v>
       </c>
       <c r="Z59" s="163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA59" s="144">
         <f t="shared" si="1"/>
@@ -11287,7 +11287,7 @@
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D60" s="116"/>
       <c r="E60" s="116"/>
@@ -11348,7 +11348,7 @@
         <v>164</v>
       </c>
       <c r="Z60" s="163" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA60" s="144">
         <f t="shared" si="1"/>
@@ -11361,7 +11361,7 @@
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D61" s="116"/>
       <c r="E61" s="116"/>
@@ -11422,7 +11422,7 @@
         <v>164</v>
       </c>
       <c r="Z61" s="163" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA61" s="144">
         <f t="shared" si="1"/>
@@ -11435,7 +11435,7 @@
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="116"/>
@@ -11500,7 +11500,7 @@
         <v>164</v>
       </c>
       <c r="Z62" s="163" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA62" s="144">
         <f t="shared" si="1"/>
@@ -11513,7 +11513,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116"/>
@@ -11578,7 +11578,7 @@
         <v>164</v>
       </c>
       <c r="Z63" s="163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA63" s="144">
         <f t="shared" si="1"/>
@@ -11591,7 +11591,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="153" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D64" s="129"/>
       <c r="E64" s="129"/>
@@ -11656,7 +11656,7 @@
         <v>164</v>
       </c>
       <c r="Z64" s="152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA64" s="145">
         <f t="shared" si="1"/>
@@ -11671,7 +11671,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D65" s="117"/>
       <c r="E65" s="117"/>
@@ -11736,7 +11736,7 @@
         <v>164</v>
       </c>
       <c r="Z65" s="184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA65" s="176">
         <f>COUNTIF(G65:Y65,"X")</f>
@@ -11749,7 +11749,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
@@ -11814,7 +11814,7 @@
         <v>164</v>
       </c>
       <c r="Z66" s="163" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AA66" s="144">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -11827,7 +11827,7 @@
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
@@ -11892,7 +11892,7 @@
         <v>164</v>
       </c>
       <c r="Z67" s="163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA67" s="144">
         <f>COUNTIF(F67:Y67,"X")</f>
@@ -11905,7 +11905,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
@@ -11970,7 +11970,7 @@
         <v>164</v>
       </c>
       <c r="Z68" s="152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA68" s="145">
         <f>COUNTIF(F68:Y68,"X")</f>
@@ -16041,7 +16041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
@@ -16058,19 +16058,19 @@
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="197" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="198" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="198" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="198" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F1" s="198" t="s">
         <v>61</v>
@@ -16079,7 +16079,7 @@
         <v>115</v>
       </c>
       <c r="H1" s="199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I1" s="186"/>
       <c r="J1" s="186"/>
@@ -16102,22 +16102,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="204" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D2" s="204" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E2" s="134" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F2" s="134">
         <v>2015</v>
       </c>
       <c r="G2" s="187" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H2" s="205"/>
     </row>
@@ -16126,13 +16126,13 @@
         <v>169</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D3" s="200" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
@@ -16146,13 +16146,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D4" s="200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -16166,13 +16166,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" s="200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -16186,13 +16186,13 @@
         <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -16206,22 +16206,22 @@
         <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C7" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" s="200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F7" s="11">
         <v>2015</v>
       </c>
       <c r="G7" s="212" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7" s="207"/>
     </row>
@@ -16230,22 +16230,22 @@
         <v>153</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D8" s="200" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="11">
         <v>2015</v>
       </c>
       <c r="G8" s="150" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H8" s="207"/>
     </row>
@@ -16254,13 +16254,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D9" s="200" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1">
@@ -16274,13 +16274,13 @@
         <v>175</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D10" s="200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="1">
@@ -16294,13 +16294,13 @@
         <v>155</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="1">
@@ -16314,13 +16314,13 @@
         <v>156</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D12" s="200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E12" s="153"/>
       <c r="F12" s="1">
@@ -16334,22 +16334,22 @@
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D13" s="200" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F13" s="1">
         <v>2015</v>
       </c>
       <c r="G13" s="212" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H13" s="207"/>
     </row>
@@ -16358,22 +16358,22 @@
         <v>158</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D14" s="200" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14" s="11">
         <v>2015</v>
       </c>
       <c r="G14" s="150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H14" s="207"/>
     </row>
@@ -16382,22 +16382,22 @@
         <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="200" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="200" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="C15" s="200" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="200" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="F15" s="11">
         <v>2015</v>
       </c>
       <c r="G15" s="212" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H15" s="207"/>
     </row>
@@ -16406,13 +16406,13 @@
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D16" s="200" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="1">
@@ -16426,22 +16426,22 @@
         <v>160</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="200" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="200" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C17" s="200" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="200" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="F17" s="1">
         <v>2015</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H17" s="207"/>
     </row>
@@ -16450,40 +16450,40 @@
         <v>161</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C18" s="200" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F18" s="1">
         <v>2015</v>
       </c>
       <c r="G18" s="150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H18" s="207"/>
     </row>
     <row r="19" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="206" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C19" s="200" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="200" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="200" t="s">
-        <v>274</v>
-      </c>
       <c r="E19" s="153" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F19" s="11">
         <v>2015</v>
@@ -16493,16 +16493,16 @@
     </row>
     <row r="20" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C20" s="200" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D20" s="200" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="1">
@@ -16516,13 +16516,13 @@
         <v>162</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="209" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E21" s="137"/>
       <c r="F21" s="210">
@@ -16534,7 +16534,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="273" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B26" s="274"/>
       <c r="C26" s="275"/>
@@ -16542,7 +16542,7 @@
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="272" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B27" s="272"/>
       <c r="C27" s="272"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
@@ -16,7 +16,7 @@
     <sheet name="Temporal distrib. - methodology" sheetId="2" r:id="rId2"/>
     <sheet name="Temporal distribution - summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -606,15 +606,6 @@
     <t>HE = WD + WT0816 + DL + WE +  !PH + SA</t>
   </si>
   <si>
-    <t>HE = WDWW + DL + !PH + SAAG + TEMP + SLP</t>
-  </si>
-  <si>
-    <t>HE = DL + SA + TEMP + SLP</t>
-  </si>
-  <si>
-    <t>HE = WDWW + DL + SAAG + TEMP + SLP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0816 + !PH + VA</t>
   </si>
   <si>
@@ -742,9 +733,6 @@
     <t>HE = WD + WT0816 + WT1624 + !PH + VA</t>
   </si>
   <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the distribution of oil products happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays.  </t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0024 + !PH</t>
   </si>
   <si>
@@ -830,9 +818,6 @@
   </si>
   <si>
     <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that wood processing  happens during the whole year at working days, but with less activity during the night, weekends and public holidays as well as during the extreme winter.  </t>
-  </si>
-  <si>
-    <t>HE = WDWW + WT0024 + DL + TEMP + SLP</t>
   </si>
   <si>
     <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that emission  happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
@@ -1017,11 +1002,26 @@
   <si>
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the  Agriculture/Forestry/Fishing: Stationary combustion" happens with the increasing activity during the agriculture season and less activity at night and public holidays.</t>
   </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the distribution of oil products happens during the whole year, but with the less activity during the nigth and public holidays.  </t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + (k+DL) + inverse(TEMP) + SLP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + (k+DL) + !PH + (k+SAAG) + inverse(TEMP) + SLP</t>
+  </si>
+  <si>
+    <t>HE = (k+DL) + (k+SA) + inverse(TEMP) + SLP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + (k+DL) + (k+SAAG) + inverse(TEMP) + SLP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4224,8 +4224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6671,11 +6671,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomRight" activeCell="X63" sqref="X63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6706,7 +6706,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="245" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G1" s="246"/>
       <c r="H1" s="246"/>
@@ -6739,7 +6739,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>115</v>
@@ -6799,7 +6799,7 @@
         <v>179</v>
       </c>
       <c r="X2" s="161" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Y2" s="114" t="s">
         <v>162</v>
@@ -6819,13 +6819,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E3" s="187" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="135" t="s">
         <v>164</v>
@@ -6901,10 +6901,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4" s="123" t="s">
@@ -6968,7 +6968,7 @@
         <v>138</v>
       </c>
       <c r="Z4" s="147" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AA4" s="122">
         <f t="shared" si="0"/>
@@ -6981,7 +6981,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" s="194"/>
       <c r="E5" s="116"/>
@@ -7046,7 +7046,7 @@
         <v>138</v>
       </c>
       <c r="Z5" s="147" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AA5" s="122">
         <f t="shared" si="0"/>
@@ -7059,7 +7059,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="194"/>
       <c r="E6" s="116"/>
@@ -7124,7 +7124,7 @@
         <v>138</v>
       </c>
       <c r="Z6" s="147" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AA6" s="122">
         <f t="shared" si="0"/>
@@ -7137,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D7" s="194"/>
       <c r="E7" s="150" t="s">
@@ -7217,7 +7217,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D8" s="195"/>
       <c r="E8" s="165" t="s">
@@ -7299,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D9" s="196"/>
       <c r="E9" s="117"/>
@@ -7377,7 +7377,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D10" s="194"/>
       <c r="E10" s="116"/>
@@ -7442,7 +7442,7 @@
         <v>164</v>
       </c>
       <c r="Z10" s="163" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AA10" s="144">
         <f t="shared" si="0"/>
@@ -7455,7 +7455,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="D11" s="194"/>
       <c r="E11" s="116"/>
@@ -7520,7 +7520,7 @@
         <v>164</v>
       </c>
       <c r="Z11" s="163" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AA11" s="144">
         <f t="shared" si="0"/>
@@ -7533,7 +7533,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D12" s="195"/>
       <c r="E12" s="129"/>
@@ -7541,7 +7541,7 @@
         <v>164</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H12" s="130" t="s">
         <v>164</v>
@@ -7550,7 +7550,7 @@
         <v>164</v>
       </c>
       <c r="J12" s="130" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K12" s="130" t="s">
         <v>164</v>
@@ -7598,7 +7598,7 @@
         <v>164</v>
       </c>
       <c r="Z12" s="166" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AA12" s="160">
         <f t="shared" si="0"/>
@@ -7613,7 +7613,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="117"/>
@@ -7678,7 +7678,7 @@
         <v>164</v>
       </c>
       <c r="Z13" s="140" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AA13" s="143">
         <f t="shared" si="0"/>
@@ -7691,7 +7691,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D14" s="194"/>
       <c r="E14" s="116"/>
@@ -7756,7 +7756,7 @@
         <v>164</v>
       </c>
       <c r="Z14" s="141" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AA14" s="144">
         <f t="shared" si="0"/>
@@ -7769,7 +7769,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="116"/>
@@ -7834,7 +7834,7 @@
         <v>164</v>
       </c>
       <c r="Z15" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA15" s="144">
         <f t="shared" si="0"/>
@@ -7847,7 +7847,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="116"/>
@@ -7912,7 +7912,7 @@
         <v>164</v>
       </c>
       <c r="Z16" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA16" s="144">
         <f t="shared" si="0"/>
@@ -7925,7 +7925,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="116"/>
@@ -7990,7 +7990,7 @@
         <v>164</v>
       </c>
       <c r="Z17" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA17" s="144">
         <f t="shared" si="0"/>
@@ -8003,7 +8003,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="116"/>
@@ -8068,7 +8068,7 @@
         <v>164</v>
       </c>
       <c r="Z18" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA18" s="144">
         <f t="shared" si="0"/>
@@ -8081,7 +8081,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="116"/>
@@ -8146,7 +8146,7 @@
         <v>164</v>
       </c>
       <c r="Z19" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA19" s="144">
         <f t="shared" si="0"/>
@@ -8159,7 +8159,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="116"/>
@@ -8224,7 +8224,7 @@
         <v>164</v>
       </c>
       <c r="Z20" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA20" s="144">
         <f t="shared" si="0"/>
@@ -8237,7 +8237,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D21" s="194"/>
       <c r="E21" s="116"/>
@@ -8302,7 +8302,7 @@
         <v>164</v>
       </c>
       <c r="Z21" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA21" s="144">
         <f t="shared" si="0"/>
@@ -8315,7 +8315,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="116"/>
@@ -8380,7 +8380,7 @@
         <v>164</v>
       </c>
       <c r="Z22" s="141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AA22" s="144">
         <f t="shared" si="0"/>
@@ -8393,7 +8393,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D23" s="194"/>
       <c r="E23" s="116"/>
@@ -8458,7 +8458,7 @@
         <v>164</v>
       </c>
       <c r="Z23" s="141" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AA23" s="144">
         <f t="shared" si="0"/>
@@ -8471,7 +8471,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D24" s="195"/>
       <c r="E24" s="129"/>
@@ -8536,7 +8536,7 @@
         <v>164</v>
       </c>
       <c r="Z24" s="142" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AA24" s="145">
         <f t="shared" si="0"/>
@@ -8551,7 +8551,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D25" s="196"/>
       <c r="E25" s="117"/>
@@ -8616,7 +8616,7 @@
         <v>164</v>
       </c>
       <c r="Z25" s="184" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AA25" s="176">
         <f t="shared" si="0"/>
@@ -8629,7 +8629,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D26" s="194"/>
       <c r="E26" s="116"/>
@@ -8694,7 +8694,7 @@
         <v>164</v>
       </c>
       <c r="Z26" s="163" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AA26" s="144">
         <f t="shared" si="0"/>
@@ -8707,7 +8707,7 @@
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D27" s="194"/>
       <c r="E27" s="116"/>
@@ -8785,7 +8785,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="153" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D28" s="195"/>
       <c r="E28" s="129"/>
@@ -8865,7 +8865,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="134" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -8943,7 +8943,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
@@ -9021,7 +9021,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D31" s="116"/>
       <c r="E31" s="116"/>
@@ -9099,7 +9099,7 @@
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
@@ -9177,7 +9177,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
@@ -9255,7 +9255,7 @@
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -9333,7 +9333,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -9411,7 +9411,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -9489,7 +9489,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
@@ -9569,7 +9569,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="189" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D38" s="190"/>
       <c r="E38" s="190"/>
@@ -9647,7 +9647,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -9725,7 +9725,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
@@ -9803,7 +9803,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
@@ -9868,7 +9868,7 @@
         <v>164</v>
       </c>
       <c r="Z41" s="163" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA41" s="144">
         <f t="shared" si="1"/>
@@ -9881,7 +9881,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="116"/>
@@ -9959,7 +9959,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
@@ -10037,7 +10037,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D44" s="116"/>
       <c r="E44" s="116"/>
@@ -10115,7 +10115,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="116"/>
@@ -10180,7 +10180,7 @@
         <v>164</v>
       </c>
       <c r="Z45" s="163" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA45" s="144">
         <f t="shared" si="1"/>
@@ -10193,7 +10193,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
@@ -10258,7 +10258,7 @@
         <v>164</v>
       </c>
       <c r="Z46" s="163" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA46" s="144">
         <f t="shared" si="1"/>
@@ -10271,7 +10271,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
@@ -10336,7 +10336,7 @@
         <v>164</v>
       </c>
       <c r="Z47" s="163" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA47" s="144">
         <f t="shared" si="1"/>
@@ -10349,7 +10349,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="116"/>
@@ -10414,7 +10414,7 @@
         <v>164</v>
       </c>
       <c r="Z48" s="163" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA48" s="144">
         <f t="shared" si="1"/>
@@ -10427,7 +10427,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="116"/>
@@ -10492,7 +10492,7 @@
         <v>164</v>
       </c>
       <c r="Z49" s="163" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA49" s="144">
         <f t="shared" si="1"/>
@@ -10505,7 +10505,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="153" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D50" s="129"/>
       <c r="E50" s="129"/>
@@ -10585,7 +10585,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="134" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="117"/>
@@ -10650,7 +10650,7 @@
         <v>164</v>
       </c>
       <c r="Z51" s="162" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA51" s="143">
         <f t="shared" si="1"/>
@@ -10663,7 +10663,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="116"/>
@@ -10728,7 +10728,7 @@
         <v>164</v>
       </c>
       <c r="Z52" s="163" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA52" s="144">
         <f t="shared" si="1"/>
@@ -10741,7 +10741,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D53" s="116"/>
       <c r="E53" s="116"/>
@@ -10806,7 +10806,7 @@
         <v>164</v>
       </c>
       <c r="Z53" s="163" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA53" s="144">
         <f t="shared" si="1"/>
@@ -10819,7 +10819,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="116"/>
@@ -10884,7 +10884,7 @@
         <v>164</v>
       </c>
       <c r="Z54" s="163" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA54" s="144">
         <f t="shared" si="1"/>
@@ -10897,7 +10897,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D55" s="116"/>
       <c r="E55" s="116"/>
@@ -10962,7 +10962,7 @@
         <v>164</v>
       </c>
       <c r="Z55" s="163" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA55" s="144">
         <f t="shared" si="1"/>
@@ -10975,7 +10975,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="116"/>
@@ -11040,7 +11040,7 @@
         <v>164</v>
       </c>
       <c r="Z56" s="163" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA56" s="144">
         <f t="shared" si="1"/>
@@ -11053,7 +11053,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="116"/>
@@ -11118,7 +11118,7 @@
         <v>164</v>
       </c>
       <c r="Z57" s="163" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA57" s="144">
         <f t="shared" si="1"/>
@@ -11131,7 +11131,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
@@ -11196,7 +11196,7 @@
         <v>164</v>
       </c>
       <c r="Z58" s="163" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA58" s="144">
         <f t="shared" si="1"/>
@@ -11209,7 +11209,7 @@
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D59" s="116"/>
       <c r="E59" s="116"/>
@@ -11274,7 +11274,7 @@
         <v>164</v>
       </c>
       <c r="Z59" s="163" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AA59" s="144">
         <f t="shared" si="1"/>
@@ -11287,7 +11287,7 @@
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D60" s="116"/>
       <c r="E60" s="116"/>
@@ -11348,7 +11348,7 @@
         <v>164</v>
       </c>
       <c r="Z60" s="163" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="AA60" s="144">
         <f t="shared" si="1"/>
@@ -11361,7 +11361,7 @@
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D61" s="116"/>
       <c r="E61" s="116"/>
@@ -11422,7 +11422,7 @@
         <v>164</v>
       </c>
       <c r="Z61" s="163" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="AA61" s="144">
         <f t="shared" si="1"/>
@@ -11435,7 +11435,7 @@
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="116"/>
@@ -11500,7 +11500,7 @@
         <v>164</v>
       </c>
       <c r="Z62" s="163" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="AA62" s="144">
         <f t="shared" si="1"/>
@@ -11513,7 +11513,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116"/>
@@ -11578,7 +11578,7 @@
         <v>164</v>
       </c>
       <c r="Z63" s="163" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="AA63" s="144">
         <f t="shared" si="1"/>
@@ -11591,7 +11591,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="153" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D64" s="129"/>
       <c r="E64" s="129"/>
@@ -11656,7 +11656,7 @@
         <v>164</v>
       </c>
       <c r="Z64" s="152" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="AA64" s="145">
         <f t="shared" si="1"/>
@@ -11671,7 +11671,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="134" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D65" s="117"/>
       <c r="E65" s="117"/>
@@ -11736,7 +11736,7 @@
         <v>164</v>
       </c>
       <c r="Z65" s="184" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA65" s="176">
         <f>COUNTIF(G65:Y65,"X")</f>
@@ -11749,7 +11749,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
@@ -11814,7 +11814,7 @@
         <v>164</v>
       </c>
       <c r="Z66" s="163" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AA66" s="144">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -11827,7 +11827,7 @@
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
@@ -11892,7 +11892,7 @@
         <v>164</v>
       </c>
       <c r="Z67" s="163" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AA67" s="144">
         <f>COUNTIF(F67:Y67,"X")</f>
@@ -11905,7 +11905,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
@@ -11970,7 +11970,7 @@
         <v>164</v>
       </c>
       <c r="Z68" s="152" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AA68" s="145">
         <f>COUNTIF(F68:Y68,"X")</f>
@@ -16058,19 +16058,19 @@
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B1" s="197" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C1" s="198" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D1" s="198" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="198" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F1" s="198" t="s">
         <v>61</v>
@@ -16079,7 +16079,7 @@
         <v>115</v>
       </c>
       <c r="H1" s="199" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I1" s="186"/>
       <c r="J1" s="186"/>
@@ -16102,22 +16102,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C2" s="204" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D2" s="204" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E2" s="134" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F2" s="134">
         <v>2015</v>
       </c>
       <c r="G2" s="187" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H2" s="205"/>
     </row>
@@ -16126,13 +16126,13 @@
         <v>169</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D3" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
@@ -16146,13 +16146,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D4" s="200" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -16166,13 +16166,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C5" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D5" s="200" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -16186,13 +16186,13 @@
         <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C6" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -16206,22 +16206,22 @@
         <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C7" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D7" s="200" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F7" s="11">
         <v>2015</v>
       </c>
       <c r="G7" s="212" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H7" s="207"/>
     </row>
@@ -16230,22 +16230,22 @@
         <v>153</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D8" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F8" s="11">
         <v>2015</v>
       </c>
       <c r="G8" s="150" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H8" s="207"/>
     </row>
@@ -16254,13 +16254,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D9" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1">
@@ -16274,13 +16274,13 @@
         <v>175</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D10" s="200" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="1">
@@ -16294,13 +16294,13 @@
         <v>155</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C11" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="1">
@@ -16314,13 +16314,13 @@
         <v>156</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C12" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D12" s="200" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E12" s="153"/>
       <c r="F12" s="1">
@@ -16334,22 +16334,22 @@
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D13" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F13" s="1">
         <v>2015</v>
       </c>
       <c r="G13" s="212" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H13" s="207"/>
     </row>
@@ -16358,22 +16358,22 @@
         <v>158</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D14" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F14" s="11">
         <v>2015</v>
       </c>
       <c r="G14" s="150" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H14" s="207"/>
     </row>
@@ -16382,22 +16382,22 @@
         <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C15" s="200" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D15" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F15" s="11">
         <v>2015</v>
       </c>
       <c r="G15" s="212" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H15" s="207"/>
     </row>
@@ -16406,13 +16406,13 @@
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D16" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="1">
@@ -16426,22 +16426,22 @@
         <v>160</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C17" s="200" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D17" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F17" s="1">
         <v>2015</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H17" s="207"/>
     </row>
@@ -16450,22 +16450,22 @@
         <v>161</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C18" s="200" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F18" s="1">
         <v>2015</v>
       </c>
       <c r="G18" s="150" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H18" s="207"/>
     </row>
@@ -16474,16 +16474,16 @@
         <v>179</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C19" s="200" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D19" s="200" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E19" s="153" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F19" s="11">
         <v>2015</v>
@@ -16493,16 +16493,16 @@
     </row>
     <row r="20" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="206" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C20" s="200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D20" s="200" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="1">
@@ -16516,13 +16516,13 @@
         <v>162</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D21" s="209" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E21" s="137"/>
       <c r="F21" s="210">
@@ -16534,7 +16534,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="273" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B26" s="274"/>
       <c r="C26" s="275"/>
@@ -16542,7 +16542,7 @@
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="272" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B27" s="272"/>
       <c r="C27" s="272"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="297">
   <si>
     <t>NFR category</t>
   </si>
@@ -591,9 +591,6 @@
     <t>HE = WD + WT0816 + WT1624 + WW + !PH + !RP</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0816 + WT1624 + !PH + SA</t>
-  </si>
-  <si>
     <t>Vehicles trend  activity (VA)</t>
   </si>
   <si>
@@ -604,12 +601,6 @@
   </si>
   <si>
     <t>HE = WD + WT0816 + DL + WE +  !PH + SA</t>
-  </si>
-  <si>
-    <t>HE = WDWW + WT0816 + !PH + VA</t>
-  </si>
-  <si>
-    <t>HE = WDWW + WT0024 + SA + TEMP + SLP</t>
   </si>
   <si>
     <t>Number of flights per hour (NFH)</t>
@@ -796,27 +787,6 @@
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the coating applications happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays. The activity graph will be constructed by assuming that the road activity is higher by day light, for the working days, for the rush hours.</t>
   </si>
   <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the domestic solvent use including fungicides happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
-  </si>
-  <si>
-    <t>HE = WDWW + DL + TEMP + SLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the degreasing happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the dry cleaning happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emission from using chemical products happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emission from printing happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emissions from other solvent and product use happens during the whole year, but with the less activity during the nigth. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph was constructed by assuming that wood processing  happens during the whole year at working days, but with less activity during the night, weekends and public holidays as well as during the extreme winter.  </t>
   </si>
   <si>
@@ -835,13 +805,7 @@
     <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that emission  happens during the whole year, but with the less activity during the nigth as well as during the extreme winter. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
   </si>
   <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the biological treatment of waste - solid waste disposal on land happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the cremation happens during the whole year, but with the less activity during the nigth and public holidays. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the domestic wastewater handling happens during the whole year, but with the less activity during the public holidays as well as during the extreme winter. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
   </si>
   <si>
     <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the industrial wastewater handling  happens during the whole year, but with the less activity during the public holidays as well as during the extreme winter. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
@@ -1016,6 +980,51 @@
   </si>
   <si>
     <t>HE = WDWW + (k+DL) + (k+SAAG) + inverse(TEMP) + SLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE = WDWW + WT0816 + !PH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the biological treatment of waste - solid waste disposal on land happens during the whole year, but with the less activity during the nigth and public holidays. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the domestic wastewater handling happens during the whole year, but with the less activity during the public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024  + TEMP + SLP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + TEMP + SLP</t>
+  </si>
+  <si>
+    <t>Working time for heating season [06-22h] (WT0622)</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + !PH + (k1*SA + k2) + !RP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0816 + WT1624 + !PH + (k1*SA + k2)</t>
+  </si>
+  <si>
+    <t>HE = WDWW + DL + inverse(TEMP) + SLP + !PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the domestic solvent use including fungicides happens during the whole year, but with the less activity during the nigth and public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the degreasing happens during the whole year, but with the less activity during the nigth and public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the dry cleaning happens during the whole year, but with the less activity during the nigth and public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emission from using chemical products happens during the whole year, but with the less activity during the nigth and public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emission from printing happens during the whole year, but with the less activity during the nigth and public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emissions from other solvent and product use happens during the whole year, but with the less activity during the nigth and public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
   </si>
 </sst>
 </file>
@@ -4224,7 +4233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -6671,11 +6680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X63" sqref="X63"/>
+      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6706,7 +6715,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="245" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G1" s="246"/>
       <c r="H1" s="246"/>
@@ -6739,7 +6748,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>115</v>
@@ -6760,7 +6769,7 @@
         <v>168</v>
       </c>
       <c r="K2" s="113" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="L2" s="113" t="s">
         <v>153</v>
@@ -6796,10 +6805,10 @@
         <v>161</v>
       </c>
       <c r="W2" s="161" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X2" s="161" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Y2" s="114" t="s">
         <v>162</v>
@@ -6819,13 +6828,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E3" s="187" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F3" s="135" t="s">
         <v>164</v>
@@ -6901,10 +6910,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4" s="123" t="s">
@@ -6968,7 +6977,7 @@
         <v>138</v>
       </c>
       <c r="Z4" s="147" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AA4" s="122">
         <f t="shared" si="0"/>
@@ -6981,7 +6990,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="194"/>
       <c r="E5" s="116"/>
@@ -7046,7 +7055,7 @@
         <v>138</v>
       </c>
       <c r="Z5" s="147" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AA5" s="122">
         <f t="shared" si="0"/>
@@ -7059,7 +7068,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D6" s="194"/>
       <c r="E6" s="116"/>
@@ -7124,7 +7133,7 @@
         <v>138</v>
       </c>
       <c r="Z6" s="147" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AA6" s="122">
         <f t="shared" si="0"/>
@@ -7137,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D7" s="194"/>
       <c r="E7" s="150" t="s">
@@ -7217,7 +7226,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D8" s="195"/>
       <c r="E8" s="165" t="s">
@@ -7299,7 +7308,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D9" s="196"/>
       <c r="E9" s="117"/>
@@ -7377,7 +7386,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D10" s="194"/>
       <c r="E10" s="116"/>
@@ -7442,7 +7451,7 @@
         <v>164</v>
       </c>
       <c r="Z10" s="163" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AA10" s="144">
         <f t="shared" si="0"/>
@@ -7455,7 +7464,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D11" s="194"/>
       <c r="E11" s="116"/>
@@ -7520,7 +7529,7 @@
         <v>164</v>
       </c>
       <c r="Z11" s="163" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AA11" s="144">
         <f t="shared" si="0"/>
@@ -7533,7 +7542,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D12" s="195"/>
       <c r="E12" s="129"/>
@@ -7541,7 +7550,7 @@
         <v>164</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H12" s="130" t="s">
         <v>164</v>
@@ -7550,7 +7559,7 @@
         <v>164</v>
       </c>
       <c r="J12" s="130" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K12" s="130" t="s">
         <v>164</v>
@@ -7598,7 +7607,7 @@
         <v>164</v>
       </c>
       <c r="Z12" s="166" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AA12" s="160">
         <f t="shared" si="0"/>
@@ -7613,7 +7622,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="117"/>
@@ -7678,7 +7687,7 @@
         <v>164</v>
       </c>
       <c r="Z13" s="140" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AA13" s="143">
         <f t="shared" si="0"/>
@@ -7691,7 +7700,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D14" s="194"/>
       <c r="E14" s="116"/>
@@ -7756,7 +7765,7 @@
         <v>164</v>
       </c>
       <c r="Z14" s="141" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AA14" s="144">
         <f t="shared" si="0"/>
@@ -7769,7 +7778,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="116"/>
@@ -7834,7 +7843,7 @@
         <v>164</v>
       </c>
       <c r="Z15" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA15" s="144">
         <f t="shared" si="0"/>
@@ -7847,7 +7856,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="116"/>
@@ -7912,7 +7921,7 @@
         <v>164</v>
       </c>
       <c r="Z16" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA16" s="144">
         <f t="shared" si="0"/>
@@ -7925,7 +7934,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="116"/>
@@ -7990,7 +7999,7 @@
         <v>164</v>
       </c>
       <c r="Z17" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA17" s="144">
         <f t="shared" si="0"/>
@@ -8003,7 +8012,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="116"/>
@@ -8068,7 +8077,7 @@
         <v>164</v>
       </c>
       <c r="Z18" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA18" s="144">
         <f t="shared" si="0"/>
@@ -8081,7 +8090,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="116"/>
@@ -8146,7 +8155,7 @@
         <v>164</v>
       </c>
       <c r="Z19" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA19" s="144">
         <f t="shared" si="0"/>
@@ -8159,7 +8168,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="116"/>
@@ -8224,7 +8233,7 @@
         <v>164</v>
       </c>
       <c r="Z20" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA20" s="144">
         <f t="shared" si="0"/>
@@ -8237,7 +8246,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D21" s="194"/>
       <c r="E21" s="116"/>
@@ -8302,7 +8311,7 @@
         <v>164</v>
       </c>
       <c r="Z21" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA21" s="144">
         <f t="shared" si="0"/>
@@ -8315,7 +8324,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="116"/>
@@ -8380,7 +8389,7 @@
         <v>164</v>
       </c>
       <c r="Z22" s="141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA22" s="144">
         <f t="shared" si="0"/>
@@ -8393,7 +8402,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D23" s="194"/>
       <c r="E23" s="116"/>
@@ -8458,7 +8467,7 @@
         <v>164</v>
       </c>
       <c r="Z23" s="141" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AA23" s="144">
         <f t="shared" si="0"/>
@@ -8471,7 +8480,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D24" s="195"/>
       <c r="E24" s="129"/>
@@ -8536,7 +8545,7 @@
         <v>164</v>
       </c>
       <c r="Z24" s="142" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AA24" s="145">
         <f t="shared" si="0"/>
@@ -8551,7 +8560,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D25" s="196"/>
       <c r="E25" s="117"/>
@@ -8616,7 +8625,7 @@
         <v>164</v>
       </c>
       <c r="Z25" s="184" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AA25" s="176">
         <f t="shared" si="0"/>
@@ -8629,7 +8638,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D26" s="194"/>
       <c r="E26" s="116"/>
@@ -8694,7 +8703,7 @@
         <v>164</v>
       </c>
       <c r="Z26" s="163" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AA26" s="144">
         <f t="shared" si="0"/>
@@ -8707,7 +8716,7 @@
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D27" s="194"/>
       <c r="E27" s="116"/>
@@ -8785,7 +8794,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="153" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D28" s="195"/>
       <c r="E28" s="129"/>
@@ -8865,7 +8874,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="134" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -8943,7 +8952,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
@@ -9021,7 +9030,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D31" s="116"/>
       <c r="E31" s="116"/>
@@ -9099,7 +9108,7 @@
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
@@ -9177,7 +9186,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
@@ -9255,7 +9264,7 @@
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -9333,7 +9342,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -9411,7 +9420,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -9489,7 +9498,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
@@ -9569,7 +9578,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="189" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D38" s="190"/>
       <c r="E38" s="190"/>
@@ -9634,7 +9643,7 @@
         <v>138</v>
       </c>
       <c r="Z38" s="162" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="AA38" s="143">
         <f t="shared" si="1"/>
@@ -9647,7 +9656,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -9712,7 +9721,7 @@
         <v>164</v>
       </c>
       <c r="Z39" s="163" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="AA39" s="144">
         <f t="shared" si="1"/>
@@ -9725,7 +9734,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
@@ -9790,7 +9799,7 @@
         <v>164</v>
       </c>
       <c r="Z40" s="163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA40" s="144">
         <f t="shared" si="1"/>
@@ -9803,7 +9812,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
@@ -9841,7 +9850,7 @@
         <v>164</v>
       </c>
       <c r="Q41" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="R41" s="123" t="s">
         <v>164</v>
@@ -9868,11 +9877,11 @@
         <v>164</v>
       </c>
       <c r="Z41" s="163" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="AA41" s="144">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -9881,7 +9890,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="116"/>
@@ -9946,7 +9955,7 @@
         <v>164</v>
       </c>
       <c r="Z42" s="163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA42" s="144">
         <f t="shared" si="1"/>
@@ -9959,7 +9968,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
@@ -10024,7 +10033,7 @@
         <v>164</v>
       </c>
       <c r="Z43" s="163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA43" s="144">
         <f t="shared" si="1"/>
@@ -10037,7 +10046,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D44" s="116"/>
       <c r="E44" s="116"/>
@@ -10102,7 +10111,7 @@
         <v>164</v>
       </c>
       <c r="Z44" s="163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA44" s="144">
         <f t="shared" si="1"/>
@@ -10115,7 +10124,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="116"/>
@@ -10153,7 +10162,7 @@
         <v>164</v>
       </c>
       <c r="Q45" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="R45" s="123" t="s">
         <v>164</v>
@@ -10180,11 +10189,11 @@
         <v>164</v>
       </c>
       <c r="Z45" s="163" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="AA45" s="144">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -10193,7 +10202,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
@@ -10231,7 +10240,7 @@
         <v>164</v>
       </c>
       <c r="Q46" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="R46" s="123" t="s">
         <v>164</v>
@@ -10258,11 +10267,11 @@
         <v>164</v>
       </c>
       <c r="Z46" s="163" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="AA46" s="144">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -10271,7 +10280,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
@@ -10309,7 +10318,7 @@
         <v>164</v>
       </c>
       <c r="Q47" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="R47" s="123" t="s">
         <v>164</v>
@@ -10336,11 +10345,11 @@
         <v>164</v>
       </c>
       <c r="Z47" s="163" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="AA47" s="144">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -10349,7 +10358,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="116"/>
@@ -10387,7 +10396,7 @@
         <v>164</v>
       </c>
       <c r="Q48" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="R48" s="123" t="s">
         <v>164</v>
@@ -10414,11 +10423,11 @@
         <v>164</v>
       </c>
       <c r="Z48" s="163" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="AA48" s="144">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -10427,7 +10436,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="116"/>
@@ -10465,7 +10474,7 @@
         <v>164</v>
       </c>
       <c r="Q49" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="R49" s="123" t="s">
         <v>164</v>
@@ -10492,11 +10501,11 @@
         <v>164</v>
       </c>
       <c r="Z49" s="163" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="AA49" s="144">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10505,7 +10514,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="153" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D50" s="129"/>
       <c r="E50" s="129"/>
@@ -10570,7 +10579,7 @@
         <v>164</v>
       </c>
       <c r="Z50" s="166" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA50" s="160">
         <f t="shared" si="1"/>
@@ -10585,7 +10594,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="134" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="117"/>
@@ -10650,7 +10659,7 @@
         <v>164</v>
       </c>
       <c r="Z51" s="162" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA51" s="143">
         <f t="shared" si="1"/>
@@ -10663,7 +10672,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="116"/>
@@ -10728,7 +10737,7 @@
         <v>164</v>
       </c>
       <c r="Z52" s="163" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA52" s="144">
         <f t="shared" si="1"/>
@@ -10741,7 +10750,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D53" s="116"/>
       <c r="E53" s="116"/>
@@ -10806,7 +10815,7 @@
         <v>164</v>
       </c>
       <c r="Z53" s="163" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA53" s="144">
         <f t="shared" si="1"/>
@@ -10819,7 +10828,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="116"/>
@@ -10884,7 +10893,7 @@
         <v>164</v>
       </c>
       <c r="Z54" s="163" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA54" s="144">
         <f t="shared" si="1"/>
@@ -10897,7 +10906,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D55" s="116"/>
       <c r="E55" s="116"/>
@@ -10962,7 +10971,7 @@
         <v>164</v>
       </c>
       <c r="Z55" s="163" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA55" s="144">
         <f t="shared" si="1"/>
@@ -10975,7 +10984,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="116"/>
@@ -11040,7 +11049,7 @@
         <v>164</v>
       </c>
       <c r="Z56" s="163" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA56" s="144">
         <f t="shared" si="1"/>
@@ -11053,7 +11062,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="116"/>
@@ -11118,7 +11127,7 @@
         <v>164</v>
       </c>
       <c r="Z57" s="163" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA57" s="144">
         <f t="shared" si="1"/>
@@ -11131,7 +11140,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
@@ -11196,7 +11205,7 @@
         <v>164</v>
       </c>
       <c r="Z58" s="163" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA58" s="144">
         <f t="shared" si="1"/>
@@ -11209,7 +11218,7 @@
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D59" s="116"/>
       <c r="E59" s="116"/>
@@ -11274,7 +11283,7 @@
         <v>164</v>
       </c>
       <c r="Z59" s="163" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AA59" s="144">
         <f t="shared" si="1"/>
@@ -11287,7 +11296,7 @@
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D60" s="116"/>
       <c r="E60" s="116"/>
@@ -11348,7 +11357,7 @@
         <v>164</v>
       </c>
       <c r="Z60" s="163" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AA60" s="144">
         <f t="shared" si="1"/>
@@ -11361,7 +11370,7 @@
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D61" s="116"/>
       <c r="E61" s="116"/>
@@ -11422,7 +11431,7 @@
         <v>164</v>
       </c>
       <c r="Z61" s="163" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AA61" s="144">
         <f t="shared" si="1"/>
@@ -11435,7 +11444,7 @@
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="116"/>
@@ -11500,7 +11509,7 @@
         <v>164</v>
       </c>
       <c r="Z62" s="163" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="AA62" s="144">
         <f t="shared" si="1"/>
@@ -11513,7 +11522,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116"/>
@@ -11578,7 +11587,7 @@
         <v>164</v>
       </c>
       <c r="Z63" s="163" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AA63" s="144">
         <f t="shared" si="1"/>
@@ -11591,7 +11600,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="153" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D64" s="129"/>
       <c r="E64" s="129"/>
@@ -11656,7 +11665,7 @@
         <v>164</v>
       </c>
       <c r="Z64" s="152" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AA64" s="145">
         <f t="shared" si="1"/>
@@ -11671,7 +11680,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="134" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="D65" s="117"/>
       <c r="E65" s="117"/>
@@ -11727,7 +11736,7 @@
         <v>164</v>
       </c>
       <c r="W65" s="135" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="X65" s="135" t="s">
         <v>164</v>
@@ -11736,11 +11745,11 @@
         <v>164</v>
       </c>
       <c r="Z65" s="184" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="AA65" s="176">
         <f>COUNTIF(G65:Y65,"X")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -11749,7 +11758,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
@@ -11814,7 +11823,7 @@
         <v>164</v>
       </c>
       <c r="Z66" s="163" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AA66" s="144">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -11827,7 +11836,7 @@
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
@@ -11868,7 +11877,7 @@
         <v>164</v>
       </c>
       <c r="R67" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S67" s="123" t="s">
         <v>164</v>
@@ -11892,11 +11901,11 @@
         <v>164</v>
       </c>
       <c r="Z67" s="163" t="s">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="AA67" s="144">
         <f>COUNTIF(F67:Y67,"X")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11905,7 +11914,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
@@ -11946,7 +11955,7 @@
         <v>164</v>
       </c>
       <c r="R68" s="126" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S68" s="126" t="s">
         <v>164</v>
@@ -11970,11 +11979,11 @@
         <v>164</v>
       </c>
       <c r="Z68" s="152" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="AA68" s="145">
         <f>COUNTIF(F68:Y68,"X")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12027,11 +12036,11 @@
       </c>
       <c r="Q69" s="179">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R69" s="179">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S69" s="179">
         <f t="shared" si="2"/>
@@ -12051,7 +12060,7 @@
       </c>
       <c r="W69" s="179">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X69" s="179">
         <f t="shared" si="2"/>
@@ -12063,11 +12072,11 @@
       </c>
       <c r="Z69" s="177">
         <f>SUM(F69:Y69)</f>
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AA69" s="177">
         <f>SUM(AA3:AA68)</f>
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
@@ -16041,7 +16050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
@@ -16058,19 +16067,19 @@
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B1" s="197" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C1" s="198" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D1" s="198" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="198" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F1" s="198" t="s">
         <v>61</v>
@@ -16079,7 +16088,7 @@
         <v>115</v>
       </c>
       <c r="H1" s="199" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I1" s="186"/>
       <c r="J1" s="186"/>
@@ -16102,22 +16111,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C2" s="204" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D2" s="204" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E2" s="134" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F2" s="134">
         <v>2015</v>
       </c>
       <c r="G2" s="187" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H2" s="205"/>
     </row>
@@ -16126,13 +16135,13 @@
         <v>169</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D3" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
@@ -16146,13 +16155,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D4" s="200" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -16166,13 +16175,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C5" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D5" s="200" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -16186,13 +16195,13 @@
         <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C6" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -16206,22 +16215,22 @@
         <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C7" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D7" s="200" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F7" s="11">
         <v>2015</v>
       </c>
       <c r="G7" s="212" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H7" s="207"/>
     </row>
@@ -16230,22 +16239,22 @@
         <v>153</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D8" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="11">
         <v>2015</v>
       </c>
       <c r="G8" s="150" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="207"/>
     </row>
@@ -16254,13 +16263,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D9" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1">
@@ -16274,13 +16283,13 @@
         <v>175</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D10" s="200" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="1">
@@ -16294,13 +16303,13 @@
         <v>155</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C11" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="1">
@@ -16314,13 +16323,13 @@
         <v>156</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C12" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D12" s="200" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E12" s="153"/>
       <c r="F12" s="1">
@@ -16334,22 +16343,22 @@
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D13" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F13" s="1">
         <v>2015</v>
       </c>
       <c r="G13" s="212" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H13" s="207"/>
     </row>
@@ -16358,22 +16367,22 @@
         <v>158</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D14" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F14" s="11">
         <v>2015</v>
       </c>
       <c r="G14" s="150" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H14" s="207"/>
     </row>
@@ -16382,22 +16391,22 @@
         <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C15" s="200" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D15" s="200" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="F15" s="11">
         <v>2015</v>
       </c>
       <c r="G15" s="212" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H15" s="207"/>
     </row>
@@ -16406,13 +16415,13 @@
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D16" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="1">
@@ -16426,22 +16435,22 @@
         <v>160</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C17" s="200" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D17" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F17" s="1">
         <v>2015</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H17" s="207"/>
     </row>
@@ -16450,40 +16459,40 @@
         <v>161</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C18" s="200" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F18" s="1">
         <v>2015</v>
       </c>
       <c r="G18" s="150" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H18" s="207"/>
     </row>
     <row r="19" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C19" s="200" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D19" s="200" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E19" s="153" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F19" s="11">
         <v>2015</v>
@@ -16493,16 +16502,16 @@
     </row>
     <row r="20" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="206" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C20" s="200" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D20" s="200" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="1">
@@ -16516,13 +16525,13 @@
         <v>162</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D21" s="209" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E21" s="137"/>
       <c r="F21" s="210">
@@ -16534,7 +16543,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="273" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B26" s="274"/>
       <c r="C26" s="275"/>
@@ -16542,7 +16551,7 @@
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="272" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B27" s="272"/>
       <c r="C27" s="272"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -719,9 +719,6 @@
   </si>
   <si>
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the exploration, production, transport of liquid fuels happens during the whole year, proportionally to the road activity, but with the less activity during the nigth and public holidays.</t>
-  </si>
-  <si>
-    <t>HE = WD + WT0816 + WT1624 + !PH + VA</t>
   </si>
   <si>
     <t>HE = WDWW + WT0024 + !PH</t>
@@ -1025,6 +1022,9 @@
   </si>
   <si>
     <t xml:space="preserve">The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed by assuming that the emissions from other solvent and product use happens during the whole year, but with the less activity during the nigth and public holidays. The activity graph will be constructed also by assuming that with lower temperatures and higher pressure, emission is higher. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE = WD + WT0816 + WT1624 + !PH </t>
   </si>
 </sst>
 </file>
@@ -6680,11 +6680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6769,7 +6769,7 @@
         <v>168</v>
       </c>
       <c r="K2" s="113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L2" s="113" t="s">
         <v>153</v>
@@ -6977,7 +6977,7 @@
         <v>138</v>
       </c>
       <c r="Z4" s="147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA4" s="122">
         <f t="shared" si="0"/>
@@ -7055,7 +7055,7 @@
         <v>138</v>
       </c>
       <c r="Z5" s="147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA5" s="122">
         <f t="shared" si="0"/>
@@ -7133,7 +7133,7 @@
         <v>138</v>
       </c>
       <c r="Z6" s="147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA6" s="122">
         <f t="shared" si="0"/>
@@ -7442,7 +7442,7 @@
         <v>164</v>
       </c>
       <c r="W10" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="X10" s="123" t="s">
         <v>164</v>
@@ -7451,11 +7451,11 @@
         <v>164</v>
       </c>
       <c r="Z10" s="163" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="AA10" s="144">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,7 +7464,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="194"/>
       <c r="E11" s="116"/>
@@ -7529,7 +7529,7 @@
         <v>164</v>
       </c>
       <c r="Z11" s="163" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA11" s="144">
         <f t="shared" si="0"/>
@@ -7542,7 +7542,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" s="195"/>
       <c r="E12" s="129"/>
@@ -7550,7 +7550,7 @@
         <v>164</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" s="130" t="s">
         <v>164</v>
@@ -7559,7 +7559,7 @@
         <v>164</v>
       </c>
       <c r="J12" s="130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K12" s="130" t="s">
         <v>164</v>
@@ -7607,7 +7607,7 @@
         <v>164</v>
       </c>
       <c r="Z12" s="166" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA12" s="160">
         <f t="shared" si="0"/>
@@ -7622,7 +7622,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="117"/>
@@ -7687,7 +7687,7 @@
         <v>164</v>
       </c>
       <c r="Z13" s="140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA13" s="143">
         <f t="shared" si="0"/>
@@ -7700,7 +7700,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="194"/>
       <c r="E14" s="116"/>
@@ -7765,7 +7765,7 @@
         <v>164</v>
       </c>
       <c r="Z14" s="141" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA14" s="144">
         <f t="shared" si="0"/>
@@ -7778,7 +7778,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="116"/>
@@ -7856,7 +7856,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="116"/>
@@ -7934,7 +7934,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="116"/>
@@ -8012,7 +8012,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="116"/>
@@ -8090,7 +8090,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="116"/>
@@ -8168,7 +8168,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="116"/>
@@ -8246,7 +8246,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="194"/>
       <c r="E21" s="116"/>
@@ -8324,7 +8324,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="116"/>
@@ -8402,7 +8402,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="194"/>
       <c r="E23" s="116"/>
@@ -8480,7 +8480,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="195"/>
       <c r="E24" s="129"/>
@@ -8545,7 +8545,7 @@
         <v>164</v>
       </c>
       <c r="Z24" s="142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AA24" s="145">
         <f t="shared" si="0"/>
@@ -8560,7 +8560,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="196"/>
       <c r="E25" s="117"/>
@@ -8625,7 +8625,7 @@
         <v>164</v>
       </c>
       <c r="Z25" s="184" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA25" s="176">
         <f t="shared" si="0"/>
@@ -8638,7 +8638,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="194"/>
       <c r="E26" s="116"/>
@@ -8703,7 +8703,7 @@
         <v>164</v>
       </c>
       <c r="Z26" s="163" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA26" s="144">
         <f t="shared" si="0"/>
@@ -8716,7 +8716,7 @@
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D27" s="194"/>
       <c r="E27" s="116"/>
@@ -8794,7 +8794,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="195"/>
       <c r="E28" s="129"/>
@@ -8952,7 +8952,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
@@ -9030,7 +9030,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="116"/>
       <c r="E31" s="116"/>
@@ -9108,7 +9108,7 @@
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
@@ -9186,7 +9186,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
@@ -9264,7 +9264,7 @@
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -9342,7 +9342,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -9420,7 +9420,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -9498,7 +9498,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
@@ -9578,7 +9578,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="189" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="190"/>
       <c r="E38" s="190"/>
@@ -9643,7 +9643,7 @@
         <v>138</v>
       </c>
       <c r="Z38" s="162" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA38" s="143">
         <f t="shared" si="1"/>
@@ -9656,7 +9656,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -9721,7 +9721,7 @@
         <v>164</v>
       </c>
       <c r="Z39" s="163" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA39" s="144">
         <f t="shared" si="1"/>
@@ -9734,7 +9734,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
@@ -9812,7 +9812,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
@@ -9877,7 +9877,7 @@
         <v>164</v>
       </c>
       <c r="Z41" s="163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA41" s="144">
         <f t="shared" si="1"/>
@@ -9890,7 +9890,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="116"/>
@@ -9968,7 +9968,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
@@ -10046,7 +10046,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D44" s="116"/>
       <c r="E44" s="116"/>
@@ -10124,7 +10124,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="116"/>
@@ -10189,7 +10189,7 @@
         <v>164</v>
       </c>
       <c r="Z45" s="163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA45" s="144">
         <f t="shared" si="1"/>
@@ -10202,7 +10202,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
@@ -10267,7 +10267,7 @@
         <v>164</v>
       </c>
       <c r="Z46" s="163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA46" s="144">
         <f t="shared" si="1"/>
@@ -10280,7 +10280,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
@@ -10345,7 +10345,7 @@
         <v>164</v>
       </c>
       <c r="Z47" s="163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA47" s="144">
         <f t="shared" si="1"/>
@@ -10358,7 +10358,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="116"/>
@@ -10423,7 +10423,7 @@
         <v>164</v>
       </c>
       <c r="Z48" s="163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA48" s="144">
         <f t="shared" si="1"/>
@@ -10436,7 +10436,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="116"/>
@@ -10501,7 +10501,7 @@
         <v>164</v>
       </c>
       <c r="Z49" s="163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA49" s="144">
         <f t="shared" si="1"/>
@@ -10514,7 +10514,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="153" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D50" s="129"/>
       <c r="E50" s="129"/>
@@ -10594,7 +10594,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="134" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="117"/>
@@ -10659,7 +10659,7 @@
         <v>164</v>
       </c>
       <c r="Z51" s="162" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA51" s="143">
         <f t="shared" si="1"/>
@@ -10672,7 +10672,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="116"/>
@@ -10737,7 +10737,7 @@
         <v>164</v>
       </c>
       <c r="Z52" s="163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA52" s="144">
         <f t="shared" si="1"/>
@@ -10750,7 +10750,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" s="116"/>
       <c r="E53" s="116"/>
@@ -10815,7 +10815,7 @@
         <v>164</v>
       </c>
       <c r="Z53" s="163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA53" s="144">
         <f t="shared" si="1"/>
@@ -10828,7 +10828,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="116"/>
@@ -10893,7 +10893,7 @@
         <v>164</v>
       </c>
       <c r="Z54" s="163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA54" s="144">
         <f t="shared" si="1"/>
@@ -10906,7 +10906,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D55" s="116"/>
       <c r="E55" s="116"/>
@@ -10971,7 +10971,7 @@
         <v>164</v>
       </c>
       <c r="Z55" s="163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA55" s="144">
         <f t="shared" si="1"/>
@@ -10984,7 +10984,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="116"/>
@@ -11049,7 +11049,7 @@
         <v>164</v>
       </c>
       <c r="Z56" s="163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA56" s="144">
         <f t="shared" si="1"/>
@@ -11062,7 +11062,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="116"/>
@@ -11127,7 +11127,7 @@
         <v>164</v>
       </c>
       <c r="Z57" s="163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA57" s="144">
         <f t="shared" si="1"/>
@@ -11140,7 +11140,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
@@ -11205,7 +11205,7 @@
         <v>164</v>
       </c>
       <c r="Z58" s="163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA58" s="144">
         <f t="shared" si="1"/>
@@ -11218,7 +11218,7 @@
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" s="116"/>
       <c r="E59" s="116"/>
@@ -11283,7 +11283,7 @@
         <v>164</v>
       </c>
       <c r="Z59" s="163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA59" s="144">
         <f t="shared" si="1"/>
@@ -11296,7 +11296,7 @@
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D60" s="116"/>
       <c r="E60" s="116"/>
@@ -11357,7 +11357,7 @@
         <v>164</v>
       </c>
       <c r="Z60" s="163" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA60" s="144">
         <f t="shared" si="1"/>
@@ -11370,7 +11370,7 @@
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D61" s="116"/>
       <c r="E61" s="116"/>
@@ -11431,7 +11431,7 @@
         <v>164</v>
       </c>
       <c r="Z61" s="163" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA61" s="144">
         <f t="shared" si="1"/>
@@ -11444,7 +11444,7 @@
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="116"/>
@@ -11509,7 +11509,7 @@
         <v>164</v>
       </c>
       <c r="Z62" s="163" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA62" s="144">
         <f t="shared" si="1"/>
@@ -11522,7 +11522,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116"/>
@@ -11587,7 +11587,7 @@
         <v>164</v>
       </c>
       <c r="Z63" s="163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA63" s="144">
         <f t="shared" si="1"/>
@@ -11600,7 +11600,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="153" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D64" s="129"/>
       <c r="E64" s="129"/>
@@ -11665,7 +11665,7 @@
         <v>164</v>
       </c>
       <c r="Z64" s="152" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA64" s="145">
         <f t="shared" si="1"/>
@@ -11680,7 +11680,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="134" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D65" s="117"/>
       <c r="E65" s="117"/>
@@ -11745,7 +11745,7 @@
         <v>164</v>
       </c>
       <c r="Z65" s="184" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA65" s="176">
         <f>COUNTIF(G65:Y65,"X")</f>
@@ -11758,7 +11758,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
@@ -11823,7 +11823,7 @@
         <v>164</v>
       </c>
       <c r="Z66" s="163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA66" s="144">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -11836,7 +11836,7 @@
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
@@ -11901,7 +11901,7 @@
         <v>164</v>
       </c>
       <c r="Z67" s="163" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA67" s="144">
         <f>COUNTIF(F67:Y67,"X")</f>
@@ -11914,7 +11914,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
@@ -11979,7 +11979,7 @@
         <v>164</v>
       </c>
       <c r="Z68" s="152" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA68" s="145">
         <f>COUNTIF(F68:Y68,"X")</f>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="W69" s="179">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X69" s="179">
         <f t="shared" si="2"/>
@@ -12072,11 +12072,11 @@
       </c>
       <c r="Z69" s="177">
         <f>SUM(F69:Y69)</f>
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA69" s="177">
         <f>SUM(AA3:AA68)</f>
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
@@ -16067,7 +16067,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="197" t="s">
         <v>185</v>
@@ -16079,7 +16079,7 @@
         <v>149</v>
       </c>
       <c r="E1" s="198" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F1" s="198" t="s">
         <v>61</v>
@@ -16111,22 +16111,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="204" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2" s="204" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="134" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="134">
         <v>2015</v>
       </c>
       <c r="G2" s="187" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H2" s="205"/>
     </row>
@@ -16135,13 +16135,13 @@
         <v>169</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
@@ -16155,13 +16155,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4" s="200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -16175,13 +16175,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -16195,13 +16195,13 @@
         <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -16215,22 +16215,22 @@
         <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" s="11">
         <v>2015</v>
       </c>
       <c r="G7" s="212" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="207"/>
     </row>
@@ -16242,10 +16242,10 @@
         <v>189</v>
       </c>
       <c r="C8" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>191</v>
@@ -16263,13 +16263,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1">
@@ -16283,13 +16283,13 @@
         <v>175</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="1">
@@ -16303,13 +16303,13 @@
         <v>155</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="1">
@@ -16323,13 +16323,13 @@
         <v>156</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" s="153"/>
       <c r="F12" s="1">
@@ -16343,22 +16343,22 @@
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F13" s="1">
         <v>2015</v>
       </c>
       <c r="G13" s="212" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H13" s="207"/>
     </row>
@@ -16370,10 +16370,10 @@
         <v>190</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>192</v>
@@ -16391,22 +16391,22 @@
         <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="200" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F15" s="11">
         <v>2015</v>
       </c>
       <c r="G15" s="212" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H15" s="207"/>
     </row>
@@ -16415,13 +16415,13 @@
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="1">
@@ -16435,22 +16435,22 @@
         <v>160</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" s="200" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F17" s="1">
         <v>2015</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H17" s="207"/>
     </row>
@@ -16459,22 +16459,22 @@
         <v>161</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C18" s="200" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F18" s="1">
         <v>2015</v>
       </c>
       <c r="G18" s="150" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H18" s="207"/>
     </row>
@@ -16483,16 +16483,16 @@
         <v>178</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" s="200" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D19" s="200" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="153" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F19" s="11">
         <v>2015</v>
@@ -16505,13 +16505,13 @@
         <v>182</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D20" s="200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="1">
@@ -16525,13 +16525,13 @@
         <v>162</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D21" s="209" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="137"/>
       <c r="F21" s="210">
@@ -16543,7 +16543,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="273" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="274"/>
       <c r="C26" s="275"/>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="272" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="272"/>
       <c r="C27" s="272"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -6680,11 +6680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
@@ -16,7 +16,7 @@
     <sheet name="Temporal distrib. - methodology" sheetId="2" r:id="rId2"/>
     <sheet name="Temporal distribution - summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -609,9 +609,6 @@
     <t>HE = WDWW + WT0816 + WT1624 + WE + RH0709 + RH1517 + !PH + TEMP + SLP + VA</t>
   </si>
   <si>
-    <t xml:space="preserve">HE = WDWW + WT0816 + WT1624 + WE + !PH </t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -746,9 +743,6 @@
   </si>
   <si>
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the railway transport happens mostly during the day (day light). But with less activity during the public holidays, but with the increasing activity during the summer season.</t>
-  </si>
-  <si>
-    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the shipping transport happens mostly during the day (day light). But with less activity during the public holidays and winter season.</t>
   </si>
   <si>
     <t>HE = WDWW + DL  + WE + !PH + SA</t>
@@ -1026,11 +1020,17 @@
   <si>
     <t xml:space="preserve">HE = WD + WT0816 + WT1624 + !PH </t>
   </si>
+  <si>
+    <t>HE = WDWW + WT0816 + WT1624 + WE + !PH + SA</t>
+  </si>
+  <si>
+    <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the shipping transport happens mostly during the day (day light). But with less activity during the public holidays, weekends and winter season.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6680,11 +6680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6715,7 +6715,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="245" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="246"/>
       <c r="H1" s="246"/>
@@ -6748,7 +6748,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>115</v>
@@ -6769,7 +6769,7 @@
         <v>168</v>
       </c>
       <c r="K2" s="113" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L2" s="113" t="s">
         <v>153</v>
@@ -6828,13 +6828,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="187" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="135" t="s">
         <v>164</v>
@@ -6910,10 +6910,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4" s="123" t="s">
@@ -6977,7 +6977,7 @@
         <v>138</v>
       </c>
       <c r="Z4" s="147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AA4" s="122">
         <f t="shared" si="0"/>
@@ -6990,7 +6990,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" s="194"/>
       <c r="E5" s="116"/>
@@ -7055,7 +7055,7 @@
         <v>138</v>
       </c>
       <c r="Z5" s="147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AA5" s="122">
         <f t="shared" si="0"/>
@@ -7068,7 +7068,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="194"/>
       <c r="E6" s="116"/>
@@ -7133,7 +7133,7 @@
         <v>138</v>
       </c>
       <c r="Z6" s="147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AA6" s="122">
         <f t="shared" si="0"/>
@@ -7146,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="194"/>
       <c r="E7" s="150" t="s">
@@ -7226,7 +7226,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="195"/>
       <c r="E8" s="165" t="s">
@@ -7308,7 +7308,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="196"/>
       <c r="E9" s="117"/>
@@ -7386,7 +7386,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="194"/>
       <c r="E10" s="116"/>
@@ -7451,7 +7451,7 @@
         <v>164</v>
       </c>
       <c r="Z10" s="163" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AA10" s="144">
         <f t="shared" si="0"/>
@@ -7464,7 +7464,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="194"/>
       <c r="E11" s="116"/>
@@ -7529,7 +7529,7 @@
         <v>164</v>
       </c>
       <c r="Z11" s="163" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA11" s="144">
         <f t="shared" si="0"/>
@@ -7542,7 +7542,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="195"/>
       <c r="E12" s="129"/>
@@ -7550,7 +7550,7 @@
         <v>164</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H12" s="130" t="s">
         <v>164</v>
@@ -7559,7 +7559,7 @@
         <v>164</v>
       </c>
       <c r="J12" s="130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K12" s="130" t="s">
         <v>164</v>
@@ -7607,7 +7607,7 @@
         <v>164</v>
       </c>
       <c r="Z12" s="166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA12" s="160">
         <f t="shared" si="0"/>
@@ -7622,7 +7622,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="117"/>
@@ -7687,7 +7687,7 @@
         <v>164</v>
       </c>
       <c r="Z13" s="140" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA13" s="143">
         <f t="shared" si="0"/>
@@ -7700,7 +7700,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="194"/>
       <c r="E14" s="116"/>
@@ -7765,7 +7765,7 @@
         <v>164</v>
       </c>
       <c r="Z14" s="141" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA14" s="144">
         <f t="shared" si="0"/>
@@ -7778,7 +7778,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="116"/>
@@ -7856,7 +7856,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="116"/>
@@ -7934,7 +7934,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="116"/>
@@ -8012,7 +8012,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="116"/>
@@ -8090,7 +8090,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="116"/>
@@ -8168,7 +8168,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="116"/>
@@ -8246,7 +8246,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="194"/>
       <c r="E21" s="116"/>
@@ -8324,7 +8324,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="116"/>
@@ -8402,7 +8402,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="194"/>
       <c r="E23" s="116"/>
@@ -8443,7 +8443,7 @@
         <v>138</v>
       </c>
       <c r="R23" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="S23" s="123" t="s">
         <v>164</v>
@@ -8467,11 +8467,11 @@
         <v>164</v>
       </c>
       <c r="Z23" s="141" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="AA23" s="144">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8480,7 +8480,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="D24" s="195"/>
       <c r="E24" s="129"/>
@@ -8545,7 +8545,7 @@
         <v>164</v>
       </c>
       <c r="Z24" s="142" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AA24" s="145">
         <f t="shared" si="0"/>
@@ -8560,7 +8560,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D25" s="196"/>
       <c r="E25" s="117"/>
@@ -8625,7 +8625,7 @@
         <v>164</v>
       </c>
       <c r="Z25" s="184" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA25" s="176">
         <f t="shared" si="0"/>
@@ -8638,7 +8638,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D26" s="194"/>
       <c r="E26" s="116"/>
@@ -8703,7 +8703,7 @@
         <v>164</v>
       </c>
       <c r="Z26" s="163" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA26" s="144">
         <f t="shared" si="0"/>
@@ -8716,7 +8716,7 @@
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D27" s="194"/>
       <c r="E27" s="116"/>
@@ -8794,7 +8794,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" s="195"/>
       <c r="E28" s="129"/>
@@ -8874,7 +8874,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -8952,7 +8952,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
@@ -9030,7 +9030,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D31" s="116"/>
       <c r="E31" s="116"/>
@@ -9108,7 +9108,7 @@
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
@@ -9186,7 +9186,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
@@ -9264,7 +9264,7 @@
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -9342,7 +9342,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -9420,7 +9420,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -9498,7 +9498,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
@@ -9578,7 +9578,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="189" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D38" s="190"/>
       <c r="E38" s="190"/>
@@ -9643,7 +9643,7 @@
         <v>138</v>
       </c>
       <c r="Z38" s="162" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AA38" s="143">
         <f t="shared" si="1"/>
@@ -9656,7 +9656,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -9721,7 +9721,7 @@
         <v>164</v>
       </c>
       <c r="Z39" s="163" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AA39" s="144">
         <f t="shared" si="1"/>
@@ -9734,7 +9734,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
@@ -9812,7 +9812,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
@@ -9877,7 +9877,7 @@
         <v>164</v>
       </c>
       <c r="Z41" s="163" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA41" s="144">
         <f t="shared" si="1"/>
@@ -9890,7 +9890,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="116"/>
@@ -9968,7 +9968,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
@@ -10046,7 +10046,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D44" s="116"/>
       <c r="E44" s="116"/>
@@ -10124,7 +10124,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="116"/>
@@ -10189,7 +10189,7 @@
         <v>164</v>
       </c>
       <c r="Z45" s="163" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA45" s="144">
         <f t="shared" si="1"/>
@@ -10202,7 +10202,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
@@ -10267,7 +10267,7 @@
         <v>164</v>
       </c>
       <c r="Z46" s="163" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA46" s="144">
         <f t="shared" si="1"/>
@@ -10280,7 +10280,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
@@ -10345,7 +10345,7 @@
         <v>164</v>
       </c>
       <c r="Z47" s="163" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA47" s="144">
         <f t="shared" si="1"/>
@@ -10358,7 +10358,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="116"/>
@@ -10423,7 +10423,7 @@
         <v>164</v>
       </c>
       <c r="Z48" s="163" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA48" s="144">
         <f t="shared" si="1"/>
@@ -10436,7 +10436,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="116"/>
@@ -10501,7 +10501,7 @@
         <v>164</v>
       </c>
       <c r="Z49" s="163" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA49" s="144">
         <f t="shared" si="1"/>
@@ -10514,7 +10514,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="153" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D50" s="129"/>
       <c r="E50" s="129"/>
@@ -10594,7 +10594,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="134" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="117"/>
@@ -10659,7 +10659,7 @@
         <v>164</v>
       </c>
       <c r="Z51" s="162" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA51" s="143">
         <f t="shared" si="1"/>
@@ -10672,7 +10672,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="116"/>
@@ -10737,7 +10737,7 @@
         <v>164</v>
       </c>
       <c r="Z52" s="163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA52" s="144">
         <f t="shared" si="1"/>
@@ -10750,7 +10750,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D53" s="116"/>
       <c r="E53" s="116"/>
@@ -10815,7 +10815,7 @@
         <v>164</v>
       </c>
       <c r="Z53" s="163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA53" s="144">
         <f t="shared" si="1"/>
@@ -10828,7 +10828,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="116"/>
@@ -10893,7 +10893,7 @@
         <v>164</v>
       </c>
       <c r="Z54" s="163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA54" s="144">
         <f t="shared" si="1"/>
@@ -10906,7 +10906,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D55" s="116"/>
       <c r="E55" s="116"/>
@@ -10971,7 +10971,7 @@
         <v>164</v>
       </c>
       <c r="Z55" s="163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA55" s="144">
         <f t="shared" si="1"/>
@@ -10984,7 +10984,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="116"/>
@@ -11049,7 +11049,7 @@
         <v>164</v>
       </c>
       <c r="Z56" s="163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA56" s="144">
         <f t="shared" si="1"/>
@@ -11062,7 +11062,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="116"/>
@@ -11127,7 +11127,7 @@
         <v>164</v>
       </c>
       <c r="Z57" s="163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA57" s="144">
         <f t="shared" si="1"/>
@@ -11140,7 +11140,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
@@ -11205,7 +11205,7 @@
         <v>164</v>
       </c>
       <c r="Z58" s="163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA58" s="144">
         <f t="shared" si="1"/>
@@ -11218,7 +11218,7 @@
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D59" s="116"/>
       <c r="E59" s="116"/>
@@ -11283,7 +11283,7 @@
         <v>164</v>
       </c>
       <c r="Z59" s="163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA59" s="144">
         <f t="shared" si="1"/>
@@ -11296,7 +11296,7 @@
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D60" s="116"/>
       <c r="E60" s="116"/>
@@ -11357,7 +11357,7 @@
         <v>164</v>
       </c>
       <c r="Z60" s="163" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA60" s="144">
         <f t="shared" si="1"/>
@@ -11370,7 +11370,7 @@
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D61" s="116"/>
       <c r="E61" s="116"/>
@@ -11431,7 +11431,7 @@
         <v>164</v>
       </c>
       <c r="Z61" s="163" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA61" s="144">
         <f t="shared" si="1"/>
@@ -11444,7 +11444,7 @@
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="116"/>
@@ -11509,7 +11509,7 @@
         <v>164</v>
       </c>
       <c r="Z62" s="163" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AA62" s="144">
         <f t="shared" si="1"/>
@@ -11522,7 +11522,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116"/>
@@ -11587,7 +11587,7 @@
         <v>164</v>
       </c>
       <c r="Z63" s="163" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AA63" s="144">
         <f t="shared" si="1"/>
@@ -11600,7 +11600,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="153" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D64" s="129"/>
       <c r="E64" s="129"/>
@@ -11665,7 +11665,7 @@
         <v>164</v>
       </c>
       <c r="Z64" s="152" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AA64" s="145">
         <f t="shared" si="1"/>
@@ -11680,7 +11680,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="134" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D65" s="117"/>
       <c r="E65" s="117"/>
@@ -11745,7 +11745,7 @@
         <v>164</v>
       </c>
       <c r="Z65" s="184" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AA65" s="176">
         <f>COUNTIF(G65:Y65,"X")</f>
@@ -11758,7 +11758,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
@@ -11823,7 +11823,7 @@
         <v>164</v>
       </c>
       <c r="Z66" s="163" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AA66" s="144">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -11836,7 +11836,7 @@
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
@@ -11901,7 +11901,7 @@
         <v>164</v>
       </c>
       <c r="Z67" s="163" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AA67" s="144">
         <f>COUNTIF(F67:Y67,"X")</f>
@@ -11914,7 +11914,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
@@ -11979,7 +11979,7 @@
         <v>164</v>
       </c>
       <c r="Z68" s="152" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AA68" s="145">
         <f>COUNTIF(F68:Y68,"X")</f>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="R69" s="179">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S69" s="179">
         <f t="shared" si="2"/>
@@ -12072,11 +12072,11 @@
       </c>
       <c r="Z69" s="177">
         <f>SUM(F69:Y69)</f>
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA69" s="177">
         <f>SUM(AA3:AA68)</f>
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
@@ -16050,8 +16050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16067,19 +16067,19 @@
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" s="197" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="198" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="198" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="198" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F1" s="198" t="s">
         <v>61</v>
@@ -16088,7 +16088,7 @@
         <v>115</v>
       </c>
       <c r="H1" s="199" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I1" s="186"/>
       <c r="J1" s="186"/>
@@ -16111,22 +16111,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="204" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2" s="204" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E2" s="134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" s="134">
         <v>2015</v>
       </c>
       <c r="G2" s="187" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H2" s="205"/>
     </row>
@@ -16135,13 +16135,13 @@
         <v>169</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" s="200" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
@@ -16155,13 +16155,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D4" s="200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -16175,13 +16175,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5" s="200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -16195,13 +16195,13 @@
         <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -16215,22 +16215,22 @@
         <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C7" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D7" s="200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F7" s="11">
         <v>2015</v>
       </c>
       <c r="G7" s="212" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H7" s="207"/>
     </row>
@@ -16239,22 +16239,22 @@
         <v>153</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8" s="200" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="11">
         <v>2015</v>
       </c>
       <c r="G8" s="150" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H8" s="207"/>
     </row>
@@ -16263,13 +16263,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D9" s="200" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1">
@@ -16283,13 +16283,13 @@
         <v>175</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D10" s="200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="1">
@@ -16303,13 +16303,13 @@
         <v>155</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C11" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="1">
@@ -16323,13 +16323,13 @@
         <v>156</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" s="200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E12" s="153"/>
       <c r="F12" s="1">
@@ -16343,22 +16343,22 @@
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" s="200" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F13" s="1">
         <v>2015</v>
       </c>
       <c r="G13" s="212" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H13" s="207"/>
     </row>
@@ -16367,22 +16367,22 @@
         <v>158</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" s="200" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" s="11">
         <v>2015</v>
       </c>
       <c r="G14" s="150" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H14" s="207"/>
     </row>
@@ -16391,22 +16391,22 @@
         <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="200" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="200" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="C15" s="200" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="F15" s="11">
         <v>2015</v>
       </c>
       <c r="G15" s="212" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H15" s="207"/>
     </row>
@@ -16415,13 +16415,13 @@
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D16" s="200" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="1">
@@ -16435,22 +16435,22 @@
         <v>160</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="200" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="200" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="C17" s="200" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="200" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="F17" s="1">
         <v>2015</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H17" s="207"/>
     </row>
@@ -16459,22 +16459,22 @@
         <v>161</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C18" s="200" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F18" s="1">
         <v>2015</v>
       </c>
       <c r="G18" s="150" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H18" s="207"/>
     </row>
@@ -16483,16 +16483,16 @@
         <v>178</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="200" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="200" t="s">
         <v>252</v>
       </c>
-      <c r="D19" s="200" t="s">
-        <v>254</v>
-      </c>
       <c r="E19" s="153" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F19" s="11">
         <v>2015</v>
@@ -16505,13 +16505,13 @@
         <v>182</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C20" s="200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D20" s="200" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="1">
@@ -16525,13 +16525,13 @@
         <v>162</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D21" s="209" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E21" s="137"/>
       <c r="F21" s="210">
@@ -16543,7 +16543,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="273" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B26" s="274"/>
       <c r="C26" s="275"/>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="272" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B27" s="272"/>
       <c r="C27" s="272"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
@@ -16,7 +16,7 @@
     <sheet name="Temporal distrib. - methodology" sheetId="2" r:id="rId2"/>
     <sheet name="Temporal distribution - summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1030,7 +1030,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6681,10 +6681,10 @@
   <dimension ref="A1:AA239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="296">
   <si>
     <t>NFR category</t>
   </si>
@@ -570,37 +570,19 @@
     <t>http://www.eps.rs/lat/kolubara/Stranice/Proizvodnja/Prerada.aspx</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0024 + WT0624 + !PH + k*SA + k*HS + TEMP + !RP</t>
-  </si>
-  <si>
     <t>HE = WDWW + WT0816 + WT1624 + !PH + !RP</t>
   </si>
   <si>
     <t>COUNT</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0024 + !PH + SA + !RP</t>
-  </si>
-  <si>
     <t>Working Weekends (WW)</t>
   </si>
   <si>
-    <t>HE = WDWW +DL + !PH + SA + SAAG</t>
-  </si>
-  <si>
     <t>HE = WD + WT0816 + WT1624 + WW + !PH + !RP</t>
   </si>
   <si>
     <t>Vehicles trend  activity (VA)</t>
-  </si>
-  <si>
-    <t>HE = WD + WT0816 + WT1624 + WW + RH0709 + RH1517 + !PH + VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HE = WD + WT0816 + WT1624 + WE + RH0709 + RH1517 + !PH + TEMP + VA </t>
-  </si>
-  <si>
-    <t>HE = WD + WT0816 + DL + WE +  !PH + SA</t>
   </si>
   <si>
     <t>Number of flights per hour (NFH)</t>
@@ -647,32 +629,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Data collected from public service </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dateandtime.com,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for 2015 year. Function was created from the data that describes season periods for the whole year.</t>
-    </r>
-  </si>
-  <si>
     <t>Sunrise, Sunset, and Daylength for Serbia in 2015 year</t>
   </si>
   <si>
@@ -733,9 +689,6 @@
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the domesting flights happen exclusively by day light and with the less activity in the winter.</t>
   </si>
   <si>
-    <t>HE = DL + SA</t>
-  </si>
-  <si>
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by using the hourly counted vehice activity (on the 350 vehicle activity counters). The average hourly vehicle activity for the IA category will be used fo highway inventory. For the rural inventory, the average hourly vehicle activity for IIA and IB will be used. For the urban inventory, the activity graph will be constructed by assuming that the urban road activity is higher by day light, for the working days, for the rush hours as well as for the  public holidays.</t>
   </si>
   <si>
@@ -743,9 +696,6 @@
   </si>
   <si>
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the railway transport happens mostly during the day (day light). But with less activity during the public holidays, but with the increasing activity during the summer season.</t>
-  </si>
-  <si>
-    <t>HE = WDWW + DL  + WE + !PH + SA</t>
   </si>
   <si>
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the  "Commercial/institutional: Stationary Combustion" happens during the heating season with the increasing activity during the extreme winter, public holidays and less activity at night.</t>
@@ -967,9 +917,6 @@
     <t>HE = WDWW + (k+DL) + !PH + (k+SAAG) + inverse(TEMP) + SLP</t>
   </si>
   <si>
-    <t>HE = (k+DL) + (k+SA) + inverse(TEMP) + SLP</t>
-  </si>
-  <si>
     <t>HE = WDWW + (k+DL) + (k+SAAG) + inverse(TEMP) + SLP</t>
   </si>
   <si>
@@ -991,12 +938,6 @@
     <t>Working time for heating season [06-22h] (WT0622)</t>
   </si>
   <si>
-    <t>HE = WDWW + WT0024 + !PH + (k1*SA + k2) + !RP</t>
-  </si>
-  <si>
-    <t>HE = WDWW + WT0816 + WT1624 + !PH + (k1*SA + k2)</t>
-  </si>
-  <si>
     <t>HE = WDWW + DL + inverse(TEMP) + SLP + !PH</t>
   </si>
   <si>
@@ -1021,10 +962,77 @@
     <t xml:space="preserve">HE = WD + WT0816 + WT1624 + !PH </t>
   </si>
   <si>
-    <t>HE = WDWW + WT0816 + WT1624 + WE + !PH + SA</t>
-  </si>
-  <si>
     <t>The inventory emission from this sub - category will be temoral dissagregated based on identifed indicators  and equation. The temporal activity graph will be constructed  by assuming that the shipping transport happens mostly during the day (day light). But with less activity during the public holidays, weekends and winter season.</t>
+  </si>
+  <si>
+    <t>HE = WDWW +DL + !PH + TEMP + SAAG</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + WT0624 + !PH + k*HS + TEMP + !RP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0024 + !PH + TEMP + !RP</t>
+  </si>
+  <si>
+    <t>HE = (k+DL) + inverse(TEMP) + SLP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0816 + WT1624 + !PH + TEMP</t>
+  </si>
+  <si>
+    <t>HE = WD + WT0816 + WT1624 + WW + !PH + VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE = WD + WT0816 + WT1624 + WE + !PH + TEMP + VA </t>
+  </si>
+  <si>
+    <t>HE = WD + WT0816 + DL + WE +  !PH + TEMP</t>
+  </si>
+  <si>
+    <t>HE = DL + TEMP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + WT0816 + WT1624 + WE + !PH + TEMP</t>
+  </si>
+  <si>
+    <t>HE = WDWW + DL  + WE + !PH + TEMP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data collected from public service </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dateandtime.com,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for 2015 year. Function was created from the data that describes season periods for the whole year.                                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REPLACED with temperature, because it describes seasonality much better.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4233,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6680,11 +6688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6715,7 +6723,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="245" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G1" s="246"/>
       <c r="H1" s="246"/>
@@ -6748,7 +6756,7 @@
         <v>148</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>115</v>
@@ -6769,7 +6777,7 @@
         <v>168</v>
       </c>
       <c r="K2" s="113" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="L2" s="113" t="s">
         <v>153</v>
@@ -6778,7 +6786,7 @@
         <v>154</v>
       </c>
       <c r="N2" s="113" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O2" s="113" t="s">
         <v>155</v>
@@ -6805,10 +6813,10 @@
         <v>161</v>
       </c>
       <c r="W2" s="161" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="X2" s="161" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Y2" s="114" t="s">
         <v>162</v>
@@ -6828,13 +6836,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E3" s="187" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F3" s="135" t="s">
         <v>164</v>
@@ -6873,7 +6881,7 @@
         <v>138</v>
       </c>
       <c r="R3" s="135" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S3" s="135" t="s">
         <v>138</v>
@@ -6897,11 +6905,11 @@
         <v>138</v>
       </c>
       <c r="Z3" s="146" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="AA3" s="124">
-        <f t="shared" ref="AA3:AA34" si="0">COUNTIF(F3:Y3,"X")</f>
-        <v>8</v>
+        <f>COUNTIF(F3:Y3,"X")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -6910,10 +6918,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4" s="123" t="s">
@@ -6977,10 +6985,10 @@
         <v>138</v>
       </c>
       <c r="Z4" s="147" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AA4" s="122">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F4:Y4,"X")</f>
         <v>3</v>
       </c>
     </row>
@@ -6990,7 +6998,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D5" s="194"/>
       <c r="E5" s="116"/>
@@ -7055,10 +7063,10 @@
         <v>138</v>
       </c>
       <c r="Z5" s="147" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AA5" s="122">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F5:Y5,"X")</f>
         <v>3</v>
       </c>
     </row>
@@ -7068,7 +7076,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D6" s="194"/>
       <c r="E6" s="116"/>
@@ -7133,10 +7141,10 @@
         <v>138</v>
       </c>
       <c r="Z6" s="147" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AA6" s="122">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F6:Y6,"X")</f>
         <v>3</v>
       </c>
     </row>
@@ -7146,7 +7154,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D7" s="194"/>
       <c r="E7" s="150" t="s">
@@ -7213,10 +7221,10 @@
         <v>138</v>
       </c>
       <c r="Z7" s="147" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA7" s="122">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F7:Y7,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -7226,7 +7234,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D8" s="195"/>
       <c r="E8" s="165" t="s">
@@ -7293,10 +7301,10 @@
         <v>138</v>
       </c>
       <c r="Z8" s="148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA8" s="128">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F8:Y8,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -7308,7 +7316,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D9" s="196"/>
       <c r="E9" s="117"/>
@@ -7349,7 +7357,7 @@
         <v>138</v>
       </c>
       <c r="R9" s="135" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S9" s="135" t="s">
         <v>164</v>
@@ -7358,7 +7366,7 @@
         <v>164</v>
       </c>
       <c r="U9" s="135" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V9" s="135" t="s">
         <v>164</v>
@@ -7373,10 +7381,10 @@
         <v>138</v>
       </c>
       <c r="Z9" s="162" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="AA9" s="143">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F9:Y9,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -7386,7 +7394,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D10" s="194"/>
       <c r="E10" s="116"/>
@@ -7451,10 +7459,10 @@
         <v>164</v>
       </c>
       <c r="Z10" s="163" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="AA10" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F10:Y10,"X")</f>
         <v>4</v>
       </c>
     </row>
@@ -7464,7 +7472,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D11" s="194"/>
       <c r="E11" s="116"/>
@@ -7529,10 +7537,10 @@
         <v>164</v>
       </c>
       <c r="Z11" s="163" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AA11" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F11:Y11,"X")</f>
         <v>3</v>
       </c>
     </row>
@@ -7542,7 +7550,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D12" s="195"/>
       <c r="E12" s="129"/>
@@ -7550,7 +7558,7 @@
         <v>164</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H12" s="130" t="s">
         <v>164</v>
@@ -7559,7 +7567,7 @@
         <v>164</v>
       </c>
       <c r="J12" s="130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K12" s="130" t="s">
         <v>164</v>
@@ -7607,10 +7615,10 @@
         <v>164</v>
       </c>
       <c r="Z12" s="166" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AA12" s="160">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F12:Y12,"X")</f>
         <v>3</v>
       </c>
     </row>
@@ -7622,7 +7630,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="117"/>
@@ -7687,10 +7695,10 @@
         <v>164</v>
       </c>
       <c r="Z13" s="140" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AA13" s="143">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F13:Y13,"X")</f>
         <v>1</v>
       </c>
     </row>
@@ -7700,7 +7708,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D14" s="194"/>
       <c r="E14" s="116"/>
@@ -7741,7 +7749,7 @@
         <v>164</v>
       </c>
       <c r="R14" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S14" s="123" t="s">
         <v>164</v>
@@ -7750,7 +7758,7 @@
         <v>164</v>
       </c>
       <c r="U14" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V14" s="123" t="s">
         <v>164</v>
@@ -7765,10 +7773,10 @@
         <v>164</v>
       </c>
       <c r="Z14" s="141" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="AA14" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F14:Y14,"X")</f>
         <v>2</v>
       </c>
     </row>
@@ -7778,7 +7786,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="116"/>
@@ -7843,10 +7851,10 @@
         <v>164</v>
       </c>
       <c r="Z15" s="141" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA15" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F15:Y15,"X")</f>
         <v>10</v>
       </c>
     </row>
@@ -7856,7 +7864,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="116"/>
@@ -7921,10 +7929,10 @@
         <v>164</v>
       </c>
       <c r="Z16" s="141" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA16" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F16:Y16,"X")</f>
         <v>10</v>
       </c>
     </row>
@@ -7934,7 +7942,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="116"/>
@@ -7999,10 +8007,10 @@
         <v>164</v>
       </c>
       <c r="Z17" s="141" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA17" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F17:Y17,"X")</f>
         <v>10</v>
       </c>
     </row>
@@ -8012,7 +8020,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="116"/>
@@ -8077,10 +8085,10 @@
         <v>164</v>
       </c>
       <c r="Z18" s="141" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA18" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F18:Y18,"X")</f>
         <v>10</v>
       </c>
     </row>
@@ -8090,7 +8098,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="116"/>
@@ -8155,10 +8163,10 @@
         <v>164</v>
       </c>
       <c r="Z19" s="141" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA19" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F19:Y19,"X")</f>
         <v>10</v>
       </c>
     </row>
@@ -8168,7 +8176,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="116"/>
@@ -8233,10 +8241,10 @@
         <v>164</v>
       </c>
       <c r="Z20" s="141" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA20" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F20:Y20,"X")</f>
         <v>10</v>
       </c>
     </row>
@@ -8246,7 +8254,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D21" s="194"/>
       <c r="E21" s="116"/>
@@ -8311,10 +8319,10 @@
         <v>164</v>
       </c>
       <c r="Z21" s="141" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA21" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F21:Y21,"X")</f>
         <v>10</v>
       </c>
     </row>
@@ -8324,7 +8332,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="116"/>
@@ -8389,10 +8397,10 @@
         <v>164</v>
       </c>
       <c r="Z22" s="141" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA22" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F22:Y22,"X")</f>
         <v>10</v>
       </c>
     </row>
@@ -8402,7 +8410,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D23" s="194"/>
       <c r="E23" s="116"/>
@@ -8443,7 +8451,7 @@
         <v>138</v>
       </c>
       <c r="R23" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S23" s="123" t="s">
         <v>164</v>
@@ -8452,7 +8460,7 @@
         <v>164</v>
       </c>
       <c r="U23" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V23" s="123" t="s">
         <v>164</v>
@@ -8467,10 +8475,10 @@
         <v>164</v>
       </c>
       <c r="Z23" s="141" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AA23" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F23:Y23,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -8480,7 +8488,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D24" s="195"/>
       <c r="E24" s="129"/>
@@ -8521,7 +8529,7 @@
         <v>138</v>
       </c>
       <c r="R24" s="130" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S24" s="130" t="s">
         <v>164</v>
@@ -8530,7 +8538,7 @@
         <v>164</v>
       </c>
       <c r="U24" s="130" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V24" s="130" t="s">
         <v>164</v>
@@ -8545,10 +8553,10 @@
         <v>164</v>
       </c>
       <c r="Z24" s="142" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="AA24" s="145">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F24:Y24,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -8560,7 +8568,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D25" s="196"/>
       <c r="E25" s="117"/>
@@ -8625,10 +8633,10 @@
         <v>164</v>
       </c>
       <c r="Z25" s="184" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AA25" s="176">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F25:Y25,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -8638,7 +8646,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D26" s="194"/>
       <c r="E26" s="116"/>
@@ -8703,10 +8711,10 @@
         <v>164</v>
       </c>
       <c r="Z26" s="163" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AA26" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F26:Y26,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -8716,7 +8724,7 @@
         <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D27" s="194"/>
       <c r="E27" s="116"/>
@@ -8757,7 +8765,7 @@
         <v>138</v>
       </c>
       <c r="R27" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S27" s="123" t="s">
         <v>164</v>
@@ -8766,7 +8774,7 @@
         <v>138</v>
       </c>
       <c r="U27" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V27" s="123" t="s">
         <v>164</v>
@@ -8781,10 +8789,10 @@
         <v>164</v>
       </c>
       <c r="Z27" s="163" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="AA27" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F27:Y27,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -8794,7 +8802,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="153" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D28" s="195"/>
       <c r="E28" s="129"/>
@@ -8835,7 +8843,7 @@
         <v>138</v>
       </c>
       <c r="R28" s="130" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S28" s="130" t="s">
         <v>164</v>
@@ -8843,8 +8851,8 @@
       <c r="T28" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="U28" s="130" t="s">
-        <v>164</v>
+      <c r="U28" s="123" t="s">
+        <v>138</v>
       </c>
       <c r="V28" s="130" t="s">
         <v>164</v>
@@ -8859,10 +8867,10 @@
         <v>164</v>
       </c>
       <c r="Z28" s="166" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="AA28" s="160">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F28:Y28,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -8874,7 +8882,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="134" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
@@ -8939,10 +8947,10 @@
         <v>138</v>
       </c>
       <c r="Z29" s="162" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA29" s="143">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F29:Y29,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -8952,7 +8960,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
@@ -9017,10 +9025,10 @@
         <v>138</v>
       </c>
       <c r="Z30" s="163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA30" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F30:Y30,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -9030,7 +9038,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D31" s="116"/>
       <c r="E31" s="116"/>
@@ -9095,10 +9103,10 @@
         <v>138</v>
       </c>
       <c r="Z31" s="163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA31" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F31:Y31,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -9108,7 +9116,7 @@
         <v>105</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
@@ -9173,10 +9181,10 @@
         <v>138</v>
       </c>
       <c r="Z32" s="163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA32" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F32:Y32,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -9186,7 +9194,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
@@ -9251,10 +9259,10 @@
         <v>138</v>
       </c>
       <c r="Z33" s="163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA33" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F33:Y33,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -9264,7 +9272,7 @@
         <v>109</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -9329,10 +9337,10 @@
         <v>138</v>
       </c>
       <c r="Z34" s="163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA34" s="144">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F34:Y34,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -9342,7 +9350,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -9407,10 +9415,10 @@
         <v>138</v>
       </c>
       <c r="Z35" s="163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA35" s="144">
-        <f t="shared" ref="AA35:AA64" si="1">COUNTIF(F35:Y35,"X")</f>
+        <f>COUNTIF(F35:Y35,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -9420,7 +9428,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -9485,10 +9493,10 @@
         <v>138</v>
       </c>
       <c r="Z36" s="163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA36" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F36:Y36,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -9498,7 +9506,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
@@ -9563,10 +9571,10 @@
         <v>138</v>
       </c>
       <c r="Z37" s="166" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA37" s="160">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F37:Y37,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -9578,7 +9586,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="189" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D38" s="190"/>
       <c r="E38" s="190"/>
@@ -9619,7 +9627,7 @@
         <v>138</v>
       </c>
       <c r="R38" s="191" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S38" s="191" t="s">
         <v>164</v>
@@ -9628,7 +9636,7 @@
         <v>164</v>
       </c>
       <c r="U38" s="191" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V38" s="191" t="s">
         <v>164</v>
@@ -9643,10 +9651,10 @@
         <v>138</v>
       </c>
       <c r="Z38" s="162" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA38" s="143">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F38:Y38,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -9656,7 +9664,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -9697,7 +9705,7 @@
         <v>138</v>
       </c>
       <c r="R39" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S39" s="123" t="s">
         <v>164</v>
@@ -9706,7 +9714,7 @@
         <v>164</v>
       </c>
       <c r="U39" s="123" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V39" s="123" t="s">
         <v>164</v>
@@ -9721,10 +9729,10 @@
         <v>164</v>
       </c>
       <c r="Z39" s="163" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AA39" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F39:Y39,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -9734,7 +9742,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="116"/>
@@ -9766,10 +9774,10 @@
         <v>138</v>
       </c>
       <c r="O40" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="P40" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="Q40" s="123" t="s">
         <v>138</v>
@@ -9799,11 +9807,11 @@
         <v>164</v>
       </c>
       <c r="Z40" s="163" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="AA40" s="144">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>COUNTIF(F40:Y40,"X")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -9812,7 +9820,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="116"/>
@@ -9877,10 +9885,10 @@
         <v>164</v>
       </c>
       <c r="Z41" s="163" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AA41" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F41:Y41,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -9890,7 +9898,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="116"/>
@@ -9922,10 +9930,10 @@
         <v>164</v>
       </c>
       <c r="O42" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="P42" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="Q42" s="123" t="s">
         <v>138</v>
@@ -9955,11 +9963,11 @@
         <v>164</v>
       </c>
       <c r="Z42" s="163" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AA42" s="144">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>COUNTIF(F42:Y42,"X")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -9968,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
@@ -10000,10 +10008,10 @@
         <v>164</v>
       </c>
       <c r="O43" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="P43" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="Q43" s="123" t="s">
         <v>138</v>
@@ -10033,11 +10041,11 @@
         <v>164</v>
       </c>
       <c r="Z43" s="163" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AA43" s="144">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>COUNTIF(F43:Y43,"X")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -10046,7 +10054,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D44" s="116"/>
       <c r="E44" s="116"/>
@@ -10078,10 +10086,10 @@
         <v>164</v>
       </c>
       <c r="O44" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="P44" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="Q44" s="123" t="s">
         <v>138</v>
@@ -10111,11 +10119,11 @@
         <v>164</v>
       </c>
       <c r="Z44" s="163" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AA44" s="144">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>COUNTIF(F44:Y44,"X")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -10124,7 +10132,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="116"/>
@@ -10189,10 +10197,10 @@
         <v>164</v>
       </c>
       <c r="Z45" s="163" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AA45" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F45:Y45,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10202,7 +10210,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
@@ -10267,10 +10275,10 @@
         <v>164</v>
       </c>
       <c r="Z46" s="163" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AA46" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F46:Y46,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10280,7 +10288,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
@@ -10345,10 +10353,10 @@
         <v>164</v>
       </c>
       <c r="Z47" s="163" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AA47" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F47:Y47,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10358,7 +10366,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="116"/>
@@ -10423,10 +10431,10 @@
         <v>164</v>
       </c>
       <c r="Z48" s="163" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AA48" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F48:Y48,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10436,7 +10444,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="116"/>
@@ -10501,10 +10509,10 @@
         <v>164</v>
       </c>
       <c r="Z49" s="163" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AA49" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F49:Y49,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10514,7 +10522,7 @@
         <v>38</v>
       </c>
       <c r="C50" s="153" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D50" s="129"/>
       <c r="E50" s="129"/>
@@ -10555,7 +10563,7 @@
         <v>138</v>
       </c>
       <c r="R50" s="130" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S50" s="130" t="s">
         <v>164</v>
@@ -10564,7 +10572,7 @@
         <v>164</v>
       </c>
       <c r="U50" s="130" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="V50" s="130" t="s">
         <v>164</v>
@@ -10579,10 +10587,10 @@
         <v>164</v>
       </c>
       <c r="Z50" s="166" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="AA50" s="160">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F50:Y50,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -10594,7 +10602,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="134" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="117"/>
@@ -10659,10 +10667,10 @@
         <v>164</v>
       </c>
       <c r="Z51" s="162" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA51" s="143">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F51:Y51,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10672,7 +10680,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="116"/>
@@ -10737,10 +10745,10 @@
         <v>164</v>
       </c>
       <c r="Z52" s="163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA52" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F52:Y52,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10750,7 +10758,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D53" s="116"/>
       <c r="E53" s="116"/>
@@ -10815,10 +10823,10 @@
         <v>164</v>
       </c>
       <c r="Z53" s="163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA53" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F53:Y53,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10828,7 +10836,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="116"/>
@@ -10893,10 +10901,10 @@
         <v>164</v>
       </c>
       <c r="Z54" s="163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA54" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F54:Y54,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10906,7 +10914,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D55" s="116"/>
       <c r="E55" s="116"/>
@@ -10971,10 +10979,10 @@
         <v>164</v>
       </c>
       <c r="Z55" s="163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA55" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F55:Y55,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -10984,7 +10992,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="116"/>
@@ -11049,10 +11057,10 @@
         <v>164</v>
       </c>
       <c r="Z56" s="163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA56" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F56:Y56,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -11062,7 +11070,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="116"/>
@@ -11127,10 +11135,10 @@
         <v>164</v>
       </c>
       <c r="Z57" s="163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA57" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F57:Y57,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -11140,7 +11148,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
@@ -11205,10 +11213,10 @@
         <v>164</v>
       </c>
       <c r="Z58" s="163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA58" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F58:Y58,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -11218,7 +11226,7 @@
         <v>48</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D59" s="116"/>
       <c r="E59" s="116"/>
@@ -11283,10 +11291,10 @@
         <v>164</v>
       </c>
       <c r="Z59" s="163" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AA59" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F59:Y59,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -11296,7 +11304,7 @@
         <v>49</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D60" s="116"/>
       <c r="E60" s="116"/>
@@ -11357,10 +11365,10 @@
         <v>164</v>
       </c>
       <c r="Z60" s="163" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AA60" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F60:Y60,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -11370,7 +11378,7 @@
         <v>50</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D61" s="116"/>
       <c r="E61" s="116"/>
@@ -11431,10 +11439,10 @@
         <v>164</v>
       </c>
       <c r="Z61" s="163" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AA61" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F61:Y61,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -11444,7 +11452,7 @@
         <v>51</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="116"/>
@@ -11485,7 +11493,7 @@
         <v>164</v>
       </c>
       <c r="R62" s="123" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="S62" s="123" t="s">
         <v>164</v>
@@ -11509,11 +11517,11 @@
         <v>164</v>
       </c>
       <c r="Z62" s="163" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AA62" s="144">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>COUNTIF(F62:Y62,"X")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -11522,7 +11530,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116"/>
@@ -11587,10 +11595,10 @@
         <v>164</v>
       </c>
       <c r="Z63" s="163" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AA63" s="144">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F63:Y63,"X")</f>
         <v>5</v>
       </c>
     </row>
@@ -11600,7 +11608,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="153" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D64" s="129"/>
       <c r="E64" s="129"/>
@@ -11665,10 +11673,10 @@
         <v>164</v>
       </c>
       <c r="Z64" s="152" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="AA64" s="145">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F64:Y64,"X")</f>
         <v>6</v>
       </c>
     </row>
@@ -11680,7 +11688,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="134" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D65" s="117"/>
       <c r="E65" s="117"/>
@@ -11745,7 +11753,7 @@
         <v>164</v>
       </c>
       <c r="Z65" s="184" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AA65" s="176">
         <f>COUNTIF(G65:Y65,"X")</f>
@@ -11758,7 +11766,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
@@ -11823,7 +11831,7 @@
         <v>164</v>
       </c>
       <c r="Z66" s="163" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AA66" s="144">
         <f>COUNTIF(F66:Y66,"X")</f>
@@ -11836,7 +11844,7 @@
         <v>57</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
@@ -11901,7 +11909,7 @@
         <v>164</v>
       </c>
       <c r="Z67" s="163" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AA67" s="144">
         <f>COUNTIF(F67:Y67,"X")</f>
@@ -11914,7 +11922,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
@@ -11979,7 +11987,7 @@
         <v>164</v>
       </c>
       <c r="Z68" s="152" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AA68" s="145">
         <f>COUNTIF(F68:Y68,"X")</f>
@@ -11988,95 +11996,95 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69" s="172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F69" s="178">
         <f>COUNTIF(F3:F68,"X")</f>
         <v>25</v>
       </c>
       <c r="G69" s="179">
-        <f t="shared" ref="G69:Y69" si="2">COUNTIF(G3:G68,"X")</f>
+        <f t="shared" ref="G69:Y69" si="0">COUNTIF(G3:G68,"X")</f>
         <v>38</v>
       </c>
       <c r="H69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="I69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="J69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="K69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="M69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P69" s="179">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q69" s="179">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R69" s="179">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="179">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T69" s="179">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U69" s="179">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V69" s="179">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="W69" s="179">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P69" s="179">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="Q69" s="179">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="R69" s="179">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="S69" s="179">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="T69" s="179">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="U69" s="179">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="V69" s="179">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="W69" s="179">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
       <c r="X69" s="179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y69" s="180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="Z69" s="177">
         <f>SUM(F69:Y69)</f>
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AA69" s="177">
         <f>SUM(AA3:AA68)</f>
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
@@ -16050,8 +16058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16067,19 +16075,19 @@
   <sheetData>
     <row r="1" spans="1:23" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="121" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B1" s="197" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C1" s="198" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D1" s="198" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="198" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F1" s="198" t="s">
         <v>61</v>
@@ -16088,7 +16096,7 @@
         <v>115</v>
       </c>
       <c r="H1" s="199" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I1" s="186"/>
       <c r="J1" s="186"/>
@@ -16111,22 +16119,22 @@
         <v>150</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C2" s="204" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D2" s="204" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E2" s="134" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F2" s="134">
         <v>2015</v>
       </c>
       <c r="G2" s="187" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H2" s="205"/>
     </row>
@@ -16135,13 +16143,13 @@
         <v>169</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D3" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
@@ -16155,13 +16163,13 @@
         <v>151</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D4" s="200" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -16175,13 +16183,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="200" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="200" t="s">
         <v>244</v>
-      </c>
-      <c r="C5" s="200" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="200" t="s">
-        <v>253</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -16195,13 +16203,13 @@
         <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C6" s="200" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
@@ -16215,22 +16223,22 @@
         <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C7" s="200" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D7" s="200" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F7" s="11">
         <v>2015</v>
       </c>
       <c r="G7" s="212" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H7" s="207"/>
     </row>
@@ -16239,22 +16247,22 @@
         <v>153</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C8" s="200" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D8" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F8" s="11">
         <v>2015</v>
       </c>
       <c r="G8" s="150" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H8" s="207"/>
     </row>
@@ -16263,13 +16271,13 @@
         <v>154</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C9" s="200" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D9" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1">
@@ -16280,16 +16288,16 @@
     </row>
     <row r="10" spans="1:23" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="206" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D10" s="200" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="1">
@@ -16303,13 +16311,13 @@
         <v>155</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C11" s="200" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="1">
@@ -16323,13 +16331,13 @@
         <v>156</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C12" s="200" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D12" s="200" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E12" s="153"/>
       <c r="F12" s="1">
@@ -16343,22 +16351,22 @@
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D13" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F13" s="1">
         <v>2015</v>
       </c>
       <c r="G13" s="212" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H13" s="207"/>
     </row>
@@ -16367,22 +16375,22 @@
         <v>158</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D14" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F14" s="11">
         <v>2015</v>
       </c>
       <c r="G14" s="150" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H14" s="207"/>
     </row>
@@ -16391,22 +16399,22 @@
         <v>165</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C15" s="200" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D15" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F15" s="11">
         <v>2015</v>
       </c>
       <c r="G15" s="212" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H15" s="207"/>
     </row>
@@ -16415,13 +16423,13 @@
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D16" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="1">
@@ -16435,22 +16443,22 @@
         <v>160</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D17" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F17" s="1">
         <v>2015</v>
       </c>
       <c r="G17" s="150" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H17" s="207"/>
     </row>
@@ -16459,40 +16467,40 @@
         <v>161</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C18" s="200" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D18" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F18" s="1">
         <v>2015</v>
       </c>
       <c r="G18" s="150" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H18" s="207"/>
     </row>
     <row r="19" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="206" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C19" s="200" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D19" s="200" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E19" s="153" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F19" s="11">
         <v>2015</v>
@@ -16502,16 +16510,16 @@
     </row>
     <row r="20" spans="1:8" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="206" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C20" s="200" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D20" s="200" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="1">
@@ -16525,13 +16533,13 @@
         <v>162</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D21" s="209" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E21" s="137"/>
       <c r="F21" s="210">
@@ -16543,7 +16551,7 @@
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="273" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B26" s="274"/>
       <c r="C26" s="275"/>
@@ -16551,7 +16559,7 @@
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="272" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B27" s="272"/>
       <c r="C27" s="272"/>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26595" windowHeight="11580"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Temporal distrib. - methodology" sheetId="2" r:id="rId2"/>
     <sheet name="Temporal distribution - summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="337">
   <si>
     <t>NFR category</t>
   </si>
@@ -1238,11 +1243,17 @@
   <si>
     <t>The Total inventory was spatially allocated to the areas that represents the Solid waste disposal. For thus purpose, the dump sites will be extracted from the Corine Land Cover data (class 1.3.2 the of Corine Land Cover). Spatial allocation on 5x5km cells was conducted proportionally to the areas of the dump site that lies in each cell.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Spatial Locations of rafineries are identified as sources from Energy category. </t>
+  </si>
+  <si>
+    <t>Spatial Locations of rafineries are identified as sources from Energy category.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1357,7 +1368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1424,12 +1435,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="65">
     <border>
@@ -2884,6 +2889,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2953,102 +2961,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3056,12 +2968,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3073,60 +2979,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4519,7 +4524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4529,8 +4534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,7 +4546,7 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="56.42578125" style="271" customWidth="1"/>
+    <col min="7" max="7" width="56.42578125" style="217" customWidth="1"/>
     <col min="8" max="8" width="49.28515625" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
@@ -4555,11 +4560,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="222" t="s">
+      <c r="K1" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="223"/>
-      <c r="M1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
     </row>
     <row r="2" spans="1:16" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -4612,7 +4617,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="239" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -4630,7 +4635,7 @@
       <c r="F3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="272" t="s">
+      <c r="G3" s="241" t="s">
         <v>297</v>
       </c>
       <c r="H3" s="3"/>
@@ -4648,7 +4653,7 @@
       <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="239"/>
+      <c r="A4" s="240"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +4669,7 @@
       <c r="F4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="273"/>
+      <c r="G4" s="242"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4680,7 +4685,7 @@
       <c r="P4" s="61"/>
     </row>
     <row r="5" spans="1:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="239"/>
+      <c r="A5" s="240"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -4696,7 +4701,7 @@
       <c r="F5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="273"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4712,7 +4717,7 @@
       <c r="P5" s="61"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="239"/>
+      <c r="A6" s="240"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -4728,7 +4733,7 @@
       <c r="F6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="273"/>
+      <c r="G6" s="242"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -4744,7 +4749,7 @@
       <c r="P6" s="61"/>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="239"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -4760,7 +4765,7 @@
       <c r="F7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="273"/>
+      <c r="G7" s="242"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -4776,7 +4781,7 @@
       <c r="P7" s="61"/>
     </row>
     <row r="8" spans="1:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="239"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -4792,7 +4797,7 @@
       <c r="F8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="274"/>
+      <c r="G8" s="243"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -4808,7 +4813,7 @@
       <c r="P8" s="63"/>
     </row>
     <row r="9" spans="1:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="228" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4823,7 +4828,7 @@
       <c r="E9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="280" t="s">
         <v>71</v>
       </c>
       <c r="G9" s="42" t="s">
@@ -4850,32 +4855,28 @@
       <c r="P9" s="59"/>
     </row>
     <row r="10" spans="1:16" s="290" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="228"/>
-      <c r="B10" s="280" t="s">
+      <c r="A10" s="229"/>
+      <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="281" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="281" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="281" t="s">
         <v>67</v>
       </c>
       <c r="F10" s="281" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="282"/>
-      <c r="H10" s="283" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="283" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="284">
-        <v>2015</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G10" s="282" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="283"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="284"/>
       <c r="K10" s="285" t="s">
         <v>138</v>
       </c>
@@ -4886,7 +4887,7 @@
       <c r="P10" s="289"/>
     </row>
     <row r="11" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="228"/>
+      <c r="A11" s="229"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -4924,43 +4925,39 @@
       <c r="P11" s="61"/>
     </row>
     <row r="12" spans="1:16" s="290" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="229"/>
-      <c r="B12" s="291" t="s">
+      <c r="A12" s="230"/>
+      <c r="B12" s="298" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="292" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="292" t="s">
+      <c r="C12" s="291" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="292" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="292" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="293"/>
-      <c r="H12" s="294" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="294" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="295">
-        <v>2015</v>
-      </c>
-      <c r="K12" s="296" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="297"/>
-      <c r="M12" s="297"/>
-      <c r="N12" s="298"/>
+      <c r="D12" s="291" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="291" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="291" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="292" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="295" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="296"/>
+      <c r="M12" s="296"/>
+      <c r="N12" s="297"/>
       <c r="O12" s="288"/>
       <c r="P12" s="289"/>
     </row>
     <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="230" t="s">
+      <c r="A13" s="231" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -5002,7 +4999,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="230"/>
+      <c r="A14" s="231"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -5042,7 +5039,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="230"/>
+      <c r="A15" s="231"/>
       <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
@@ -5058,7 +5055,7 @@
       <c r="F15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="277" t="s">
+      <c r="G15" s="244" t="s">
         <v>302</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -5082,7 +5079,7 @@
       <c r="P15" s="55"/>
     </row>
     <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="230"/>
+      <c r="A16" s="231"/>
       <c r="B16" s="21" t="s">
         <v>11</v>
       </c>
@@ -5098,7 +5095,7 @@
       <c r="F16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="278"/>
+      <c r="G16" s="245"/>
       <c r="H16" s="11" t="s">
         <v>86</v>
       </c>
@@ -5120,7 +5117,7 @@
       <c r="P16" s="55"/>
     </row>
     <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="230"/>
+      <c r="A17" s="231"/>
       <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
@@ -5136,7 +5133,7 @@
       <c r="F17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="278"/>
+      <c r="G17" s="245"/>
       <c r="H17" s="11" t="s">
         <v>86</v>
       </c>
@@ -5158,7 +5155,7 @@
       <c r="P17" s="55"/>
     </row>
     <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="230"/>
+      <c r="A18" s="231"/>
       <c r="B18" s="21" t="s">
         <v>13</v>
       </c>
@@ -5174,7 +5171,7 @@
       <c r="F18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="278"/>
+      <c r="G18" s="245"/>
       <c r="H18" s="11" t="s">
         <v>86</v>
       </c>
@@ -5196,7 +5193,7 @@
       <c r="P18" s="55"/>
     </row>
     <row r="19" spans="1:16" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="230"/>
+      <c r="A19" s="231"/>
       <c r="B19" s="21" t="s">
         <v>14</v>
       </c>
@@ -5212,7 +5209,7 @@
       <c r="F19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="278"/>
+      <c r="G19" s="245"/>
       <c r="H19" s="11" t="s">
         <v>86</v>
       </c>
@@ -5234,7 +5231,7 @@
       <c r="P19" s="55"/>
     </row>
     <row r="20" spans="1:16" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="230"/>
+      <c r="A20" s="231"/>
       <c r="B20" s="21" t="s">
         <v>15</v>
       </c>
@@ -5250,7 +5247,7 @@
       <c r="F20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="279"/>
+      <c r="G20" s="246"/>
       <c r="H20" s="11" t="s">
         <v>86</v>
       </c>
@@ -5272,7 +5269,7 @@
       <c r="P20" s="55"/>
     </row>
     <row r="21" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="230"/>
+      <c r="A21" s="231"/>
       <c r="B21" s="21" t="s">
         <v>16</v>
       </c>
@@ -5312,7 +5309,7 @@
       <c r="P21" s="55"/>
     </row>
     <row r="22" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="230"/>
+      <c r="A22" s="231"/>
       <c r="B22" s="21" t="s">
         <v>17</v>
       </c>
@@ -5352,7 +5349,7 @@
       <c r="P22" s="55"/>
     </row>
     <row r="23" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="230"/>
+      <c r="A23" s="231"/>
       <c r="B23" s="21" t="s">
         <v>18</v>
       </c>
@@ -5390,7 +5387,7 @@
       <c r="P23" s="55"/>
     </row>
     <row r="24" spans="1:16" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="231"/>
+      <c r="A24" s="232"/>
       <c r="B24" s="22" t="s">
         <v>19</v>
       </c>
@@ -5428,7 +5425,7 @@
       <c r="P24" s="57"/>
     </row>
     <row r="25" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="232" t="s">
+      <c r="A25" s="233" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -5468,7 +5465,7 @@
       <c r="P25" s="59"/>
     </row>
     <row r="26" spans="1:16" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="233"/>
+      <c r="A26" s="234"/>
       <c r="B26" s="18" t="s">
         <v>93</v>
       </c>
@@ -5508,7 +5505,7 @@
       <c r="P26" s="61"/>
     </row>
     <row r="27" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="233"/>
+      <c r="A27" s="234"/>
       <c r="B27" s="18" t="s">
         <v>92</v>
       </c>
@@ -5548,7 +5545,7 @@
       <c r="P27" s="61"/>
     </row>
     <row r="28" spans="1:16" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="234"/>
+      <c r="A28" s="235"/>
       <c r="B28" s="19" t="s">
         <v>21</v>
       </c>
@@ -5588,7 +5585,7 @@
       <c r="P28" s="63"/>
     </row>
     <row r="29" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="219" t="s">
+      <c r="A29" s="220" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -5606,7 +5603,7 @@
       <c r="F29" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="272" t="s">
+      <c r="G29" s="241" t="s">
         <v>310</v>
       </c>
       <c r="H29" s="3"/>
@@ -5624,7 +5621,7 @@
       <c r="P29" s="59"/>
     </row>
     <row r="30" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="220"/>
+      <c r="A30" s="221"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -5640,7 +5637,7 @@
       <c r="F30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="273"/>
+      <c r="G30" s="242"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -5656,7 +5653,7 @@
       <c r="P30" s="61"/>
     </row>
     <row r="31" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="220"/>
+      <c r="A31" s="221"/>
       <c r="B31" s="51" t="s">
         <v>106</v>
       </c>
@@ -5672,7 +5669,7 @@
       <c r="F31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="273"/>
+      <c r="G31" s="242"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -5688,7 +5685,7 @@
       <c r="P31" s="61"/>
     </row>
     <row r="32" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="220"/>
+      <c r="A32" s="221"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -5704,7 +5701,7 @@
       <c r="F32" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="273"/>
+      <c r="G32" s="242"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -5720,7 +5717,7 @@
       <c r="P32" s="61"/>
     </row>
     <row r="33" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="220"/>
+      <c r="A33" s="221"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -5736,7 +5733,7 @@
       <c r="F33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="273"/>
+      <c r="G33" s="242"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -5752,7 +5749,7 @@
       <c r="P33" s="61"/>
     </row>
     <row r="34" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="220"/>
+      <c r="A34" s="221"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -5768,7 +5765,7 @@
       <c r="F34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="276"/>
+      <c r="G34" s="247"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -5784,7 +5781,7 @@
       <c r="P34" s="61"/>
     </row>
     <row r="35" spans="1:16" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="220"/>
+      <c r="A35" s="221"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -5818,7 +5815,7 @@
       <c r="P35" s="61"/>
     </row>
     <row r="36" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="220"/>
+      <c r="A36" s="221"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -5860,7 +5857,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="221"/>
+      <c r="A37" s="222"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -5900,7 +5897,7 @@
       <c r="P37" s="63"/>
     </row>
     <row r="38" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="217" t="s">
+      <c r="A38" s="218" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="44" t="s">
@@ -5936,7 +5933,7 @@
       <c r="P38" s="59"/>
     </row>
     <row r="39" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="218"/>
+      <c r="A39" s="219"/>
       <c r="B39" s="45" t="s">
         <v>28</v>
       </c>
@@ -5976,7 +5973,7 @@
       <c r="P39" s="61"/>
     </row>
     <row r="40" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="218"/>
+      <c r="A40" s="219"/>
       <c r="B40" s="45" t="s">
         <v>29</v>
       </c>
@@ -6014,7 +6011,7 @@
       <c r="P40" s="61"/>
     </row>
     <row r="41" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218"/>
+      <c r="A41" s="219"/>
       <c r="B41" s="45" t="s">
         <v>30</v>
       </c>
@@ -6054,7 +6051,7 @@
       <c r="P41" s="61"/>
     </row>
     <row r="42" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="218"/>
+      <c r="A42" s="219"/>
       <c r="B42" s="45" t="s">
         <v>31</v>
       </c>
@@ -6070,7 +6067,7 @@
       <c r="F42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="275" t="s">
+      <c r="G42" s="248" t="s">
         <v>317</v>
       </c>
       <c r="H42" s="14" t="s">
@@ -6092,7 +6089,7 @@
       <c r="P42" s="61"/>
     </row>
     <row r="43" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="218"/>
+      <c r="A43" s="219"/>
       <c r="B43" s="45" t="s">
         <v>32</v>
       </c>
@@ -6108,7 +6105,7 @@
       <c r="F43" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="273"/>
+      <c r="G43" s="242"/>
       <c r="H43" s="14" t="s">
         <v>77</v>
       </c>
@@ -6128,7 +6125,7 @@
       <c r="P43" s="61"/>
     </row>
     <row r="44" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="218"/>
+      <c r="A44" s="219"/>
       <c r="B44" s="45" t="s">
         <v>33</v>
       </c>
@@ -6144,7 +6141,7 @@
       <c r="F44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G44" s="276"/>
+      <c r="G44" s="247"/>
       <c r="H44" s="14" t="s">
         <v>77</v>
       </c>
@@ -6164,7 +6161,7 @@
       <c r="P44" s="61"/>
     </row>
     <row r="45" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="218"/>
+      <c r="A45" s="219"/>
       <c r="B45" s="45" t="s">
         <v>34</v>
       </c>
@@ -6204,7 +6201,7 @@
       <c r="P45" s="61"/>
     </row>
     <row r="46" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="218"/>
+      <c r="A46" s="219"/>
       <c r="B46" s="45" t="s">
         <v>35</v>
       </c>
@@ -6244,7 +6241,7 @@
       <c r="P46" s="61"/>
     </row>
     <row r="47" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="218"/>
+      <c r="A47" s="219"/>
       <c r="B47" s="45" t="s">
         <v>36</v>
       </c>
@@ -6284,7 +6281,7 @@
       <c r="P47" s="61"/>
     </row>
     <row r="48" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="218"/>
+      <c r="A48" s="219"/>
       <c r="B48" s="45" t="s">
         <v>37</v>
       </c>
@@ -6324,7 +6321,7 @@
       <c r="P48" s="61"/>
     </row>
     <row r="49" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="218"/>
+      <c r="A49" s="219"/>
       <c r="B49" s="45" t="s">
         <v>120</v>
       </c>
@@ -6364,7 +6361,7 @@
       <c r="P49" s="61"/>
     </row>
     <row r="50" spans="1:16" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="218"/>
+      <c r="A50" s="219"/>
       <c r="B50" s="208" t="s">
         <v>38</v>
       </c>
@@ -6404,7 +6401,7 @@
       <c r="P50" s="63"/>
     </row>
     <row r="51" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="235" t="s">
+      <c r="A51" s="236" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="215" t="s">
@@ -6446,7 +6443,7 @@
       <c r="P51" s="59"/>
     </row>
     <row r="52" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="236"/>
+      <c r="A52" s="237"/>
       <c r="B52" s="214" t="s">
         <v>41</v>
       </c>
@@ -6486,7 +6483,7 @@
       <c r="P52" s="61"/>
     </row>
     <row r="53" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="236"/>
+      <c r="A53" s="237"/>
       <c r="B53" s="214" t="s">
         <v>42</v>
       </c>
@@ -6526,7 +6523,7 @@
       <c r="P53" s="61"/>
     </row>
     <row r="54" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="236"/>
+      <c r="A54" s="237"/>
       <c r="B54" s="214" t="s">
         <v>43</v>
       </c>
@@ -6562,7 +6559,7 @@
       <c r="P54" s="61"/>
     </row>
     <row r="55" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="236"/>
+      <c r="A55" s="237"/>
       <c r="B55" s="214" t="s">
         <v>44</v>
       </c>
@@ -6602,7 +6599,7 @@
       <c r="P55" s="61"/>
     </row>
     <row r="56" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="236"/>
+      <c r="A56" s="237"/>
       <c r="B56" s="214" t="s">
         <v>45</v>
       </c>
@@ -6642,7 +6639,7 @@
       <c r="P56" s="61"/>
     </row>
     <row r="57" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="236"/>
+      <c r="A57" s="237"/>
       <c r="B57" s="214" t="s">
         <v>46</v>
       </c>
@@ -6678,7 +6675,7 @@
       <c r="P57" s="61"/>
     </row>
     <row r="58" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="236"/>
+      <c r="A58" s="237"/>
       <c r="B58" s="214" t="s">
         <v>47</v>
       </c>
@@ -6718,7 +6715,7 @@
       <c r="P58" s="61"/>
     </row>
     <row r="59" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="236"/>
+      <c r="A59" s="237"/>
       <c r="B59" s="214" t="s">
         <v>48</v>
       </c>
@@ -6758,7 +6755,7 @@
       <c r="P59" s="61"/>
     </row>
     <row r="60" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="236"/>
+      <c r="A60" s="237"/>
       <c r="B60" s="214" t="s">
         <v>49</v>
       </c>
@@ -6798,7 +6795,7 @@
       <c r="P60" s="61"/>
     </row>
     <row r="61" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="236"/>
+      <c r="A61" s="237"/>
       <c r="B61" s="214" t="s">
         <v>50</v>
       </c>
@@ -6838,7 +6835,7 @@
       <c r="P61" s="61"/>
     </row>
     <row r="62" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="236"/>
+      <c r="A62" s="237"/>
       <c r="B62" s="214" t="s">
         <v>51</v>
       </c>
@@ -6878,7 +6875,7 @@
       <c r="P62" s="61"/>
     </row>
     <row r="63" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="236"/>
+      <c r="A63" s="237"/>
       <c r="B63" s="214" t="s">
         <v>52</v>
       </c>
@@ -6918,7 +6915,7 @@
       <c r="P63" s="61"/>
     </row>
     <row r="64" spans="1:16" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="237"/>
+      <c r="A64" s="238"/>
       <c r="B64" s="216" t="s">
         <v>53</v>
       </c>
@@ -6958,7 +6955,7 @@
       <c r="P64" s="61"/>
     </row>
     <row r="65" spans="1:16" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="225" t="s">
+      <c r="A65" s="226" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="209" t="s">
@@ -7000,7 +6997,7 @@
       <c r="P65" s="93"/>
     </row>
     <row r="66" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="225"/>
+      <c r="A66" s="226"/>
       <c r="B66" s="71" t="s">
         <v>56</v>
       </c>
@@ -7040,7 +7037,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="225"/>
+      <c r="A67" s="226"/>
       <c r="B67" s="71" t="s">
         <v>57</v>
       </c>
@@ -7078,7 +7075,7 @@
       <c r="P67" s="95"/>
     </row>
     <row r="68" spans="1:16" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="226"/>
+      <c r="A68" s="227"/>
       <c r="B68" s="72" t="s">
         <v>58</v>
       </c>
@@ -7182,28 +7179,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="240" t="s">
+      <c r="F1" s="249" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="241"/>
-      <c r="O1" s="241"/>
-      <c r="P1" s="241"/>
-      <c r="Q1" s="241"/>
-      <c r="R1" s="241"/>
-      <c r="S1" s="241"/>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="242"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="250"/>
+      <c r="T1" s="250"/>
+      <c r="U1" s="250"/>
+      <c r="V1" s="250"/>
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
+      <c r="Y1" s="251"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
@@ -7289,7 +7286,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="258" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="146" t="s">
@@ -7373,7 +7370,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="250"/>
+      <c r="A4" s="259"/>
       <c r="B4" s="144" t="s">
         <v>3</v>
       </c>
@@ -7453,7 +7450,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="250"/>
+      <c r="A5" s="259"/>
       <c r="B5" s="144" t="s">
         <v>68</v>
       </c>
@@ -7531,7 +7528,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="250"/>
+      <c r="A6" s="259"/>
       <c r="B6" s="144" t="s">
         <v>69</v>
       </c>
@@ -7609,7 +7606,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="250"/>
+      <c r="A7" s="259"/>
       <c r="B7" s="144" t="s">
         <v>4</v>
       </c>
@@ -7689,7 +7686,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="251"/>
+      <c r="A8" s="260"/>
       <c r="B8" s="159" t="s">
         <v>70</v>
       </c>
@@ -7769,7 +7766,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="252" t="s">
+      <c r="A9" s="261" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="128" t="s">
@@ -7849,7 +7846,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="253"/>
+      <c r="A10" s="262"/>
       <c r="B10" s="127" t="s">
         <v>75</v>
       </c>
@@ -7927,7 +7924,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="253"/>
+      <c r="A11" s="262"/>
       <c r="B11" s="127" t="s">
         <v>111</v>
       </c>
@@ -8005,7 +8002,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="254"/>
+      <c r="A12" s="263"/>
       <c r="B12" s="176" t="s">
         <v>76</v>
       </c>
@@ -8083,7 +8080,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="255" t="s">
+      <c r="A13" s="264" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="178" t="s">
@@ -8163,7 +8160,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="256"/>
+      <c r="A14" s="265"/>
       <c r="B14" s="177" t="s">
         <v>9</v>
       </c>
@@ -8241,7 +8238,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="256"/>
+      <c r="A15" s="265"/>
       <c r="B15" s="177" t="s">
         <v>10</v>
       </c>
@@ -8319,7 +8316,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="256"/>
+      <c r="A16" s="265"/>
       <c r="B16" s="177" t="s">
         <v>11</v>
       </c>
@@ -8397,7 +8394,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="256"/>
+      <c r="A17" s="265"/>
       <c r="B17" s="177" t="s">
         <v>12</v>
       </c>
@@ -8475,7 +8472,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="256"/>
+      <c r="A18" s="265"/>
       <c r="B18" s="177" t="s">
         <v>13</v>
       </c>
@@ -8553,7 +8550,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="256"/>
+      <c r="A19" s="265"/>
       <c r="B19" s="177" t="s">
         <v>14</v>
       </c>
@@ -8631,7 +8628,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="256"/>
+      <c r="A20" s="265"/>
       <c r="B20" s="177" t="s">
         <v>15</v>
       </c>
@@ -8709,7 +8706,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="256"/>
+      <c r="A21" s="265"/>
       <c r="B21" s="177" t="s">
         <v>16</v>
       </c>
@@ -8787,7 +8784,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="256"/>
+      <c r="A22" s="265"/>
       <c r="B22" s="177" t="s">
         <v>17</v>
       </c>
@@ -8865,7 +8862,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="256"/>
+      <c r="A23" s="265"/>
       <c r="B23" s="177" t="s">
         <v>18</v>
       </c>
@@ -8943,7 +8940,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="257"/>
+      <c r="A24" s="266"/>
       <c r="B24" s="180" t="s">
         <v>19</v>
       </c>
@@ -9021,7 +9018,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="258" t="s">
+      <c r="A25" s="267" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="150" t="s">
@@ -9101,7 +9098,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="259"/>
+      <c r="A26" s="268"/>
       <c r="B26" s="149" t="s">
         <v>93</v>
       </c>
@@ -9179,7 +9176,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="259"/>
+      <c r="A27" s="268"/>
       <c r="B27" s="149" t="s">
         <v>92</v>
       </c>
@@ -9257,7 +9254,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="260"/>
+      <c r="A28" s="269"/>
       <c r="B28" s="151" t="s">
         <v>21</v>
       </c>
@@ -9335,7 +9332,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="261" t="s">
+      <c r="A29" s="270" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="154" t="s">
@@ -9415,7 +9412,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="262"/>
+      <c r="A30" s="271"/>
       <c r="B30" s="153" t="s">
         <v>104</v>
       </c>
@@ -9493,7 +9490,7 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="262"/>
+      <c r="A31" s="271"/>
       <c r="B31" s="153" t="s">
         <v>106</v>
       </c>
@@ -9571,7 +9568,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="262"/>
+      <c r="A32" s="271"/>
       <c r="B32" s="153" t="s">
         <v>105</v>
       </c>
@@ -9649,7 +9646,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="262"/>
+      <c r="A33" s="271"/>
       <c r="B33" s="153" t="s">
         <v>107</v>
       </c>
@@ -9727,7 +9724,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="262"/>
+      <c r="A34" s="271"/>
       <c r="B34" s="153" t="s">
         <v>109</v>
       </c>
@@ -9805,7 +9802,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="262"/>
+      <c r="A35" s="271"/>
       <c r="B35" s="153" t="s">
         <v>24</v>
       </c>
@@ -9883,7 +9880,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="262"/>
+      <c r="A36" s="271"/>
       <c r="B36" s="153" t="s">
         <v>25</v>
       </c>
@@ -9961,7 +9958,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="263"/>
+      <c r="A37" s="272"/>
       <c r="B37" s="188" t="s">
         <v>26</v>
       </c>
@@ -10039,7 +10036,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="264" t="s">
+      <c r="A38" s="273" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="183" t="s">
@@ -10119,7 +10116,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="265"/>
+      <c r="A39" s="274"/>
       <c r="B39" s="162" t="s">
         <v>28</v>
       </c>
@@ -10197,7 +10194,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="265"/>
+      <c r="A40" s="274"/>
       <c r="B40" s="162" t="s">
         <v>29</v>
       </c>
@@ -10275,7 +10272,7 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="265"/>
+      <c r="A41" s="274"/>
       <c r="B41" s="162" t="s">
         <v>30</v>
       </c>
@@ -10353,7 +10350,7 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="265"/>
+      <c r="A42" s="274"/>
       <c r="B42" s="162" t="s">
         <v>31</v>
       </c>
@@ -10431,7 +10428,7 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="265"/>
+      <c r="A43" s="274"/>
       <c r="B43" s="162" t="s">
         <v>32</v>
       </c>
@@ -10509,7 +10506,7 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="265"/>
+      <c r="A44" s="274"/>
       <c r="B44" s="162" t="s">
         <v>33</v>
       </c>
@@ -10587,7 +10584,7 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="265"/>
+      <c r="A45" s="274"/>
       <c r="B45" s="162" t="s">
         <v>34</v>
       </c>
@@ -10665,7 +10662,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="265"/>
+      <c r="A46" s="274"/>
       <c r="B46" s="162" t="s">
         <v>35</v>
       </c>
@@ -10743,7 +10740,7 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="265"/>
+      <c r="A47" s="274"/>
       <c r="B47" s="162" t="s">
         <v>36</v>
       </c>
@@ -10821,7 +10818,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="265"/>
+      <c r="A48" s="274"/>
       <c r="B48" s="162" t="s">
         <v>37</v>
       </c>
@@ -10899,7 +10896,7 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="265"/>
+      <c r="A49" s="274"/>
       <c r="B49" s="162" t="s">
         <v>120</v>
       </c>
@@ -10977,7 +10974,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="266"/>
+      <c r="A50" s="275"/>
       <c r="B50" s="163" t="s">
         <v>38</v>
       </c>
@@ -11055,7 +11052,7 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="243" t="s">
+      <c r="A51" s="252" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="165" t="s">
@@ -11135,7 +11132,7 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="244"/>
+      <c r="A52" s="253"/>
       <c r="B52" s="164" t="s">
         <v>41</v>
       </c>
@@ -11213,7 +11210,7 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="244"/>
+      <c r="A53" s="253"/>
       <c r="B53" s="164" t="s">
         <v>42</v>
       </c>
@@ -11291,7 +11288,7 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="244"/>
+      <c r="A54" s="253"/>
       <c r="B54" s="164" t="s">
         <v>43</v>
       </c>
@@ -11369,7 +11366,7 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="244"/>
+      <c r="A55" s="253"/>
       <c r="B55" s="164" t="s">
         <v>44</v>
       </c>
@@ -11447,7 +11444,7 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="244"/>
+      <c r="A56" s="253"/>
       <c r="B56" s="164" t="s">
         <v>45</v>
       </c>
@@ -11525,7 +11522,7 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="244"/>
+      <c r="A57" s="253"/>
       <c r="B57" s="164" t="s">
         <v>46</v>
       </c>
@@ -11603,7 +11600,7 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="244"/>
+      <c r="A58" s="253"/>
       <c r="B58" s="164" t="s">
         <v>47</v>
       </c>
@@ -11681,7 +11678,7 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="244"/>
+      <c r="A59" s="253"/>
       <c r="B59" s="164" t="s">
         <v>48</v>
       </c>
@@ -11759,7 +11756,7 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="244"/>
+      <c r="A60" s="253"/>
       <c r="B60" s="164" t="s">
         <v>49</v>
       </c>
@@ -11833,7 +11830,7 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="244"/>
+      <c r="A61" s="253"/>
       <c r="B61" s="164" t="s">
         <v>50</v>
       </c>
@@ -11907,7 +11904,7 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="244"/>
+      <c r="A62" s="253"/>
       <c r="B62" s="164" t="s">
         <v>51</v>
       </c>
@@ -11985,7 +11982,7 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="244"/>
+      <c r="A63" s="253"/>
       <c r="B63" s="164" t="s">
         <v>52</v>
       </c>
@@ -12063,7 +12060,7 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="245"/>
+      <c r="A64" s="254"/>
       <c r="B64" s="166" t="s">
         <v>53</v>
       </c>
@@ -12141,7 +12138,7 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="246" t="s">
+      <c r="A65" s="255" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="169" t="s">
@@ -12221,7 +12218,7 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="247"/>
+      <c r="A66" s="256"/>
       <c r="B66" s="168" t="s">
         <v>56</v>
       </c>
@@ -12299,7 +12296,7 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="247"/>
+      <c r="A67" s="256"/>
       <c r="B67" s="168" t="s">
         <v>57</v>
       </c>
@@ -12377,7 +12374,7 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="248"/>
+      <c r="A68" s="257"/>
       <c r="B68" s="170" t="s">
         <v>58</v>
       </c>
@@ -17010,19 +17007,19 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="268" t="s">
+      <c r="A26" s="277" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="269"/>
-      <c r="C26" s="270"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="279"/>
       <c r="D26" s="196"/>
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="267" t="s">
+      <c r="A27" s="276" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="267"/>
-      <c r="C27" s="267"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="276"/>
       <c r="D27" s="197"/>
     </row>
   </sheetData>

--- a/Datasets_summary.xlsx
+++ b/Datasets_summary.xlsx
@@ -2892,192 +2892,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3132,6 +2946,192 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4312,7 +4312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4347,7 +4347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4534,8 +4534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4560,11 +4560,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="223" t="s">
+      <c r="K1" s="242" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="224"/>
-      <c r="M1" s="225"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="244"/>
     </row>
     <row r="2" spans="1:16" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
@@ -4617,7 +4617,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="239" t="s">
+      <c r="A3" s="258" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -4635,7 +4635,7 @@
       <c r="F3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="241" t="s">
+      <c r="G3" s="260" t="s">
         <v>297</v>
       </c>
       <c r="H3" s="3"/>
@@ -4653,7 +4653,7 @@
       <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
+      <c r="A4" s="259"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="F4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="242"/>
+      <c r="G4" s="261"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4685,7 +4685,7 @@
       <c r="P4" s="61"/>
     </row>
     <row r="5" spans="1:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="240"/>
+      <c r="A5" s="259"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="F5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="242"/>
+      <c r="G5" s="261"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4717,7 +4717,7 @@
       <c r="P5" s="61"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="240"/>
+      <c r="A6" s="259"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="F6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="242"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -4749,7 +4749,7 @@
       <c r="P6" s="61"/>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="240"/>
+      <c r="A7" s="259"/>
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="F7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="242"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -4781,7 +4781,7 @@
       <c r="P7" s="61"/>
     </row>
     <row r="8" spans="1:16" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="240"/>
+      <c r="A8" s="259"/>
       <c r="B8" s="9" t="s">
         <v>70</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="F8" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="243"/>
+      <c r="G8" s="262"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -4813,7 +4813,7 @@
       <c r="P8" s="63"/>
     </row>
     <row r="9" spans="1:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="228" t="s">
+      <c r="A9" s="247" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -4828,7 +4828,7 @@
       <c r="E9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="280" t="s">
+      <c r="F9" s="218" t="s">
         <v>71</v>
       </c>
       <c r="G9" s="42" t="s">
@@ -4854,40 +4854,40 @@
       <c r="O9" s="53"/>
       <c r="P9" s="59"/>
     </row>
-    <row r="10" spans="1:16" s="290" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="229"/>
+    <row r="10" spans="1:16" s="228" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="248"/>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="281" t="s">
+      <c r="C10" s="219" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="281" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="281" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="281" t="s">
+      <c r="D10" s="219" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="219" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="219" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="282" t="s">
+      <c r="G10" s="220" t="s">
         <v>335</v>
       </c>
-      <c r="H10" s="283"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="284"/>
-      <c r="K10" s="285" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="286"/>
-      <c r="M10" s="286"/>
-      <c r="N10" s="287"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="289"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="223" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="226"/>
+      <c r="P10" s="227"/>
     </row>
     <row r="11" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="229"/>
+      <c r="A11" s="248"/>
       <c r="B11" s="13" t="s">
         <v>111</v>
       </c>
@@ -4924,40 +4924,40 @@
       <c r="O11" s="54"/>
       <c r="P11" s="61"/>
     </row>
-    <row r="12" spans="1:16" s="290" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="230"/>
-      <c r="B12" s="298" t="s">
+    <row r="12" spans="1:16" s="228" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="249"/>
+      <c r="B12" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="291" t="s">
+      <c r="C12" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="291" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="291" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="291" t="s">
+      <c r="D12" s="229" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="229" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="292" t="s">
+      <c r="G12" s="230" t="s">
         <v>336</v>
       </c>
-      <c r="H12" s="293"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="294"/>
-      <c r="K12" s="295" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="296"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="297"/>
-      <c r="O12" s="288"/>
-      <c r="P12" s="289"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="233" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="234"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="227"/>
     </row>
     <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="231" t="s">
+      <c r="A13" s="250" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -4999,7 +4999,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="231"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
@@ -5039,7 +5039,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="231"/>
+      <c r="A15" s="250"/>
       <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="F15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="244" t="s">
+      <c r="G15" s="263" t="s">
         <v>302</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -5079,7 +5079,7 @@
       <c r="P15" s="55"/>
     </row>
     <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="231"/>
+      <c r="A16" s="250"/>
       <c r="B16" s="21" t="s">
         <v>11</v>
       </c>
@@ -5095,7 +5095,7 @@
       <c r="F16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="245"/>
+      <c r="G16" s="264"/>
       <c r="H16" s="11" t="s">
         <v>86</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="P16" s="55"/>
     </row>
     <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="231"/>
+      <c r="A17" s="250"/>
       <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="F17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="245"/>
+      <c r="G17" s="264"/>
       <c r="H17" s="11" t="s">
         <v>86</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="P17" s="55"/>
     </row>
     <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="231"/>
+      <c r="A18" s="250"/>
       <c r="B18" s="21" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="F18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="245"/>
+      <c r="G18" s="264"/>
       <c r="H18" s="11" t="s">
         <v>86</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="P18" s="55"/>
     </row>
     <row r="19" spans="1:16" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="231"/>
+      <c r="A19" s="250"/>
       <c r="B19" s="21" t="s">
         <v>14</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="F19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="245"/>
+      <c r="G19" s="264"/>
       <c r="H19" s="11" t="s">
         <v>86</v>
       </c>
@@ -5231,7 +5231,7 @@
       <c r="P19" s="55"/>
     </row>
     <row r="20" spans="1:16" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="231"/>
+      <c r="A20" s="250"/>
       <c r="B20" s="21" t="s">
         <v>15</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="F20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="246"/>
+      <c r="G20" s="265"/>
       <c r="H20" s="11" t="s">
         <v>86</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="P20" s="55"/>
     </row>
     <row r="21" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="231"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="21" t="s">
         <v>16</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="P21" s="55"/>
     </row>
     <row r="22" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="231"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="21" t="s">
         <v>17</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="P22" s="55"/>
     </row>
     <row r="23" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="231"/>
+      <c r="A23" s="250"/>
       <c r="B23" s="21" t="s">
         <v>18</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="P23" s="55"/>
     </row>
     <row r="24" spans="1:16" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="232"/>
+      <c r="A24" s="251"/>
       <c r="B24" s="22" t="s">
         <v>19</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="P24" s="57"/>
     </row>
     <row r="25" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="233" t="s">
+      <c r="A25" s="252" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="38" t="s">
@@ -5465,7 +5465,7 @@
       <c r="P25" s="59"/>
     </row>
     <row r="26" spans="1:16" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="234"/>
+      <c r="A26" s="253"/>
       <c r="B26" s="18" t="s">
         <v>93</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="P26" s="61"/>
     </row>
     <row r="27" spans="1:16" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="234"/>
+      <c r="A27" s="253"/>
       <c r="B27" s="18" t="s">
         <v>92</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="P27" s="61"/>
     </row>
     <row r="28" spans="1:16" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="235"/>
+      <c r="A28" s="254"/>
       <c r="B28" s="19" t="s">
         <v>21</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="P28" s="63"/>
     </row>
     <row r="29" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="220" t="s">
+      <c r="A29" s="239" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -5603,7 +5603,7 @@
       <c r="F29" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="241" t="s">
+      <c r="G29" s="260" t="s">
         <v>310</v>
       </c>
       <c r="H29" s="3"/>
@@ -5621,7 +5621,7 @@
       <c r="P29" s="59"/>
     </row>
     <row r="30" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="221"/>
+      <c r="A30" s="240"/>
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="F30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="242"/>
+      <c r="G30" s="261"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -5653,7 +5653,7 @@
       <c r="P30" s="61"/>
     </row>
     <row r="31" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="221"/>
+      <c r="A31" s="240"/>
       <c r="B31" s="51" t="s">
         <v>106</v>
       </c>
@@ -5669,7 +5669,7 @@
       <c r="F31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="242"/>
+      <c r="G31" s="261"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -5685,7 +5685,7 @@
       <c r="P31" s="61"/>
     </row>
     <row r="32" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="221"/>
+      <c r="A32" s="240"/>
       <c r="B32" s="4" t="s">
         <v>105</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="F32" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="242"/>
+      <c r="G32" s="261"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -5717,7 +5717,7 @@
       <c r="P32" s="61"/>
     </row>
     <row r="33" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="221"/>
+      <c r="A33" s="240"/>
       <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="F33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="242"/>
+      <c r="G33" s="261"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -5749,7 +5749,7 @@
       <c r="P33" s="61"/>
     </row>
     <row r="34" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="221"/>
+      <c r="A34" s="240"/>
       <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="F34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="247"/>
+      <c r="G34" s="266"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -5781,7 +5781,7 @@
       <c r="P34" s="61"/>
     </row>
     <row r="35" spans="1:16" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="221"/>
+      <c r="A35" s="240"/>
       <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="P35" s="61"/>
     </row>
     <row r="36" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="221"/>
+      <c r="A36" s="240"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -5857,7 +5857,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="222"/>
+      <c r="A37" s="241"/>
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="P37" s="63"/>
     </row>
     <row r="38" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="218" t="s">
+      <c r="A38" s="237" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="44" t="s">
@@ -5933,7 +5933,7 @@
       <c r="P38" s="59"/>
     </row>
     <row r="39" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="219"/>
+      <c r="A39" s="238"/>
       <c r="B39" s="45" t="s">
         <v>28</v>
       </c>
@@ -5973,7 +5973,7 @@
       <c r="P39" s="61"/>
     </row>
     <row r="40" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="219"/>
+      <c r="A40" s="238"/>
       <c r="B40" s="45" t="s">
         <v>29</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="P40" s="61"/>
     </row>
     <row r="41" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="219"/>
+      <c r="A41" s="238"/>
       <c r="B41" s="45" t="s">
         <v>30</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="P41" s="61"/>
     </row>
     <row r="42" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="219"/>
+      <c r="A42" s="238"/>
       <c r="B42" s="45" t="s">
         <v>31</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="F42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="248" t="s">
+      <c r="G42" s="267" t="s">
         <v>317</v>
       </c>
       <c r="H42" s="14" t="s">
@@ -6089,7 +6089,7 @@
       <c r="P42" s="61"/>
     </row>
     <row r="43" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="219"/>
+      <c r="A43" s="238"/>
       <c r="B43" s="45" t="s">
         <v>32</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="F43" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="242"/>
+      <c r="G43" s="261"/>
       <c r="H43" s="14" t="s">
         <v>77</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="P43" s="61"/>
     </row>
     <row r="44" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
+      <c r="A44" s="238"/>
       <c r="B44" s="45" t="s">
         <v>33</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="F44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G44" s="247"/>
+      <c r="G44" s="266"/>
       <c r="H44" s="14" t="s">
         <v>77</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="P44" s="61"/>
     </row>
     <row r="45" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="219"/>
+      <c r="A45" s="238"/>
       <c r="B45" s="45" t="s">
         <v>34</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="P45" s="61"/>
     </row>
     <row r="46" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219"/>
+      <c r="A46" s="238"/>
       <c r="B46" s="45" t="s">
         <v>35</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="P46" s="61"/>
     </row>
     <row r="47" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="219"/>
+      <c r="A47" s="238"/>
       <c r="B47" s="45" t="s">
         <v>36</v>
       </c>
@@ -6281,7 +6281,7 @@
       <c r="P47" s="61"/>
     </row>
     <row r="48" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="219"/>
+      <c r="A48" s="238"/>
       <c r="B48" s="45" t="s">
         <v>37</v>
       </c>
@@ -6321,7 +6321,7 @@
       <c r="P48" s="61"/>
     </row>
     <row r="49" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="219"/>
+      <c r="A49" s="238"/>
       <c r="B49" s="45" t="s">
         <v>120</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="P49" s="61"/>
     </row>
     <row r="50" spans="1:16" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
+      <c r="A50" s="238"/>
       <c r="B50" s="208" t="s">
         <v>38</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="P50" s="63"/>
     </row>
     <row r="51" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="236" t="s">
+      <c r="A51" s="255" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="215" t="s">
@@ -6443,7 +6443,7 @@
       <c r="P51" s="59"/>
     </row>
     <row r="52" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="237"/>
+      <c r="A52" s="256"/>
       <c r="B52" s="214" t="s">
         <v>41</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="P52" s="61"/>
     </row>
     <row r="53" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="237"/>
+      <c r="A53" s="256"/>
       <c r="B53" s="214" t="s">
         <v>42</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="P53" s="61"/>
     </row>
     <row r="54" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="237"/>
+      <c r="A54" s="256"/>
       <c r="B54" s="214" t="s">
         <v>43</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="P54" s="61"/>
     </row>
     <row r="55" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="237"/>
+      <c r="A55" s="256"/>
       <c r="B55" s="214" t="s">
         <v>44</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="P55" s="61"/>
     </row>
     <row r="56" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="237"/>
+      <c r="A56" s="256"/>
       <c r="B56" s="214" t="s">
         <v>45</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="P56" s="61"/>
     </row>
     <row r="57" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="237"/>
+      <c r="A57" s="256"/>
       <c r="B57" s="214" t="s">
         <v>46</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="P57" s="61"/>
     </row>
     <row r="58" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="237"/>
+      <c r="A58" s="256"/>
       <c r="B58" s="214" t="s">
         <v>47</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="P58" s="61"/>
     </row>
     <row r="59" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="237"/>
+      <c r="A59" s="256"/>
       <c r="B59" s="214" t="s">
         <v>48</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="P59" s="61"/>
     </row>
     <row r="60" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="237"/>
+      <c r="A60" s="256"/>
       <c r="B60" s="214" t="s">
         <v>49</v>
       </c>
@@ -6795,7 +6795,7 @@
       <c r="P60" s="61"/>
     </row>
     <row r="61" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="237"/>
+      <c r="A61" s="256"/>
       <c r="B61" s="214" t="s">
         <v>50</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="P61" s="61"/>
     </row>
     <row r="62" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="237"/>
+      <c r="A62" s="256"/>
       <c r="B62" s="214" t="s">
         <v>51</v>
       </c>
@@ -6875,7 +6875,7 @@
       <c r="P62" s="61"/>
     </row>
     <row r="63" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="237"/>
+      <c r="A63" s="256"/>
       <c r="B63" s="214" t="s">
         <v>52</v>
       </c>
@@ -6915,7 +6915,7 @@
       <c r="P63" s="61"/>
     </row>
     <row r="64" spans="1:16" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="238"/>
+      <c r="A64" s="257"/>
       <c r="B64" s="216" t="s">
         <v>53</v>
       </c>
@@ -6955,7 +6955,7 @@
       <c r="P64" s="61"/>
     </row>
     <row r="65" spans="1:16" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="226" t="s">
+      <c r="A65" s="245" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="209" t="s">
@@ -6997,7 +6997,7 @@
       <c r="P65" s="93"/>
     </row>
     <row r="66" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="226"/>
+      <c r="A66" s="245"/>
       <c r="B66" s="71" t="s">
         <v>56</v>
       </c>
@@ -7037,7 +7037,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="226"/>
+      <c r="A67" s="245"/>
       <c r="B67" s="71" t="s">
         <v>57</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="P67" s="95"/>
     </row>
     <row r="68" spans="1:16" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="227"/>
+      <c r="A68" s="246"/>
       <c r="B68" s="72" t="s">
         <v>58</v>
       </c>
@@ -7179,28 +7179,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="249" t="s">
+      <c r="F1" s="268" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="250"/>
-      <c r="S1" s="250"/>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="251"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="270"/>
     </row>
     <row r="2" spans="1:27" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
@@ -7286,7 +7286,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="277" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="146" t="s">
@@ -7370,7 +7370,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="259"/>
+      <c r="A4" s="278"/>
       <c r="B4" s="144" t="s">
         <v>3</v>
       </c>
@@ -7450,7 +7450,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="259"/>
+      <c r="A5" s="278"/>
       <c r="B5" s="144" t="s">
         <v>68</v>
       </c>
@@ -7528,7 +7528,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="259"/>
+      <c r="A6" s="278"/>
       <c r="B6" s="144" t="s">
         <v>69</v>
       </c>
@@ -7606,7 +7606,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="259"/>
+      <c r="A7" s="278"/>
       <c r="B7" s="144" t="s">
         <v>4</v>
       </c>
@@ -7686,7 +7686,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="260"/>
+      <c r="A8" s="279"/>
       <c r="B8" s="159" t="s">
         <v>70</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="261" t="s">
+      <c r="A9" s="280" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="128" t="s">
@@ -7846,7 +7846,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="262"/>
+      <c r="A10" s="281"/>
       <c r="B10" s="127" t="s">
         <v>75</v>
       </c>
@@ -7924,7 +7924,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="262"/>
+      <c r="A11" s="281"/>
       <c r="B11" s="127" t="s">
         <v>111</v>
       </c>
@@ -8002,7 +8002,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="263"/>
+      <c r="A12" s="282"/>
       <c r="B12" s="176" t="s">
         <v>76</v>
       </c>
@@ -8080,7 +8080,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="264" t="s">
+      <c r="A13" s="283" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="178" t="s">
@@ -8160,7 +8160,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="265"/>
+      <c r="A14" s="284"/>
       <c r="B14" s="177" t="s">
         <v>9</v>
       </c>
@@ -8238,7 +8238,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="265"/>
+      <c r="A15" s="284"/>
       <c r="B15" s="177" t="s">
         <v>10</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="265"/>
+      <c r="A16" s="284"/>
       <c r="B16" s="177" t="s">
         <v>11</v>
       </c>
@@ -8394,7 +8394,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="265"/>
+      <c r="A17" s="284"/>
       <c r="B17" s="177" t="s">
         <v>12</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="265"/>
+      <c r="A18" s="284"/>
       <c r="B18" s="177" t="s">
         <v>13</v>
       </c>
@@ -8550,7 +8550,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="265"/>
+      <c r="A19" s="284"/>
       <c r="B19" s="177" t="s">
         <v>14</v>
       </c>
@@ -8628,7 +8628,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="265"/>
+      <c r="A20" s="284"/>
       <c r="B20" s="177" t="s">
         <v>15</v>
       </c>
@@ -8706,7 +8706,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="265"/>
+      <c r="A21" s="284"/>
       <c r="B21" s="177" t="s">
         <v>16</v>
       </c>
@@ -8784,7 +8784,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="265"/>
+      <c r="A22" s="284"/>
       <c r="B22" s="177" t="s">
         <v>17</v>
       </c>
@@ -8862,7 +8862,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="265"/>
+      <c r="A23" s="284"/>
       <c r="B23" s="177" t="s">
         <v>18</v>
       </c>
@@ -8940,7 +8940,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="266"/>
+      <c r="A24" s="285"/>
       <c r="B24" s="180" t="s">
         <v>19</v>
       </c>
@@ -9018,7 +9018,7 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="267" t="s">
+      <c r="A25" s="286" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="150" t="s">
@@ -9098,7 +9098,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="268"/>
+      <c r="A26" s="287"/>
       <c r="B26" s="149" t="s">
         <v>93</v>
       </c>
@@ -9176,7 +9176,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="268"/>
+      <c r="A27" s="287"/>
       <c r="B27" s="149" t="s">
         <v>92</v>
       </c>
@@ -9254,7 +9254,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="269"/>
+      <c r="A28" s="288"/>
       <c r="B28" s="151" t="s">
         <v>21</v>
       </c>
@@ -9332,7 +9332,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="270" t="s">
+      <c r="A29" s="289" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="154" t="s">
@@ -9412,7 +9412,7 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="271"/>
+      <c r="A30" s="290"/>
       <c r="B30" s="153" t="s">
         <v>104</v>
       </c>
@@ -9490,7 +9490,7 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="271"/>
+      <c r="A31" s="290"/>
       <c r="B31" s="153" t="s">
         <v>106</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="271"/>
+      <c r="A32" s="290"/>
       <c r="B32" s="153" t="s">
         <v>105</v>
       </c>
@@ -9646,7 +9646,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271"/>
+      <c r="A33" s="290"/>
       <c r="B33" s="153" t="s">
         <v>107</v>
       </c>
@@ -9724,7 +9724,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="271"/>
+      <c r="A34" s="290"/>
       <c r="B34" s="153" t="s">
         <v>109</v>
       </c>
@@ -9802,7 +9802,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="271"/>
+      <c r="A35" s="290"/>
       <c r="B35" s="153" t="s">
         <v>24</v>
       </c>
@@ -9880,7 +9880,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="271"/>
+      <c r="A36" s="290"/>
       <c r="B36" s="153" t="s">
         <v>25</v>
       </c>
@@ -9958,7 +9958,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="272"/>
+      <c r="A37" s="291"/>
       <c r="B37" s="188" t="s">
         <v>26</v>
       </c>
@@ -10036,7 +10036,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="273" t="s">
+      <c r="A38" s="292" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="183" t="s">
@@ -10116,7 +10116,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="274"/>
+      <c r="A39" s="293"/>
       <c r="B39" s="162" t="s">
         <v>28</v>
       </c>
@@ -10194,7 +10194,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="274"/>
+      <c r="A40" s="293"/>
       <c r="B40" s="162" t="s">
         <v>29</v>
       </c>
@@ -10272,7 +10272,7 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="274"/>
+      <c r="A41" s="293"/>
       <c r="B41" s="162" t="s">
         <v>30</v>
       </c>
@@ -10350,7 +10350,7 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="274"/>
+      <c r="A42" s="293"/>
       <c r="B42" s="162" t="s">
         <v>31</v>
       </c>
@@ -10428,7 +10428,7 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="274"/>
+      <c r="A43" s="293"/>
       <c r="B43" s="162" t="s">
         <v>32</v>
       </c>
@@ -10506,7 +10506,7 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="274"/>
+      <c r="A44" s="293"/>
       <c r="B44" s="162" t="s">
         <v>33</v>
       </c>
@@ -10584,7 +10584,7 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="274"/>
+      <c r="A45" s="293"/>
       <c r="B45" s="162" t="s">
         <v>34</v>
       </c>
@@ -10662,7 +10662,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="274"/>
+      <c r="A46" s="293"/>
       <c r="B46" s="162" t="s">
         <v>35</v>
       </c>
@@ -10740,7 +10740,7 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="274"/>
+      <c r="A47" s="293"/>
       <c r="B47" s="162" t="s">
         <v>36</v>
       </c>
@@ -10818,7 +10818,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="274"/>
+      <c r="A48" s="293"/>
       <c r="B48" s="162" t="s">
         <v>37</v>
       </c>
@@ -10896,7 +10896,7 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="274"/>
+      <c r="A49" s="293"/>
       <c r="B49" s="162" t="s">
         <v>120</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="275"/>
+      <c r="A50" s="294"/>
       <c r="B50" s="163" t="s">
         <v>38</v>
       </c>
@@ -11052,7 +11052,7 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="252" t="s">
+      <c r="A51" s="271" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="165" t="s">
@@ -11132,7 +11132,7 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="253"/>
+      <c r="A52" s="272"/>
       <c r="B52" s="164" t="s">
         <v>41</v>
       </c>
@@ -11210,7 +11210,7 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="253"/>
+      <c r="A53" s="272"/>
       <c r="B53" s="164" t="s">
         <v>42</v>
       </c>
@@ -11288,7 +11288,7 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="253"/>
+      <c r="A54" s="272"/>
       <c r="B54" s="164" t="s">
         <v>43</v>
       </c>
@@ -11366,7 +11366,7 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="253"/>
+      <c r="A55" s="272"/>
       <c r="B55" s="164" t="s">
         <v>44</v>
       </c>
@@ -11444,7 +11444,7 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="253"/>
+      <c r="A56" s="272"/>
       <c r="B56" s="164" t="s">
         <v>45</v>
       </c>
@@ -11522,7 +11522,7 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="253"/>
+      <c r="A57" s="272"/>
       <c r="B57" s="164" t="s">
         <v>46</v>
       </c>
@@ -11600,7 +11600,7 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="253"/>
+      <c r="A58" s="272"/>
       <c r="B58" s="164" t="s">
         <v>47</v>
       </c>
@@ -11678,7 +11678,7 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="253"/>
+      <c r="A59" s="272"/>
       <c r="B59" s="164" t="s">
         <v>48</v>
       </c>
@@ -11756,7 +11756,7 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="253"/>
+      <c r="A60" s="272"/>
       <c r="B60" s="164" t="s">
         <v>49</v>
       </c>
@@ -11830,7 +11830,7 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="253"/>
+      <c r="A61" s="272"/>
       <c r="B61" s="164" t="s">
         <v>50</v>
       </c>
@@ -11904,7 +11904,7 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="253"/>
+      <c r="A62" s="272"/>
       <c r="B62" s="164" t="s">
         <v>51</v>
       </c>
@@ -11982,7 +11982,7 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="253"/>
+      <c r="A63" s="272"/>
       <c r="B63" s="164" t="s">
         <v>52</v>
       </c>
@@ -12060,7 +12060,7 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="254"/>
+      <c r="A64" s="273"/>
       <c r="B64" s="166" t="s">
         <v>53</v>
       </c>
@@ -12138,7 +12138,7 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="255" t="s">
+      <c r="A65" s="274" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="169" t="s">
@@ -12218,7 +12218,7 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="256"/>
+      <c r="A66" s="275"/>
       <c r="B66" s="168" t="s">
         <v>56</v>
       </c>
@@ -12296,7 +12296,7 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="256"/>
+      <c r="A67" s="275"/>
       <c r="B67" s="168" t="s">
         <v>57</v>
       </c>
@@ -12374,7 +12374,7 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="257"/>
+      <c r="A68" s="276"/>
       <c r="B68" s="170" t="s">
         <v>58</v>
       </c>
@@ -17007,19 +17007,19 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="277" t="s">
+      <c r="A26" s="296" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="278"/>
-      <c r="C26" s="279"/>
+      <c r="B26" s="297"/>
+      <c r="C26" s="298"/>
       <c r="D26" s="196"/>
     </row>
     <row r="27" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="276" t="s">
+      <c r="A27" s="295" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="276"/>
-      <c r="C27" s="276"/>
+      <c r="B27" s="295"/>
+      <c r="C27" s="295"/>
       <c r="D27" s="197"/>
     </row>
   </sheetData>
